--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0427B3E-B6F2-4F4C-B8E9-4B86EB09D411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF72BF06-8781-4CEF-9D51-5ABE4CEDE3D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
@@ -600,6 +600,9 @@
                 <c:pt idx="43">
                   <c:v>1009</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>1093</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -978,6 +981,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,10 +1748,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$113</c:f>
+              <c:f>Model!$K$6:$K$134</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -2069,16 +2075,79 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>44126.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$6:$L$113</c:f>
+              <c:f>Model!$L$6:$L$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -2402,6 +2471,9 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,10 +2513,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$113</c:f>
+              <c:f>Model!$K$6:$K$134</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -2768,16 +2840,79 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>44126.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$6:$M$113</c:f>
+              <c:f>Model!$M$6:$M$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="108"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -3101,6 +3236,9 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4115,6 +4253,9 @@
                 <c:pt idx="107">
                   <c:v>1009</c:v>
                 </c:pt>
+                <c:pt idx="108">
+                  <c:v>1093</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4835,6 +4976,9 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6290,6 +6434,9 @@
                 <c:pt idx="107">
                   <c:v>1009</c:v>
                 </c:pt>
+                <c:pt idx="108">
+                  <c:v>1093</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7031,6 +7178,9 @@
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10386,10 +10536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K110"/>
+  <dimension ref="A2:K111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11276,6 +11426,14 @@
         <v>992</v>
       </c>
     </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B111">
+        <v>1049</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11286,8 +11444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+    <sheetView tabSelected="1" topLeftCell="Y25" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13540,7 +13698,7 @@
         <v>69</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" ref="I48:I111" si="11">I54+ROUND(($D$1/$D$2)*G54*(I54/$D$3),0)-ROUND(I54/$D$2,0)</f>
+        <f t="shared" ref="I55:I111" si="11">I54+ROUND(($D$1/$D$2)*G54*(I54/$D$3),0)-ROUND(I54/$D$2,0)</f>
         <v>11</v>
       </c>
       <c r="K55" s="1">
@@ -16447,7 +16605,7 @@
         <v>932</v>
       </c>
       <c r="I112" s="4">
-        <f t="shared" ref="I112:I114" si="20">I111+ROUND(($D$1/$D$2)*G111*(I111/$D$3),0)-ROUND(I111/$D$2,0)</f>
+        <f t="shared" ref="I112:I113" si="20">I111+ROUND(($D$1/$D$2)*G111*(I111/$D$3),0)-ROUND(I111/$D$2,0)</f>
         <v>913</v>
       </c>
       <c r="K112" s="1">
@@ -16564,6 +16722,14 @@
         <f t="shared" si="13"/>
         <v>44127</v>
       </c>
+      <c r="L114">
+        <f t="shared" ref="L114" si="21">E114</f>
+        <v>1093</v>
+      </c>
+      <c r="M114">
+        <f>RealData!B111</f>
+        <v>1049</v>
+      </c>
       <c r="N114">
         <f>E114</f>
         <v>1093</v>
@@ -16604,11 +16770,11 @@
         <v>29996996</v>
       </c>
       <c r="H115" s="4">
-        <f t="shared" ref="H114:H122" si="21">H114+ROUND(($D$1/$D$2)*G114*(H114/$D$3),0)-ROUND(H114/$D$2,0)</f>
+        <f t="shared" ref="H115:H122" si="22">H114+ROUND(($D$1/$D$2)*G114*(H114/$D$3),0)-ROUND(H114/$D$2,0)</f>
         <v>1184</v>
       </c>
       <c r="I115" s="4">
-        <f t="shared" ref="I115:I134" si="22">I114+ROUND(($D$1/$D$2)*G114*(I114/$D$3),0)-ROUND(I114/$D$2,0)</f>
+        <f t="shared" ref="I115:I134" si="23">I114+ROUND(($D$1/$D$2)*G114*(I114/$D$3),0)-ROUND(I114/$D$2,0)</f>
         <v>1162</v>
       </c>
       <c r="K115" s="1">
@@ -16616,11 +16782,11 @@
         <v>44128</v>
       </c>
       <c r="N115">
-        <f t="shared" ref="N115:N134" si="23">E115</f>
+        <f t="shared" ref="N115:N134" si="24">E115</f>
         <v>1184</v>
       </c>
       <c r="O115">
-        <f t="shared" ref="O115:O134" si="24">H115</f>
+        <f t="shared" ref="O115:O134" si="25">H115</f>
         <v>1184</v>
       </c>
       <c r="P115">
@@ -16655,11 +16821,11 @@
         <v>29996799</v>
       </c>
       <c r="H116" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1282</v>
       </c>
       <c r="I116" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1259</v>
       </c>
       <c r="K116" s="1">
@@ -16667,11 +16833,11 @@
         <v>44129</v>
       </c>
       <c r="N116">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1282</v>
       </c>
       <c r="O116">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1282</v>
       </c>
       <c r="P116">
@@ -16706,11 +16872,11 @@
         <v>29996585</v>
       </c>
       <c r="H117" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1389</v>
       </c>
       <c r="I117" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1364</v>
       </c>
       <c r="K117" s="1">
@@ -16718,11 +16884,11 @@
         <v>44130</v>
       </c>
       <c r="N117">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1389</v>
       </c>
       <c r="O117">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1389</v>
       </c>
       <c r="P117">
@@ -16757,11 +16923,11 @@
         <v>29996354</v>
       </c>
       <c r="H118" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1504</v>
       </c>
       <c r="I118" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1477</v>
       </c>
       <c r="K118" s="1">
@@ -16769,11 +16935,11 @@
         <v>44131</v>
       </c>
       <c r="N118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1504</v>
       </c>
       <c r="O118">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1504</v>
       </c>
       <c r="P118">
@@ -16808,11 +16974,11 @@
         <v>29996103</v>
       </c>
       <c r="H119" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1630</v>
       </c>
       <c r="I119" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1600</v>
       </c>
       <c r="K119" s="1">
@@ -16820,15 +16986,15 @@
         <v>44132</v>
       </c>
       <c r="N119">
-        <f t="shared" si="23"/>
-        <v>1630</v>
-      </c>
-      <c r="O119">
         <f t="shared" si="24"/>
         <v>1630</v>
       </c>
+      <c r="O119">
+        <f t="shared" si="25"/>
+        <v>1630</v>
+      </c>
       <c r="P119">
-        <f t="shared" ref="P119:P134" si="25">I119</f>
+        <f t="shared" ref="P119:P134" si="26">I119</f>
         <v>1600</v>
       </c>
     </row>
@@ -16859,11 +17025,11 @@
         <v>29995831</v>
       </c>
       <c r="H120" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1766</v>
       </c>
       <c r="I120" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1734</v>
       </c>
       <c r="K120" s="1">
@@ -16871,15 +17037,15 @@
         <v>44133</v>
       </c>
       <c r="N120">
-        <f t="shared" si="23"/>
-        <v>1766</v>
-      </c>
-      <c r="O120">
         <f t="shared" si="24"/>
         <v>1766</v>
       </c>
+      <c r="O120">
+        <f t="shared" si="25"/>
+        <v>1766</v>
+      </c>
       <c r="P120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1734</v>
       </c>
     </row>
@@ -16910,11 +17076,11 @@
         <v>29995566</v>
       </c>
       <c r="H121" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1913</v>
       </c>
       <c r="I121" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1878</v>
       </c>
       <c r="K121" s="1">
@@ -16922,15 +17088,15 @@
         <v>44134</v>
       </c>
       <c r="N121">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1884</v>
       </c>
       <c r="O121">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1913</v>
       </c>
       <c r="P121">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1878</v>
       </c>
     </row>
@@ -16961,11 +17127,11 @@
         <v>29995283</v>
       </c>
       <c r="H122" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2073</v>
       </c>
       <c r="I122" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2034</v>
       </c>
       <c r="K122" s="1">
@@ -16973,15 +17139,15 @@
         <v>44135</v>
       </c>
       <c r="N122">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2010</v>
       </c>
       <c r="O122">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2073</v>
       </c>
       <c r="P122">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2034</v>
       </c>
     </row>
@@ -16996,27 +17162,27 @@
         <v>1.8</v>
       </c>
       <c r="D123" s="6">
-        <f t="shared" ref="D123:D132" si="26">D122-ROUND((C123/$D$2)*D122*(E122/$D$3),0)</f>
+        <f t="shared" ref="D123:D132" si="27">D122-ROUND((C123/$D$2)*D122*(E122/$D$3),0)</f>
         <v>29994982</v>
       </c>
       <c r="E123" s="6">
-        <f t="shared" ref="E123:E132" si="27">E122+ROUND((C123/$D$2)*D122*(E122/$D$3),0)-ROUND(E122/$D$2,0)</f>
+        <f t="shared" ref="E123:E132" si="28">E122+ROUND((C123/$D$2)*D122*(E122/$D$3),0)-ROUND(E122/$D$2,0)</f>
         <v>2143</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" ref="F123:F132" si="28">F122+ROUND(E122/$D$2,0)</f>
+        <f t="shared" ref="F123:F132" si="29">F122+ROUND(E122/$D$2,0)</f>
         <v>2875</v>
       </c>
       <c r="G123" s="6">
-        <f t="shared" ref="G123:G132" si="29">D123</f>
+        <f t="shared" ref="G123:G132" si="30">D123</f>
         <v>29994982</v>
       </c>
       <c r="H123" s="6">
-        <f t="shared" ref="H123:H132" si="30">H122+ROUND(($D$1/$D$2)*G122*(H122/$D$3),0)-ROUND(H122/$D$2,0)</f>
+        <f t="shared" ref="H123:H132" si="31">H122+ROUND(($D$1/$D$2)*G122*(H122/$D$3),0)-ROUND(H122/$D$2,0)</f>
         <v>2245</v>
       </c>
       <c r="I123" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2203</v>
       </c>
       <c r="K123" s="1">
@@ -17024,15 +17190,15 @@
         <v>44136</v>
       </c>
       <c r="N123">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2143</v>
       </c>
       <c r="O123">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2245</v>
       </c>
       <c r="P123">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2203</v>
       </c>
     </row>
@@ -17047,27 +17213,27 @@
         <v>1.8</v>
       </c>
       <c r="D124" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>29994661</v>
       </c>
       <c r="E124" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2285</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3054</v>
       </c>
       <c r="G124" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>29994661</v>
       </c>
       <c r="H124" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2432</v>
       </c>
       <c r="I124" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2386</v>
       </c>
       <c r="K124" s="1">
@@ -17075,15 +17241,15 @@
         <v>44137</v>
       </c>
       <c r="N124">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2285</v>
       </c>
       <c r="O124">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2432</v>
       </c>
       <c r="P124">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2386</v>
       </c>
     </row>
@@ -17098,27 +17264,27 @@
         <v>1.8</v>
       </c>
       <c r="D125" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>29994318</v>
       </c>
       <c r="E125" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2438</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3244</v>
       </c>
       <c r="G125" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>29994318</v>
       </c>
       <c r="H125" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2634</v>
       </c>
       <c r="I125" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2585</v>
       </c>
       <c r="K125" s="1">
@@ -17126,15 +17292,15 @@
         <v>44138</v>
       </c>
       <c r="N125">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2438</v>
       </c>
       <c r="O125">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2634</v>
       </c>
       <c r="P125">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2585</v>
       </c>
     </row>
@@ -17149,27 +17315,27 @@
         <v>1.8</v>
       </c>
       <c r="D126" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>29993952</v>
       </c>
       <c r="E126" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2601</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3447</v>
       </c>
       <c r="G126" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>29993952</v>
       </c>
       <c r="H126" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2853</v>
       </c>
       <c r="I126" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2801</v>
       </c>
       <c r="K126" s="1">
@@ -17177,15 +17343,15 @@
         <v>44139</v>
       </c>
       <c r="N126">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2601</v>
       </c>
       <c r="O126">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2853</v>
       </c>
       <c r="P126">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2801</v>
       </c>
     </row>
@@ -17200,27 +17366,27 @@
         <v>1.8</v>
       </c>
       <c r="D127" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>29993562</v>
       </c>
       <c r="E127" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2774</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3664</v>
       </c>
       <c r="G127" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>29993562</v>
       </c>
       <c r="H127" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3090</v>
       </c>
       <c r="I127" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3035</v>
       </c>
       <c r="K127" s="1">
@@ -17228,15 +17394,15 @@
         <v>44140</v>
       </c>
       <c r="N127">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2774</v>
       </c>
       <c r="O127">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3090</v>
       </c>
       <c r="P127">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3035</v>
       </c>
     </row>
@@ -17251,27 +17417,27 @@
         <v>1.6</v>
       </c>
       <c r="D128">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>29993192</v>
       </c>
       <c r="E128">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2913</v>
       </c>
       <c r="F128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3895</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>29993192</v>
       </c>
       <c r="H128">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3347</v>
       </c>
       <c r="I128" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3288</v>
       </c>
       <c r="K128" s="1">
@@ -17279,15 +17445,15 @@
         <v>44141</v>
       </c>
       <c r="N128">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2913</v>
       </c>
       <c r="O128">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3347</v>
       </c>
       <c r="P128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3288</v>
       </c>
     </row>
@@ -17302,27 +17468,27 @@
         <v>1.6</v>
       </c>
       <c r="D129">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>29992804</v>
       </c>
       <c r="E129">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3058</v>
       </c>
       <c r="F129">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4138</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>29992804</v>
       </c>
       <c r="H129">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3626</v>
       </c>
       <c r="I129" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3562</v>
       </c>
       <c r="K129" s="1">
@@ -17330,15 +17496,15 @@
         <v>44142</v>
       </c>
       <c r="N129">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3058</v>
       </c>
       <c r="O129">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3626</v>
       </c>
       <c r="P129">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3562</v>
       </c>
     </row>
@@ -17353,27 +17519,27 @@
         <v>1.6</v>
       </c>
       <c r="D130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>29992396</v>
       </c>
       <c r="E130">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3211</v>
       </c>
       <c r="F130">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4393</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>29992396</v>
       </c>
       <c r="H130">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3928</v>
       </c>
       <c r="I130" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3859</v>
       </c>
       <c r="K130" s="1">
@@ -17381,15 +17547,15 @@
         <v>44143</v>
       </c>
       <c r="N130">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3211</v>
       </c>
       <c r="O130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3928</v>
       </c>
       <c r="P130">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3859</v>
       </c>
     </row>
@@ -17404,27 +17570,27 @@
         <v>1.6</v>
       </c>
       <c r="D131">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>29991968</v>
       </c>
       <c r="E131">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3371</v>
       </c>
       <c r="F131">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4661</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>29991968</v>
       </c>
       <c r="H131">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4256</v>
       </c>
       <c r="I131" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4180</v>
       </c>
       <c r="K131" s="1">
@@ -17432,15 +17598,15 @@
         <v>44144</v>
       </c>
       <c r="N131">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3371</v>
       </c>
       <c r="O131">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4256</v>
       </c>
       <c r="P131">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4180</v>
       </c>
     </row>
@@ -17455,27 +17621,27 @@
         <v>1.6</v>
       </c>
       <c r="D132">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>29991519</v>
       </c>
       <c r="E132">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3539</v>
       </c>
       <c r="F132">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4942</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>29991519</v>
       </c>
       <c r="H132">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4610</v>
       </c>
       <c r="I132" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4528</v>
       </c>
       <c r="K132" s="1">
@@ -17483,15 +17649,15 @@
         <v>44145</v>
       </c>
       <c r="N132">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3539</v>
       </c>
       <c r="O132">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4610</v>
       </c>
       <c r="P132">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4528</v>
       </c>
     </row>
@@ -17506,27 +17672,27 @@
         <v>1.6</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D134" si="31">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <f t="shared" ref="D133:D134" si="32">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
         <v>29991047</v>
       </c>
       <c r="E133">
-        <f t="shared" ref="E133:E134" si="32">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <f t="shared" ref="E133:E134" si="33">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
         <v>3716</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133:F134" si="33">F132+ROUND(E132/$D$2,0)</f>
+        <f t="shared" ref="F133:F134" si="34">F132+ROUND(E132/$D$2,0)</f>
         <v>5237</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="34">D133</f>
+        <f t="shared" ref="G133:G134" si="35">D133</f>
         <v>29991047</v>
       </c>
       <c r="H133">
-        <f t="shared" ref="H133:H134" si="35">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <f t="shared" ref="H133:H134" si="36">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
         <v>4994</v>
       </c>
       <c r="I133" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4905</v>
       </c>
       <c r="K133" s="1">
@@ -17534,15 +17700,15 @@
         <v>44146</v>
       </c>
       <c r="N133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3716</v>
       </c>
       <c r="O133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4994</v>
       </c>
       <c r="P133">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4905</v>
       </c>
     </row>
@@ -17557,27 +17723,27 @@
         <v>1.6</v>
       </c>
       <c r="D134">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>29990552</v>
       </c>
       <c r="E134">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3901</v>
       </c>
       <c r="F134">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5547</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>29990552</v>
       </c>
       <c r="H134">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>5410</v>
       </c>
       <c r="I134" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5313</v>
       </c>
       <c r="K134" s="1">
@@ -17585,15 +17751,15 @@
         <v>44147</v>
       </c>
       <c r="N134">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3901</v>
       </c>
       <c r="O134">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5410</v>
       </c>
       <c r="P134">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5313</v>
       </c>
     </row>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF72BF06-8781-4CEF-9D51-5ABE4CEDE3D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E0B93B-6B02-40BA-BD93-4C62736CC7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
@@ -574,34 +574,34 @@
                   <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>532</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>577</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>625</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>677</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>734</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>795</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>861</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>932</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1009</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1093</c:v>
+                  <c:v>1051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2446,34 +2446,34 @@
                   <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>532</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>577</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>625</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>677</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>734</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>795</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>861</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>932</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1009</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1093</c:v>
+                  <c:v>1051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4227,34 +4227,34 @@
                   <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>532</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>577</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>625</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>677</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>734</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>795</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>861</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>932</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1009</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1093</c:v>
+                  <c:v>1051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5377,28 +5377,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
                 <c:pt idx="107">
-                  <c:v>1009</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1093</c:v>
+                  <c:v>1051</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1184</c:v>
+                  <c:v>1134</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1282</c:v>
+                  <c:v>1223</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1389</c:v>
+                  <c:v>1320</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1504</c:v>
+                  <c:v>1424</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1630</c:v>
+                  <c:v>1536</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1766</c:v>
+                  <c:v>1658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6408,34 +6408,34 @@
                   <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>532</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>577</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>625</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>677</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>734</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>795</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>861</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>932</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1009</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1093</c:v>
+                  <c:v>1051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7601,49 +7601,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="122"/>
                 <c:pt idx="107">
-                  <c:v>1009</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1093</c:v>
+                  <c:v>1051</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1184</c:v>
+                  <c:v>1134</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1282</c:v>
+                  <c:v>1223</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1389</c:v>
+                  <c:v>1320</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1504</c:v>
+                  <c:v>1424</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1630</c:v>
+                  <c:v>1536</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1766</c:v>
+                  <c:v>1658</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1884</c:v>
+                  <c:v>1769</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2010</c:v>
+                  <c:v>1887</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2143</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2285</c:v>
+                  <c:v>2147</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2438</c:v>
+                  <c:v>2290</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2601</c:v>
+                  <c:v>2442</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2774</c:v>
+                  <c:v>2604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10536,10 +10536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K111"/>
+  <dimension ref="A2:K113"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11434,6 +11434,22 @@
         <v>1049</v>
       </c>
     </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B112">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B113">
+        <v>1208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11444,8 +11460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y25" workbookViewId="0">
-      <selection activeCell="AM12" sqref="AM12"/>
+    <sheetView tabSelected="1" topLeftCell="S19" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105:C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16225,15 +16241,15 @@
         <v>100</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D105">
         <f t="shared" si="15"/>
-        <v>29998300</v>
+        <v>29998302</v>
       </c>
       <c r="E105">
         <f t="shared" si="16"/>
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F105">
         <f t="shared" si="17"/>
@@ -16241,11 +16257,11 @@
       </c>
       <c r="G105" s="2">
         <f t="shared" si="18"/>
-        <v>29998300</v>
+        <v>29998302</v>
       </c>
       <c r="H105" s="2">
         <f t="shared" si="19"/>
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I105" s="4">
         <f t="shared" si="11"/>
@@ -16257,7 +16273,7 @@
       </c>
       <c r="L105">
         <f t="shared" si="14"/>
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M105">
         <f>RealData!B102</f>
@@ -16276,15 +16292,15 @@
         <v>101</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D106">
         <f t="shared" si="15"/>
-        <v>29998211</v>
+        <v>29998216</v>
       </c>
       <c r="E106">
         <f t="shared" si="16"/>
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F106">
         <f t="shared" si="17"/>
@@ -16292,11 +16308,11 @@
       </c>
       <c r="G106" s="2">
         <f t="shared" si="18"/>
-        <v>29998211</v>
+        <v>29998216</v>
       </c>
       <c r="H106" s="2">
         <f t="shared" si="19"/>
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I106" s="4">
         <f t="shared" si="11"/>
@@ -16308,7 +16324,7 @@
       </c>
       <c r="L106">
         <f t="shared" si="14"/>
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="M106">
         <f>RealData!B103</f>
@@ -16327,15 +16343,15 @@
         <v>102</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D107">
         <f t="shared" si="15"/>
-        <v>29998115</v>
+        <v>29998123</v>
       </c>
       <c r="E107">
         <f t="shared" si="16"/>
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F107">
         <f t="shared" si="17"/>
@@ -16343,11 +16359,11 @@
       </c>
       <c r="G107" s="2">
         <f t="shared" si="18"/>
-        <v>29998115</v>
+        <v>29998123</v>
       </c>
       <c r="H107" s="2">
         <f t="shared" si="19"/>
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="I107" s="4">
         <f t="shared" si="11"/>
@@ -16359,7 +16375,7 @@
       </c>
       <c r="L107">
         <f t="shared" si="14"/>
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="M107">
         <f>RealData!B104</f>
@@ -16378,27 +16394,27 @@
         <v>103</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D108">
         <f t="shared" si="15"/>
-        <v>29998011</v>
+        <v>29998023</v>
       </c>
       <c r="E108">
         <f t="shared" si="16"/>
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="F108">
         <f t="shared" si="17"/>
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" si="18"/>
-        <v>29998011</v>
+        <v>29998023</v>
       </c>
       <c r="H108" s="2">
         <f t="shared" si="19"/>
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="I108" s="4">
         <f t="shared" si="11"/>
@@ -16410,7 +16426,7 @@
       </c>
       <c r="L108">
         <f t="shared" si="14"/>
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="M108">
         <f>RealData!B105</f>
@@ -16429,27 +16445,27 @@
         <v>104</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D109">
         <f t="shared" si="15"/>
-        <v>29997898</v>
+        <v>29997915</v>
       </c>
       <c r="E109">
         <f t="shared" si="16"/>
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="F109">
         <f t="shared" si="17"/>
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G109" s="2">
         <f t="shared" si="18"/>
-        <v>29997898</v>
+        <v>29997915</v>
       </c>
       <c r="H109" s="2">
         <f t="shared" si="19"/>
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="I109" s="4">
         <f t="shared" si="11"/>
@@ -16461,7 +16477,7 @@
       </c>
       <c r="L109">
         <f t="shared" si="14"/>
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M109">
         <f>RealData!B106</f>
@@ -16480,27 +16496,27 @@
         <v>105</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D110">
         <f t="shared" si="15"/>
-        <v>29997776</v>
+        <v>29997798</v>
       </c>
       <c r="E110">
         <f t="shared" si="16"/>
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="F110">
         <f t="shared" si="17"/>
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G110" s="2">
         <f t="shared" si="18"/>
-        <v>29997776</v>
+        <v>29997798</v>
       </c>
       <c r="H110" s="2">
         <f t="shared" si="19"/>
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="I110" s="4">
         <f t="shared" si="11"/>
@@ -16512,7 +16528,7 @@
       </c>
       <c r="L110">
         <f t="shared" si="14"/>
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="M110">
         <f>RealData!B107</f>
@@ -16531,27 +16547,27 @@
         <v>106</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D111">
         <f t="shared" si="15"/>
-        <v>29997644</v>
+        <v>29997672</v>
       </c>
       <c r="E111">
         <f t="shared" si="16"/>
-        <v>861</v>
+        <v>836</v>
       </c>
       <c r="F111">
         <f t="shared" si="17"/>
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" si="18"/>
-        <v>29997644</v>
+        <v>29997672</v>
       </c>
       <c r="H111" s="2">
         <f t="shared" si="19"/>
-        <v>861</v>
+        <v>836</v>
       </c>
       <c r="I111" s="4">
         <f t="shared" si="11"/>
@@ -16563,7 +16579,7 @@
       </c>
       <c r="L111">
         <f t="shared" si="14"/>
-        <v>861</v>
+        <v>836</v>
       </c>
       <c r="M111">
         <f>RealData!B108</f>
@@ -16582,27 +16598,27 @@
         <v>107</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D112">
         <f t="shared" si="15"/>
-        <v>29997501</v>
+        <v>29997536</v>
       </c>
       <c r="E112">
         <f t="shared" si="16"/>
-        <v>932</v>
+        <v>902</v>
       </c>
       <c r="F112">
         <f t="shared" si="17"/>
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" si="18"/>
-        <v>29997501</v>
+        <v>29997536</v>
       </c>
       <c r="H112" s="2">
         <f t="shared" si="19"/>
-        <v>932</v>
+        <v>902</v>
       </c>
       <c r="I112" s="4">
         <f t="shared" ref="I112:I113" si="20">I111+ROUND(($D$1/$D$2)*G111*(I111/$D$3),0)-ROUND(I111/$D$2,0)</f>
@@ -16614,7 +16630,7 @@
       </c>
       <c r="L112">
         <f t="shared" si="14"/>
-        <v>932</v>
+        <v>902</v>
       </c>
       <c r="M112">
         <f>RealData!B109</f>
@@ -16633,27 +16649,27 @@
         <v>108</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D113">
         <f t="shared" si="15"/>
-        <v>29997346</v>
+        <v>29997389</v>
       </c>
       <c r="E113">
         <f t="shared" si="16"/>
-        <v>1009</v>
+        <v>974</v>
       </c>
       <c r="F113">
         <f t="shared" si="17"/>
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" si="18"/>
-        <v>29997346</v>
+        <v>29997389</v>
       </c>
       <c r="H113" s="2">
         <f t="shared" si="19"/>
-        <v>1009</v>
+        <v>974</v>
       </c>
       <c r="I113" s="4">
         <f t="shared" si="20"/>
@@ -16665,7 +16681,7 @@
       </c>
       <c r="L113">
         <f t="shared" si="14"/>
-        <v>1009</v>
+        <v>974</v>
       </c>
       <c r="M113">
         <f>RealData!B110</f>
@@ -16673,11 +16689,11 @@
       </c>
       <c r="N113">
         <f>E113</f>
-        <v>1009</v>
+        <v>974</v>
       </c>
       <c r="O113">
         <f>H113</f>
-        <v>1009</v>
+        <v>974</v>
       </c>
       <c r="P113">
         <f t="shared" si="12"/>
@@ -16691,28 +16707,28 @@
       <c r="B114" s="4">
         <v>109</v>
       </c>
-      <c r="C114" s="4">
-        <v>2</v>
+      <c r="C114">
+        <v>1.95</v>
       </c>
       <c r="D114" s="4">
         <f t="shared" si="15"/>
-        <v>29997178</v>
+        <v>29997231</v>
       </c>
       <c r="E114" s="4">
         <f t="shared" si="16"/>
-        <v>1093</v>
+        <v>1051</v>
       </c>
       <c r="F114" s="4">
         <f t="shared" si="17"/>
-        <v>1729</v>
+        <v>1718</v>
       </c>
       <c r="G114" s="4">
         <f t="shared" si="18"/>
-        <v>29997178</v>
+        <v>29997231</v>
       </c>
       <c r="H114" s="4">
         <f>H113+ROUND(($D$1/$D$2)*G113*(H113/$D$3),0)-ROUND(H113/$D$2,0)</f>
-        <v>1093</v>
+        <v>1055</v>
       </c>
       <c r="I114" s="4">
         <f>I113+ROUND(($D$1/$D$2)*G113*(I113/$D$3),0)-ROUND(I113/$D$2,0)</f>
@@ -16724,7 +16740,7 @@
       </c>
       <c r="L114">
         <f t="shared" ref="L114" si="21">E114</f>
-        <v>1093</v>
+        <v>1051</v>
       </c>
       <c r="M114">
         <f>RealData!B111</f>
@@ -16732,11 +16748,11 @@
       </c>
       <c r="N114">
         <f>E114</f>
-        <v>1093</v>
+        <v>1051</v>
       </c>
       <c r="O114">
         <f>H114</f>
-        <v>1093</v>
+        <v>1055</v>
       </c>
       <c r="P114">
         <f t="shared" si="12"/>
@@ -16750,28 +16766,28 @@
       <c r="B115" s="4">
         <v>110</v>
       </c>
-      <c r="C115" s="4">
-        <v>2</v>
+      <c r="C115">
+        <v>1.95</v>
       </c>
       <c r="D115" s="4">
         <f t="shared" si="15"/>
-        <v>29996996</v>
+        <v>29997060</v>
       </c>
       <c r="E115" s="4">
         <f t="shared" si="16"/>
-        <v>1184</v>
+        <v>1134</v>
       </c>
       <c r="F115" s="4">
         <f t="shared" si="17"/>
-        <v>1820</v>
+        <v>1806</v>
       </c>
       <c r="G115" s="4">
         <f t="shared" si="18"/>
-        <v>29996996</v>
+        <v>29997060</v>
       </c>
       <c r="H115" s="4">
         <f t="shared" ref="H115:H122" si="22">H114+ROUND(($D$1/$D$2)*G114*(H114/$D$3),0)-ROUND(H114/$D$2,0)</f>
-        <v>1184</v>
+        <v>1143</v>
       </c>
       <c r="I115" s="4">
         <f t="shared" ref="I115:I134" si="23">I114+ROUND(($D$1/$D$2)*G114*(I114/$D$3),0)-ROUND(I114/$D$2,0)</f>
@@ -16783,11 +16799,11 @@
       </c>
       <c r="N115">
         <f t="shared" ref="N115:N134" si="24">E115</f>
-        <v>1184</v>
+        <v>1134</v>
       </c>
       <c r="O115">
         <f t="shared" ref="O115:O134" si="25">H115</f>
-        <v>1184</v>
+        <v>1143</v>
       </c>
       <c r="P115">
         <f t="shared" si="12"/>
@@ -16801,28 +16817,28 @@
       <c r="B116" s="4">
         <v>111</v>
       </c>
-      <c r="C116" s="4">
-        <v>2</v>
+      <c r="C116">
+        <v>1.95</v>
       </c>
       <c r="D116" s="4">
         <f t="shared" si="15"/>
-        <v>29996799</v>
+        <v>29996876</v>
       </c>
       <c r="E116" s="4">
         <f t="shared" si="16"/>
-        <v>1282</v>
+        <v>1223</v>
       </c>
       <c r="F116" s="4">
         <f t="shared" si="17"/>
-        <v>1919</v>
+        <v>1901</v>
       </c>
       <c r="G116" s="4">
         <f t="shared" si="18"/>
-        <v>29996799</v>
+        <v>29996876</v>
       </c>
       <c r="H116" s="4">
         <f t="shared" si="22"/>
-        <v>1282</v>
+        <v>1238</v>
       </c>
       <c r="I116" s="4">
         <f t="shared" si="23"/>
@@ -16834,11 +16850,11 @@
       </c>
       <c r="N116">
         <f t="shared" si="24"/>
-        <v>1282</v>
+        <v>1223</v>
       </c>
       <c r="O116">
         <f t="shared" si="25"/>
-        <v>1282</v>
+        <v>1238</v>
       </c>
       <c r="P116">
         <f t="shared" si="12"/>
@@ -16852,28 +16868,28 @@
       <c r="B117" s="4">
         <v>112</v>
       </c>
-      <c r="C117" s="4">
-        <v>2</v>
+      <c r="C117">
+        <v>1.95</v>
       </c>
       <c r="D117" s="4">
         <f t="shared" si="15"/>
-        <v>29996585</v>
+        <v>29996677</v>
       </c>
       <c r="E117" s="4">
         <f t="shared" si="16"/>
-        <v>1389</v>
+        <v>1320</v>
       </c>
       <c r="F117" s="4">
         <f t="shared" si="17"/>
-        <v>2026</v>
+        <v>2003</v>
       </c>
       <c r="G117" s="4">
         <f t="shared" si="18"/>
-        <v>29996585</v>
+        <v>29996677</v>
       </c>
       <c r="H117" s="4">
         <f t="shared" si="22"/>
-        <v>1389</v>
+        <v>1341</v>
       </c>
       <c r="I117" s="4">
         <f t="shared" si="23"/>
@@ -16885,11 +16901,11 @@
       </c>
       <c r="N117">
         <f t="shared" si="24"/>
-        <v>1389</v>
+        <v>1320</v>
       </c>
       <c r="O117">
         <f t="shared" si="25"/>
-        <v>1389</v>
+        <v>1341</v>
       </c>
       <c r="P117">
         <f t="shared" si="12"/>
@@ -16903,28 +16919,28 @@
       <c r="B118" s="4">
         <v>113</v>
       </c>
-      <c r="C118" s="4">
-        <v>2</v>
+      <c r="C118">
+        <v>1.95</v>
       </c>
       <c r="D118" s="4">
         <f t="shared" si="15"/>
-        <v>29996354</v>
+        <v>29996463</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="16"/>
-        <v>1504</v>
+        <v>1424</v>
       </c>
       <c r="F118" s="4">
         <f t="shared" si="17"/>
-        <v>2142</v>
+        <v>2113</v>
       </c>
       <c r="G118" s="4">
         <f t="shared" si="18"/>
-        <v>29996354</v>
+        <v>29996463</v>
       </c>
       <c r="H118" s="4">
         <f t="shared" si="22"/>
-        <v>1504</v>
+        <v>1452</v>
       </c>
       <c r="I118" s="4">
         <f t="shared" si="23"/>
@@ -16936,11 +16952,11 @@
       </c>
       <c r="N118">
         <f t="shared" si="24"/>
-        <v>1504</v>
+        <v>1424</v>
       </c>
       <c r="O118">
         <f t="shared" si="25"/>
-        <v>1504</v>
+        <v>1452</v>
       </c>
       <c r="P118">
         <f t="shared" si="12"/>
@@ -16954,28 +16970,28 @@
       <c r="B119" s="4">
         <v>114</v>
       </c>
-      <c r="C119" s="4">
-        <v>2</v>
+      <c r="C119">
+        <v>1.95</v>
       </c>
       <c r="D119" s="4">
         <f t="shared" si="15"/>
-        <v>29996103</v>
+        <v>29996232</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="16"/>
-        <v>1630</v>
+        <v>1536</v>
       </c>
       <c r="F119" s="4">
         <f t="shared" si="17"/>
-        <v>2267</v>
+        <v>2232</v>
       </c>
       <c r="G119" s="4">
         <f t="shared" si="18"/>
-        <v>29996103</v>
+        <v>29996232</v>
       </c>
       <c r="H119" s="4">
         <f t="shared" si="22"/>
-        <v>1630</v>
+        <v>1573</v>
       </c>
       <c r="I119" s="4">
         <f t="shared" si="23"/>
@@ -16987,11 +17003,11 @@
       </c>
       <c r="N119">
         <f t="shared" si="24"/>
-        <v>1630</v>
+        <v>1536</v>
       </c>
       <c r="O119">
         <f t="shared" si="25"/>
-        <v>1630</v>
+        <v>1573</v>
       </c>
       <c r="P119">
         <f t="shared" ref="P119:P134" si="26">I119</f>
@@ -17005,28 +17021,28 @@
       <c r="B120" s="4">
         <v>115</v>
       </c>
-      <c r="C120" s="4">
-        <v>2</v>
+      <c r="C120">
+        <v>1.95</v>
       </c>
       <c r="D120" s="4">
         <f t="shared" si="15"/>
-        <v>29995831</v>
+        <v>29995982</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" si="16"/>
-        <v>1766</v>
+        <v>1658</v>
       </c>
       <c r="F120" s="4">
         <f t="shared" si="17"/>
-        <v>2403</v>
+        <v>2360</v>
       </c>
       <c r="G120" s="4">
         <f t="shared" si="18"/>
-        <v>29995831</v>
+        <v>29995982</v>
       </c>
       <c r="H120" s="4">
         <f t="shared" si="22"/>
-        <v>1766</v>
+        <v>1704</v>
       </c>
       <c r="I120" s="4">
         <f t="shared" si="23"/>
@@ -17038,11 +17054,11 @@
       </c>
       <c r="N120">
         <f t="shared" si="24"/>
-        <v>1766</v>
+        <v>1658</v>
       </c>
       <c r="O120">
         <f t="shared" si="25"/>
-        <v>1766</v>
+        <v>1704</v>
       </c>
       <c r="P120">
         <f t="shared" si="26"/>
@@ -17061,23 +17077,23 @@
       </c>
       <c r="D121" s="6">
         <f t="shared" si="15"/>
-        <v>29995566</v>
+        <v>29995733</v>
       </c>
       <c r="E121" s="6">
         <f t="shared" si="16"/>
-        <v>1884</v>
+        <v>1769</v>
       </c>
       <c r="F121" s="6">
         <f t="shared" si="17"/>
-        <v>2550</v>
+        <v>2498</v>
       </c>
       <c r="G121" s="6">
         <f t="shared" si="18"/>
-        <v>29995566</v>
+        <v>29995733</v>
       </c>
       <c r="H121" s="6">
         <f t="shared" si="22"/>
-        <v>1913</v>
+        <v>1846</v>
       </c>
       <c r="I121" s="4">
         <f t="shared" si="23"/>
@@ -17089,11 +17105,11 @@
       </c>
       <c r="N121">
         <f t="shared" si="24"/>
-        <v>1884</v>
+        <v>1769</v>
       </c>
       <c r="O121">
         <f t="shared" si="25"/>
-        <v>1913</v>
+        <v>1846</v>
       </c>
       <c r="P121">
         <f t="shared" si="26"/>
@@ -17112,23 +17128,23 @@
       </c>
       <c r="D122" s="6">
         <f t="shared" si="15"/>
-        <v>29995283</v>
+        <v>29995468</v>
       </c>
       <c r="E122" s="6">
         <f t="shared" si="16"/>
-        <v>2010</v>
+        <v>1887</v>
       </c>
       <c r="F122" s="6">
         <f t="shared" si="17"/>
-        <v>2707</v>
+        <v>2645</v>
       </c>
       <c r="G122" s="6">
         <f t="shared" si="18"/>
-        <v>29995283</v>
+        <v>29995468</v>
       </c>
       <c r="H122" s="6">
         <f t="shared" si="22"/>
-        <v>2073</v>
+        <v>2000</v>
       </c>
       <c r="I122" s="4">
         <f t="shared" si="23"/>
@@ -17140,11 +17156,11 @@
       </c>
       <c r="N122">
         <f t="shared" si="24"/>
-        <v>2010</v>
+        <v>1887</v>
       </c>
       <c r="O122">
         <f t="shared" si="25"/>
-        <v>2073</v>
+        <v>2000</v>
       </c>
       <c r="P122">
         <f t="shared" si="26"/>
@@ -17163,23 +17179,23 @@
       </c>
       <c r="D123" s="6">
         <f t="shared" ref="D123:D132" si="27">D122-ROUND((C123/$D$2)*D122*(E122/$D$3),0)</f>
-        <v>29994982</v>
+        <v>29995185</v>
       </c>
       <c r="E123" s="6">
         <f t="shared" ref="E123:E132" si="28">E122+ROUND((C123/$D$2)*D122*(E122/$D$3),0)-ROUND(E122/$D$2,0)</f>
-        <v>2143</v>
+        <v>2013</v>
       </c>
       <c r="F123" s="6">
         <f t="shared" ref="F123:F132" si="29">F122+ROUND(E122/$D$2,0)</f>
-        <v>2875</v>
+        <v>2802</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" ref="G123:G132" si="30">D123</f>
-        <v>29994982</v>
+        <v>29995185</v>
       </c>
       <c r="H123" s="6">
         <f t="shared" ref="H123:H132" si="31">H122+ROUND(($D$1/$D$2)*G122*(H122/$D$3),0)-ROUND(H122/$D$2,0)</f>
-        <v>2245</v>
+        <v>2166</v>
       </c>
       <c r="I123" s="4">
         <f t="shared" si="23"/>
@@ -17191,11 +17207,11 @@
       </c>
       <c r="N123">
         <f t="shared" si="24"/>
-        <v>2143</v>
+        <v>2013</v>
       </c>
       <c r="O123">
         <f t="shared" si="25"/>
-        <v>2245</v>
+        <v>2166</v>
       </c>
       <c r="P123">
         <f t="shared" si="26"/>
@@ -17214,23 +17230,23 @@
       </c>
       <c r="D124" s="6">
         <f t="shared" si="27"/>
-        <v>29994661</v>
+        <v>29994883</v>
       </c>
       <c r="E124" s="6">
         <f t="shared" si="28"/>
-        <v>2285</v>
+        <v>2147</v>
       </c>
       <c r="F124" s="6">
         <f t="shared" si="29"/>
-        <v>3054</v>
+        <v>2970</v>
       </c>
       <c r="G124" s="6">
         <f t="shared" si="30"/>
-        <v>29994661</v>
+        <v>29994883</v>
       </c>
       <c r="H124" s="6">
         <f t="shared" si="31"/>
-        <v>2432</v>
+        <v>2346</v>
       </c>
       <c r="I124" s="4">
         <f t="shared" si="23"/>
@@ -17242,11 +17258,11 @@
       </c>
       <c r="N124">
         <f t="shared" si="24"/>
-        <v>2285</v>
+        <v>2147</v>
       </c>
       <c r="O124">
         <f t="shared" si="25"/>
-        <v>2432</v>
+        <v>2346</v>
       </c>
       <c r="P124">
         <f t="shared" si="26"/>
@@ -17265,23 +17281,23 @@
       </c>
       <c r="D125" s="6">
         <f t="shared" si="27"/>
-        <v>29994318</v>
+        <v>29994561</v>
       </c>
       <c r="E125" s="6">
         <f t="shared" si="28"/>
-        <v>2438</v>
+        <v>2290</v>
       </c>
       <c r="F125" s="6">
         <f t="shared" si="29"/>
-        <v>3244</v>
+        <v>3149</v>
       </c>
       <c r="G125" s="6">
         <f t="shared" si="30"/>
-        <v>29994318</v>
+        <v>29994561</v>
       </c>
       <c r="H125" s="6">
         <f t="shared" si="31"/>
-        <v>2634</v>
+        <v>2541</v>
       </c>
       <c r="I125" s="4">
         <f t="shared" si="23"/>
@@ -17293,11 +17309,11 @@
       </c>
       <c r="N125">
         <f t="shared" si="24"/>
-        <v>2438</v>
+        <v>2290</v>
       </c>
       <c r="O125">
         <f t="shared" si="25"/>
-        <v>2634</v>
+        <v>2541</v>
       </c>
       <c r="P125">
         <f t="shared" si="26"/>
@@ -17316,23 +17332,23 @@
       </c>
       <c r="D126" s="6">
         <f t="shared" si="27"/>
-        <v>29993952</v>
+        <v>29994218</v>
       </c>
       <c r="E126" s="6">
         <f t="shared" si="28"/>
-        <v>2601</v>
+        <v>2442</v>
       </c>
       <c r="F126" s="6">
         <f t="shared" si="29"/>
-        <v>3447</v>
+        <v>3340</v>
       </c>
       <c r="G126" s="6">
         <f t="shared" si="30"/>
-        <v>29993952</v>
+        <v>29994218</v>
       </c>
       <c r="H126" s="6">
         <f t="shared" si="31"/>
-        <v>2853</v>
+        <v>2752</v>
       </c>
       <c r="I126" s="4">
         <f t="shared" si="23"/>
@@ -17344,11 +17360,11 @@
       </c>
       <c r="N126">
         <f t="shared" si="24"/>
-        <v>2601</v>
+        <v>2442</v>
       </c>
       <c r="O126">
         <f t="shared" si="25"/>
-        <v>2853</v>
+        <v>2752</v>
       </c>
       <c r="P126">
         <f t="shared" si="26"/>
@@ -17367,23 +17383,23 @@
       </c>
       <c r="D127" s="6">
         <f t="shared" si="27"/>
-        <v>29993562</v>
+        <v>29993852</v>
       </c>
       <c r="E127" s="6">
         <f t="shared" si="28"/>
-        <v>2774</v>
+        <v>2604</v>
       </c>
       <c r="F127" s="6">
         <f t="shared" si="29"/>
-        <v>3664</v>
+        <v>3544</v>
       </c>
       <c r="G127" s="6">
         <f t="shared" si="30"/>
-        <v>29993562</v>
+        <v>29993852</v>
       </c>
       <c r="H127" s="6">
         <f t="shared" si="31"/>
-        <v>3090</v>
+        <v>2982</v>
       </c>
       <c r="I127" s="4">
         <f t="shared" si="23"/>
@@ -17395,11 +17411,11 @@
       </c>
       <c r="N127">
         <f t="shared" si="24"/>
-        <v>2774</v>
+        <v>2604</v>
       </c>
       <c r="O127">
         <f t="shared" si="25"/>
-        <v>3090</v>
+        <v>2982</v>
       </c>
       <c r="P127">
         <f t="shared" si="26"/>
@@ -17418,23 +17434,23 @@
       </c>
       <c r="D128">
         <f t="shared" si="27"/>
-        <v>29993192</v>
+        <v>29993505</v>
       </c>
       <c r="E128">
         <f t="shared" si="28"/>
-        <v>2913</v>
+        <v>2734</v>
       </c>
       <c r="F128">
         <f t="shared" si="29"/>
-        <v>3895</v>
+        <v>3761</v>
       </c>
       <c r="G128" s="2">
         <f t="shared" si="30"/>
-        <v>29993192</v>
+        <v>29993505</v>
       </c>
       <c r="H128">
         <f t="shared" si="31"/>
-        <v>3347</v>
+        <v>3230</v>
       </c>
       <c r="I128" s="4">
         <f t="shared" si="23"/>
@@ -17446,11 +17462,11 @@
       </c>
       <c r="N128">
         <f t="shared" si="24"/>
-        <v>2913</v>
+        <v>2734</v>
       </c>
       <c r="O128">
         <f t="shared" si="25"/>
-        <v>3347</v>
+        <v>3230</v>
       </c>
       <c r="P128">
         <f t="shared" si="26"/>
@@ -17469,23 +17485,23 @@
       </c>
       <c r="D129">
         <f t="shared" si="27"/>
-        <v>29992804</v>
+        <v>29993141</v>
       </c>
       <c r="E129">
         <f t="shared" si="28"/>
-        <v>3058</v>
+        <v>2870</v>
       </c>
       <c r="F129">
         <f t="shared" si="29"/>
-        <v>4138</v>
+        <v>3989</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" si="30"/>
-        <v>29992804</v>
+        <v>29993141</v>
       </c>
       <c r="H129">
         <f t="shared" si="31"/>
-        <v>3626</v>
+        <v>3499</v>
       </c>
       <c r="I129" s="4">
         <f t="shared" si="23"/>
@@ -17497,11 +17513,11 @@
       </c>
       <c r="N129">
         <f t="shared" si="24"/>
-        <v>3058</v>
+        <v>2870</v>
       </c>
       <c r="O129">
         <f t="shared" si="25"/>
-        <v>3626</v>
+        <v>3499</v>
       </c>
       <c r="P129">
         <f t="shared" si="26"/>
@@ -17520,23 +17536,23 @@
       </c>
       <c r="D130">
         <f t="shared" si="27"/>
-        <v>29992396</v>
+        <v>29992758</v>
       </c>
       <c r="E130">
         <f t="shared" si="28"/>
-        <v>3211</v>
+        <v>3014</v>
       </c>
       <c r="F130">
         <f t="shared" si="29"/>
-        <v>4393</v>
+        <v>4228</v>
       </c>
       <c r="G130" s="2">
         <f t="shared" si="30"/>
-        <v>29992396</v>
+        <v>29992758</v>
       </c>
       <c r="H130">
         <f t="shared" si="31"/>
-        <v>3928</v>
+        <v>3790</v>
       </c>
       <c r="I130" s="4">
         <f t="shared" si="23"/>
@@ -17548,11 +17564,11 @@
       </c>
       <c r="N130">
         <f t="shared" si="24"/>
-        <v>3211</v>
+        <v>3014</v>
       </c>
       <c r="O130">
         <f t="shared" si="25"/>
-        <v>3928</v>
+        <v>3790</v>
       </c>
       <c r="P130">
         <f t="shared" si="26"/>
@@ -17571,23 +17587,23 @@
       </c>
       <c r="D131">
         <f t="shared" si="27"/>
-        <v>29991968</v>
+        <v>29992356</v>
       </c>
       <c r="E131">
         <f t="shared" si="28"/>
-        <v>3371</v>
+        <v>3165</v>
       </c>
       <c r="F131">
         <f t="shared" si="29"/>
-        <v>4661</v>
+        <v>4479</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" si="30"/>
-        <v>29991968</v>
+        <v>29992356</v>
       </c>
       <c r="H131">
         <f t="shared" si="31"/>
-        <v>4256</v>
+        <v>4106</v>
       </c>
       <c r="I131" s="4">
         <f t="shared" si="23"/>
@@ -17599,11 +17615,11 @@
       </c>
       <c r="N131">
         <f t="shared" si="24"/>
-        <v>3371</v>
+        <v>3165</v>
       </c>
       <c r="O131">
         <f t="shared" si="25"/>
-        <v>4256</v>
+        <v>4106</v>
       </c>
       <c r="P131">
         <f t="shared" si="26"/>
@@ -17622,23 +17638,23 @@
       </c>
       <c r="D132">
         <f t="shared" si="27"/>
-        <v>29991519</v>
+        <v>29991934</v>
       </c>
       <c r="E132">
         <f t="shared" si="28"/>
-        <v>3539</v>
+        <v>3323</v>
       </c>
       <c r="F132">
         <f t="shared" si="29"/>
-        <v>4942</v>
+        <v>4743</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" si="30"/>
-        <v>29991519</v>
+        <v>29991934</v>
       </c>
       <c r="H132">
         <f t="shared" si="31"/>
-        <v>4610</v>
+        <v>4448</v>
       </c>
       <c r="I132" s="4">
         <f t="shared" si="23"/>
@@ -17650,11 +17666,11 @@
       </c>
       <c r="N132">
         <f t="shared" si="24"/>
-        <v>3539</v>
+        <v>3323</v>
       </c>
       <c r="O132">
         <f t="shared" si="25"/>
-        <v>4610</v>
+        <v>4448</v>
       </c>
       <c r="P132">
         <f t="shared" si="26"/>
@@ -17673,23 +17689,23 @@
       </c>
       <c r="D133">
         <f t="shared" ref="D133:D134" si="32">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
-        <v>29991047</v>
+        <v>29991491</v>
       </c>
       <c r="E133">
         <f t="shared" ref="E133:E134" si="33">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
-        <v>3716</v>
+        <v>3489</v>
       </c>
       <c r="F133">
         <f t="shared" ref="F133:F134" si="34">F132+ROUND(E132/$D$2,0)</f>
-        <v>5237</v>
+        <v>5020</v>
       </c>
       <c r="G133" s="2">
         <f t="shared" ref="G133:G134" si="35">D133</f>
-        <v>29991047</v>
+        <v>29991491</v>
       </c>
       <c r="H133">
         <f t="shared" ref="H133:H134" si="36">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
-        <v>4994</v>
+        <v>4818</v>
       </c>
       <c r="I133" s="4">
         <f t="shared" si="23"/>
@@ -17701,11 +17717,11 @@
       </c>
       <c r="N133">
         <f t="shared" si="24"/>
-        <v>3716</v>
+        <v>3489</v>
       </c>
       <c r="O133">
         <f t="shared" si="25"/>
-        <v>4994</v>
+        <v>4818</v>
       </c>
       <c r="P133">
         <f t="shared" si="26"/>
@@ -17724,23 +17740,23 @@
       </c>
       <c r="D134">
         <f t="shared" si="32"/>
-        <v>29990552</v>
+        <v>29991026</v>
       </c>
       <c r="E134">
         <f t="shared" si="33"/>
-        <v>3901</v>
+        <v>3663</v>
       </c>
       <c r="F134">
         <f t="shared" si="34"/>
-        <v>5547</v>
+        <v>5311</v>
       </c>
       <c r="G134" s="2">
         <f t="shared" si="35"/>
-        <v>29990552</v>
+        <v>29991026</v>
       </c>
       <c r="H134">
         <f t="shared" si="36"/>
-        <v>5410</v>
+        <v>5219</v>
       </c>
       <c r="I134" s="4">
         <f t="shared" si="23"/>
@@ -17752,11 +17768,11 @@
       </c>
       <c r="N134">
         <f t="shared" si="24"/>
-        <v>3901</v>
+        <v>3663</v>
       </c>
       <c r="O134">
         <f t="shared" si="25"/>
-        <v>5410</v>
+        <v>5219</v>
       </c>
       <c r="P134">
         <f t="shared" si="26"/>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E0B93B-6B02-40BA-BD93-4C62736CC7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1433DF-B806-4C64-99BC-4500DDC79CF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
@@ -574,34 +574,43 @@
                   <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>530</c:v>
+                  <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>572</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>617</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>666</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>718</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>775</c:v>
+                  <c:v>766</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>836</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>902</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>974</c:v>
+                  <c:v>956</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1051</c:v>
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,6 +994,15 @@
                 <c:pt idx="44">
                   <c:v>1049</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1284</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1233,199 +1251,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>77</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>98</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>115</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>124</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>135</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>146</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>158</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>171</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>185</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>201</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>217</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>235</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>254</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>275</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>298</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>323</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>350</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>379</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>410</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>444</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>481</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>521</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>565</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>612</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>663</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>718</c:v>
+                  <c:v>686</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>778</c:v>
+                  <c:v>739</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>843</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>913</c:v>
+                  <c:v>856</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>989</c:v>
+                  <c:v>922</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1072</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1162</c:v>
+                  <c:v>1069</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1259</c:v>
+                  <c:v>1151</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1364</c:v>
+                  <c:v>1239</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1477</c:v>
+                  <c:v>1334</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1600</c:v>
+                  <c:v>1436</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1734</c:v>
+                  <c:v>1546</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1878</c:v>
+                  <c:v>1664</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2034</c:v>
+                  <c:v>1791</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2203</c:v>
+                  <c:v>1929</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2386</c:v>
+                  <c:v>2077</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2585</c:v>
+                  <c:v>2236</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2801</c:v>
+                  <c:v>2408</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3035</c:v>
+                  <c:v>2592</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3288</c:v>
+                  <c:v>2791</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3562</c:v>
+                  <c:v>3004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3859</c:v>
+                  <c:v>3235</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4180</c:v>
+                  <c:v>3482</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4528</c:v>
+                  <c:v>3749</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4905</c:v>
+                  <c:v>4037</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5313</c:v>
+                  <c:v>4347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2446,34 +2464,43 @@
                   <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>530</c:v>
+                  <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>572</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>617</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>666</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>718</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>775</c:v>
+                  <c:v>766</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>836</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>902</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>974</c:v>
+                  <c:v>956</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1051</c:v>
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3239,6 +3266,15 @@
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4227,34 +4263,43 @@
                   <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>530</c:v>
+                  <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>572</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>617</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>666</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>718</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>775</c:v>
+                  <c:v>766</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>836</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>902</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>974</c:v>
+                  <c:v>956</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1051</c:v>
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4980,6 +5025,15 @@
                 <c:pt idx="108">
                   <c:v>1049</c:v>
                 </c:pt>
+                <c:pt idx="109">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1284</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5377,28 +5431,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
                 <c:pt idx="107">
-                  <c:v>974</c:v>
+                  <c:v>956</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1051</c:v>
+                  <c:v>1029</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1134</c:v>
+                  <c:v>1108</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1223</c:v>
+                  <c:v>1193</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1320</c:v>
+                  <c:v>1285</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1424</c:v>
+                  <c:v>1384</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1536</c:v>
+                  <c:v>1490</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1658</c:v>
+                  <c:v>1604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6408,34 +6462,43 @@
                   <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>530</c:v>
+                  <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>572</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>617</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>666</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>718</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>775</c:v>
+                  <c:v>766</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>836</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>902</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>974</c:v>
+                  <c:v>956</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1051</c:v>
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7182,6 +7245,15 @@
                 <c:pt idx="108">
                   <c:v>1049</c:v>
                 </c:pt>
+                <c:pt idx="109">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1284</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7601,49 +7673,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="122"/>
                 <c:pt idx="107">
-                  <c:v>974</c:v>
+                  <c:v>956</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1051</c:v>
+                  <c:v>1029</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1134</c:v>
+                  <c:v>1108</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1223</c:v>
+                  <c:v>1193</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1320</c:v>
+                  <c:v>1285</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1424</c:v>
+                  <c:v>1384</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1536</c:v>
+                  <c:v>1490</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1658</c:v>
+                  <c:v>1604</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1769</c:v>
+                  <c:v>1711</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1887</c:v>
+                  <c:v>1825</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2013</c:v>
+                  <c:v>1947</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2147</c:v>
+                  <c:v>2077</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2290</c:v>
+                  <c:v>2215</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2442</c:v>
+                  <c:v>2362</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2604</c:v>
+                  <c:v>2519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10536,10 +10608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K113"/>
+  <dimension ref="A2:K114"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11450,6 +11522,14 @@
         <v>1208</v>
       </c>
     </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B114">
+        <v>1284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11460,8 +11540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S19" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105:C120"/>
+    <sheetView tabSelected="1" topLeftCell="K101" workbookViewId="0">
+      <selection activeCell="W118" sqref="W118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11475,7 +11555,7 @@
         <v>2</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -13664,7 +13744,7 @@
         <v>68</v>
       </c>
       <c r="I54" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="1"/>
@@ -13679,8 +13759,8 @@
         <v>65</v>
       </c>
       <c r="P54">
-        <f>I54</f>
-        <v>10</v>
+        <f t="shared" ref="P54:P118" si="11">I54</f>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -13714,8 +13794,8 @@
         <v>69</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" ref="I55:I111" si="11">I54+ROUND(($D$1/$D$2)*G54*(I54/$D$3),0)-ROUND(I54/$D$2,0)</f>
-        <v>11</v>
+        <f t="shared" ref="I55:I111" si="12">I54+ROUND(($D$1/$D$2)*G54*(I54/$D$3),0)-ROUND(I54/$D$2,0)</f>
+        <v>14</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="1"/>
@@ -13730,8 +13810,8 @@
         <v>66</v>
       </c>
       <c r="P55">
-        <f t="shared" ref="P55:P118" si="12">I55</f>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -13765,8 +13845,8 @@
         <v>70</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="1"/>
@@ -13781,8 +13861,8 @@
         <v>69</v>
       </c>
       <c r="P56">
-        <f t="shared" si="12"/>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -13816,8 +13896,8 @@
         <v>72</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>16</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="1"/>
@@ -13832,8 +13912,8 @@
         <v>67</v>
       </c>
       <c r="P57">
-        <f t="shared" si="12"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -13867,8 +13947,8 @@
         <v>77</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>18</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" si="1"/>
@@ -13883,8 +13963,8 @@
         <v>74</v>
       </c>
       <c r="P58">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -13918,8 +13998,8 @@
         <v>83</v>
       </c>
       <c r="I59" s="4">
-        <f t="shared" si="11"/>
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="K59" s="1">
         <f t="shared" si="1"/>
@@ -13934,8 +14014,8 @@
         <v>79</v>
       </c>
       <c r="P59">
-        <f t="shared" si="12"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -13969,8 +14049,8 @@
         <v>88</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>20</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="1"/>
@@ -13985,8 +14065,8 @@
         <v>86</v>
       </c>
       <c r="P60">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -14020,8 +14100,8 @@
         <v>94</v>
       </c>
       <c r="I61" s="4">
-        <f t="shared" si="11"/>
-        <v>18</v>
+        <f t="shared" si="12"/>
+        <v>21</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="1"/>
@@ -14036,8 +14116,8 @@
         <v>94</v>
       </c>
       <c r="P61">
-        <f t="shared" si="12"/>
-        <v>18</v>
+        <f t="shared" si="11"/>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -14071,8 +14151,8 @@
         <v>100</v>
       </c>
       <c r="I62" s="4">
-        <f t="shared" si="11"/>
-        <v>19</v>
+        <f t="shared" si="12"/>
+        <v>22</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="1"/>
@@ -14087,8 +14167,8 @@
         <v>107</v>
       </c>
       <c r="P62">
-        <f t="shared" si="12"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -14122,8 +14202,8 @@
         <v>107</v>
       </c>
       <c r="I63" s="4">
-        <f t="shared" si="11"/>
-        <v>20</v>
+        <f t="shared" si="12"/>
+        <v>24</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" si="1"/>
@@ -14138,8 +14218,8 @@
         <v>109</v>
       </c>
       <c r="P63">
-        <f t="shared" si="12"/>
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -14173,8 +14253,8 @@
         <v>114</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" si="11"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>26</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" si="1"/>
@@ -14189,8 +14269,8 @@
         <v>120</v>
       </c>
       <c r="P64">
-        <f t="shared" si="12"/>
-        <v>21</v>
+        <f t="shared" si="11"/>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -14224,8 +14304,8 @@
         <v>121</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="11"/>
-        <v>22</v>
+        <f t="shared" si="12"/>
+        <v>28</v>
       </c>
       <c r="K65" s="1">
         <f t="shared" si="1"/>
@@ -14240,8 +14320,8 @@
         <v>121</v>
       </c>
       <c r="P65">
-        <f t="shared" si="12"/>
-        <v>22</v>
+        <f t="shared" si="11"/>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -14275,8 +14355,8 @@
         <v>129</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" si="11"/>
-        <v>24</v>
+        <f t="shared" si="12"/>
+        <v>30</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" si="1"/>
@@ -14291,8 +14371,8 @@
         <v>121</v>
       </c>
       <c r="P66">
-        <f t="shared" si="12"/>
-        <v>24</v>
+        <f t="shared" si="11"/>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -14326,8 +14406,8 @@
         <v>137</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" si="11"/>
-        <v>26</v>
+        <f t="shared" si="12"/>
+        <v>32</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" si="1"/>
@@ -14342,8 +14422,8 @@
         <v>133</v>
       </c>
       <c r="P67">
-        <f t="shared" si="12"/>
-        <v>26</v>
+        <f t="shared" si="11"/>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -14377,8 +14457,8 @@
         <v>147</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="11"/>
-        <v>28</v>
+        <f t="shared" si="12"/>
+        <v>34</v>
       </c>
       <c r="K68" s="1">
         <f t="shared" si="1"/>
@@ -14393,8 +14473,8 @@
         <v>142</v>
       </c>
       <c r="P68">
-        <f t="shared" si="12"/>
-        <v>28</v>
+        <f t="shared" si="11"/>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -14428,8 +14508,8 @@
         <v>157</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="11"/>
-        <v>31</v>
+        <f t="shared" si="12"/>
+        <v>36</v>
       </c>
       <c r="K69" s="1">
         <f t="shared" si="1"/>
@@ -14444,8 +14524,8 @@
         <v>143</v>
       </c>
       <c r="P69">
-        <f t="shared" si="12"/>
-        <v>31</v>
+        <f t="shared" si="11"/>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -14479,8 +14559,8 @@
         <v>162</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="11"/>
-        <v>33</v>
+        <f t="shared" si="12"/>
+        <v>39</v>
       </c>
       <c r="K70" s="1">
         <f t="shared" si="1"/>
@@ -14495,8 +14575,8 @@
         <v>150</v>
       </c>
       <c r="P70">
-        <f t="shared" si="12"/>
-        <v>33</v>
+        <f t="shared" si="11"/>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -14530,8 +14610,8 @@
         <v>167</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="11"/>
-        <v>35</v>
+        <f t="shared" si="12"/>
+        <v>42</v>
       </c>
       <c r="K71" s="1">
         <f t="shared" ref="K71:K134" si="13">A71</f>
@@ -14546,8 +14626,8 @@
         <v>164</v>
       </c>
       <c r="P71">
-        <f t="shared" si="12"/>
-        <v>35</v>
+        <f t="shared" si="11"/>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -14581,8 +14661,8 @@
         <v>172</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="11"/>
-        <v>38</v>
+        <f t="shared" si="12"/>
+        <v>45</v>
       </c>
       <c r="K72" s="1">
         <f t="shared" si="13"/>
@@ -14597,8 +14677,8 @@
         <v>175</v>
       </c>
       <c r="P72">
-        <f t="shared" si="12"/>
-        <v>38</v>
+        <f t="shared" si="11"/>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -14632,8 +14712,8 @@
         <v>178</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="11"/>
-        <v>41</v>
+        <f t="shared" si="12"/>
+        <v>48</v>
       </c>
       <c r="K73" s="1">
         <f t="shared" si="13"/>
@@ -14648,8 +14728,8 @@
         <v>182</v>
       </c>
       <c r="P73">
-        <f t="shared" si="12"/>
-        <v>41</v>
+        <f t="shared" si="11"/>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -14683,8 +14763,8 @@
         <v>184</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="11"/>
-        <v>45</v>
+        <f t="shared" si="12"/>
+        <v>52</v>
       </c>
       <c r="K74" s="1">
         <f t="shared" si="13"/>
@@ -14699,8 +14779,8 @@
         <v>187</v>
       </c>
       <c r="P74">
-        <f t="shared" si="12"/>
-        <v>45</v>
+        <f t="shared" si="11"/>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -14734,8 +14814,8 @@
         <v>190</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="11"/>
-        <v>48</v>
+        <f t="shared" si="12"/>
+        <v>56</v>
       </c>
       <c r="K75" s="1">
         <f t="shared" si="13"/>
@@ -14750,8 +14830,8 @@
         <v>197</v>
       </c>
       <c r="P75">
-        <f t="shared" si="12"/>
-        <v>48</v>
+        <f t="shared" si="11"/>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -14785,8 +14865,8 @@
         <v>196</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="11"/>
-        <v>52</v>
+        <f t="shared" si="12"/>
+        <v>60</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" si="13"/>
@@ -14801,8 +14881,8 @@
         <v>201</v>
       </c>
       <c r="P76">
-        <f t="shared" si="12"/>
-        <v>52</v>
+        <f t="shared" si="11"/>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -14836,8 +14916,8 @@
         <v>203</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="11"/>
-        <v>57</v>
+        <f t="shared" si="12"/>
+        <v>65</v>
       </c>
       <c r="K77" s="1">
         <f t="shared" si="13"/>
@@ -14852,8 +14932,8 @@
         <v>207</v>
       </c>
       <c r="P77">
-        <f t="shared" si="12"/>
-        <v>57</v>
+        <f t="shared" si="11"/>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -14887,8 +14967,8 @@
         <v>210</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="11"/>
-        <v>61</v>
+        <f t="shared" si="12"/>
+        <v>70</v>
       </c>
       <c r="K78" s="1">
         <f t="shared" si="13"/>
@@ -14903,8 +14983,8 @@
         <v>212</v>
       </c>
       <c r="P78">
-        <f t="shared" si="12"/>
-        <v>61</v>
+        <f t="shared" si="11"/>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -14938,8 +15018,8 @@
         <v>216</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="11"/>
-        <v>66</v>
+        <f t="shared" si="12"/>
+        <v>75</v>
       </c>
       <c r="K79" s="1">
         <f t="shared" si="13"/>
@@ -14954,8 +15034,8 @@
         <v>208</v>
       </c>
       <c r="P79">
-        <f t="shared" si="12"/>
-        <v>66</v>
+        <f t="shared" si="11"/>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -14989,8 +15069,8 @@
         <v>223</v>
       </c>
       <c r="I80" s="4">
-        <f t="shared" si="11"/>
-        <v>71</v>
+        <f t="shared" si="12"/>
+        <v>81</v>
       </c>
       <c r="K80" s="1">
         <f t="shared" si="13"/>
@@ -15005,8 +15085,8 @@
         <v>215</v>
       </c>
       <c r="P80">
-        <f t="shared" si="12"/>
-        <v>71</v>
+        <f t="shared" si="11"/>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -15040,8 +15120,8 @@
         <v>230</v>
       </c>
       <c r="I81" s="4">
-        <f t="shared" si="11"/>
-        <v>77</v>
+        <f t="shared" si="12"/>
+        <v>87</v>
       </c>
       <c r="K81" s="1">
         <f t="shared" si="13"/>
@@ -15056,8 +15136,8 @@
         <v>222</v>
       </c>
       <c r="P81">
-        <f t="shared" si="12"/>
-        <v>77</v>
+        <f t="shared" si="11"/>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -15091,8 +15171,8 @@
         <v>238</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="11"/>
-        <v>84</v>
+        <f t="shared" si="12"/>
+        <v>94</v>
       </c>
       <c r="K82" s="1">
         <f t="shared" si="13"/>
@@ -15107,8 +15187,8 @@
         <v>232</v>
       </c>
       <c r="P82">
-        <f t="shared" si="12"/>
-        <v>84</v>
+        <f t="shared" si="11"/>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -15142,8 +15222,8 @@
         <v>246</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="11"/>
-        <v>91</v>
+        <f t="shared" si="12"/>
+        <v>101</v>
       </c>
       <c r="K83" s="1">
         <f t="shared" si="13"/>
@@ -15158,8 +15238,8 @@
         <v>239</v>
       </c>
       <c r="P83">
-        <f t="shared" si="12"/>
-        <v>91</v>
+        <f t="shared" si="11"/>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -15193,8 +15273,8 @@
         <v>254</v>
       </c>
       <c r="I84" s="4">
-        <f t="shared" si="11"/>
-        <v>98</v>
+        <f t="shared" si="12"/>
+        <v>109</v>
       </c>
       <c r="K84" s="1">
         <f t="shared" si="13"/>
@@ -15209,8 +15289,8 @@
         <v>244</v>
       </c>
       <c r="P84">
-        <f t="shared" si="12"/>
-        <v>98</v>
+        <f t="shared" si="11"/>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -15244,8 +15324,8 @@
         <v>258</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="11"/>
-        <v>106</v>
+        <f t="shared" si="12"/>
+        <v>117</v>
       </c>
       <c r="K85" s="1">
         <f t="shared" si="13"/>
@@ -15260,8 +15340,8 @@
         <v>246</v>
       </c>
       <c r="P85">
-        <f t="shared" si="12"/>
-        <v>106</v>
+        <f t="shared" si="11"/>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -15295,8 +15375,8 @@
         <v>262</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="11"/>
-        <v>115</v>
+        <f t="shared" si="12"/>
+        <v>126</v>
       </c>
       <c r="K86" s="1">
         <f t="shared" si="13"/>
@@ -15311,8 +15391,8 @@
         <v>244</v>
       </c>
       <c r="P86">
-        <f t="shared" si="12"/>
-        <v>115</v>
+        <f t="shared" si="11"/>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -15346,8 +15426,8 @@
         <v>266</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="11"/>
-        <v>124</v>
+        <f t="shared" si="12"/>
+        <v>135</v>
       </c>
       <c r="K87" s="1">
         <f t="shared" si="13"/>
@@ -15362,8 +15442,8 @@
         <v>247</v>
       </c>
       <c r="P87">
-        <f t="shared" si="12"/>
-        <v>124</v>
+        <f t="shared" si="11"/>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -15397,8 +15477,8 @@
         <v>271</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="11"/>
-        <v>135</v>
+        <f t="shared" si="12"/>
+        <v>146</v>
       </c>
       <c r="K88" s="1">
         <f t="shared" si="13"/>
@@ -15413,8 +15493,8 @@
         <v>254</v>
       </c>
       <c r="P88">
-        <f t="shared" si="12"/>
-        <v>135</v>
+        <f t="shared" si="11"/>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -15448,8 +15528,8 @@
         <v>275</v>
       </c>
       <c r="I89" s="4">
-        <f t="shared" si="11"/>
-        <v>146</v>
+        <f t="shared" si="12"/>
+        <v>157</v>
       </c>
       <c r="K89" s="1">
         <f t="shared" si="13"/>
@@ -15464,8 +15544,8 @@
         <v>264</v>
       </c>
       <c r="P89">
-        <f t="shared" si="12"/>
-        <v>146</v>
+        <f t="shared" si="11"/>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -15499,8 +15579,8 @@
         <v>279</v>
       </c>
       <c r="I90" s="4">
-        <f t="shared" si="11"/>
-        <v>158</v>
+        <f t="shared" si="12"/>
+        <v>169</v>
       </c>
       <c r="K90" s="1">
         <f t="shared" si="13"/>
@@ -15515,8 +15595,8 @@
         <v>271</v>
       </c>
       <c r="P90">
-        <f t="shared" si="12"/>
-        <v>158</v>
+        <f t="shared" si="11"/>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -15550,8 +15630,8 @@
         <v>284</v>
       </c>
       <c r="I91" s="4">
-        <f t="shared" si="11"/>
-        <v>171</v>
+        <f t="shared" si="12"/>
+        <v>182</v>
       </c>
       <c r="K91" s="1">
         <f t="shared" si="13"/>
@@ -15566,8 +15646,8 @@
         <v>280</v>
       </c>
       <c r="P91">
-        <f t="shared" si="12"/>
-        <v>171</v>
+        <f t="shared" si="11"/>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -15601,8 +15681,8 @@
         <v>288</v>
       </c>
       <c r="I92" s="4">
-        <f t="shared" si="11"/>
-        <v>185</v>
+        <f t="shared" si="12"/>
+        <v>196</v>
       </c>
       <c r="K92" s="1">
         <f t="shared" si="13"/>
@@ -15617,8 +15697,8 @@
         <v>291</v>
       </c>
       <c r="P92">
-        <f t="shared" si="12"/>
-        <v>185</v>
+        <f t="shared" si="11"/>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -15652,8 +15732,8 @@
         <v>293</v>
       </c>
       <c r="I93" s="4">
-        <f t="shared" si="11"/>
-        <v>201</v>
+        <f t="shared" si="12"/>
+        <v>211</v>
       </c>
       <c r="K93" s="1">
         <f t="shared" si="13"/>
@@ -15668,8 +15748,8 @@
         <v>294</v>
       </c>
       <c r="P93">
-        <f t="shared" si="12"/>
-        <v>201</v>
+        <f t="shared" si="11"/>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -15703,8 +15783,8 @@
         <v>298</v>
       </c>
       <c r="I94" s="4">
-        <f t="shared" si="11"/>
-        <v>217</v>
+        <f t="shared" si="12"/>
+        <v>227</v>
       </c>
       <c r="K94" s="1">
         <f t="shared" si="13"/>
@@ -15719,8 +15799,8 @@
         <v>297</v>
       </c>
       <c r="P94">
-        <f t="shared" si="12"/>
-        <v>217</v>
+        <f t="shared" si="11"/>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -15754,8 +15834,8 @@
         <v>303</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" si="11"/>
-        <v>235</v>
+        <f t="shared" si="12"/>
+        <v>244</v>
       </c>
       <c r="K95" s="1">
         <f t="shared" si="13"/>
@@ -15770,8 +15850,8 @@
         <v>303</v>
       </c>
       <c r="P95">
-        <f t="shared" si="12"/>
-        <v>235</v>
+        <f t="shared" si="11"/>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -15805,8 +15885,8 @@
         <v>308</v>
       </c>
       <c r="I96" s="4">
-        <f t="shared" si="11"/>
-        <v>254</v>
+        <f t="shared" si="12"/>
+        <v>263</v>
       </c>
       <c r="K96" s="1">
         <f t="shared" si="13"/>
@@ -15821,8 +15901,8 @@
         <v>323</v>
       </c>
       <c r="P96">
-        <f t="shared" si="12"/>
-        <v>254</v>
+        <f t="shared" si="11"/>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -15856,8 +15936,8 @@
         <v>323</v>
       </c>
       <c r="I97" s="4">
-        <f t="shared" si="11"/>
-        <v>275</v>
+        <f t="shared" si="12"/>
+        <v>283</v>
       </c>
       <c r="K97" s="1">
         <f t="shared" si="13"/>
@@ -15872,8 +15952,8 @@
         <v>319</v>
       </c>
       <c r="P97">
-        <f t="shared" si="12"/>
-        <v>275</v>
+        <f t="shared" si="11"/>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -15907,8 +15987,8 @@
         <v>339</v>
       </c>
       <c r="I98" s="4">
-        <f t="shared" si="11"/>
-        <v>298</v>
+        <f t="shared" si="12"/>
+        <v>304</v>
       </c>
       <c r="K98" s="1">
         <f t="shared" si="13"/>
@@ -15923,8 +16003,8 @@
         <v>337</v>
       </c>
       <c r="P98">
-        <f t="shared" si="12"/>
-        <v>298</v>
+        <f t="shared" si="11"/>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -15958,8 +16038,8 @@
         <v>356</v>
       </c>
       <c r="I99" s="4">
-        <f t="shared" si="11"/>
-        <v>323</v>
+        <f t="shared" si="12"/>
+        <v>328</v>
       </c>
       <c r="K99" s="1">
         <f t="shared" si="13"/>
@@ -15974,8 +16054,8 @@
         <v>358</v>
       </c>
       <c r="P99">
-        <f t="shared" si="12"/>
-        <v>323</v>
+        <f t="shared" si="11"/>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -16009,8 +16089,8 @@
         <v>379</v>
       </c>
       <c r="I100" s="4">
-        <f t="shared" si="11"/>
-        <v>350</v>
+        <f t="shared" si="12"/>
+        <v>353</v>
       </c>
       <c r="K100" s="1">
         <f t="shared" si="13"/>
@@ -16025,8 +16105,8 @@
         <v>387</v>
       </c>
       <c r="P100">
-        <f t="shared" si="12"/>
-        <v>350</v>
+        <f t="shared" si="11"/>
+        <v>353</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -16060,8 +16140,8 @@
         <v>404</v>
       </c>
       <c r="I101" s="4">
-        <f t="shared" si="11"/>
-        <v>379</v>
+        <f t="shared" si="12"/>
+        <v>380</v>
       </c>
       <c r="K101" s="1">
         <f t="shared" si="13"/>
@@ -16076,8 +16156,8 @@
         <v>390</v>
       </c>
       <c r="P101">
-        <f t="shared" si="12"/>
-        <v>379</v>
+        <f t="shared" si="11"/>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -16111,8 +16191,8 @@
         <v>431</v>
       </c>
       <c r="I102" s="4">
-        <f t="shared" si="11"/>
-        <v>410</v>
+        <f t="shared" si="12"/>
+        <v>409</v>
       </c>
       <c r="K102" s="1">
         <f t="shared" si="13"/>
@@ -16127,8 +16207,8 @@
         <v>420</v>
       </c>
       <c r="P102">
-        <f t="shared" si="12"/>
-        <v>410</v>
+        <f t="shared" si="11"/>
+        <v>409</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -16162,8 +16242,8 @@
         <v>460</v>
       </c>
       <c r="I103" s="4">
-        <f t="shared" si="11"/>
-        <v>444</v>
+        <f t="shared" si="12"/>
+        <v>440</v>
       </c>
       <c r="K103" s="1">
         <f t="shared" si="13"/>
@@ -16178,8 +16258,8 @@
         <v>452</v>
       </c>
       <c r="P103">
-        <f t="shared" si="12"/>
-        <v>444</v>
+        <f t="shared" si="11"/>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -16213,8 +16293,8 @@
         <v>491</v>
       </c>
       <c r="I104" s="4">
-        <f t="shared" si="11"/>
-        <v>481</v>
+        <f t="shared" si="12"/>
+        <v>473</v>
       </c>
       <c r="K104" s="1">
         <f t="shared" si="13"/>
@@ -16229,8 +16309,8 @@
         <v>514</v>
       </c>
       <c r="P104">
-        <f t="shared" si="12"/>
-        <v>481</v>
+        <f t="shared" si="11"/>
+        <v>473</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -16241,15 +16321,15 @@
         <v>100</v>
       </c>
       <c r="C105">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="D105">
         <f t="shared" si="15"/>
-        <v>29998302</v>
+        <v>29998303</v>
       </c>
       <c r="E105">
         <f t="shared" si="16"/>
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F105">
         <f t="shared" si="17"/>
@@ -16257,15 +16337,15 @@
       </c>
       <c r="G105" s="2">
         <f t="shared" si="18"/>
-        <v>29998302</v>
+        <v>29998303</v>
       </c>
       <c r="H105" s="2">
         <f t="shared" si="19"/>
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I105" s="4">
-        <f t="shared" si="11"/>
-        <v>521</v>
+        <f t="shared" si="12"/>
+        <v>510</v>
       </c>
       <c r="K105" s="1">
         <f t="shared" si="13"/>
@@ -16273,15 +16353,15 @@
       </c>
       <c r="L105">
         <f t="shared" si="14"/>
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M105">
         <f>RealData!B102</f>
         <v>539</v>
       </c>
       <c r="P105">
-        <f t="shared" si="12"/>
-        <v>521</v>
+        <f t="shared" si="11"/>
+        <v>510</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -16292,15 +16372,15 @@
         <v>101</v>
       </c>
       <c r="C106">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="D106">
         <f t="shared" si="15"/>
-        <v>29998216</v>
+        <v>29998218</v>
       </c>
       <c r="E106">
         <f t="shared" si="16"/>
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F106">
         <f t="shared" si="17"/>
@@ -16308,15 +16388,15 @@
       </c>
       <c r="G106" s="2">
         <f t="shared" si="18"/>
-        <v>29998216</v>
+        <v>29998218</v>
       </c>
       <c r="H106" s="2">
         <f t="shared" si="19"/>
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I106" s="4">
-        <f t="shared" si="11"/>
-        <v>565</v>
+        <f t="shared" si="12"/>
+        <v>549</v>
       </c>
       <c r="K106" s="1">
         <f t="shared" si="13"/>
@@ -16324,15 +16404,15 @@
       </c>
       <c r="L106">
         <f t="shared" si="14"/>
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M106">
         <f>RealData!B103</f>
         <v>586</v>
       </c>
       <c r="P106">
-        <f t="shared" si="12"/>
-        <v>565</v>
+        <f t="shared" si="11"/>
+        <v>549</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -16343,15 +16423,15 @@
         <v>102</v>
       </c>
       <c r="C107">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="D107">
         <f t="shared" si="15"/>
-        <v>29998123</v>
+        <v>29998127</v>
       </c>
       <c r="E107">
         <f t="shared" si="16"/>
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F107">
         <f t="shared" si="17"/>
@@ -16359,15 +16439,15 @@
       </c>
       <c r="G107" s="2">
         <f t="shared" si="18"/>
-        <v>29998123</v>
+        <v>29998127</v>
       </c>
       <c r="H107" s="2">
         <f t="shared" si="19"/>
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I107" s="4">
-        <f t="shared" si="11"/>
-        <v>612</v>
+        <f t="shared" si="12"/>
+        <v>591</v>
       </c>
       <c r="K107" s="1">
         <f t="shared" si="13"/>
@@ -16375,15 +16455,15 @@
       </c>
       <c r="L107">
         <f t="shared" si="14"/>
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M107">
         <f>RealData!B104</f>
         <v>638</v>
       </c>
       <c r="P107">
-        <f t="shared" si="12"/>
-        <v>612</v>
+        <f t="shared" si="11"/>
+        <v>591</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -16394,15 +16474,15 @@
         <v>103</v>
       </c>
       <c r="C108">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="D108">
         <f t="shared" si="15"/>
-        <v>29998023</v>
+        <v>29998029</v>
       </c>
       <c r="E108">
         <f t="shared" si="16"/>
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F108">
         <f t="shared" si="17"/>
@@ -16410,15 +16490,15 @@
       </c>
       <c r="G108" s="2">
         <f t="shared" si="18"/>
-        <v>29998023</v>
+        <v>29998029</v>
       </c>
       <c r="H108" s="2">
         <f t="shared" si="19"/>
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="I108" s="4">
-        <f t="shared" si="11"/>
-        <v>663</v>
+        <f t="shared" si="12"/>
+        <v>637</v>
       </c>
       <c r="K108" s="1">
         <f t="shared" si="13"/>
@@ -16426,15 +16506,15 @@
       </c>
       <c r="L108">
         <f t="shared" si="14"/>
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="M108">
         <f>RealData!B105</f>
         <v>705</v>
       </c>
       <c r="P108">
-        <f t="shared" si="12"/>
-        <v>663</v>
+        <f t="shared" si="11"/>
+        <v>637</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -16445,31 +16525,31 @@
         <v>104</v>
       </c>
       <c r="C109">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="D109">
         <f t="shared" si="15"/>
-        <v>29997915</v>
+        <v>29997923</v>
       </c>
       <c r="E109">
         <f t="shared" si="16"/>
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="F109">
         <f t="shared" si="17"/>
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G109" s="2">
         <f t="shared" si="18"/>
-        <v>29997915</v>
+        <v>29997923</v>
       </c>
       <c r="H109" s="2">
         <f t="shared" si="19"/>
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="I109" s="4">
-        <f t="shared" si="11"/>
-        <v>718</v>
+        <f t="shared" si="12"/>
+        <v>686</v>
       </c>
       <c r="K109" s="1">
         <f t="shared" si="13"/>
@@ -16477,15 +16557,15 @@
       </c>
       <c r="L109">
         <f t="shared" si="14"/>
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="M109">
         <f>RealData!B106</f>
         <v>750</v>
       </c>
       <c r="P109">
-        <f t="shared" si="12"/>
-        <v>718</v>
+        <f t="shared" si="11"/>
+        <v>686</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -16496,31 +16576,31 @@
         <v>105</v>
       </c>
       <c r="C110">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="D110">
         <f t="shared" si="15"/>
-        <v>29997798</v>
+        <v>29997809</v>
       </c>
       <c r="E110">
         <f t="shared" si="16"/>
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F110">
         <f t="shared" si="17"/>
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G110" s="2">
         <f t="shared" si="18"/>
-        <v>29997798</v>
+        <v>29997809</v>
       </c>
       <c r="H110" s="2">
         <f t="shared" si="19"/>
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="I110" s="4">
-        <f t="shared" si="11"/>
-        <v>778</v>
+        <f t="shared" si="12"/>
+        <v>739</v>
       </c>
       <c r="K110" s="1">
         <f t="shared" si="13"/>
@@ -16528,15 +16608,15 @@
       </c>
       <c r="L110">
         <f t="shared" si="14"/>
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="M110">
         <f>RealData!B107</f>
         <v>797</v>
       </c>
       <c r="P110">
-        <f t="shared" si="12"/>
-        <v>778</v>
+        <f t="shared" si="11"/>
+        <v>739</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -16547,31 +16627,31 @@
         <v>106</v>
       </c>
       <c r="C111">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="D111">
         <f t="shared" si="15"/>
-        <v>29997672</v>
+        <v>29997686</v>
       </c>
       <c r="E111">
         <f t="shared" si="16"/>
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="F111">
         <f t="shared" si="17"/>
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" si="18"/>
-        <v>29997672</v>
+        <v>29997686</v>
       </c>
       <c r="H111" s="2">
         <f t="shared" si="19"/>
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="I111" s="4">
-        <f t="shared" si="11"/>
-        <v>843</v>
+        <f t="shared" si="12"/>
+        <v>795</v>
       </c>
       <c r="K111" s="1">
         <f t="shared" si="13"/>
@@ -16579,15 +16659,15 @@
       </c>
       <c r="L111">
         <f t="shared" si="14"/>
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="M111">
         <f>RealData!B108</f>
         <v>870</v>
       </c>
       <c r="P111">
-        <f t="shared" si="12"/>
-        <v>843</v>
+        <f t="shared" si="11"/>
+        <v>795</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -16598,31 +16678,31 @@
         <v>107</v>
       </c>
       <c r="C112">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="D112">
         <f t="shared" si="15"/>
-        <v>29997536</v>
+        <v>29997554</v>
       </c>
       <c r="E112">
         <f t="shared" si="16"/>
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="F112">
         <f t="shared" si="17"/>
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" si="18"/>
-        <v>29997536</v>
+        <v>29997554</v>
       </c>
       <c r="H112" s="2">
         <f t="shared" si="19"/>
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="I112" s="4">
         <f t="shared" ref="I112:I113" si="20">I111+ROUND(($D$1/$D$2)*G111*(I111/$D$3),0)-ROUND(I111/$D$2,0)</f>
-        <v>913</v>
+        <v>856</v>
       </c>
       <c r="K112" s="1">
         <f t="shared" si="13"/>
@@ -16630,15 +16710,15 @@
       </c>
       <c r="L112">
         <f t="shared" si="14"/>
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="M112">
         <f>RealData!B109</f>
         <v>926</v>
       </c>
       <c r="P112">
-        <f t="shared" si="12"/>
-        <v>913</v>
+        <f t="shared" si="11"/>
+        <v>856</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -16649,31 +16729,31 @@
         <v>108</v>
       </c>
       <c r="C113">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="D113">
         <f t="shared" si="15"/>
-        <v>29997389</v>
+        <v>29997412</v>
       </c>
       <c r="E113">
         <f t="shared" si="16"/>
-        <v>974</v>
+        <v>956</v>
       </c>
       <c r="F113">
         <f t="shared" si="17"/>
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" si="18"/>
-        <v>29997389</v>
+        <v>29997412</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="19"/>
-        <v>974</v>
+        <f>E113</f>
+        <v>956</v>
       </c>
       <c r="I113" s="4">
         <f t="shared" si="20"/>
-        <v>989</v>
+        <v>922</v>
       </c>
       <c r="K113" s="1">
         <f t="shared" si="13"/>
@@ -16681,7 +16761,7 @@
       </c>
       <c r="L113">
         <f t="shared" si="14"/>
-        <v>974</v>
+        <v>956</v>
       </c>
       <c r="M113">
         <f>RealData!B110</f>
@@ -16689,15 +16769,15 @@
       </c>
       <c r="N113">
         <f>E113</f>
-        <v>974</v>
+        <v>956</v>
       </c>
       <c r="O113">
         <f>H113</f>
-        <v>974</v>
+        <v>956</v>
       </c>
       <c r="P113">
-        <f t="shared" si="12"/>
-        <v>989</v>
+        <f>I113</f>
+        <v>922</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -16707,32 +16787,32 @@
       <c r="B114" s="4">
         <v>109</v>
       </c>
-      <c r="C114">
-        <v>1.95</v>
+      <c r="C114" s="4">
+        <v>1.92</v>
       </c>
       <c r="D114" s="4">
         <f t="shared" si="15"/>
-        <v>29997231</v>
+        <v>29997259</v>
       </c>
       <c r="E114" s="4">
         <f t="shared" si="16"/>
-        <v>1051</v>
+        <v>1029</v>
       </c>
       <c r="F114" s="4">
         <f t="shared" si="17"/>
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="G114" s="4">
         <f t="shared" si="18"/>
-        <v>29997231</v>
+        <v>29997259</v>
       </c>
       <c r="H114" s="4">
         <f>H113+ROUND(($D$1/$D$2)*G113*(H113/$D$3),0)-ROUND(H113/$D$2,0)</f>
-        <v>1055</v>
+        <v>1029</v>
       </c>
       <c r="I114" s="4">
         <f>I113+ROUND(($D$1/$D$2)*G113*(I113/$D$3),0)-ROUND(I113/$D$2,0)</f>
-        <v>1072</v>
+        <v>993</v>
       </c>
       <c r="K114" s="1">
         <f t="shared" si="13"/>
@@ -16740,7 +16820,7 @@
       </c>
       <c r="L114">
         <f t="shared" ref="L114" si="21">E114</f>
-        <v>1051</v>
+        <v>1029</v>
       </c>
       <c r="M114">
         <f>RealData!B111</f>
@@ -16748,15 +16828,15 @@
       </c>
       <c r="N114">
         <f>E114</f>
-        <v>1051</v>
+        <v>1029</v>
       </c>
       <c r="O114">
         <f>H114</f>
-        <v>1055</v>
+        <v>1029</v>
       </c>
       <c r="P114">
-        <f t="shared" si="12"/>
-        <v>1072</v>
+        <f t="shared" si="11"/>
+        <v>993</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -16766,48 +16846,56 @@
       <c r="B115" s="4">
         <v>110</v>
       </c>
-      <c r="C115">
-        <v>1.95</v>
+      <c r="C115" s="4">
+        <v>1.92</v>
       </c>
       <c r="D115" s="4">
         <f t="shared" si="15"/>
-        <v>29997060</v>
+        <v>29997094</v>
       </c>
       <c r="E115" s="4">
         <f t="shared" si="16"/>
-        <v>1134</v>
+        <v>1108</v>
       </c>
       <c r="F115" s="4">
         <f t="shared" si="17"/>
-        <v>1806</v>
+        <v>1798</v>
       </c>
       <c r="G115" s="4">
         <f t="shared" si="18"/>
-        <v>29997060</v>
+        <v>29997094</v>
       </c>
       <c r="H115" s="4">
         <f t="shared" ref="H115:H122" si="22">H114+ROUND(($D$1/$D$2)*G114*(H114/$D$3),0)-ROUND(H114/$D$2,0)</f>
-        <v>1143</v>
+        <v>1108</v>
       </c>
       <c r="I115" s="4">
         <f t="shared" ref="I115:I134" si="23">I114+ROUND(($D$1/$D$2)*G114*(I114/$D$3),0)-ROUND(I114/$D$2,0)</f>
-        <v>1162</v>
+        <v>1069</v>
       </c>
       <c r="K115" s="1">
         <f t="shared" si="13"/>
         <v>44128</v>
       </c>
+      <c r="L115">
+        <f>E115</f>
+        <v>1108</v>
+      </c>
+      <c r="M115">
+        <f>RealData!B112</f>
+        <v>1128</v>
+      </c>
       <c r="N115">
         <f t="shared" ref="N115:N134" si="24">E115</f>
-        <v>1134</v>
+        <v>1108</v>
       </c>
       <c r="O115">
         <f t="shared" ref="O115:O134" si="25">H115</f>
-        <v>1143</v>
+        <v>1108</v>
       </c>
       <c r="P115">
-        <f t="shared" si="12"/>
-        <v>1162</v>
+        <f t="shared" si="11"/>
+        <v>1069</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -16817,48 +16905,56 @@
       <c r="B116" s="4">
         <v>111</v>
       </c>
-      <c r="C116">
-        <v>1.95</v>
+      <c r="C116" s="4">
+        <v>1.92</v>
       </c>
       <c r="D116" s="4">
         <f t="shared" si="15"/>
-        <v>29996876</v>
+        <v>29996917</v>
       </c>
       <c r="E116" s="4">
         <f t="shared" si="16"/>
-        <v>1223</v>
+        <v>1193</v>
       </c>
       <c r="F116" s="4">
         <f t="shared" si="17"/>
-        <v>1901</v>
+        <v>1890</v>
       </c>
       <c r="G116" s="4">
         <f t="shared" si="18"/>
-        <v>29996876</v>
+        <v>29996917</v>
       </c>
       <c r="H116" s="4">
         <f t="shared" si="22"/>
-        <v>1238</v>
+        <v>1193</v>
       </c>
       <c r="I116" s="4">
         <f t="shared" si="23"/>
-        <v>1259</v>
+        <v>1151</v>
       </c>
       <c r="K116" s="1">
         <f t="shared" si="13"/>
         <v>44129</v>
       </c>
+      <c r="L116">
+        <f t="shared" ref="L116:L117" si="26">E116</f>
+        <v>1193</v>
+      </c>
+      <c r="M116">
+        <f>RealData!B113</f>
+        <v>1208</v>
+      </c>
       <c r="N116">
         <f t="shared" si="24"/>
-        <v>1223</v>
+        <v>1193</v>
       </c>
       <c r="O116">
         <f t="shared" si="25"/>
-        <v>1238</v>
+        <v>1193</v>
       </c>
       <c r="P116">
-        <f t="shared" si="12"/>
-        <v>1259</v>
+        <f t="shared" si="11"/>
+        <v>1151</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -16868,48 +16964,56 @@
       <c r="B117" s="4">
         <v>112</v>
       </c>
-      <c r="C117">
-        <v>1.95</v>
+      <c r="C117" s="4">
+        <v>1.92</v>
       </c>
       <c r="D117" s="4">
         <f t="shared" si="15"/>
-        <v>29996677</v>
+        <v>29996726</v>
       </c>
       <c r="E117" s="4">
         <f t="shared" si="16"/>
-        <v>1320</v>
+        <v>1285</v>
       </c>
       <c r="F117" s="4">
         <f t="shared" si="17"/>
-        <v>2003</v>
+        <v>1989</v>
       </c>
       <c r="G117" s="4">
         <f t="shared" si="18"/>
-        <v>29996677</v>
+        <v>29996726</v>
       </c>
       <c r="H117" s="4">
         <f t="shared" si="22"/>
-        <v>1341</v>
+        <v>1285</v>
       </c>
       <c r="I117" s="4">
         <f t="shared" si="23"/>
-        <v>1364</v>
+        <v>1239</v>
       </c>
       <c r="K117" s="1">
         <f t="shared" si="13"/>
         <v>44130</v>
       </c>
+      <c r="L117">
+        <f t="shared" si="26"/>
+        <v>1285</v>
+      </c>
+      <c r="M117">
+        <f>RealData!B114</f>
+        <v>1284</v>
+      </c>
       <c r="N117">
         <f t="shared" si="24"/>
-        <v>1320</v>
+        <v>1285</v>
       </c>
       <c r="O117">
         <f t="shared" si="25"/>
-        <v>1341</v>
+        <v>1285</v>
       </c>
       <c r="P117">
-        <f t="shared" si="12"/>
-        <v>1364</v>
+        <f t="shared" si="11"/>
+        <v>1239</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -16919,32 +17023,32 @@
       <c r="B118" s="4">
         <v>113</v>
       </c>
-      <c r="C118">
-        <v>1.95</v>
+      <c r="C118" s="4">
+        <v>1.92</v>
       </c>
       <c r="D118" s="4">
         <f t="shared" si="15"/>
-        <v>29996463</v>
+        <v>29996520</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="16"/>
-        <v>1424</v>
+        <v>1384</v>
       </c>
       <c r="F118" s="4">
         <f t="shared" si="17"/>
-        <v>2113</v>
+        <v>2096</v>
       </c>
       <c r="G118" s="4">
         <f t="shared" si="18"/>
-        <v>29996463</v>
+        <v>29996520</v>
       </c>
       <c r="H118" s="4">
         <f t="shared" si="22"/>
-        <v>1452</v>
+        <v>1384</v>
       </c>
       <c r="I118" s="4">
         <f t="shared" si="23"/>
-        <v>1477</v>
+        <v>1334</v>
       </c>
       <c r="K118" s="1">
         <f t="shared" si="13"/>
@@ -16952,15 +17056,15 @@
       </c>
       <c r="N118">
         <f t="shared" si="24"/>
-        <v>1424</v>
+        <v>1384</v>
       </c>
       <c r="O118">
         <f t="shared" si="25"/>
-        <v>1452</v>
+        <v>1384</v>
       </c>
       <c r="P118">
-        <f t="shared" si="12"/>
-        <v>1477</v>
+        <f t="shared" si="11"/>
+        <v>1334</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -16970,32 +17074,32 @@
       <c r="B119" s="4">
         <v>114</v>
       </c>
-      <c r="C119">
-        <v>1.95</v>
+      <c r="C119" s="4">
+        <v>1.92</v>
       </c>
       <c r="D119" s="4">
         <f t="shared" si="15"/>
-        <v>29996232</v>
+        <v>29996299</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="16"/>
-        <v>1536</v>
+        <v>1490</v>
       </c>
       <c r="F119" s="4">
         <f t="shared" si="17"/>
-        <v>2232</v>
+        <v>2211</v>
       </c>
       <c r="G119" s="4">
         <f t="shared" si="18"/>
-        <v>29996232</v>
+        <v>29996299</v>
       </c>
       <c r="H119" s="4">
         <f t="shared" si="22"/>
-        <v>1573</v>
+        <v>1490</v>
       </c>
       <c r="I119" s="4">
         <f t="shared" si="23"/>
-        <v>1600</v>
+        <v>1436</v>
       </c>
       <c r="K119" s="1">
         <f t="shared" si="13"/>
@@ -17003,15 +17107,15 @@
       </c>
       <c r="N119">
         <f t="shared" si="24"/>
-        <v>1536</v>
+        <v>1490</v>
       </c>
       <c r="O119">
         <f t="shared" si="25"/>
-        <v>1573</v>
+        <v>1490</v>
       </c>
       <c r="P119">
-        <f t="shared" ref="P119:P134" si="26">I119</f>
-        <v>1600</v>
+        <f t="shared" ref="P119:P134" si="27">I119</f>
+        <v>1436</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -17021,32 +17125,32 @@
       <c r="B120" s="4">
         <v>115</v>
       </c>
-      <c r="C120">
-        <v>1.95</v>
+      <c r="C120" s="4">
+        <v>1.92</v>
       </c>
       <c r="D120" s="4">
         <f t="shared" si="15"/>
-        <v>29995982</v>
+        <v>29996061</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" si="16"/>
-        <v>1658</v>
+        <v>1604</v>
       </c>
       <c r="F120" s="4">
         <f t="shared" si="17"/>
-        <v>2360</v>
+        <v>2335</v>
       </c>
       <c r="G120" s="4">
         <f t="shared" si="18"/>
-        <v>29995982</v>
+        <v>29996061</v>
       </c>
       <c r="H120" s="4">
         <f t="shared" si="22"/>
-        <v>1704</v>
+        <v>1604</v>
       </c>
       <c r="I120" s="4">
         <f t="shared" si="23"/>
-        <v>1734</v>
+        <v>1546</v>
       </c>
       <c r="K120" s="1">
         <f t="shared" si="13"/>
@@ -17054,15 +17158,15 @@
       </c>
       <c r="N120">
         <f t="shared" si="24"/>
-        <v>1658</v>
+        <v>1604</v>
       </c>
       <c r="O120">
         <f t="shared" si="25"/>
-        <v>1704</v>
+        <v>1604</v>
       </c>
       <c r="P120">
-        <f t="shared" si="26"/>
-        <v>1734</v>
+        <f t="shared" si="27"/>
+        <v>1546</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -17077,27 +17181,27 @@
       </c>
       <c r="D121" s="6">
         <f t="shared" si="15"/>
-        <v>29995733</v>
+        <v>29995820</v>
       </c>
       <c r="E121" s="6">
         <f t="shared" si="16"/>
-        <v>1769</v>
+        <v>1711</v>
       </c>
       <c r="F121" s="6">
         <f t="shared" si="17"/>
-        <v>2498</v>
+        <v>2469</v>
       </c>
       <c r="G121" s="6">
         <f t="shared" si="18"/>
-        <v>29995733</v>
+        <v>29995820</v>
       </c>
       <c r="H121" s="6">
         <f t="shared" si="22"/>
-        <v>1846</v>
+        <v>1727</v>
       </c>
       <c r="I121" s="4">
         <f t="shared" si="23"/>
-        <v>1878</v>
+        <v>1664</v>
       </c>
       <c r="K121" s="1">
         <f t="shared" si="13"/>
@@ -17105,15 +17209,15 @@
       </c>
       <c r="N121">
         <f t="shared" si="24"/>
-        <v>1769</v>
+        <v>1711</v>
       </c>
       <c r="O121">
         <f t="shared" si="25"/>
-        <v>1846</v>
+        <v>1727</v>
       </c>
       <c r="P121">
-        <f t="shared" si="26"/>
-        <v>1878</v>
+        <f t="shared" si="27"/>
+        <v>1664</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -17128,27 +17232,27 @@
       </c>
       <c r="D122" s="6">
         <f t="shared" si="15"/>
-        <v>29995468</v>
+        <v>29995563</v>
       </c>
       <c r="E122" s="6">
         <f t="shared" si="16"/>
-        <v>1887</v>
+        <v>1825</v>
       </c>
       <c r="F122" s="6">
         <f t="shared" si="17"/>
-        <v>2645</v>
+        <v>2612</v>
       </c>
       <c r="G122" s="6">
         <f t="shared" si="18"/>
-        <v>29995468</v>
+        <v>29995563</v>
       </c>
       <c r="H122" s="6">
         <f t="shared" si="22"/>
-        <v>2000</v>
+        <v>1859</v>
       </c>
       <c r="I122" s="4">
         <f t="shared" si="23"/>
-        <v>2034</v>
+        <v>1791</v>
       </c>
       <c r="K122" s="1">
         <f t="shared" si="13"/>
@@ -17156,15 +17260,15 @@
       </c>
       <c r="N122">
         <f t="shared" si="24"/>
-        <v>1887</v>
+        <v>1825</v>
       </c>
       <c r="O122">
         <f t="shared" si="25"/>
-        <v>2000</v>
+        <v>1859</v>
       </c>
       <c r="P122">
-        <f t="shared" si="26"/>
-        <v>2034</v>
+        <f t="shared" si="27"/>
+        <v>1791</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -17178,28 +17282,28 @@
         <v>1.8</v>
       </c>
       <c r="D123" s="6">
-        <f t="shared" ref="D123:D132" si="27">D122-ROUND((C123/$D$2)*D122*(E122/$D$3),0)</f>
-        <v>29995185</v>
+        <f t="shared" ref="D123:D132" si="28">D122-ROUND((C123/$D$2)*D122*(E122/$D$3),0)</f>
+        <v>29995289</v>
       </c>
       <c r="E123" s="6">
-        <f t="shared" ref="E123:E132" si="28">E122+ROUND((C123/$D$2)*D122*(E122/$D$3),0)-ROUND(E122/$D$2,0)</f>
-        <v>2013</v>
+        <f t="shared" ref="E123:E132" si="29">E122+ROUND((C123/$D$2)*D122*(E122/$D$3),0)-ROUND(E122/$D$2,0)</f>
+        <v>1947</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" ref="F123:F132" si="29">F122+ROUND(E122/$D$2,0)</f>
-        <v>2802</v>
+        <f t="shared" ref="F123:F132" si="30">F122+ROUND(E122/$D$2,0)</f>
+        <v>2764</v>
       </c>
       <c r="G123" s="6">
-        <f t="shared" ref="G123:G132" si="30">D123</f>
-        <v>29995185</v>
+        <f t="shared" ref="G123:G132" si="31">D123</f>
+        <v>29995289</v>
       </c>
       <c r="H123" s="6">
-        <f t="shared" ref="H123:H132" si="31">H122+ROUND(($D$1/$D$2)*G122*(H122/$D$3),0)-ROUND(H122/$D$2,0)</f>
-        <v>2166</v>
+        <f t="shared" ref="H123:H132" si="32">H122+ROUND(($D$1/$D$2)*G122*(H122/$D$3),0)-ROUND(H122/$D$2,0)</f>
+        <v>2001</v>
       </c>
       <c r="I123" s="4">
         <f t="shared" si="23"/>
-        <v>2203</v>
+        <v>1929</v>
       </c>
       <c r="K123" s="1">
         <f t="shared" si="13"/>
@@ -17207,15 +17311,15 @@
       </c>
       <c r="N123">
         <f t="shared" si="24"/>
-        <v>2013</v>
+        <v>1947</v>
       </c>
       <c r="O123">
         <f t="shared" si="25"/>
-        <v>2166</v>
+        <v>2001</v>
       </c>
       <c r="P123">
-        <f t="shared" si="26"/>
-        <v>2203</v>
+        <f t="shared" si="27"/>
+        <v>1929</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -17229,28 +17333,28 @@
         <v>1.8</v>
       </c>
       <c r="D124" s="6">
-        <f t="shared" si="27"/>
-        <v>29994883</v>
+        <f t="shared" si="28"/>
+        <v>29994997</v>
       </c>
       <c r="E124" s="6">
-        <f t="shared" si="28"/>
-        <v>2147</v>
+        <f t="shared" si="29"/>
+        <v>2077</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" si="29"/>
-        <v>2970</v>
+        <f t="shared" si="30"/>
+        <v>2926</v>
       </c>
       <c r="G124" s="6">
-        <f t="shared" si="30"/>
-        <v>29994883</v>
+        <f t="shared" si="31"/>
+        <v>29994997</v>
       </c>
       <c r="H124" s="6">
-        <f t="shared" si="31"/>
-        <v>2346</v>
+        <f t="shared" si="32"/>
+        <v>2154</v>
       </c>
       <c r="I124" s="4">
         <f t="shared" si="23"/>
-        <v>2386</v>
+        <v>2077</v>
       </c>
       <c r="K124" s="1">
         <f t="shared" si="13"/>
@@ -17258,15 +17362,15 @@
       </c>
       <c r="N124">
         <f t="shared" si="24"/>
-        <v>2147</v>
+        <v>2077</v>
       </c>
       <c r="O124">
         <f t="shared" si="25"/>
-        <v>2346</v>
+        <v>2154</v>
       </c>
       <c r="P124">
-        <f t="shared" si="26"/>
-        <v>2386</v>
+        <f t="shared" si="27"/>
+        <v>2077</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -17280,28 +17384,28 @@
         <v>1.8</v>
       </c>
       <c r="D125" s="6">
-        <f t="shared" si="27"/>
-        <v>29994561</v>
+        <f t="shared" si="28"/>
+        <v>29994686</v>
       </c>
       <c r="E125" s="6">
-        <f t="shared" si="28"/>
-        <v>2290</v>
+        <f t="shared" si="29"/>
+        <v>2215</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="29"/>
-        <v>3149</v>
+        <f t="shared" si="30"/>
+        <v>3099</v>
       </c>
       <c r="G125" s="6">
-        <f t="shared" si="30"/>
-        <v>29994561</v>
+        <f t="shared" si="31"/>
+        <v>29994686</v>
       </c>
       <c r="H125" s="6">
-        <f t="shared" si="31"/>
-        <v>2541</v>
+        <f t="shared" si="32"/>
+        <v>2319</v>
       </c>
       <c r="I125" s="4">
         <f t="shared" si="23"/>
-        <v>2585</v>
+        <v>2236</v>
       </c>
       <c r="K125" s="1">
         <f t="shared" si="13"/>
@@ -17309,15 +17413,15 @@
       </c>
       <c r="N125">
         <f t="shared" si="24"/>
-        <v>2290</v>
+        <v>2215</v>
       </c>
       <c r="O125">
         <f t="shared" si="25"/>
-        <v>2541</v>
+        <v>2319</v>
       </c>
       <c r="P125">
-        <f t="shared" si="26"/>
-        <v>2585</v>
+        <f t="shared" si="27"/>
+        <v>2236</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -17331,28 +17435,28 @@
         <v>1.8</v>
       </c>
       <c r="D126" s="6">
-        <f t="shared" si="27"/>
-        <v>29994218</v>
+        <f t="shared" si="28"/>
+        <v>29994354</v>
       </c>
       <c r="E126" s="6">
-        <f t="shared" si="28"/>
-        <v>2442</v>
+        <f t="shared" si="29"/>
+        <v>2362</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="29"/>
-        <v>3340</v>
+        <f t="shared" si="30"/>
+        <v>3284</v>
       </c>
       <c r="G126" s="6">
-        <f t="shared" si="30"/>
-        <v>29994218</v>
+        <f t="shared" si="31"/>
+        <v>29994354</v>
       </c>
       <c r="H126" s="6">
-        <f t="shared" si="31"/>
-        <v>2752</v>
+        <f t="shared" si="32"/>
+        <v>2497</v>
       </c>
       <c r="I126" s="4">
         <f t="shared" si="23"/>
-        <v>2801</v>
+        <v>2408</v>
       </c>
       <c r="K126" s="1">
         <f t="shared" si="13"/>
@@ -17360,15 +17464,15 @@
       </c>
       <c r="N126">
         <f t="shared" si="24"/>
-        <v>2442</v>
+        <v>2362</v>
       </c>
       <c r="O126">
         <f t="shared" si="25"/>
-        <v>2752</v>
+        <v>2497</v>
       </c>
       <c r="P126">
-        <f t="shared" si="26"/>
-        <v>2801</v>
+        <f t="shared" si="27"/>
+        <v>2408</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -17382,28 +17486,28 @@
         <v>1.8</v>
       </c>
       <c r="D127" s="6">
-        <f t="shared" si="27"/>
-        <v>29993852</v>
+        <f t="shared" si="28"/>
+        <v>29994000</v>
       </c>
       <c r="E127" s="6">
-        <f t="shared" si="28"/>
-        <v>2604</v>
+        <f t="shared" si="29"/>
+        <v>2519</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="29"/>
-        <v>3544</v>
+        <f t="shared" si="30"/>
+        <v>3481</v>
       </c>
       <c r="G127" s="6">
-        <f t="shared" si="30"/>
-        <v>29993852</v>
+        <f t="shared" si="31"/>
+        <v>29994000</v>
       </c>
       <c r="H127" s="6">
-        <f t="shared" si="31"/>
-        <v>2982</v>
+        <f t="shared" si="32"/>
+        <v>2688</v>
       </c>
       <c r="I127" s="4">
         <f t="shared" si="23"/>
-        <v>3035</v>
+        <v>2592</v>
       </c>
       <c r="K127" s="1">
         <f t="shared" si="13"/>
@@ -17411,15 +17515,15 @@
       </c>
       <c r="N127">
         <f t="shared" si="24"/>
-        <v>2604</v>
+        <v>2519</v>
       </c>
       <c r="O127">
         <f t="shared" si="25"/>
-        <v>2982</v>
+        <v>2688</v>
       </c>
       <c r="P127">
-        <f t="shared" si="26"/>
-        <v>3035</v>
+        <f t="shared" si="27"/>
+        <v>2592</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -17433,28 +17537,28 @@
         <v>1.6</v>
       </c>
       <c r="D128">
-        <f t="shared" si="27"/>
-        <v>29993505</v>
+        <f t="shared" si="28"/>
+        <v>29993664</v>
       </c>
       <c r="E128">
-        <f t="shared" si="28"/>
-        <v>2734</v>
+        <f t="shared" si="29"/>
+        <v>2645</v>
       </c>
       <c r="F128">
-        <f t="shared" si="29"/>
-        <v>3761</v>
+        <f t="shared" si="30"/>
+        <v>3691</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="30"/>
-        <v>29993505</v>
+        <f t="shared" si="31"/>
+        <v>29993664</v>
       </c>
       <c r="H128">
-        <f t="shared" si="31"/>
-        <v>3230</v>
+        <f t="shared" si="32"/>
+        <v>2894</v>
       </c>
       <c r="I128" s="4">
         <f t="shared" si="23"/>
-        <v>3288</v>
+        <v>2791</v>
       </c>
       <c r="K128" s="1">
         <f t="shared" si="13"/>
@@ -17462,15 +17566,15 @@
       </c>
       <c r="N128">
         <f t="shared" si="24"/>
-        <v>2734</v>
+        <v>2645</v>
       </c>
       <c r="O128">
         <f t="shared" si="25"/>
-        <v>3230</v>
+        <v>2894</v>
       </c>
       <c r="P128">
-        <f t="shared" si="26"/>
-        <v>3288</v>
+        <f t="shared" si="27"/>
+        <v>2791</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -17484,28 +17588,28 @@
         <v>1.6</v>
       </c>
       <c r="D129">
-        <f t="shared" si="27"/>
-        <v>29993141</v>
+        <f t="shared" si="28"/>
+        <v>29993311</v>
       </c>
       <c r="E129">
-        <f t="shared" si="28"/>
-        <v>2870</v>
+        <f t="shared" si="29"/>
+        <v>2778</v>
       </c>
       <c r="F129">
-        <f t="shared" si="29"/>
-        <v>3989</v>
+        <f t="shared" si="30"/>
+        <v>3911</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="30"/>
-        <v>29993141</v>
+        <f t="shared" si="31"/>
+        <v>29993311</v>
       </c>
       <c r="H129">
-        <f t="shared" si="31"/>
-        <v>3499</v>
+        <f t="shared" si="32"/>
+        <v>3116</v>
       </c>
       <c r="I129" s="4">
         <f t="shared" si="23"/>
-        <v>3562</v>
+        <v>3004</v>
       </c>
       <c r="K129" s="1">
         <f t="shared" si="13"/>
@@ -17513,15 +17617,15 @@
       </c>
       <c r="N129">
         <f t="shared" si="24"/>
-        <v>2870</v>
+        <v>2778</v>
       </c>
       <c r="O129">
         <f t="shared" si="25"/>
-        <v>3499</v>
+        <v>3116</v>
       </c>
       <c r="P129">
-        <f t="shared" si="26"/>
-        <v>3562</v>
+        <f t="shared" si="27"/>
+        <v>3004</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -17535,28 +17639,28 @@
         <v>1.6</v>
       </c>
       <c r="D130">
-        <f t="shared" si="27"/>
-        <v>29992758</v>
+        <f t="shared" si="28"/>
+        <v>29992941</v>
       </c>
       <c r="E130">
-        <f t="shared" si="28"/>
-        <v>3014</v>
+        <f t="shared" si="29"/>
+        <v>2916</v>
       </c>
       <c r="F130">
-        <f t="shared" si="29"/>
-        <v>4228</v>
+        <f t="shared" si="30"/>
+        <v>4143</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="30"/>
-        <v>29992758</v>
+        <f t="shared" si="31"/>
+        <v>29992941</v>
       </c>
       <c r="H130">
-        <f t="shared" si="31"/>
-        <v>3790</v>
+        <f t="shared" si="32"/>
+        <v>3354</v>
       </c>
       <c r="I130" s="4">
         <f t="shared" si="23"/>
-        <v>3859</v>
+        <v>3235</v>
       </c>
       <c r="K130" s="1">
         <f t="shared" si="13"/>
@@ -17564,15 +17668,15 @@
       </c>
       <c r="N130">
         <f t="shared" si="24"/>
-        <v>3014</v>
+        <v>2916</v>
       </c>
       <c r="O130">
         <f t="shared" si="25"/>
-        <v>3790</v>
+        <v>3354</v>
       </c>
       <c r="P130">
-        <f t="shared" si="26"/>
-        <v>3859</v>
+        <f t="shared" si="27"/>
+        <v>3235</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -17586,28 +17690,28 @@
         <v>1.6</v>
       </c>
       <c r="D131">
-        <f t="shared" si="27"/>
-        <v>29992356</v>
+        <f t="shared" si="28"/>
+        <v>29992552</v>
       </c>
       <c r="E131">
-        <f t="shared" si="28"/>
-        <v>3165</v>
+        <f t="shared" si="29"/>
+        <v>3062</v>
       </c>
       <c r="F131">
-        <f t="shared" si="29"/>
-        <v>4479</v>
+        <f t="shared" si="30"/>
+        <v>4386</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="30"/>
-        <v>29992356</v>
+        <f t="shared" si="31"/>
+        <v>29992552</v>
       </c>
       <c r="H131">
-        <f t="shared" si="31"/>
-        <v>4106</v>
+        <f t="shared" si="32"/>
+        <v>3611</v>
       </c>
       <c r="I131" s="4">
         <f t="shared" si="23"/>
-        <v>4180</v>
+        <v>3482</v>
       </c>
       <c r="K131" s="1">
         <f t="shared" si="13"/>
@@ -17615,15 +17719,15 @@
       </c>
       <c r="N131">
         <f t="shared" si="24"/>
-        <v>3165</v>
+        <v>3062</v>
       </c>
       <c r="O131">
         <f t="shared" si="25"/>
-        <v>4106</v>
+        <v>3611</v>
       </c>
       <c r="P131">
-        <f t="shared" si="26"/>
-        <v>4180</v>
+        <f t="shared" si="27"/>
+        <v>3482</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -17637,28 +17741,28 @@
         <v>1.6</v>
       </c>
       <c r="D132">
-        <f t="shared" si="27"/>
-        <v>29991934</v>
+        <f t="shared" si="28"/>
+        <v>29992144</v>
       </c>
       <c r="E132">
-        <f t="shared" si="28"/>
-        <v>3323</v>
+        <f t="shared" si="29"/>
+        <v>3215</v>
       </c>
       <c r="F132">
-        <f t="shared" si="29"/>
-        <v>4743</v>
+        <f t="shared" si="30"/>
+        <v>4641</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="30"/>
-        <v>29991934</v>
+        <f t="shared" si="31"/>
+        <v>29992144</v>
       </c>
       <c r="H132">
-        <f t="shared" si="31"/>
-        <v>4448</v>
+        <f t="shared" si="32"/>
+        <v>3888</v>
       </c>
       <c r="I132" s="4">
         <f t="shared" si="23"/>
-        <v>4528</v>
+        <v>3749</v>
       </c>
       <c r="K132" s="1">
         <f t="shared" si="13"/>
@@ -17666,15 +17770,15 @@
       </c>
       <c r="N132">
         <f t="shared" si="24"/>
-        <v>3323</v>
+        <v>3215</v>
       </c>
       <c r="O132">
         <f t="shared" si="25"/>
-        <v>4448</v>
+        <v>3888</v>
       </c>
       <c r="P132">
-        <f t="shared" si="26"/>
-        <v>4528</v>
+        <f t="shared" si="27"/>
+        <v>3749</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -17688,28 +17792,28 @@
         <v>1.6</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D134" si="32">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
-        <v>29991491</v>
+        <f t="shared" ref="D133:D134" si="33">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <v>29991715</v>
       </c>
       <c r="E133">
-        <f t="shared" ref="E133:E134" si="33">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
-        <v>3489</v>
+        <f t="shared" ref="E133:E134" si="34">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <v>3376</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133:F134" si="34">F132+ROUND(E132/$D$2,0)</f>
-        <v>5020</v>
+        <f t="shared" ref="F133:F134" si="35">F132+ROUND(E132/$D$2,0)</f>
+        <v>4909</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="35">D133</f>
-        <v>29991491</v>
+        <f t="shared" ref="G133:G134" si="36">D133</f>
+        <v>29991715</v>
       </c>
       <c r="H133">
-        <f t="shared" ref="H133:H134" si="36">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
-        <v>4818</v>
+        <f t="shared" ref="H133:H134" si="37">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <v>4186</v>
       </c>
       <c r="I133" s="4">
         <f t="shared" si="23"/>
-        <v>4905</v>
+        <v>4037</v>
       </c>
       <c r="K133" s="1">
         <f t="shared" si="13"/>
@@ -17717,15 +17821,15 @@
       </c>
       <c r="N133">
         <f t="shared" si="24"/>
-        <v>3489</v>
+        <v>3376</v>
       </c>
       <c r="O133">
         <f t="shared" si="25"/>
-        <v>4818</v>
+        <v>4186</v>
       </c>
       <c r="P133">
-        <f t="shared" si="26"/>
-        <v>4905</v>
+        <f t="shared" si="27"/>
+        <v>4037</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -17739,28 +17843,28 @@
         <v>1.6</v>
       </c>
       <c r="D134">
-        <f t="shared" si="32"/>
-        <v>29991026</v>
+        <f t="shared" si="33"/>
+        <v>29991265</v>
       </c>
       <c r="E134">
-        <f t="shared" si="33"/>
-        <v>3663</v>
+        <f t="shared" si="34"/>
+        <v>3545</v>
       </c>
       <c r="F134">
-        <f t="shared" si="34"/>
-        <v>5311</v>
+        <f t="shared" si="35"/>
+        <v>5190</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="35"/>
-        <v>29991026</v>
+        <f t="shared" si="36"/>
+        <v>29991265</v>
       </c>
       <c r="H134">
-        <f t="shared" si="36"/>
-        <v>5219</v>
+        <f t="shared" si="37"/>
+        <v>4507</v>
       </c>
       <c r="I134" s="4">
         <f t="shared" si="23"/>
-        <v>5313</v>
+        <v>4347</v>
       </c>
       <c r="K134" s="1">
         <f t="shared" si="13"/>
@@ -17768,15 +17872,15 @@
       </c>
       <c r="N134">
         <f t="shared" si="24"/>
-        <v>3663</v>
+        <v>3545</v>
       </c>
       <c r="O134">
         <f t="shared" si="25"/>
-        <v>5219</v>
+        <v>4507</v>
       </c>
       <c r="P134">
-        <f t="shared" si="26"/>
-        <v>5313</v>
+        <f t="shared" si="27"/>
+        <v>4347</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1433DF-B806-4C64-99BC-4500DDC79CF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7DCA17-DE0D-46EC-BD68-7C7D567AD796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="21570" yWindow="1365" windowWidth="17655" windowHeight="11355" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -612,6 +612,9 @@
                 <c:pt idx="47">
                   <c:v>1285</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>1384</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1002,6 +1005,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1284</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,7 +1584,10 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1766,10 +1775,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$134</c:f>
+              <c:f>Model!$K$6:$K$135</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="129"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -2162,10 +2171,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$6:$L$134</c:f>
+              <c:f>Model!$L$6:$L$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="129"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -2501,6 +2510,9 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>1285</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2540,10 +2552,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$134</c:f>
+              <c:f>Model!$K$6:$K$135</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="129"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -2936,10 +2948,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$6:$M$134</c:f>
+              <c:f>Model!$M$6:$M$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="129"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -3275,6 +3287,9 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>1284</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4301,6 +4316,9 @@
                 <c:pt idx="111">
                   <c:v>1285</c:v>
                 </c:pt>
+                <c:pt idx="112">
+                  <c:v>1384</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5033,6 +5051,9 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>1284</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6500,6 +6521,9 @@
                 <c:pt idx="111">
                   <c:v>1285</c:v>
                 </c:pt>
+                <c:pt idx="112">
+                  <c:v>1384</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7253,6 +7277,9 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>1284</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10608,10 +10635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K114"/>
+  <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:A114"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11530,6 +11557,14 @@
         <v>1284</v>
       </c>
     </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B115">
+        <v>1411</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11540,8 +11575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K101" workbookViewId="0">
-      <selection activeCell="W118" sqref="W118"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14708,7 +14743,7 @@
         <v>29999418</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" ref="H73:H113" si="19">E73</f>
+        <f t="shared" ref="H73:H112" si="19">E73</f>
         <v>178</v>
       </c>
       <c r="I73" s="4">
@@ -17054,6 +17089,14 @@
         <f t="shared" si="13"/>
         <v>44131</v>
       </c>
+      <c r="L118">
+        <f t="shared" ref="L118" si="27">E118</f>
+        <v>1384</v>
+      </c>
+      <c r="M118">
+        <f>RealData!B115</f>
+        <v>1411</v>
+      </c>
       <c r="N118">
         <f t="shared" si="24"/>
         <v>1384</v>
@@ -17114,7 +17157,7 @@
         <v>1490</v>
       </c>
       <c r="P119">
-        <f t="shared" ref="P119:P134" si="27">I119</f>
+        <f t="shared" ref="P119:P134" si="28">I119</f>
         <v>1436</v>
       </c>
     </row>
@@ -17165,7 +17208,7 @@
         <v>1604</v>
       </c>
       <c r="P120">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1546</v>
       </c>
     </row>
@@ -17216,7 +17259,7 @@
         <v>1727</v>
       </c>
       <c r="P121">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1664</v>
       </c>
     </row>
@@ -17267,7 +17310,7 @@
         <v>1859</v>
       </c>
       <c r="P122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1791</v>
       </c>
     </row>
@@ -17282,23 +17325,23 @@
         <v>1.8</v>
       </c>
       <c r="D123" s="6">
-        <f t="shared" ref="D123:D132" si="28">D122-ROUND((C123/$D$2)*D122*(E122/$D$3),0)</f>
+        <f t="shared" ref="D123:D132" si="29">D122-ROUND((C123/$D$2)*D122*(E122/$D$3),0)</f>
         <v>29995289</v>
       </c>
       <c r="E123" s="6">
-        <f t="shared" ref="E123:E132" si="29">E122+ROUND((C123/$D$2)*D122*(E122/$D$3),0)-ROUND(E122/$D$2,0)</f>
+        <f t="shared" ref="E123:E132" si="30">E122+ROUND((C123/$D$2)*D122*(E122/$D$3),0)-ROUND(E122/$D$2,0)</f>
         <v>1947</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" ref="F123:F132" si="30">F122+ROUND(E122/$D$2,0)</f>
+        <f t="shared" ref="F123:F132" si="31">F122+ROUND(E122/$D$2,0)</f>
         <v>2764</v>
       </c>
       <c r="G123" s="6">
-        <f t="shared" ref="G123:G132" si="31">D123</f>
+        <f t="shared" ref="G123:G132" si="32">D123</f>
         <v>29995289</v>
       </c>
       <c r="H123" s="6">
-        <f t="shared" ref="H123:H132" si="32">H122+ROUND(($D$1/$D$2)*G122*(H122/$D$3),0)-ROUND(H122/$D$2,0)</f>
+        <f t="shared" ref="H123:H132" si="33">H122+ROUND(($D$1/$D$2)*G122*(H122/$D$3),0)-ROUND(H122/$D$2,0)</f>
         <v>2001</v>
       </c>
       <c r="I123" s="4">
@@ -17318,7 +17361,7 @@
         <v>2001</v>
       </c>
       <c r="P123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1929</v>
       </c>
     </row>
@@ -17333,23 +17376,23 @@
         <v>1.8</v>
       </c>
       <c r="D124" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>29994997</v>
       </c>
       <c r="E124" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2077</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2926</v>
       </c>
       <c r="G124" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>29994997</v>
       </c>
       <c r="H124" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2154</v>
       </c>
       <c r="I124" s="4">
@@ -17369,7 +17412,7 @@
         <v>2154</v>
       </c>
       <c r="P124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2077</v>
       </c>
     </row>
@@ -17384,23 +17427,23 @@
         <v>1.8</v>
       </c>
       <c r="D125" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>29994686</v>
       </c>
       <c r="E125" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2215</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3099</v>
       </c>
       <c r="G125" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>29994686</v>
       </c>
       <c r="H125" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2319</v>
       </c>
       <c r="I125" s="4">
@@ -17420,7 +17463,7 @@
         <v>2319</v>
       </c>
       <c r="P125">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2236</v>
       </c>
     </row>
@@ -17435,23 +17478,23 @@
         <v>1.8</v>
       </c>
       <c r="D126" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>29994354</v>
       </c>
       <c r="E126" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2362</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3284</v>
       </c>
       <c r="G126" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>29994354</v>
       </c>
       <c r="H126" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2497</v>
       </c>
       <c r="I126" s="4">
@@ -17471,7 +17514,7 @@
         <v>2497</v>
       </c>
       <c r="P126">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2408</v>
       </c>
     </row>
@@ -17486,23 +17529,23 @@
         <v>1.8</v>
       </c>
       <c r="D127" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>29994000</v>
       </c>
       <c r="E127" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2519</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3481</v>
       </c>
       <c r="G127" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>29994000</v>
       </c>
       <c r="H127" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2688</v>
       </c>
       <c r="I127" s="4">
@@ -17522,7 +17565,7 @@
         <v>2688</v>
       </c>
       <c r="P127">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2592</v>
       </c>
     </row>
@@ -17537,23 +17580,23 @@
         <v>1.6</v>
       </c>
       <c r="D128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>29993664</v>
       </c>
       <c r="E128">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2645</v>
       </c>
       <c r="F128">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3691</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>29993664</v>
       </c>
       <c r="H128">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2894</v>
       </c>
       <c r="I128" s="4">
@@ -17573,7 +17616,7 @@
         <v>2894</v>
       </c>
       <c r="P128">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2791</v>
       </c>
     </row>
@@ -17588,23 +17631,23 @@
         <v>1.6</v>
       </c>
       <c r="D129">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>29993311</v>
       </c>
       <c r="E129">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2778</v>
       </c>
       <c r="F129">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3911</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>29993311</v>
       </c>
       <c r="H129">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3116</v>
       </c>
       <c r="I129" s="4">
@@ -17624,7 +17667,7 @@
         <v>3116</v>
       </c>
       <c r="P129">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3004</v>
       </c>
     </row>
@@ -17639,23 +17682,23 @@
         <v>1.6</v>
       </c>
       <c r="D130">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>29992941</v>
       </c>
       <c r="E130">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2916</v>
       </c>
       <c r="F130">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4143</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>29992941</v>
       </c>
       <c r="H130">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3354</v>
       </c>
       <c r="I130" s="4">
@@ -17675,7 +17718,7 @@
         <v>3354</v>
       </c>
       <c r="P130">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3235</v>
       </c>
     </row>
@@ -17690,23 +17733,23 @@
         <v>1.6</v>
       </c>
       <c r="D131">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>29992552</v>
       </c>
       <c r="E131">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3062</v>
       </c>
       <c r="F131">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4386</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>29992552</v>
       </c>
       <c r="H131">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3611</v>
       </c>
       <c r="I131" s="4">
@@ -17726,7 +17769,7 @@
         <v>3611</v>
       </c>
       <c r="P131">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3482</v>
       </c>
     </row>
@@ -17741,23 +17784,23 @@
         <v>1.6</v>
       </c>
       <c r="D132">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>29992144</v>
       </c>
       <c r="E132">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3215</v>
       </c>
       <c r="F132">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4641</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>29992144</v>
       </c>
       <c r="H132">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3888</v>
       </c>
       <c r="I132" s="4">
@@ -17777,7 +17820,7 @@
         <v>3888</v>
       </c>
       <c r="P132">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3749</v>
       </c>
     </row>
@@ -17792,23 +17835,23 @@
         <v>1.6</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D134" si="33">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <f t="shared" ref="D133:D134" si="34">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
         <v>29991715</v>
       </c>
       <c r="E133">
-        <f t="shared" ref="E133:E134" si="34">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <f t="shared" ref="E133:E134" si="35">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
         <v>3376</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133:F134" si="35">F132+ROUND(E132/$D$2,0)</f>
+        <f t="shared" ref="F133:F134" si="36">F132+ROUND(E132/$D$2,0)</f>
         <v>4909</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="36">D133</f>
+        <f t="shared" ref="G133:G134" si="37">D133</f>
         <v>29991715</v>
       </c>
       <c r="H133">
-        <f t="shared" ref="H133:H134" si="37">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <f t="shared" ref="H133:H134" si="38">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
         <v>4186</v>
       </c>
       <c r="I133" s="4">
@@ -17828,7 +17871,7 @@
         <v>4186</v>
       </c>
       <c r="P133">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4037</v>
       </c>
     </row>
@@ -17843,23 +17886,23 @@
         <v>1.6</v>
       </c>
       <c r="D134">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>29991265</v>
       </c>
       <c r="E134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3545</v>
       </c>
       <c r="F134">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>5190</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>29991265</v>
       </c>
       <c r="H134">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4507</v>
       </c>
       <c r="I134" s="4">
@@ -17879,7 +17922,7 @@
         <v>4507</v>
       </c>
       <c r="P134">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4347</v>
       </c>
     </row>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7DCA17-DE0D-46EC-BD68-7C7D567AD796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD5EF5-98DB-43DE-9E5C-F99FC985397A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21570" yWindow="1365" windowWidth="17655" windowHeight="11355" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="1260" yWindow="60" windowWidth="17655" windowHeight="10935" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -571,49 +571,52 @@
                   <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>491</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>529</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>570</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>613</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>660</c:v>
+                  <c:v>669</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>711</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>766</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>825</c:v>
+                  <c:v>839</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>888</c:v>
+                  <c:v>905</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>956</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1029</c:v>
+                  <c:v>1053</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1108</c:v>
+                  <c:v>1135</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1193</c:v>
+                  <c:v>1223</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1285</c:v>
+                  <c:v>1319</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1384</c:v>
+                  <c:v>1422</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,6 +1012,9 @@
                 <c:pt idx="48">
                   <c:v>1411</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>1536</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1257,10 +1263,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45</c:v>
@@ -1281,175 +1287,175 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>81</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>101</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>126</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>135</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>146</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>157</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>169</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>182</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>196</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>211</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>227</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>244</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>263</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>283</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>304</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>328</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>353</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>380</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>409</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>440</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>473</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>510</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>549</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>591</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>637</c:v>
+                  <c:v>669</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>686</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>739</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>795</c:v>
+                  <c:v>839</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>856</c:v>
+                  <c:v>905</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>922</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>993</c:v>
+                  <c:v>1053</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1069</c:v>
+                  <c:v>1135</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1151</c:v>
+                  <c:v>1223</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1239</c:v>
+                  <c:v>1319</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1334</c:v>
+                  <c:v>1422</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1436</c:v>
+                  <c:v>1533</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1546</c:v>
+                  <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1664</c:v>
+                  <c:v>1782</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1791</c:v>
+                  <c:v>1921</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1929</c:v>
+                  <c:v>2072</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2077</c:v>
+                  <c:v>2234</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2236</c:v>
+                  <c:v>2409</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2408</c:v>
+                  <c:v>2597</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2592</c:v>
+                  <c:v>2801</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2791</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3004</c:v>
+                  <c:v>3257</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3235</c:v>
+                  <c:v>3512</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3482</c:v>
+                  <c:v>3787</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3749</c:v>
+                  <c:v>4083</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4037</c:v>
+                  <c:v>4403</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4347</c:v>
+                  <c:v>4748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2470,49 +2476,52 @@
                   <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>491</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>529</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>570</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>613</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>660</c:v>
+                  <c:v>669</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>711</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>766</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>825</c:v>
+                  <c:v>839</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>888</c:v>
+                  <c:v>905</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>956</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1029</c:v>
+                  <c:v>1053</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1108</c:v>
+                  <c:v>1135</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1193</c:v>
+                  <c:v>1223</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1285</c:v>
+                  <c:v>1319</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1384</c:v>
+                  <c:v>1422</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3290,6 +3299,9 @@
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4275,49 +4287,52 @@
                   <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>491</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>529</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>570</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>613</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>660</c:v>
+                  <c:v>669</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>711</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>766</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>825</c:v>
+                  <c:v>839</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>888</c:v>
+                  <c:v>905</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>956</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1029</c:v>
+                  <c:v>1053</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1108</c:v>
+                  <c:v>1135</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1193</c:v>
+                  <c:v>1223</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1285</c:v>
+                  <c:v>1319</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1384</c:v>
+                  <c:v>1422</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4344,11 +4359,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="53975" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5054,6 +5069,9 @@
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5452,28 +5470,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
                 <c:pt idx="107">
-                  <c:v>956</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1029</c:v>
+                  <c:v>1053</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1108</c:v>
+                  <c:v>1135</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1193</c:v>
+                  <c:v>1223</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1285</c:v>
+                  <c:v>1319</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1384</c:v>
+                  <c:v>1422</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1490</c:v>
+                  <c:v>1533</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1604</c:v>
+                  <c:v>1653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6480,49 +6498,52 @@
                   <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>491</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>529</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>570</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>613</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>660</c:v>
+                  <c:v>669</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>711</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>766</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>825</c:v>
+                  <c:v>839</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>888</c:v>
+                  <c:v>905</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>956</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1029</c:v>
+                  <c:v>1053</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1108</c:v>
+                  <c:v>1135</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1193</c:v>
+                  <c:v>1223</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1285</c:v>
+                  <c:v>1319</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1384</c:v>
+                  <c:v>1422</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7281,6 +7302,9 @@
                 <c:pt idx="112">
                   <c:v>1411</c:v>
                 </c:pt>
+                <c:pt idx="113">
+                  <c:v>1536</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7700,49 +7724,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="122"/>
                 <c:pt idx="107">
-                  <c:v>956</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1029</c:v>
+                  <c:v>1053</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1108</c:v>
+                  <c:v>1135</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1193</c:v>
+                  <c:v>1223</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1285</c:v>
+                  <c:v>1319</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1384</c:v>
+                  <c:v>1422</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1490</c:v>
+                  <c:v>1533</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1604</c:v>
+                  <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1711</c:v>
+                  <c:v>1763</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1825</c:v>
+                  <c:v>1880</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1947</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2077</c:v>
+                  <c:v>2139</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2215</c:v>
+                  <c:v>2282</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2362</c:v>
+                  <c:v>2434</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2519</c:v>
+                  <c:v>2596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10635,10 +10659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K115"/>
+  <dimension ref="A2:K116"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+      <selection activeCell="A115" sqref="A115:A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11565,6 +11589,14 @@
         <v>1411</v>
       </c>
     </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B116">
+        <v>1536</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11575,8 +11607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="K113" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11590,7 +11622,7 @@
         <v>2</v>
       </c>
       <c r="D1">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -13779,7 +13811,7 @@
         <v>68</v>
       </c>
       <c r="I54" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="1"/>
@@ -13795,7 +13827,7 @@
       </c>
       <c r="P54">
         <f t="shared" ref="P54:P118" si="11">I54</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -13830,7 +13862,7 @@
       </c>
       <c r="I55" s="4">
         <f t="shared" ref="I55:I111" si="12">I54+ROUND(($D$1/$D$2)*G54*(I54/$D$3),0)-ROUND(I54/$D$2,0)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="1"/>
@@ -13846,7 +13878,7 @@
       </c>
       <c r="P55">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -13881,7 +13913,7 @@
       </c>
       <c r="I56" s="4">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="1"/>
@@ -13897,7 +13929,7 @@
       </c>
       <c r="P56">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -13932,7 +13964,7 @@
       </c>
       <c r="I57" s="4">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="1"/>
@@ -13948,7 +13980,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -13983,7 +14015,7 @@
       </c>
       <c r="I58" s="4">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" si="1"/>
@@ -13999,7 +14031,7 @@
       </c>
       <c r="P58">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -14034,7 +14066,7 @@
       </c>
       <c r="I59" s="4">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K59" s="1">
         <f t="shared" si="1"/>
@@ -14050,7 +14082,7 @@
       </c>
       <c r="P59">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -14085,7 +14117,7 @@
       </c>
       <c r="I60" s="4">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="1"/>
@@ -14101,7 +14133,7 @@
       </c>
       <c r="P60">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -14136,7 +14168,7 @@
       </c>
       <c r="I61" s="4">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="1"/>
@@ -14152,7 +14184,7 @@
       </c>
       <c r="P61">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -14187,7 +14219,7 @@
       </c>
       <c r="I62" s="4">
         <f t="shared" si="12"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="1"/>
@@ -14203,7 +14235,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -14238,7 +14270,7 @@
       </c>
       <c r="I63" s="4">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" si="1"/>
@@ -14254,7 +14286,7 @@
       </c>
       <c r="P63">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -14289,7 +14321,7 @@
       </c>
       <c r="I64" s="4">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" si="1"/>
@@ -14305,7 +14337,7 @@
       </c>
       <c r="P64">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -14340,7 +14372,7 @@
       </c>
       <c r="I65" s="4">
         <f t="shared" si="12"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K65" s="1">
         <f t="shared" si="1"/>
@@ -14356,7 +14388,7 @@
       </c>
       <c r="P65">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -14391,7 +14423,7 @@
       </c>
       <c r="I66" s="4">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" si="1"/>
@@ -14407,7 +14439,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -14442,7 +14474,7 @@
       </c>
       <c r="I67" s="4">
         <f t="shared" si="12"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" si="1"/>
@@ -14458,7 +14490,7 @@
       </c>
       <c r="P67">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -14493,7 +14525,7 @@
       </c>
       <c r="I68" s="4">
         <f t="shared" si="12"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K68" s="1">
         <f t="shared" si="1"/>
@@ -14509,7 +14541,7 @@
       </c>
       <c r="P68">
         <f t="shared" si="11"/>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -14544,7 +14576,7 @@
       </c>
       <c r="I69" s="4">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K69" s="1">
         <f t="shared" si="1"/>
@@ -14560,7 +14592,7 @@
       </c>
       <c r="P69">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -14595,7 +14627,7 @@
       </c>
       <c r="I70" s="4">
         <f t="shared" si="12"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K70" s="1">
         <f t="shared" si="1"/>
@@ -14611,7 +14643,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="11"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -14646,7 +14678,7 @@
       </c>
       <c r="I71" s="4">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71" s="1">
         <f t="shared" ref="K71:K134" si="13">A71</f>
@@ -14662,7 +14694,7 @@
       </c>
       <c r="P71">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -15003,7 +15035,7 @@
       </c>
       <c r="I78" s="4">
         <f t="shared" si="12"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K78" s="1">
         <f t="shared" si="13"/>
@@ -15019,7 +15051,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="11"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -15054,7 +15086,7 @@
       </c>
       <c r="I79" s="4">
         <f t="shared" si="12"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K79" s="1">
         <f t="shared" si="13"/>
@@ -15070,7 +15102,7 @@
       </c>
       <c r="P79">
         <f t="shared" si="11"/>
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -15105,7 +15137,7 @@
       </c>
       <c r="I80" s="4">
         <f t="shared" si="12"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K80" s="1">
         <f t="shared" si="13"/>
@@ -15121,7 +15153,7 @@
       </c>
       <c r="P80">
         <f t="shared" si="11"/>
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -15156,7 +15188,7 @@
       </c>
       <c r="I81" s="4">
         <f t="shared" si="12"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K81" s="1">
         <f t="shared" si="13"/>
@@ -15172,7 +15204,7 @@
       </c>
       <c r="P81">
         <f t="shared" si="11"/>
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -15207,7 +15239,7 @@
       </c>
       <c r="I82" s="4">
         <f t="shared" si="12"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K82" s="1">
         <f t="shared" si="13"/>
@@ -15223,7 +15255,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="11"/>
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -15258,7 +15290,7 @@
       </c>
       <c r="I83" s="4">
         <f t="shared" si="12"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K83" s="1">
         <f t="shared" si="13"/>
@@ -15274,7 +15306,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="11"/>
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -15360,7 +15392,7 @@
       </c>
       <c r="I85" s="4">
         <f t="shared" si="12"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K85" s="1">
         <f t="shared" si="13"/>
@@ -15376,7 +15408,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="11"/>
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -15411,7 +15443,7 @@
       </c>
       <c r="I86" s="4">
         <f t="shared" si="12"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K86" s="1">
         <f t="shared" si="13"/>
@@ -15427,7 +15459,7 @@
       </c>
       <c r="P86">
         <f t="shared" si="11"/>
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -15462,7 +15494,7 @@
       </c>
       <c r="I87" s="4">
         <f t="shared" si="12"/>
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K87" s="1">
         <f t="shared" si="13"/>
@@ -15478,7 +15510,7 @@
       </c>
       <c r="P87">
         <f t="shared" si="11"/>
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -15513,7 +15545,7 @@
       </c>
       <c r="I88" s="4">
         <f t="shared" si="12"/>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K88" s="1">
         <f t="shared" si="13"/>
@@ -15529,7 +15561,7 @@
       </c>
       <c r="P88">
         <f t="shared" si="11"/>
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -15564,7 +15596,7 @@
       </c>
       <c r="I89" s="4">
         <f t="shared" si="12"/>
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K89" s="1">
         <f t="shared" si="13"/>
@@ -15580,7 +15612,7 @@
       </c>
       <c r="P89">
         <f t="shared" si="11"/>
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -15615,7 +15647,7 @@
       </c>
       <c r="I90" s="4">
         <f t="shared" si="12"/>
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K90" s="1">
         <f t="shared" si="13"/>
@@ -15631,7 +15663,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="11"/>
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -15666,7 +15698,7 @@
       </c>
       <c r="I91" s="4">
         <f t="shared" si="12"/>
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K91" s="1">
         <f t="shared" si="13"/>
@@ -15682,7 +15714,7 @@
       </c>
       <c r="P91">
         <f t="shared" si="11"/>
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -15717,7 +15749,7 @@
       </c>
       <c r="I92" s="4">
         <f t="shared" si="12"/>
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K92" s="1">
         <f t="shared" si="13"/>
@@ -15733,7 +15765,7 @@
       </c>
       <c r="P92">
         <f t="shared" si="11"/>
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -15768,7 +15800,7 @@
       </c>
       <c r="I93" s="4">
         <f t="shared" si="12"/>
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K93" s="1">
         <f t="shared" si="13"/>
@@ -15784,7 +15816,7 @@
       </c>
       <c r="P93">
         <f t="shared" si="11"/>
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -15819,7 +15851,7 @@
       </c>
       <c r="I94" s="4">
         <f t="shared" si="12"/>
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K94" s="1">
         <f t="shared" si="13"/>
@@ -15835,7 +15867,7 @@
       </c>
       <c r="P94">
         <f t="shared" si="11"/>
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -15870,7 +15902,7 @@
       </c>
       <c r="I95" s="4">
         <f t="shared" si="12"/>
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K95" s="1">
         <f t="shared" si="13"/>
@@ -15886,7 +15918,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="11"/>
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -15921,7 +15953,7 @@
       </c>
       <c r="I96" s="4">
         <f t="shared" si="12"/>
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="K96" s="1">
         <f t="shared" si="13"/>
@@ -15937,7 +15969,7 @@
       </c>
       <c r="P96">
         <f t="shared" si="11"/>
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -15972,7 +16004,7 @@
       </c>
       <c r="I97" s="4">
         <f t="shared" si="12"/>
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="K97" s="1">
         <f t="shared" si="13"/>
@@ -15988,7 +16020,7 @@
       </c>
       <c r="P97">
         <f t="shared" si="11"/>
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -16023,7 +16055,7 @@
       </c>
       <c r="I98" s="4">
         <f t="shared" si="12"/>
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="K98" s="1">
         <f t="shared" si="13"/>
@@ -16039,7 +16071,7 @@
       </c>
       <c r="P98">
         <f t="shared" si="11"/>
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -16074,7 +16106,7 @@
       </c>
       <c r="I99" s="4">
         <f t="shared" si="12"/>
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="K99" s="1">
         <f t="shared" si="13"/>
@@ -16090,7 +16122,7 @@
       </c>
       <c r="P99">
         <f t="shared" si="11"/>
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -16125,7 +16157,7 @@
       </c>
       <c r="I100" s="4">
         <f t="shared" si="12"/>
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="K100" s="1">
         <f t="shared" si="13"/>
@@ -16141,7 +16173,7 @@
       </c>
       <c r="P100">
         <f t="shared" si="11"/>
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -16176,7 +16208,7 @@
       </c>
       <c r="I101" s="4">
         <f t="shared" si="12"/>
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="K101" s="1">
         <f t="shared" si="13"/>
@@ -16192,7 +16224,7 @@
       </c>
       <c r="P101">
         <f t="shared" si="11"/>
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -16227,7 +16259,7 @@
       </c>
       <c r="I102" s="4">
         <f t="shared" si="12"/>
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="K102" s="1">
         <f t="shared" si="13"/>
@@ -16243,7 +16275,7 @@
       </c>
       <c r="P102">
         <f t="shared" si="11"/>
-        <v>409</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -16278,7 +16310,7 @@
       </c>
       <c r="I103" s="4">
         <f t="shared" si="12"/>
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="K103" s="1">
         <f t="shared" si="13"/>
@@ -16294,7 +16326,7 @@
       </c>
       <c r="P103">
         <f t="shared" si="11"/>
-        <v>440</v>
+        <v>460</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -16305,15 +16337,15 @@
         <v>99</v>
       </c>
       <c r="C104">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="D104">
         <f t="shared" si="15"/>
-        <v>29998382</v>
+        <v>29998377</v>
       </c>
       <c r="E104">
         <f t="shared" si="16"/>
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="F104">
         <f t="shared" si="17"/>
@@ -16321,15 +16353,15 @@
       </c>
       <c r="G104" s="2">
         <f t="shared" si="18"/>
-        <v>29998382</v>
+        <v>29998377</v>
       </c>
       <c r="H104" s="2">
         <f t="shared" si="19"/>
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="I104" s="4">
         <f t="shared" si="12"/>
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="K104" s="1">
         <f t="shared" si="13"/>
@@ -16337,7 +16369,7 @@
       </c>
       <c r="L104">
         <f t="shared" si="14"/>
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="M104">
         <f>RealData!B101</f>
@@ -16345,7 +16377,7 @@
       </c>
       <c r="P104">
         <f t="shared" si="11"/>
-        <v>473</v>
+        <v>496</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -16356,15 +16388,15 @@
         <v>100</v>
       </c>
       <c r="C105">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="D105">
         <f t="shared" si="15"/>
-        <v>29998303</v>
+        <v>29998297</v>
       </c>
       <c r="E105">
         <f t="shared" si="16"/>
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F105">
         <f t="shared" si="17"/>
@@ -16372,15 +16404,15 @@
       </c>
       <c r="G105" s="2">
         <f t="shared" si="18"/>
-        <v>29998303</v>
+        <v>29998297</v>
       </c>
       <c r="H105" s="2">
         <f t="shared" si="19"/>
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="I105" s="4">
         <f t="shared" si="12"/>
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="K105" s="1">
         <f t="shared" si="13"/>
@@ -16388,7 +16420,7 @@
       </c>
       <c r="L105">
         <f t="shared" si="14"/>
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="M105">
         <f>RealData!B102</f>
@@ -16396,7 +16428,7 @@
       </c>
       <c r="P105">
         <f t="shared" si="11"/>
-        <v>510</v>
+        <v>535</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -16407,31 +16439,31 @@
         <v>101</v>
       </c>
       <c r="C106">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="D106">
         <f t="shared" si="15"/>
-        <v>29998218</v>
+        <v>29998211</v>
       </c>
       <c r="E106">
         <f t="shared" si="16"/>
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F106">
         <f t="shared" si="17"/>
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" si="18"/>
-        <v>29998218</v>
+        <v>29998211</v>
       </c>
       <c r="H106" s="2">
         <f t="shared" si="19"/>
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="I106" s="4">
         <f t="shared" si="12"/>
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="K106" s="1">
         <f t="shared" si="13"/>
@@ -16439,7 +16471,7 @@
       </c>
       <c r="L106">
         <f t="shared" si="14"/>
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="M106">
         <f>RealData!B103</f>
@@ -16447,7 +16479,7 @@
       </c>
       <c r="P106">
         <f t="shared" si="11"/>
-        <v>549</v>
+        <v>576</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -16458,31 +16490,31 @@
         <v>102</v>
       </c>
       <c r="C107">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="D107">
         <f t="shared" si="15"/>
-        <v>29998127</v>
+        <v>29998118</v>
       </c>
       <c r="E107">
         <f t="shared" si="16"/>
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="F107">
         <f t="shared" si="17"/>
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" si="18"/>
-        <v>29998127</v>
+        <v>29998118</v>
       </c>
       <c r="H107" s="2">
         <f t="shared" si="19"/>
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="I107" s="4">
         <f t="shared" si="12"/>
-        <v>591</v>
+        <v>621</v>
       </c>
       <c r="K107" s="1">
         <f t="shared" si="13"/>
@@ -16490,7 +16522,7 @@
       </c>
       <c r="L107">
         <f t="shared" si="14"/>
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="M107">
         <f>RealData!B104</f>
@@ -16498,7 +16530,7 @@
       </c>
       <c r="P107">
         <f t="shared" si="11"/>
-        <v>591</v>
+        <v>621</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -16509,31 +16541,31 @@
         <v>103</v>
       </c>
       <c r="C108">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="D108">
         <f t="shared" si="15"/>
-        <v>29998029</v>
+        <v>29998018</v>
       </c>
       <c r="E108">
         <f t="shared" si="16"/>
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="F108">
         <f t="shared" si="17"/>
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" si="18"/>
-        <v>29998029</v>
+        <v>29998018</v>
       </c>
       <c r="H108" s="2">
         <f t="shared" si="19"/>
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="I108" s="4">
         <f t="shared" si="12"/>
-        <v>637</v>
+        <v>669</v>
       </c>
       <c r="K108" s="1">
         <f t="shared" si="13"/>
@@ -16541,7 +16573,7 @@
       </c>
       <c r="L108">
         <f t="shared" si="14"/>
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="M108">
         <f>RealData!B105</f>
@@ -16549,7 +16581,7 @@
       </c>
       <c r="P108">
         <f t="shared" si="11"/>
-        <v>637</v>
+        <v>669</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -16560,31 +16592,31 @@
         <v>104</v>
       </c>
       <c r="C109">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="D109">
         <f t="shared" si="15"/>
-        <v>29997923</v>
+        <v>29997910</v>
       </c>
       <c r="E109">
         <f t="shared" si="16"/>
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="F109">
         <f t="shared" si="17"/>
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="G109" s="2">
         <f t="shared" si="18"/>
-        <v>29997923</v>
+        <v>29997910</v>
       </c>
       <c r="H109" s="2">
         <f t="shared" si="19"/>
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="I109" s="4">
         <f t="shared" si="12"/>
-        <v>686</v>
+        <v>721</v>
       </c>
       <c r="K109" s="1">
         <f t="shared" si="13"/>
@@ -16592,7 +16624,7 @@
       </c>
       <c r="L109">
         <f t="shared" si="14"/>
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="M109">
         <f>RealData!B106</f>
@@ -16600,7 +16632,7 @@
       </c>
       <c r="P109">
         <f t="shared" si="11"/>
-        <v>686</v>
+        <v>721</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -16611,31 +16643,31 @@
         <v>105</v>
       </c>
       <c r="C110">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="D110">
         <f t="shared" si="15"/>
-        <v>29997809</v>
+        <v>29997793</v>
       </c>
       <c r="E110">
         <f t="shared" si="16"/>
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="F110">
         <f t="shared" si="17"/>
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="G110" s="2">
         <f t="shared" si="18"/>
-        <v>29997809</v>
+        <v>29997793</v>
       </c>
       <c r="H110" s="2">
         <f t="shared" si="19"/>
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="I110" s="4">
         <f t="shared" si="12"/>
-        <v>739</v>
+        <v>778</v>
       </c>
       <c r="K110" s="1">
         <f t="shared" si="13"/>
@@ -16643,7 +16675,7 @@
       </c>
       <c r="L110">
         <f t="shared" si="14"/>
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="M110">
         <f>RealData!B107</f>
@@ -16651,7 +16683,7 @@
       </c>
       <c r="P110">
         <f t="shared" si="11"/>
-        <v>739</v>
+        <v>778</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -16662,31 +16694,31 @@
         <v>106</v>
       </c>
       <c r="C111">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="D111">
         <f t="shared" si="15"/>
-        <v>29997686</v>
+        <v>29997667</v>
       </c>
       <c r="E111">
         <f t="shared" si="16"/>
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="F111">
         <f t="shared" si="17"/>
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" si="18"/>
-        <v>29997686</v>
+        <v>29997667</v>
       </c>
       <c r="H111" s="2">
         <f t="shared" si="19"/>
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="I111" s="4">
         <f t="shared" si="12"/>
-        <v>795</v>
+        <v>839</v>
       </c>
       <c r="K111" s="1">
         <f t="shared" si="13"/>
@@ -16694,7 +16726,7 @@
       </c>
       <c r="L111">
         <f t="shared" si="14"/>
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="M111">
         <f>RealData!B108</f>
@@ -16702,7 +16734,7 @@
       </c>
       <c r="P111">
         <f t="shared" si="11"/>
-        <v>795</v>
+        <v>839</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -16713,31 +16745,31 @@
         <v>107</v>
       </c>
       <c r="C112">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="D112">
         <f t="shared" si="15"/>
-        <v>29997554</v>
+        <v>29997531</v>
       </c>
       <c r="E112">
         <f t="shared" si="16"/>
-        <v>888</v>
+        <v>905</v>
       </c>
       <c r="F112">
         <f t="shared" si="17"/>
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" si="18"/>
-        <v>29997554</v>
+        <v>29997531</v>
       </c>
       <c r="H112" s="2">
         <f t="shared" si="19"/>
-        <v>888</v>
+        <v>905</v>
       </c>
       <c r="I112" s="4">
         <f t="shared" ref="I112:I113" si="20">I111+ROUND(($D$1/$D$2)*G111*(I111/$D$3),0)-ROUND(I111/$D$2,0)</f>
-        <v>856</v>
+        <v>905</v>
       </c>
       <c r="K112" s="1">
         <f t="shared" si="13"/>
@@ -16745,7 +16777,7 @@
       </c>
       <c r="L112">
         <f t="shared" si="14"/>
-        <v>888</v>
+        <v>905</v>
       </c>
       <c r="M112">
         <f>RealData!B109</f>
@@ -16753,7 +16785,7 @@
       </c>
       <c r="P112">
         <f t="shared" si="11"/>
-        <v>856</v>
+        <v>905</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -16764,31 +16796,31 @@
         <v>108</v>
       </c>
       <c r="C113">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="D113">
         <f t="shared" si="15"/>
-        <v>29997412</v>
+        <v>29997385</v>
       </c>
       <c r="E113">
         <f t="shared" si="16"/>
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="F113">
         <f t="shared" si="17"/>
-        <v>1632</v>
+        <v>1639</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" si="18"/>
-        <v>29997412</v>
+        <v>29997385</v>
       </c>
       <c r="H113" s="2">
         <f>E113</f>
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="I113" s="4">
         <f t="shared" si="20"/>
-        <v>922</v>
+        <v>976</v>
       </c>
       <c r="K113" s="1">
         <f t="shared" si="13"/>
@@ -16796,7 +16828,7 @@
       </c>
       <c r="L113">
         <f t="shared" si="14"/>
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="M113">
         <f>RealData!B110</f>
@@ -16804,15 +16836,15 @@
       </c>
       <c r="N113">
         <f>E113</f>
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="O113">
         <f>H113</f>
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="P113">
         <f>I113</f>
-        <v>922</v>
+        <v>976</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -16822,32 +16854,32 @@
       <c r="B114" s="4">
         <v>109</v>
       </c>
-      <c r="C114" s="4">
-        <v>1.92</v>
+      <c r="C114">
+        <v>1.94</v>
       </c>
       <c r="D114" s="4">
         <f t="shared" si="15"/>
-        <v>29997259</v>
+        <v>29997227</v>
       </c>
       <c r="E114" s="4">
         <f t="shared" si="16"/>
-        <v>1029</v>
+        <v>1053</v>
       </c>
       <c r="F114" s="4">
         <f t="shared" si="17"/>
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="G114" s="4">
         <f t="shared" si="18"/>
-        <v>29997259</v>
+        <v>29997227</v>
       </c>
       <c r="H114" s="4">
         <f>H113+ROUND(($D$1/$D$2)*G113*(H113/$D$3),0)-ROUND(H113/$D$2,0)</f>
-        <v>1029</v>
+        <v>1053</v>
       </c>
       <c r="I114" s="4">
         <f>I113+ROUND(($D$1/$D$2)*G113*(I113/$D$3),0)-ROUND(I113/$D$2,0)</f>
-        <v>993</v>
+        <v>1053</v>
       </c>
       <c r="K114" s="1">
         <f t="shared" si="13"/>
@@ -16855,7 +16887,7 @@
       </c>
       <c r="L114">
         <f t="shared" ref="L114" si="21">E114</f>
-        <v>1029</v>
+        <v>1053</v>
       </c>
       <c r="M114">
         <f>RealData!B111</f>
@@ -16863,15 +16895,15 @@
       </c>
       <c r="N114">
         <f>E114</f>
-        <v>1029</v>
+        <v>1053</v>
       </c>
       <c r="O114">
         <f>H114</f>
-        <v>1029</v>
+        <v>1053</v>
       </c>
       <c r="P114">
         <f t="shared" si="11"/>
-        <v>993</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -16881,32 +16913,32 @@
       <c r="B115" s="4">
         <v>110</v>
       </c>
-      <c r="C115" s="4">
-        <v>1.92</v>
+      <c r="C115">
+        <v>1.94</v>
       </c>
       <c r="D115" s="4">
         <f t="shared" si="15"/>
-        <v>29997094</v>
+        <v>29997057</v>
       </c>
       <c r="E115" s="4">
         <f t="shared" si="16"/>
-        <v>1108</v>
+        <v>1135</v>
       </c>
       <c r="F115" s="4">
         <f t="shared" si="17"/>
-        <v>1798</v>
+        <v>1808</v>
       </c>
       <c r="G115" s="4">
         <f t="shared" si="18"/>
-        <v>29997094</v>
+        <v>29997057</v>
       </c>
       <c r="H115" s="4">
         <f t="shared" ref="H115:H122" si="22">H114+ROUND(($D$1/$D$2)*G114*(H114/$D$3),0)-ROUND(H114/$D$2,0)</f>
-        <v>1108</v>
+        <v>1135</v>
       </c>
       <c r="I115" s="4">
         <f t="shared" ref="I115:I134" si="23">I114+ROUND(($D$1/$D$2)*G114*(I114/$D$3),0)-ROUND(I114/$D$2,0)</f>
-        <v>1069</v>
+        <v>1135</v>
       </c>
       <c r="K115" s="1">
         <f t="shared" si="13"/>
@@ -16914,7 +16946,7 @@
       </c>
       <c r="L115">
         <f>E115</f>
-        <v>1108</v>
+        <v>1135</v>
       </c>
       <c r="M115">
         <f>RealData!B112</f>
@@ -16922,15 +16954,15 @@
       </c>
       <c r="N115">
         <f t="shared" ref="N115:N134" si="24">E115</f>
-        <v>1108</v>
+        <v>1135</v>
       </c>
       <c r="O115">
         <f t="shared" ref="O115:O134" si="25">H115</f>
-        <v>1108</v>
+        <v>1135</v>
       </c>
       <c r="P115">
         <f t="shared" si="11"/>
-        <v>1069</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -16940,32 +16972,32 @@
       <c r="B116" s="4">
         <v>111</v>
       </c>
-      <c r="C116" s="4">
-        <v>1.92</v>
+      <c r="C116">
+        <v>1.94</v>
       </c>
       <c r="D116" s="4">
         <f t="shared" si="15"/>
-        <v>29996917</v>
+        <v>29996874</v>
       </c>
       <c r="E116" s="4">
         <f t="shared" si="16"/>
-        <v>1193</v>
+        <v>1223</v>
       </c>
       <c r="F116" s="4">
         <f t="shared" si="17"/>
-        <v>1890</v>
+        <v>1903</v>
       </c>
       <c r="G116" s="4">
         <f t="shared" si="18"/>
-        <v>29996917</v>
+        <v>29996874</v>
       </c>
       <c r="H116" s="4">
         <f t="shared" si="22"/>
-        <v>1193</v>
+        <v>1223</v>
       </c>
       <c r="I116" s="4">
         <f t="shared" si="23"/>
-        <v>1151</v>
+        <v>1223</v>
       </c>
       <c r="K116" s="1">
         <f t="shared" si="13"/>
@@ -16973,7 +17005,7 @@
       </c>
       <c r="L116">
         <f t="shared" ref="L116:L117" si="26">E116</f>
-        <v>1193</v>
+        <v>1223</v>
       </c>
       <c r="M116">
         <f>RealData!B113</f>
@@ -16981,15 +17013,15 @@
       </c>
       <c r="N116">
         <f t="shared" si="24"/>
-        <v>1193</v>
+        <v>1223</v>
       </c>
       <c r="O116">
         <f t="shared" si="25"/>
-        <v>1193</v>
+        <v>1223</v>
       </c>
       <c r="P116">
         <f t="shared" si="11"/>
-        <v>1151</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -16999,32 +17031,32 @@
       <c r="B117" s="4">
         <v>112</v>
       </c>
-      <c r="C117" s="4">
-        <v>1.92</v>
+      <c r="C117">
+        <v>1.94</v>
       </c>
       <c r="D117" s="4">
         <f t="shared" si="15"/>
-        <v>29996726</v>
+        <v>29996676</v>
       </c>
       <c r="E117" s="4">
         <f t="shared" si="16"/>
-        <v>1285</v>
+        <v>1319</v>
       </c>
       <c r="F117" s="4">
         <f t="shared" si="17"/>
-        <v>1989</v>
+        <v>2005</v>
       </c>
       <c r="G117" s="4">
         <f t="shared" si="18"/>
-        <v>29996726</v>
+        <v>29996676</v>
       </c>
       <c r="H117" s="4">
         <f t="shared" si="22"/>
-        <v>1285</v>
+        <v>1319</v>
       </c>
       <c r="I117" s="4">
         <f t="shared" si="23"/>
-        <v>1239</v>
+        <v>1319</v>
       </c>
       <c r="K117" s="1">
         <f t="shared" si="13"/>
@@ -17032,7 +17064,7 @@
       </c>
       <c r="L117">
         <f t="shared" si="26"/>
-        <v>1285</v>
+        <v>1319</v>
       </c>
       <c r="M117">
         <f>RealData!B114</f>
@@ -17040,15 +17072,15 @@
       </c>
       <c r="N117">
         <f t="shared" si="24"/>
-        <v>1285</v>
+        <v>1319</v>
       </c>
       <c r="O117">
         <f t="shared" si="25"/>
-        <v>1285</v>
+        <v>1319</v>
       </c>
       <c r="P117">
         <f t="shared" si="11"/>
-        <v>1239</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -17058,32 +17090,32 @@
       <c r="B118" s="4">
         <v>113</v>
       </c>
-      <c r="C118" s="4">
-        <v>1.92</v>
+      <c r="C118">
+        <v>1.94</v>
       </c>
       <c r="D118" s="4">
         <f t="shared" si="15"/>
-        <v>29996520</v>
+        <v>29996463</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="16"/>
-        <v>1384</v>
+        <v>1422</v>
       </c>
       <c r="F118" s="4">
         <f t="shared" si="17"/>
-        <v>2096</v>
+        <v>2115</v>
       </c>
       <c r="G118" s="4">
         <f t="shared" si="18"/>
-        <v>29996520</v>
+        <v>29996463</v>
       </c>
       <c r="H118" s="4">
         <f t="shared" si="22"/>
-        <v>1384</v>
+        <v>1422</v>
       </c>
       <c r="I118" s="4">
         <f t="shared" si="23"/>
-        <v>1334</v>
+        <v>1422</v>
       </c>
       <c r="K118" s="1">
         <f t="shared" si="13"/>
@@ -17091,7 +17123,7 @@
       </c>
       <c r="L118">
         <f t="shared" ref="L118" si="27">E118</f>
-        <v>1384</v>
+        <v>1422</v>
       </c>
       <c r="M118">
         <f>RealData!B115</f>
@@ -17099,15 +17131,15 @@
       </c>
       <c r="N118">
         <f t="shared" si="24"/>
-        <v>1384</v>
+        <v>1422</v>
       </c>
       <c r="O118">
         <f t="shared" si="25"/>
-        <v>1384</v>
+        <v>1422</v>
       </c>
       <c r="P118">
         <f t="shared" si="11"/>
-        <v>1334</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -17117,48 +17149,56 @@
       <c r="B119" s="4">
         <v>114</v>
       </c>
-      <c r="C119" s="4">
-        <v>1.92</v>
+      <c r="C119">
+        <v>1.94</v>
       </c>
       <c r="D119" s="4">
         <f t="shared" si="15"/>
-        <v>29996299</v>
+        <v>29996233</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="16"/>
-        <v>1490</v>
+        <v>1533</v>
       </c>
       <c r="F119" s="4">
         <f t="shared" si="17"/>
-        <v>2211</v>
+        <v>2234</v>
       </c>
       <c r="G119" s="4">
         <f t="shared" si="18"/>
-        <v>29996299</v>
+        <v>29996233</v>
       </c>
       <c r="H119" s="4">
         <f t="shared" si="22"/>
-        <v>1490</v>
+        <v>1533</v>
       </c>
       <c r="I119" s="4">
         <f t="shared" si="23"/>
-        <v>1436</v>
+        <v>1533</v>
       </c>
       <c r="K119" s="1">
         <f t="shared" si="13"/>
         <v>44132</v>
       </c>
+      <c r="L119">
+        <f t="shared" ref="L119" si="28">E119</f>
+        <v>1533</v>
+      </c>
+      <c r="M119">
+        <f>RealData!B116</f>
+        <v>1536</v>
+      </c>
       <c r="N119">
         <f t="shared" si="24"/>
-        <v>1490</v>
+        <v>1533</v>
       </c>
       <c r="O119">
         <f t="shared" si="25"/>
-        <v>1490</v>
+        <v>1533</v>
       </c>
       <c r="P119">
-        <f t="shared" ref="P119:P134" si="28">I119</f>
-        <v>1436</v>
+        <f t="shared" ref="P119:P134" si="29">I119</f>
+        <v>1533</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -17168,32 +17208,32 @@
       <c r="B120" s="4">
         <v>115</v>
       </c>
-      <c r="C120" s="4">
-        <v>1.92</v>
+      <c r="C120">
+        <v>1.94</v>
       </c>
       <c r="D120" s="4">
         <f t="shared" si="15"/>
-        <v>29996061</v>
+        <v>29995985</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" si="16"/>
-        <v>1604</v>
+        <v>1653</v>
       </c>
       <c r="F120" s="4">
         <f t="shared" si="17"/>
-        <v>2335</v>
+        <v>2362</v>
       </c>
       <c r="G120" s="4">
         <f t="shared" si="18"/>
-        <v>29996061</v>
+        <v>29995985</v>
       </c>
       <c r="H120" s="4">
         <f t="shared" si="22"/>
-        <v>1604</v>
+        <v>1653</v>
       </c>
       <c r="I120" s="4">
         <f t="shared" si="23"/>
-        <v>1546</v>
+        <v>1653</v>
       </c>
       <c r="K120" s="1">
         <f t="shared" si="13"/>
@@ -17201,15 +17241,15 @@
       </c>
       <c r="N120">
         <f t="shared" si="24"/>
-        <v>1604</v>
+        <v>1653</v>
       </c>
       <c r="O120">
         <f t="shared" si="25"/>
-        <v>1604</v>
+        <v>1653</v>
       </c>
       <c r="P120">
-        <f t="shared" si="28"/>
-        <v>1546</v>
+        <f t="shared" si="29"/>
+        <v>1653</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -17224,27 +17264,27 @@
       </c>
       <c r="D121" s="6">
         <f t="shared" si="15"/>
-        <v>29995820</v>
+        <v>29995737</v>
       </c>
       <c r="E121" s="6">
         <f t="shared" si="16"/>
-        <v>1711</v>
+        <v>1763</v>
       </c>
       <c r="F121" s="6">
         <f t="shared" si="17"/>
-        <v>2469</v>
+        <v>2500</v>
       </c>
       <c r="G121" s="6">
         <f t="shared" si="18"/>
-        <v>29995820</v>
+        <v>29995737</v>
       </c>
       <c r="H121" s="6">
         <f t="shared" si="22"/>
-        <v>1727</v>
+        <v>1782</v>
       </c>
       <c r="I121" s="4">
         <f t="shared" si="23"/>
-        <v>1664</v>
+        <v>1782</v>
       </c>
       <c r="K121" s="1">
         <f t="shared" si="13"/>
@@ -17252,15 +17292,15 @@
       </c>
       <c r="N121">
         <f t="shared" si="24"/>
-        <v>1711</v>
+        <v>1763</v>
       </c>
       <c r="O121">
         <f t="shared" si="25"/>
-        <v>1727</v>
+        <v>1782</v>
       </c>
       <c r="P121">
-        <f t="shared" si="28"/>
-        <v>1664</v>
+        <f t="shared" si="29"/>
+        <v>1782</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -17275,27 +17315,27 @@
       </c>
       <c r="D122" s="6">
         <f t="shared" si="15"/>
-        <v>29995563</v>
+        <v>29995473</v>
       </c>
       <c r="E122" s="6">
         <f t="shared" si="16"/>
-        <v>1825</v>
+        <v>1880</v>
       </c>
       <c r="F122" s="6">
         <f t="shared" si="17"/>
-        <v>2612</v>
+        <v>2647</v>
       </c>
       <c r="G122" s="6">
         <f t="shared" si="18"/>
-        <v>29995563</v>
+        <v>29995473</v>
       </c>
       <c r="H122" s="6">
         <f t="shared" si="22"/>
-        <v>1859</v>
+        <v>1921</v>
       </c>
       <c r="I122" s="4">
         <f t="shared" si="23"/>
-        <v>1791</v>
+        <v>1921</v>
       </c>
       <c r="K122" s="1">
         <f t="shared" si="13"/>
@@ -17303,15 +17343,15 @@
       </c>
       <c r="N122">
         <f t="shared" si="24"/>
-        <v>1825</v>
+        <v>1880</v>
       </c>
       <c r="O122">
         <f t="shared" si="25"/>
-        <v>1859</v>
+        <v>1921</v>
       </c>
       <c r="P122">
-        <f t="shared" si="28"/>
-        <v>1791</v>
+        <f t="shared" si="29"/>
+        <v>1921</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -17325,28 +17365,28 @@
         <v>1.8</v>
       </c>
       <c r="D123" s="6">
-        <f t="shared" ref="D123:D132" si="29">D122-ROUND((C123/$D$2)*D122*(E122/$D$3),0)</f>
-        <v>29995289</v>
+        <f t="shared" ref="D123:D132" si="30">D122-ROUND((C123/$D$2)*D122*(E122/$D$3),0)</f>
+        <v>29995191</v>
       </c>
       <c r="E123" s="6">
-        <f t="shared" ref="E123:E132" si="30">E122+ROUND((C123/$D$2)*D122*(E122/$D$3),0)-ROUND(E122/$D$2,0)</f>
-        <v>1947</v>
+        <f t="shared" ref="E123:E132" si="31">E122+ROUND((C123/$D$2)*D122*(E122/$D$3),0)-ROUND(E122/$D$2,0)</f>
+        <v>2005</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" ref="F123:F132" si="31">F122+ROUND(E122/$D$2,0)</f>
-        <v>2764</v>
+        <f t="shared" ref="F123:F132" si="32">F122+ROUND(E122/$D$2,0)</f>
+        <v>2804</v>
       </c>
       <c r="G123" s="6">
-        <f t="shared" ref="G123:G132" si="32">D123</f>
-        <v>29995289</v>
+        <f t="shared" ref="G123:G132" si="33">D123</f>
+        <v>29995191</v>
       </c>
       <c r="H123" s="6">
-        <f t="shared" ref="H123:H132" si="33">H122+ROUND(($D$1/$D$2)*G122*(H122/$D$3),0)-ROUND(H122/$D$2,0)</f>
-        <v>2001</v>
+        <f t="shared" ref="H123:H132" si="34">H122+ROUND(($D$1/$D$2)*G122*(H122/$D$3),0)-ROUND(H122/$D$2,0)</f>
+        <v>2072</v>
       </c>
       <c r="I123" s="4">
         <f t="shared" si="23"/>
-        <v>1929</v>
+        <v>2072</v>
       </c>
       <c r="K123" s="1">
         <f t="shared" si="13"/>
@@ -17354,15 +17394,15 @@
       </c>
       <c r="N123">
         <f t="shared" si="24"/>
-        <v>1947</v>
+        <v>2005</v>
       </c>
       <c r="O123">
         <f t="shared" si="25"/>
-        <v>2001</v>
+        <v>2072</v>
       </c>
       <c r="P123">
-        <f t="shared" si="28"/>
-        <v>1929</v>
+        <f t="shared" si="29"/>
+        <v>2072</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -17376,28 +17416,28 @@
         <v>1.8</v>
       </c>
       <c r="D124" s="6">
-        <f t="shared" si="29"/>
-        <v>29994997</v>
+        <f t="shared" si="30"/>
+        <v>29994890</v>
       </c>
       <c r="E124" s="6">
-        <f t="shared" si="30"/>
-        <v>2077</v>
+        <f t="shared" si="31"/>
+        <v>2139</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" si="31"/>
-        <v>2926</v>
+        <f t="shared" si="32"/>
+        <v>2971</v>
       </c>
       <c r="G124" s="6">
-        <f t="shared" si="32"/>
-        <v>29994997</v>
+        <f t="shared" si="33"/>
+        <v>29994890</v>
       </c>
       <c r="H124" s="6">
-        <f t="shared" si="33"/>
-        <v>2154</v>
+        <f t="shared" si="34"/>
+        <v>2234</v>
       </c>
       <c r="I124" s="4">
         <f t="shared" si="23"/>
-        <v>2077</v>
+        <v>2234</v>
       </c>
       <c r="K124" s="1">
         <f t="shared" si="13"/>
@@ -17405,15 +17445,15 @@
       </c>
       <c r="N124">
         <f t="shared" si="24"/>
-        <v>2077</v>
+        <v>2139</v>
       </c>
       <c r="O124">
         <f t="shared" si="25"/>
-        <v>2154</v>
+        <v>2234</v>
       </c>
       <c r="P124">
-        <f t="shared" si="28"/>
-        <v>2077</v>
+        <f t="shared" si="29"/>
+        <v>2234</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -17427,28 +17467,28 @@
         <v>1.8</v>
       </c>
       <c r="D125" s="6">
-        <f t="shared" si="29"/>
-        <v>29994686</v>
+        <f t="shared" si="30"/>
+        <v>29994569</v>
       </c>
       <c r="E125" s="6">
-        <f t="shared" si="30"/>
-        <v>2215</v>
+        <f t="shared" si="31"/>
+        <v>2282</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="31"/>
-        <v>3099</v>
+        <f t="shared" si="32"/>
+        <v>3149</v>
       </c>
       <c r="G125" s="6">
-        <f t="shared" si="32"/>
-        <v>29994686</v>
+        <f t="shared" si="33"/>
+        <v>29994569</v>
       </c>
       <c r="H125" s="6">
-        <f t="shared" si="33"/>
-        <v>2319</v>
+        <f t="shared" si="34"/>
+        <v>2409</v>
       </c>
       <c r="I125" s="4">
         <f t="shared" si="23"/>
-        <v>2236</v>
+        <v>2409</v>
       </c>
       <c r="K125" s="1">
         <f t="shared" si="13"/>
@@ -17456,15 +17496,15 @@
       </c>
       <c r="N125">
         <f t="shared" si="24"/>
-        <v>2215</v>
+        <v>2282</v>
       </c>
       <c r="O125">
         <f t="shared" si="25"/>
-        <v>2319</v>
+        <v>2409</v>
       </c>
       <c r="P125">
-        <f t="shared" si="28"/>
-        <v>2236</v>
+        <f t="shared" si="29"/>
+        <v>2409</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -17478,28 +17518,28 @@
         <v>1.8</v>
       </c>
       <c r="D126" s="6">
-        <f t="shared" si="29"/>
-        <v>29994354</v>
+        <f t="shared" si="30"/>
+        <v>29994227</v>
       </c>
       <c r="E126" s="6">
-        <f t="shared" si="30"/>
-        <v>2362</v>
+        <f t="shared" si="31"/>
+        <v>2434</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="31"/>
-        <v>3284</v>
+        <f t="shared" si="32"/>
+        <v>3339</v>
       </c>
       <c r="G126" s="6">
-        <f t="shared" si="32"/>
-        <v>29994354</v>
+        <f t="shared" si="33"/>
+        <v>29994227</v>
       </c>
       <c r="H126" s="6">
-        <f t="shared" si="33"/>
-        <v>2497</v>
+        <f t="shared" si="34"/>
+        <v>2597</v>
       </c>
       <c r="I126" s="4">
         <f t="shared" si="23"/>
-        <v>2408</v>
+        <v>2597</v>
       </c>
       <c r="K126" s="1">
         <f t="shared" si="13"/>
@@ -17507,15 +17547,15 @@
       </c>
       <c r="N126">
         <f t="shared" si="24"/>
-        <v>2362</v>
+        <v>2434</v>
       </c>
       <c r="O126">
         <f t="shared" si="25"/>
-        <v>2497</v>
+        <v>2597</v>
       </c>
       <c r="P126">
-        <f t="shared" si="28"/>
-        <v>2408</v>
+        <f t="shared" si="29"/>
+        <v>2597</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -17529,28 +17569,28 @@
         <v>1.8</v>
       </c>
       <c r="D127" s="6">
-        <f t="shared" si="29"/>
-        <v>29994000</v>
+        <f t="shared" si="30"/>
+        <v>29993862</v>
       </c>
       <c r="E127" s="6">
-        <f t="shared" si="30"/>
-        <v>2519</v>
+        <f t="shared" si="31"/>
+        <v>2596</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="31"/>
-        <v>3481</v>
+        <f t="shared" si="32"/>
+        <v>3542</v>
       </c>
       <c r="G127" s="6">
-        <f t="shared" si="32"/>
-        <v>29994000</v>
+        <f t="shared" si="33"/>
+        <v>29993862</v>
       </c>
       <c r="H127" s="6">
-        <f t="shared" si="33"/>
-        <v>2688</v>
+        <f t="shared" si="34"/>
+        <v>2801</v>
       </c>
       <c r="I127" s="4">
         <f t="shared" si="23"/>
-        <v>2592</v>
+        <v>2801</v>
       </c>
       <c r="K127" s="1">
         <f t="shared" si="13"/>
@@ -17558,15 +17598,15 @@
       </c>
       <c r="N127">
         <f t="shared" si="24"/>
-        <v>2519</v>
+        <v>2596</v>
       </c>
       <c r="O127">
         <f t="shared" si="25"/>
-        <v>2688</v>
+        <v>2801</v>
       </c>
       <c r="P127">
-        <f t="shared" si="28"/>
-        <v>2592</v>
+        <f t="shared" si="29"/>
+        <v>2801</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -17580,28 +17620,28 @@
         <v>1.6</v>
       </c>
       <c r="D128">
-        <f t="shared" si="29"/>
-        <v>29993664</v>
+        <f t="shared" si="30"/>
+        <v>29993516</v>
       </c>
       <c r="E128">
-        <f t="shared" si="30"/>
-        <v>2645</v>
+        <f t="shared" si="31"/>
+        <v>2726</v>
       </c>
       <c r="F128">
-        <f t="shared" si="31"/>
-        <v>3691</v>
+        <f t="shared" si="32"/>
+        <v>3758</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="32"/>
-        <v>29993664</v>
+        <f t="shared" si="33"/>
+        <v>29993516</v>
       </c>
       <c r="H128">
-        <f t="shared" si="33"/>
-        <v>2894</v>
+        <f t="shared" si="34"/>
+        <v>3021</v>
       </c>
       <c r="I128" s="4">
         <f t="shared" si="23"/>
-        <v>2791</v>
+        <v>3021</v>
       </c>
       <c r="K128" s="1">
         <f t="shared" si="13"/>
@@ -17609,15 +17649,15 @@
       </c>
       <c r="N128">
         <f t="shared" si="24"/>
-        <v>2645</v>
+        <v>2726</v>
       </c>
       <c r="O128">
         <f t="shared" si="25"/>
-        <v>2894</v>
+        <v>3021</v>
       </c>
       <c r="P128">
-        <f t="shared" si="28"/>
-        <v>2791</v>
+        <f t="shared" si="29"/>
+        <v>3021</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -17631,28 +17671,28 @@
         <v>1.6</v>
       </c>
       <c r="D129">
-        <f t="shared" si="29"/>
-        <v>29993311</v>
+        <f t="shared" si="30"/>
+        <v>29993153</v>
       </c>
       <c r="E129">
-        <f t="shared" si="30"/>
-        <v>2778</v>
+        <f t="shared" si="31"/>
+        <v>2862</v>
       </c>
       <c r="F129">
-        <f t="shared" si="31"/>
-        <v>3911</v>
+        <f t="shared" si="32"/>
+        <v>3985</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="32"/>
-        <v>29993311</v>
+        <f t="shared" si="33"/>
+        <v>29993153</v>
       </c>
       <c r="H129">
-        <f t="shared" si="33"/>
-        <v>3116</v>
+        <f t="shared" si="34"/>
+        <v>3257</v>
       </c>
       <c r="I129" s="4">
         <f t="shared" si="23"/>
-        <v>3004</v>
+        <v>3257</v>
       </c>
       <c r="K129" s="1">
         <f t="shared" si="13"/>
@@ -17660,15 +17700,15 @@
       </c>
       <c r="N129">
         <f t="shared" si="24"/>
-        <v>2778</v>
+        <v>2862</v>
       </c>
       <c r="O129">
         <f t="shared" si="25"/>
-        <v>3116</v>
+        <v>3257</v>
       </c>
       <c r="P129">
-        <f t="shared" si="28"/>
-        <v>3004</v>
+        <f t="shared" si="29"/>
+        <v>3257</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -17682,28 +17722,28 @@
         <v>1.6</v>
       </c>
       <c r="D130">
-        <f t="shared" si="29"/>
-        <v>29992941</v>
+        <f t="shared" si="30"/>
+        <v>29992771</v>
       </c>
       <c r="E130">
-        <f t="shared" si="30"/>
-        <v>2916</v>
+        <f t="shared" si="31"/>
+        <v>3005</v>
       </c>
       <c r="F130">
-        <f t="shared" si="31"/>
-        <v>4143</v>
+        <f t="shared" si="32"/>
+        <v>4224</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="32"/>
-        <v>29992941</v>
+        <f t="shared" si="33"/>
+        <v>29992771</v>
       </c>
       <c r="H130">
-        <f t="shared" si="33"/>
-        <v>3354</v>
+        <f t="shared" si="34"/>
+        <v>3512</v>
       </c>
       <c r="I130" s="4">
         <f t="shared" si="23"/>
-        <v>3235</v>
+        <v>3512</v>
       </c>
       <c r="K130" s="1">
         <f t="shared" si="13"/>
@@ -17711,15 +17751,15 @@
       </c>
       <c r="N130">
         <f t="shared" si="24"/>
-        <v>2916</v>
+        <v>3005</v>
       </c>
       <c r="O130">
         <f t="shared" si="25"/>
-        <v>3354</v>
+        <v>3512</v>
       </c>
       <c r="P130">
-        <f t="shared" si="28"/>
-        <v>3235</v>
+        <f t="shared" si="29"/>
+        <v>3512</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -17733,28 +17773,28 @@
         <v>1.6</v>
       </c>
       <c r="D131">
-        <f t="shared" si="29"/>
-        <v>29992552</v>
+        <f t="shared" si="30"/>
+        <v>29992370</v>
       </c>
       <c r="E131">
-        <f t="shared" si="30"/>
-        <v>3062</v>
+        <f t="shared" si="31"/>
+        <v>3156</v>
       </c>
       <c r="F131">
-        <f t="shared" si="31"/>
-        <v>4386</v>
+        <f t="shared" si="32"/>
+        <v>4474</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="32"/>
-        <v>29992552</v>
+        <f t="shared" si="33"/>
+        <v>29992370</v>
       </c>
       <c r="H131">
-        <f t="shared" si="33"/>
-        <v>3611</v>
+        <f t="shared" si="34"/>
+        <v>3787</v>
       </c>
       <c r="I131" s="4">
         <f t="shared" si="23"/>
-        <v>3482</v>
+        <v>3787</v>
       </c>
       <c r="K131" s="1">
         <f t="shared" si="13"/>
@@ -17762,15 +17802,15 @@
       </c>
       <c r="N131">
         <f t="shared" si="24"/>
-        <v>3062</v>
+        <v>3156</v>
       </c>
       <c r="O131">
         <f t="shared" si="25"/>
-        <v>3611</v>
+        <v>3787</v>
       </c>
       <c r="P131">
-        <f t="shared" si="28"/>
-        <v>3482</v>
+        <f t="shared" si="29"/>
+        <v>3787</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -17784,28 +17824,28 @@
         <v>1.6</v>
       </c>
       <c r="D132">
-        <f t="shared" si="29"/>
-        <v>29992144</v>
+        <f t="shared" si="30"/>
+        <v>29991949</v>
       </c>
       <c r="E132">
-        <f t="shared" si="30"/>
-        <v>3215</v>
+        <f t="shared" si="31"/>
+        <v>3314</v>
       </c>
       <c r="F132">
-        <f t="shared" si="31"/>
-        <v>4641</v>
+        <f t="shared" si="32"/>
+        <v>4737</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="32"/>
-        <v>29992144</v>
+        <f t="shared" si="33"/>
+        <v>29991949</v>
       </c>
       <c r="H132">
-        <f t="shared" si="33"/>
-        <v>3888</v>
+        <f t="shared" si="34"/>
+        <v>4083</v>
       </c>
       <c r="I132" s="4">
         <f t="shared" si="23"/>
-        <v>3749</v>
+        <v>4083</v>
       </c>
       <c r="K132" s="1">
         <f t="shared" si="13"/>
@@ -17813,15 +17853,15 @@
       </c>
       <c r="N132">
         <f t="shared" si="24"/>
-        <v>3215</v>
+        <v>3314</v>
       </c>
       <c r="O132">
         <f t="shared" si="25"/>
-        <v>3888</v>
+        <v>4083</v>
       </c>
       <c r="P132">
-        <f t="shared" si="28"/>
-        <v>3749</v>
+        <f t="shared" si="29"/>
+        <v>4083</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -17835,28 +17875,28 @@
         <v>1.6</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D134" si="34">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
-        <v>29991715</v>
+        <f t="shared" ref="D133:D134" si="35">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <v>29991507</v>
       </c>
       <c r="E133">
-        <f t="shared" ref="E133:E134" si="35">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
-        <v>3376</v>
+        <f t="shared" ref="E133:E134" si="36">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <v>3480</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133:F134" si="36">F132+ROUND(E132/$D$2,0)</f>
-        <v>4909</v>
+        <f t="shared" ref="F133:F134" si="37">F132+ROUND(E132/$D$2,0)</f>
+        <v>5013</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="37">D133</f>
-        <v>29991715</v>
+        <f t="shared" ref="G133:G134" si="38">D133</f>
+        <v>29991507</v>
       </c>
       <c r="H133">
-        <f t="shared" ref="H133:H134" si="38">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
-        <v>4186</v>
+        <f t="shared" ref="H133:H134" si="39">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <v>4403</v>
       </c>
       <c r="I133" s="4">
         <f t="shared" si="23"/>
-        <v>4037</v>
+        <v>4403</v>
       </c>
       <c r="K133" s="1">
         <f t="shared" si="13"/>
@@ -17864,15 +17904,15 @@
       </c>
       <c r="N133">
         <f t="shared" si="24"/>
-        <v>3376</v>
+        <v>3480</v>
       </c>
       <c r="O133">
         <f t="shared" si="25"/>
-        <v>4186</v>
+        <v>4403</v>
       </c>
       <c r="P133">
-        <f t="shared" si="28"/>
-        <v>4037</v>
+        <f t="shared" si="29"/>
+        <v>4403</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -17886,28 +17926,28 @@
         <v>1.6</v>
       </c>
       <c r="D134">
-        <f t="shared" si="34"/>
-        <v>29991265</v>
+        <f t="shared" si="35"/>
+        <v>29991043</v>
       </c>
       <c r="E134">
-        <f t="shared" si="35"/>
-        <v>3545</v>
+        <f t="shared" si="36"/>
+        <v>3654</v>
       </c>
       <c r="F134">
-        <f t="shared" si="36"/>
-        <v>5190</v>
+        <f t="shared" si="37"/>
+        <v>5303</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="37"/>
-        <v>29991265</v>
+        <f t="shared" si="38"/>
+        <v>29991043</v>
       </c>
       <c r="H134">
-        <f t="shared" si="38"/>
-        <v>4507</v>
+        <f t="shared" si="39"/>
+        <v>4748</v>
       </c>
       <c r="I134" s="4">
         <f t="shared" si="23"/>
-        <v>4347</v>
+        <v>4748</v>
       </c>
       <c r="K134" s="1">
         <f t="shared" si="13"/>
@@ -17915,15 +17955,15 @@
       </c>
       <c r="N134">
         <f t="shared" si="24"/>
-        <v>3545</v>
+        <v>3654</v>
       </c>
       <c r="O134">
         <f t="shared" si="25"/>
-        <v>4507</v>
+        <v>4748</v>
       </c>
       <c r="P134">
-        <f t="shared" si="28"/>
-        <v>4347</v>
+        <f t="shared" si="29"/>
+        <v>4748</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FADDEDD-AA4C-4B35-83DB-285EDAC8797F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EACD51-C31A-41F2-BC39-EC17B6919A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -621,6 +621,9 @@
                 <c:pt idx="50">
                   <c:v>1653</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>1763</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1020,6 +1023,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,6 +2538,9 @@
                 <c:pt idx="114">
                   <c:v>1653</c:v>
                 </c:pt>
+                <c:pt idx="115">
+                  <c:v>1763</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3314,6 +3323,9 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6567,6 +6579,9 @@
                 <c:pt idx="114">
                   <c:v>1653</c:v>
                 </c:pt>
+                <c:pt idx="115">
+                  <c:v>1763</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7329,6 +7344,9 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8475,6 +8493,9 @@
                 <c:pt idx="50">
                   <c:v>1650</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>1775</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8874,6 +8895,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10386,6 +10410,9 @@
                 <c:pt idx="114">
                   <c:v>1650</c:v>
                 </c:pt>
+                <c:pt idx="115">
+                  <c:v>1775</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11168,6 +11195,9 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14420,6 +14450,9 @@
                 <c:pt idx="114">
                   <c:v>1650</c:v>
                 </c:pt>
+                <c:pt idx="115">
+                  <c:v>1775</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15182,6 +15215,9 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20918,10 +20954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K117"/>
+  <dimension ref="A2:K118"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+      <selection activeCell="A117" sqref="A117:A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21864,6 +21900,14 @@
         <v>1651</v>
       </c>
     </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B118">
+        <v>1746</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21874,8 +21918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="L120" sqref="L120:M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27565,6 +27609,14 @@
         <f t="shared" si="13"/>
         <v>44134</v>
       </c>
+      <c r="L121">
+        <f t="shared" ref="L121" si="31">E121</f>
+        <v>1763</v>
+      </c>
+      <c r="M121">
+        <f>RealData!B118</f>
+        <v>1746</v>
+      </c>
       <c r="N121">
         <f t="shared" si="24"/>
         <v>1763</v>
@@ -27640,23 +27692,23 @@
         <v>1.8</v>
       </c>
       <c r="D123" s="6">
-        <f t="shared" ref="D123:D132" si="31">D122-ROUND((C123/$D$2)*D122*(E122/$D$3),0)</f>
+        <f t="shared" ref="D123:D132" si="32">D122-ROUND((C123/$D$2)*D122*(E122/$D$3),0)</f>
         <v>59995191</v>
       </c>
       <c r="E123" s="6">
-        <f t="shared" ref="E123:E132" si="32">E122+ROUND((C123/$D$2)*D122*(E122/$D$3),0)-ROUND(E122/$D$2,0)</f>
+        <f t="shared" ref="E123:E132" si="33">E122+ROUND((C123/$D$2)*D122*(E122/$D$3),0)-ROUND(E122/$D$2,0)</f>
         <v>2005</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" ref="F123:F132" si="33">F122+ROUND(E122/$D$2,0)</f>
+        <f t="shared" ref="F123:F132" si="34">F122+ROUND(E122/$D$2,0)</f>
         <v>2804</v>
       </c>
       <c r="G123" s="6">
-        <f t="shared" ref="G123:G132" si="34">D123</f>
+        <f t="shared" ref="G123:G132" si="35">D123</f>
         <v>59995191</v>
       </c>
       <c r="H123" s="6">
-        <f t="shared" ref="H123:H132" si="35">H122+ROUND(($D$1/$D$2)*G122*(H122/$D$3),0)-ROUND(H122/$D$2,0)</f>
+        <f t="shared" ref="H123:H132" si="36">H122+ROUND(($D$1/$D$2)*G122*(H122/$D$3),0)-ROUND(H122/$D$2,0)</f>
         <v>2072</v>
       </c>
       <c r="I123" s="4">
@@ -27691,23 +27743,23 @@
         <v>1.8</v>
       </c>
       <c r="D124" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>59994890</v>
       </c>
       <c r="E124" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2139</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2971</v>
       </c>
       <c r="G124" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>59994890</v>
       </c>
       <c r="H124" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2234</v>
       </c>
       <c r="I124" s="4">
@@ -27742,23 +27794,23 @@
         <v>1.8</v>
       </c>
       <c r="D125" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>59994569</v>
       </c>
       <c r="E125" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2282</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3149</v>
       </c>
       <c r="G125" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>59994569</v>
       </c>
       <c r="H125" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2409</v>
       </c>
       <c r="I125" s="4">
@@ -27793,23 +27845,23 @@
         <v>1.8</v>
       </c>
       <c r="D126" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>59994227</v>
       </c>
       <c r="E126" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2434</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3339</v>
       </c>
       <c r="G126" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>59994227</v>
       </c>
       <c r="H126" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2597</v>
       </c>
       <c r="I126" s="4">
@@ -27844,23 +27896,23 @@
         <v>1.8</v>
       </c>
       <c r="D127" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>59993862</v>
       </c>
       <c r="E127" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2596</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3542</v>
       </c>
       <c r="G127" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>59993862</v>
       </c>
       <c r="H127" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2801</v>
       </c>
       <c r="I127" s="4">
@@ -27895,23 +27947,23 @@
         <v>1.6</v>
       </c>
       <c r="D128">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>59993516</v>
       </c>
       <c r="E128">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2726</v>
       </c>
       <c r="F128">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3758</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>59993516</v>
       </c>
       <c r="H128">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3021</v>
       </c>
       <c r="I128" s="4">
@@ -27946,23 +27998,23 @@
         <v>1.6</v>
       </c>
       <c r="D129">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>59993153</v>
       </c>
       <c r="E129">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2862</v>
       </c>
       <c r="F129">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3985</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>59993153</v>
       </c>
       <c r="H129">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3257</v>
       </c>
       <c r="I129" s="4">
@@ -27997,23 +28049,23 @@
         <v>1.6</v>
       </c>
       <c r="D130">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>59992771</v>
       </c>
       <c r="E130">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3005</v>
       </c>
       <c r="F130">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4224</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>59992771</v>
       </c>
       <c r="H130">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3512</v>
       </c>
       <c r="I130" s="4">
@@ -28048,23 +28100,23 @@
         <v>1.6</v>
       </c>
       <c r="D131">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>59992370</v>
       </c>
       <c r="E131">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3156</v>
       </c>
       <c r="F131">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4474</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>59992370</v>
       </c>
       <c r="H131">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3787</v>
       </c>
       <c r="I131" s="4">
@@ -28099,23 +28151,23 @@
         <v>1.6</v>
       </c>
       <c r="D132">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>59991949</v>
       </c>
       <c r="E132">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3314</v>
       </c>
       <c r="F132">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4737</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>59991949</v>
       </c>
       <c r="H132">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4083</v>
       </c>
       <c r="I132" s="4">
@@ -28150,23 +28202,23 @@
         <v>1.6</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D134" si="36">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <f t="shared" ref="D133:D134" si="37">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
         <v>59991507</v>
       </c>
       <c r="E133">
-        <f t="shared" ref="E133:E134" si="37">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <f t="shared" ref="E133:E134" si="38">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
         <v>3480</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133:F134" si="38">F132+ROUND(E132/$D$2,0)</f>
+        <f t="shared" ref="F133:F134" si="39">F132+ROUND(E132/$D$2,0)</f>
         <v>5013</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="39">D133</f>
+        <f t="shared" ref="G133:G134" si="40">D133</f>
         <v>59991507</v>
       </c>
       <c r="H133">
-        <f t="shared" ref="H133:H134" si="40">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <f t="shared" ref="H133:H134" si="41">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
         <v>4403</v>
       </c>
       <c r="I133" s="4">
@@ -28201,23 +28253,23 @@
         <v>1.6</v>
       </c>
       <c r="D134">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>59991043</v>
       </c>
       <c r="E134">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3654</v>
       </c>
       <c r="F134">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5303</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>59991043</v>
       </c>
       <c r="H134">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4748</v>
       </c>
       <c r="I134" s="4">
@@ -28252,8 +28304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C18E4-1873-48DD-B7B4-EAEB82B5E392}">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N125" sqref="N125"/>
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L120" sqref="L120:M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32079,7 +32131,7 @@
         <v>763</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" ref="G86:H135" si="14">D86</f>
+        <f t="shared" ref="G86:H134" si="14">D86</f>
         <v>59998991</v>
       </c>
       <c r="H86" s="2">
@@ -33942,6 +33994,14 @@
       <c r="K121" s="1">
         <f t="shared" si="9"/>
         <v>44134</v>
+      </c>
+      <c r="L121">
+        <f t="shared" ref="L121" si="20">E121</f>
+        <v>1775</v>
+      </c>
+      <c r="M121">
+        <f>RealData!B118</f>
+        <v>1746</v>
       </c>
       <c r="N121">
         <f t="shared" si="17"/>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EACD51-C31A-41F2-BC39-EC17B6919A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B734446-D918-4D3C-B821-93734C064A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="-15" yWindow="765" windowWidth="18930" windowHeight="10170" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -624,6 +624,12 @@
                 <c:pt idx="51">
                   <c:v>1763</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2005</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1026,6 +1032,12 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1843</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2541,6 +2553,12 @@
                 <c:pt idx="115">
                   <c:v>1763</c:v>
                 </c:pt>
+                <c:pt idx="116">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2005</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3326,6 +3344,12 @@
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1843</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3659,10 +3683,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$120</c:f>
+              <c:f>Model!$K$6:$K$122</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -4007,16 +4031,22 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$6:$L$120</c:f>
+              <c:f>Model!$L$6:$L$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -4361,6 +4391,12 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>1653</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1763</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4401,10 +4437,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$120</c:f>
+              <c:f>Model!$K$6:$K$122</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -4749,16 +4785,22 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$6:$M$120</c:f>
+              <c:f>Model!$M$6:$M$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -5103,6 +5145,12 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5142,10 +5190,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$120</c:f>
+              <c:f>Model!$K$6:$K$122</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -5490,16 +5538,22 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$6:$N$120</c:f>
+              <c:f>Model!$N$6:$N$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="107">
                   <c:v>976</c:v>
                 </c:pt>
@@ -5523,6 +5577,12 @@
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>1653</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1763</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6582,6 +6642,12 @@
                 <c:pt idx="115">
                   <c:v>1763</c:v>
                 </c:pt>
+                <c:pt idx="116">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2005</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7347,6 +7413,12 @@
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1843</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20954,10 +21026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K118"/>
+  <dimension ref="A2:K120"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117:A118"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21908,6 +21980,22 @@
         <v>1746</v>
       </c>
     </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B119">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B120">
+        <v>1939</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21918,8 +22006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="L120" sqref="L120:M121"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="L121" sqref="L121:M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27668,6 +27756,14 @@
         <f t="shared" si="13"/>
         <v>44135</v>
       </c>
+      <c r="L122">
+        <f t="shared" ref="L122:L123" si="32">E122</f>
+        <v>1880</v>
+      </c>
+      <c r="M122">
+        <f>RealData!B119</f>
+        <v>1843</v>
+      </c>
       <c r="N122">
         <f t="shared" si="24"/>
         <v>1880</v>
@@ -27692,23 +27788,23 @@
         <v>1.8</v>
       </c>
       <c r="D123" s="6">
-        <f t="shared" ref="D123:D132" si="32">D122-ROUND((C123/$D$2)*D122*(E122/$D$3),0)</f>
+        <f t="shared" ref="D123:D132" si="33">D122-ROUND((C123/$D$2)*D122*(E122/$D$3),0)</f>
         <v>59995191</v>
       </c>
       <c r="E123" s="6">
-        <f t="shared" ref="E123:E132" si="33">E122+ROUND((C123/$D$2)*D122*(E122/$D$3),0)-ROUND(E122/$D$2,0)</f>
+        <f t="shared" ref="E123:E132" si="34">E122+ROUND((C123/$D$2)*D122*(E122/$D$3),0)-ROUND(E122/$D$2,0)</f>
         <v>2005</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" ref="F123:F132" si="34">F122+ROUND(E122/$D$2,0)</f>
+        <f t="shared" ref="F123:F132" si="35">F122+ROUND(E122/$D$2,0)</f>
         <v>2804</v>
       </c>
       <c r="G123" s="6">
-        <f t="shared" ref="G123:G132" si="35">D123</f>
+        <f t="shared" ref="G123:G132" si="36">D123</f>
         <v>59995191</v>
       </c>
       <c r="H123" s="6">
-        <f t="shared" ref="H123:H132" si="36">H122+ROUND(($D$1/$D$2)*G122*(H122/$D$3),0)-ROUND(H122/$D$2,0)</f>
+        <f t="shared" ref="H123:H132" si="37">H122+ROUND(($D$1/$D$2)*G122*(H122/$D$3),0)-ROUND(H122/$D$2,0)</f>
         <v>2072</v>
       </c>
       <c r="I123" s="4">
@@ -27719,6 +27815,14 @@
         <f t="shared" si="13"/>
         <v>44136</v>
       </c>
+      <c r="L123">
+        <f t="shared" si="32"/>
+        <v>2005</v>
+      </c>
+      <c r="M123">
+        <f>RealData!B120</f>
+        <v>1939</v>
+      </c>
       <c r="N123">
         <f t="shared" si="24"/>
         <v>2005</v>
@@ -27743,23 +27847,23 @@
         <v>1.8</v>
       </c>
       <c r="D124" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>59994890</v>
       </c>
       <c r="E124" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2139</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2971</v>
       </c>
       <c r="G124" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>59994890</v>
       </c>
       <c r="H124" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2234</v>
       </c>
       <c r="I124" s="4">
@@ -27794,23 +27898,23 @@
         <v>1.8</v>
       </c>
       <c r="D125" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>59994569</v>
       </c>
       <c r="E125" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2282</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3149</v>
       </c>
       <c r="G125" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>59994569</v>
       </c>
       <c r="H125" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2409</v>
       </c>
       <c r="I125" s="4">
@@ -27845,23 +27949,23 @@
         <v>1.8</v>
       </c>
       <c r="D126" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>59994227</v>
       </c>
       <c r="E126" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2434</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3339</v>
       </c>
       <c r="G126" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>59994227</v>
       </c>
       <c r="H126" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2597</v>
       </c>
       <c r="I126" s="4">
@@ -27896,23 +28000,23 @@
         <v>1.8</v>
       </c>
       <c r="D127" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>59993862</v>
       </c>
       <c r="E127" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2596</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3542</v>
       </c>
       <c r="G127" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>59993862</v>
       </c>
       <c r="H127" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2801</v>
       </c>
       <c r="I127" s="4">
@@ -27947,23 +28051,23 @@
         <v>1.6</v>
       </c>
       <c r="D128">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>59993516</v>
       </c>
       <c r="E128">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2726</v>
       </c>
       <c r="F128">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3758</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>59993516</v>
       </c>
       <c r="H128">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3021</v>
       </c>
       <c r="I128" s="4">
@@ -27998,23 +28102,23 @@
         <v>1.6</v>
       </c>
       <c r="D129">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>59993153</v>
       </c>
       <c r="E129">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2862</v>
       </c>
       <c r="F129">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3985</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>59993153</v>
       </c>
       <c r="H129">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3257</v>
       </c>
       <c r="I129" s="4">
@@ -28049,23 +28153,23 @@
         <v>1.6</v>
       </c>
       <c r="D130">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>59992771</v>
       </c>
       <c r="E130">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3005</v>
       </c>
       <c r="F130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4224</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>59992771</v>
       </c>
       <c r="H130">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3512</v>
       </c>
       <c r="I130" s="4">
@@ -28100,23 +28204,23 @@
         <v>1.6</v>
       </c>
       <c r="D131">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>59992370</v>
       </c>
       <c r="E131">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3156</v>
       </c>
       <c r="F131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4474</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>59992370</v>
       </c>
       <c r="H131">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3787</v>
       </c>
       <c r="I131" s="4">
@@ -28151,23 +28255,23 @@
         <v>1.6</v>
       </c>
       <c r="D132">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>59991949</v>
       </c>
       <c r="E132">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3314</v>
       </c>
       <c r="F132">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4737</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>59991949</v>
       </c>
       <c r="H132">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>4083</v>
       </c>
       <c r="I132" s="4">
@@ -28202,23 +28306,23 @@
         <v>1.6</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D134" si="37">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <f t="shared" ref="D133:D134" si="38">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
         <v>59991507</v>
       </c>
       <c r="E133">
-        <f t="shared" ref="E133:E134" si="38">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <f t="shared" ref="E133:E134" si="39">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
         <v>3480</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133:F134" si="39">F132+ROUND(E132/$D$2,0)</f>
+        <f t="shared" ref="F133:F134" si="40">F132+ROUND(E132/$D$2,0)</f>
         <v>5013</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="40">D133</f>
+        <f t="shared" ref="G133:G134" si="41">D133</f>
         <v>59991507</v>
       </c>
       <c r="H133">
-        <f t="shared" ref="H133:H134" si="41">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <f t="shared" ref="H133:H134" si="42">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
         <v>4403</v>
       </c>
       <c r="I133" s="4">
@@ -28253,23 +28357,23 @@
         <v>1.6</v>
       </c>
       <c r="D134">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>59991043</v>
       </c>
       <c r="E134">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3654</v>
       </c>
       <c r="F134">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>5303</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>59991043</v>
       </c>
       <c r="H134">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4748</v>
       </c>
       <c r="I134" s="4">

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4557E9E-1F40-44C1-A627-520B73B886FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1222E696-8C60-4BA7-BFAE-2F5F2616E3CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20745" yWindow="600" windowWidth="18930" windowHeight="13965" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="20880" yWindow="1065" windowWidth="17640" windowHeight="10065" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -647,19 +647,22 @@
                   <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1755</c:v>
+                  <c:v>1749</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1863</c:v>
+                  <c:v>1851</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1978</c:v>
+                  <c:v>1959</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2100</c:v>
+                  <c:v>2074</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2229</c:v>
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,6 +1089,9 @@
                 <c:pt idx="55">
                   <c:v>2225</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>2292</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1778,199 +1784,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>355</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>358</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>361</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>364</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>367</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>371</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>374</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>378</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>382</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>386</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>391</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>396</c:v>
+                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>402</c:v>
+                  <c:v>447</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>408</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>414</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>421</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>428</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>435</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>444</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>453</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>463</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>474</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>485</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>497</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>510</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>525</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>541</c:v>
+                  <c:v>578</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>557</c:v>
+                  <c:v>594</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>575</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>595</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>616</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>638</c:v>
+                  <c:v>672</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>662</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>688</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>717</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>748</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>781</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>817</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>855</c:v>
+                  <c:v>876</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>896</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>941</c:v>
+                  <c:v>957</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>989</c:v>
+                  <c:v>1002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1041</c:v>
+                  <c:v>1051</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1097</c:v>
+                  <c:v>1104</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1158</c:v>
+                  <c:v>1161</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1223</c:v>
+                  <c:v>1222</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1293</c:v>
+                  <c:v>1288</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1368</c:v>
+                  <c:v>1359</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1449</c:v>
+                  <c:v>1436</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1536</c:v>
+                  <c:v>1518</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1630</c:v>
+                  <c:v>1607</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1732</c:v>
+                  <c:v>1703</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1841</c:v>
+                  <c:v>1806</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1960</c:v>
+                  <c:v>1918</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2087</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2225</c:v>
+                  <c:v>2169</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2373</c:v>
+                  <c:v>2309</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2534</c:v>
+                  <c:v>2461</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2707</c:v>
+                  <c:v>2625</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2893</c:v>
+                  <c:v>2801</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3094</c:v>
+                  <c:v>2991</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3310</c:v>
+                  <c:v>3195</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3543</c:v>
+                  <c:v>3415</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3795</c:v>
+                  <c:v>3653</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4066</c:v>
+                  <c:v>3910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3046,19 +3052,22 @@
                   <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1755</c:v>
+                  <c:v>1749</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1863</c:v>
+                  <c:v>1851</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1978</c:v>
+                  <c:v>1959</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2100</c:v>
+                  <c:v>2074</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2229</c:v>
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3870,6 +3879,9 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>2225</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4943,19 +4955,22 @@
                   <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1755</c:v>
+                  <c:v>1749</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1863</c:v>
+                  <c:v>1851</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1978</c:v>
+                  <c:v>1959</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2100</c:v>
+                  <c:v>2074</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2229</c:v>
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5750,6 +5765,9 @@
                 <c:pt idx="119">
                   <c:v>2225</c:v>
                 </c:pt>
+                <c:pt idx="120">
+                  <c:v>2292</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6184,28 +6202,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="127"/>
                 <c:pt idx="119">
-                  <c:v>2229</c:v>
+                  <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2366</c:v>
+                  <c:v>2323</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2512</c:v>
+                  <c:v>2458</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2667</c:v>
+                  <c:v>2601</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2832</c:v>
+                  <c:v>2752</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3007</c:v>
+                  <c:v>2913</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3192</c:v>
+                  <c:v>3083</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3389</c:v>
+                  <c:v>3263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7300,19 +7318,22 @@
                   <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1755</c:v>
+                  <c:v>1749</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1863</c:v>
+                  <c:v>1851</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1978</c:v>
+                  <c:v>1959</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2100</c:v>
+                  <c:v>2074</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2229</c:v>
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8128,6 +8149,9 @@
                 <c:pt idx="119">
                   <c:v>2225</c:v>
                 </c:pt>
+                <c:pt idx="120">
+                  <c:v>2292</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8583,49 +8607,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="134"/>
                 <c:pt idx="119">
-                  <c:v>2229</c:v>
+                  <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2366</c:v>
+                  <c:v>2323</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2512</c:v>
+                  <c:v>2458</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2667</c:v>
+                  <c:v>2601</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2832</c:v>
+                  <c:v>2752</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3007</c:v>
+                  <c:v>2913</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3192</c:v>
+                  <c:v>3083</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3389</c:v>
+                  <c:v>3263</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3559</c:v>
+                  <c:v>3426</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3736</c:v>
+                  <c:v>3597</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3923</c:v>
+                  <c:v>3777</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>4119</c:v>
+                  <c:v>3966</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>4325</c:v>
+                  <c:v>4164</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>4542</c:v>
+                  <c:v>4372</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>4768</c:v>
+                  <c:v>4591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9119,19 +9143,22 @@
                   <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1755</c:v>
+                  <c:v>1749</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1863</c:v>
+                  <c:v>1851</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1978</c:v>
+                  <c:v>1959</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2100</c:v>
+                  <c:v>2074</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2229</c:v>
+                  <c:v>2195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9366,6 +9393,9 @@
                 <c:pt idx="23">
                   <c:v>2225</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>2292</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9770,103 +9800,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>662</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>688</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>717</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>748</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>781</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>817</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>855</c:v>
+                  <c:v>876</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>896</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>941</c:v>
+                  <c:v>957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>989</c:v>
+                  <c:v>1002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1041</c:v>
+                  <c:v>1051</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1097</c:v>
+                  <c:v>1104</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1158</c:v>
+                  <c:v>1161</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1223</c:v>
+                  <c:v>1222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1293</c:v>
+                  <c:v>1288</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1368</c:v>
+                  <c:v>1359</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1449</c:v>
+                  <c:v>1436</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1536</c:v>
+                  <c:v>1518</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1630</c:v>
+                  <c:v>1607</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1732</c:v>
+                  <c:v>1703</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1841</c:v>
+                  <c:v>1806</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1960</c:v>
+                  <c:v>1918</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2087</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2225</c:v>
+                  <c:v>2169</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2373</c:v>
+                  <c:v>2309</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2534</c:v>
+                  <c:v>2461</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2707</c:v>
+                  <c:v>2625</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2893</c:v>
+                  <c:v>2801</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3094</c:v>
+                  <c:v>2991</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3310</c:v>
+                  <c:v>3195</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3543</c:v>
+                  <c:v>3415</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3795</c:v>
+                  <c:v>3653</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4066</c:v>
+                  <c:v>3910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23608,10 +23638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K122"/>
+  <dimension ref="A2:K123"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24594,6 +24624,14 @@
         <v>2225</v>
       </c>
     </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B123">
+        <v>2292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24604,8 +24642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS17" sqref="AS17"/>
+    <sheetView tabSelected="1" topLeftCell="C112" workbookViewId="0">
+      <selection activeCell="Q113" sqref="Q113:Q126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24622,7 +24660,7 @@
         <v>1.94</v>
       </c>
       <c r="E1">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -26871,7 +26909,7 @@
         <v>12</v>
       </c>
       <c r="J54" s="8">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="1"/>
@@ -26891,7 +26929,7 @@
       </c>
       <c r="P54">
         <f>J54</f>
-        <v>335</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -26930,7 +26968,7 @@
       </c>
       <c r="J55" s="8">
         <f>J54+ROUND(($E$1/$D$2)*G54*(I54/$D$3),0)-ROUND(I54/$D$2,0)</f>
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="1"/>
@@ -26950,7 +26988,7 @@
       </c>
       <c r="P55">
         <f t="shared" ref="P55:P118" si="12">J55</f>
-        <v>336</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -26989,7 +27027,7 @@
       </c>
       <c r="J56" s="8">
         <f t="shared" ref="J56:J119" si="14">J55+ROUND(($E$1/$D$2)*G55*(I55/$D$3),0)-ROUND(I55/$D$2,0)</f>
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="1"/>
@@ -27009,7 +27047,7 @@
       </c>
       <c r="P56">
         <f t="shared" si="12"/>
-        <v>337</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -27048,7 +27086,7 @@
       </c>
       <c r="J57" s="8">
         <f t="shared" si="14"/>
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="1"/>
@@ -27068,7 +27106,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="12"/>
-        <v>338</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -27107,7 +27145,7 @@
       </c>
       <c r="J58" s="8">
         <f t="shared" si="14"/>
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" si="1"/>
@@ -27127,7 +27165,7 @@
       </c>
       <c r="P58">
         <f t="shared" si="12"/>
-        <v>339</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -27166,7 +27204,7 @@
       </c>
       <c r="J59" s="8">
         <f t="shared" si="14"/>
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="K59" s="1">
         <f t="shared" si="1"/>
@@ -27186,7 +27224,7 @@
       </c>
       <c r="P59">
         <f t="shared" si="12"/>
-        <v>340</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -27225,7 +27263,7 @@
       </c>
       <c r="J60" s="8">
         <f t="shared" si="14"/>
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="1"/>
@@ -27245,7 +27283,7 @@
       </c>
       <c r="P60">
         <f t="shared" si="12"/>
-        <v>341</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -27284,7 +27322,7 @@
       </c>
       <c r="J61" s="8">
         <f t="shared" si="14"/>
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="1"/>
@@ -27304,7 +27342,7 @@
       </c>
       <c r="P61">
         <f t="shared" si="12"/>
-        <v>342</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -27343,7 +27381,7 @@
       </c>
       <c r="J62" s="8">
         <f t="shared" si="14"/>
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="1"/>
@@ -27363,7 +27401,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="12"/>
-        <v>343</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -27402,7 +27440,7 @@
       </c>
       <c r="J63" s="8">
         <f t="shared" si="14"/>
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" si="1"/>
@@ -27422,7 +27460,7 @@
       </c>
       <c r="P63">
         <f t="shared" si="12"/>
-        <v>344</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -27461,7 +27499,7 @@
       </c>
       <c r="J64" s="8">
         <f t="shared" si="14"/>
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" si="1"/>
@@ -27481,7 +27519,7 @@
       </c>
       <c r="P64">
         <f t="shared" si="12"/>
-        <v>345</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -27520,7 +27558,7 @@
       </c>
       <c r="J65" s="8">
         <f t="shared" si="14"/>
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="K65" s="1">
         <f t="shared" si="1"/>
@@ -27540,7 +27578,7 @@
       </c>
       <c r="P65">
         <f t="shared" si="12"/>
-        <v>346</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -27579,7 +27617,7 @@
       </c>
       <c r="J66" s="8">
         <f t="shared" si="14"/>
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" si="1"/>
@@ -27599,7 +27637,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="12"/>
-        <v>348</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -27638,7 +27676,7 @@
       </c>
       <c r="J67" s="8">
         <f t="shared" si="14"/>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" si="1"/>
@@ -27658,7 +27696,7 @@
       </c>
       <c r="P67">
         <f t="shared" si="12"/>
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -27697,7 +27735,7 @@
       </c>
       <c r="J68" s="8">
         <f t="shared" si="14"/>
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="K68" s="1">
         <f t="shared" si="1"/>
@@ -27717,7 +27755,7 @@
       </c>
       <c r="P68">
         <f t="shared" si="12"/>
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -27756,7 +27794,7 @@
       </c>
       <c r="J69" s="8">
         <f t="shared" si="14"/>
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="K69" s="1">
         <f t="shared" si="1"/>
@@ -27776,7 +27814,7 @@
       </c>
       <c r="P69">
         <f t="shared" si="12"/>
-        <v>353</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -27815,7 +27853,7 @@
       </c>
       <c r="J70" s="8">
         <f t="shared" si="14"/>
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="K70" s="1">
         <f t="shared" si="1"/>
@@ -27835,7 +27873,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="12"/>
-        <v>355</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -27874,7 +27912,7 @@
       </c>
       <c r="J71" s="8">
         <f t="shared" si="14"/>
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="K71" s="1">
         <f t="shared" ref="K71:K134" si="15">A71</f>
@@ -27894,7 +27932,7 @@
       </c>
       <c r="P71">
         <f t="shared" si="12"/>
-        <v>358</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -27933,7 +27971,7 @@
       </c>
       <c r="J72" s="8">
         <f t="shared" si="14"/>
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="K72" s="1">
         <f t="shared" si="15"/>
@@ -27953,7 +27991,7 @@
       </c>
       <c r="P72">
         <f t="shared" si="12"/>
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -27992,7 +28030,7 @@
       </c>
       <c r="J73" s="8">
         <f t="shared" si="14"/>
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="K73" s="1">
         <f t="shared" si="15"/>
@@ -28012,7 +28050,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="12"/>
-        <v>364</v>
+        <v>412</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -28051,7 +28089,7 @@
       </c>
       <c r="J74" s="8">
         <f t="shared" si="14"/>
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="K74" s="1">
         <f t="shared" si="15"/>
@@ -28071,7 +28109,7 @@
       </c>
       <c r="P74">
         <f t="shared" si="12"/>
-        <v>367</v>
+        <v>415</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -28110,7 +28148,7 @@
       </c>
       <c r="J75" s="8">
         <f t="shared" si="14"/>
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="K75" s="1">
         <f t="shared" si="15"/>
@@ -28130,7 +28168,7 @@
       </c>
       <c r="P75">
         <f t="shared" si="12"/>
-        <v>371</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -28169,7 +28207,7 @@
       </c>
       <c r="J76" s="8">
         <f t="shared" si="14"/>
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" si="15"/>
@@ -28189,7 +28227,7 @@
       </c>
       <c r="P76">
         <f t="shared" si="12"/>
-        <v>374</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -28228,7 +28266,7 @@
       </c>
       <c r="J77" s="8">
         <f t="shared" si="14"/>
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="K77" s="1">
         <f t="shared" si="15"/>
@@ -28248,7 +28286,7 @@
       </c>
       <c r="P77">
         <f t="shared" si="12"/>
-        <v>378</v>
+        <v>424</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -28287,7 +28325,7 @@
       </c>
       <c r="J78" s="8">
         <f t="shared" si="14"/>
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="K78" s="1">
         <f t="shared" si="15"/>
@@ -28307,7 +28345,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="12"/>
-        <v>382</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -28346,7 +28384,7 @@
       </c>
       <c r="J79" s="8">
         <f t="shared" si="14"/>
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="K79" s="1">
         <f t="shared" si="15"/>
@@ -28366,7 +28404,7 @@
       </c>
       <c r="P79">
         <f t="shared" si="12"/>
-        <v>386</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -28405,7 +28443,7 @@
       </c>
       <c r="J80" s="8">
         <f t="shared" si="14"/>
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="K80" s="1">
         <f t="shared" si="15"/>
@@ -28425,7 +28463,7 @@
       </c>
       <c r="P80">
         <f t="shared" si="12"/>
-        <v>391</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -28464,7 +28502,7 @@
       </c>
       <c r="J81" s="8">
         <f t="shared" si="14"/>
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="K81" s="1">
         <f t="shared" si="15"/>
@@ -28484,7 +28522,7 @@
       </c>
       <c r="P81">
         <f t="shared" si="12"/>
-        <v>396</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -28523,7 +28561,7 @@
       </c>
       <c r="J82" s="8">
         <f t="shared" si="14"/>
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="K82" s="1">
         <f t="shared" si="15"/>
@@ -28543,7 +28581,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="12"/>
-        <v>402</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -28582,7 +28620,7 @@
       </c>
       <c r="J83" s="8">
         <f t="shared" si="14"/>
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="K83" s="1">
         <f t="shared" si="15"/>
@@ -28602,7 +28640,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="12"/>
-        <v>408</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -28641,7 +28679,7 @@
       </c>
       <c r="J84" s="8">
         <f t="shared" si="14"/>
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="K84" s="1">
         <f t="shared" si="15"/>
@@ -28661,7 +28699,7 @@
       </c>
       <c r="P84">
         <f t="shared" si="12"/>
-        <v>414</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -28700,7 +28738,7 @@
       </c>
       <c r="J85" s="8">
         <f t="shared" si="14"/>
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="K85" s="1">
         <f t="shared" si="15"/>
@@ -28720,7 +28758,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="12"/>
-        <v>421</v>
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -28759,7 +28797,7 @@
       </c>
       <c r="J86" s="8">
         <f t="shared" si="14"/>
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="K86" s="1">
         <f t="shared" si="15"/>
@@ -28779,7 +28817,7 @@
       </c>
       <c r="P86">
         <f t="shared" si="12"/>
-        <v>428</v>
+        <v>470</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -28818,7 +28856,7 @@
       </c>
       <c r="J87" s="8">
         <f t="shared" si="14"/>
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="K87" s="1">
         <f t="shared" si="15"/>
@@ -28838,7 +28876,7 @@
       </c>
       <c r="P87">
         <f t="shared" si="12"/>
-        <v>435</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -28877,7 +28915,7 @@
       </c>
       <c r="J88" s="8">
         <f t="shared" si="14"/>
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="K88" s="1">
         <f t="shared" si="15"/>
@@ -28897,7 +28935,7 @@
       </c>
       <c r="P88">
         <f t="shared" si="12"/>
-        <v>444</v>
+        <v>485</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -28936,7 +28974,7 @@
       </c>
       <c r="J89" s="8">
         <f t="shared" si="14"/>
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="K89" s="1">
         <f t="shared" si="15"/>
@@ -28956,7 +28994,7 @@
       </c>
       <c r="P89">
         <f t="shared" si="12"/>
-        <v>453</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -28995,7 +29033,7 @@
       </c>
       <c r="J90" s="8">
         <f t="shared" si="14"/>
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="K90" s="1">
         <f t="shared" si="15"/>
@@ -29015,7 +29053,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="12"/>
-        <v>463</v>
+        <v>504</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -29054,7 +29092,7 @@
       </c>
       <c r="J91" s="8">
         <f t="shared" si="14"/>
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="K91" s="1">
         <f t="shared" si="15"/>
@@ -29074,7 +29112,7 @@
       </c>
       <c r="P91">
         <f t="shared" si="12"/>
-        <v>474</v>
+        <v>515</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -29113,7 +29151,7 @@
       </c>
       <c r="J92" s="8">
         <f t="shared" si="14"/>
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="K92" s="1">
         <f t="shared" si="15"/>
@@ -29133,7 +29171,7 @@
       </c>
       <c r="P92">
         <f t="shared" si="12"/>
-        <v>485</v>
+        <v>525</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -29172,7 +29210,7 @@
       </c>
       <c r="J93" s="8">
         <f t="shared" si="14"/>
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="K93" s="1">
         <f t="shared" si="15"/>
@@ -29192,7 +29230,7 @@
       </c>
       <c r="P93">
         <f t="shared" si="12"/>
-        <v>497</v>
+        <v>536</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -29231,7 +29269,7 @@
       </c>
       <c r="J94" s="8">
         <f t="shared" si="14"/>
-        <v>510</v>
+        <v>549</v>
       </c>
       <c r="K94" s="1">
         <f t="shared" si="15"/>
@@ -29251,7 +29289,7 @@
       </c>
       <c r="P94">
         <f t="shared" si="12"/>
-        <v>510</v>
+        <v>549</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -29290,7 +29328,7 @@
       </c>
       <c r="J95" s="8">
         <f t="shared" si="14"/>
-        <v>525</v>
+        <v>563</v>
       </c>
       <c r="K95" s="1">
         <f t="shared" si="15"/>
@@ -29310,7 +29348,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="12"/>
-        <v>525</v>
+        <v>563</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -29349,7 +29387,7 @@
       </c>
       <c r="J96" s="8">
         <f t="shared" si="14"/>
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="K96" s="1">
         <f t="shared" si="15"/>
@@ -29369,7 +29407,7 @@
       </c>
       <c r="P96">
         <f t="shared" si="12"/>
-        <v>541</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -29408,7 +29446,7 @@
       </c>
       <c r="J97" s="8">
         <f t="shared" si="14"/>
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="K97" s="1">
         <f t="shared" si="15"/>
@@ -29428,7 +29466,7 @@
       </c>
       <c r="P97">
         <f t="shared" si="12"/>
-        <v>557</v>
+        <v>594</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -29467,7 +29505,7 @@
       </c>
       <c r="J98" s="8">
         <f t="shared" si="14"/>
-        <v>575</v>
+        <v>612</v>
       </c>
       <c r="K98" s="1">
         <f t="shared" si="15"/>
@@ -29487,7 +29525,7 @@
       </c>
       <c r="P98">
         <f t="shared" si="12"/>
-        <v>575</v>
+        <v>612</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -29526,7 +29564,7 @@
       </c>
       <c r="J99" s="8">
         <f t="shared" si="14"/>
-        <v>595</v>
+        <v>631</v>
       </c>
       <c r="K99" s="1">
         <f t="shared" si="15"/>
@@ -29546,7 +29584,7 @@
       </c>
       <c r="P99">
         <f t="shared" si="12"/>
-        <v>595</v>
+        <v>631</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -29585,7 +29623,7 @@
       </c>
       <c r="J100" s="8">
         <f t="shared" si="14"/>
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="K100" s="1">
         <f t="shared" si="15"/>
@@ -29605,7 +29643,7 @@
       </c>
       <c r="P100">
         <f t="shared" si="12"/>
-        <v>616</v>
+        <v>651</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -29644,7 +29682,7 @@
       </c>
       <c r="J101" s="8">
         <f t="shared" si="14"/>
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="K101" s="1">
         <f t="shared" si="15"/>
@@ -29664,7 +29702,7 @@
       </c>
       <c r="P101">
         <f t="shared" si="12"/>
-        <v>638</v>
+        <v>672</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -29703,7 +29741,7 @@
       </c>
       <c r="J102" s="8">
         <f t="shared" si="14"/>
-        <v>662</v>
+        <v>695</v>
       </c>
       <c r="K102" s="1">
         <f t="shared" si="15"/>
@@ -29723,7 +29761,7 @@
       </c>
       <c r="P102">
         <f t="shared" si="12"/>
-        <v>662</v>
+        <v>695</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -29762,7 +29800,7 @@
       </c>
       <c r="J103" s="8">
         <f t="shared" si="14"/>
-        <v>688</v>
+        <v>719</v>
       </c>
       <c r="K103" s="1">
         <f t="shared" si="15"/>
@@ -29782,7 +29820,7 @@
       </c>
       <c r="P103">
         <f t="shared" si="12"/>
-        <v>688</v>
+        <v>719</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -29821,7 +29859,7 @@
       </c>
       <c r="J104" s="8">
         <f t="shared" si="14"/>
-        <v>717</v>
+        <v>746</v>
       </c>
       <c r="K104" s="1">
         <f t="shared" si="15"/>
@@ -29841,7 +29879,7 @@
       </c>
       <c r="P104">
         <f t="shared" si="12"/>
-        <v>717</v>
+        <v>746</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -29880,7 +29918,7 @@
       </c>
       <c r="J105" s="8">
         <f t="shared" si="14"/>
-        <v>748</v>
+        <v>775</v>
       </c>
       <c r="K105" s="1">
         <f t="shared" si="15"/>
@@ -29900,7 +29938,7 @@
       </c>
       <c r="P105">
         <f t="shared" si="12"/>
-        <v>748</v>
+        <v>775</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -29939,7 +29977,7 @@
       </c>
       <c r="J106" s="8">
         <f t="shared" si="14"/>
-        <v>781</v>
+        <v>806</v>
       </c>
       <c r="K106" s="1">
         <f t="shared" si="15"/>
@@ -29959,7 +29997,7 @@
       </c>
       <c r="P106">
         <f t="shared" si="12"/>
-        <v>781</v>
+        <v>806</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -29998,7 +30036,7 @@
       </c>
       <c r="J107" s="8">
         <f t="shared" si="14"/>
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="K107" s="1">
         <f t="shared" si="15"/>
@@ -30018,7 +30056,7 @@
       </c>
       <c r="P107">
         <f t="shared" si="12"/>
-        <v>817</v>
+        <v>840</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -30057,7 +30095,7 @@
       </c>
       <c r="J108" s="8">
         <f t="shared" si="14"/>
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K108" s="1">
         <f t="shared" si="15"/>
@@ -30077,7 +30115,7 @@
       </c>
       <c r="P108">
         <f t="shared" si="12"/>
-        <v>855</v>
+        <v>876</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -30116,7 +30154,7 @@
       </c>
       <c r="J109" s="8">
         <f t="shared" si="14"/>
-        <v>896</v>
+        <v>915</v>
       </c>
       <c r="K109" s="1">
         <f t="shared" si="15"/>
@@ -30136,7 +30174,7 @@
       </c>
       <c r="P109">
         <f t="shared" si="12"/>
-        <v>896</v>
+        <v>915</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -30175,7 +30213,7 @@
       </c>
       <c r="J110" s="8">
         <f t="shared" si="14"/>
-        <v>941</v>
+        <v>957</v>
       </c>
       <c r="K110" s="1">
         <f t="shared" si="15"/>
@@ -30195,7 +30233,7 @@
       </c>
       <c r="P110">
         <f t="shared" si="12"/>
-        <v>941</v>
+        <v>957</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -30234,7 +30272,7 @@
       </c>
       <c r="J111" s="8">
         <f t="shared" si="14"/>
-        <v>989</v>
+        <v>1002</v>
       </c>
       <c r="K111" s="1">
         <f t="shared" si="15"/>
@@ -30254,7 +30292,7 @@
       </c>
       <c r="P111">
         <f t="shared" si="12"/>
-        <v>989</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -30293,7 +30331,7 @@
       </c>
       <c r="J112" s="8">
         <f t="shared" si="14"/>
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="K112" s="1">
         <f t="shared" si="15"/>
@@ -30313,7 +30351,7 @@
       </c>
       <c r="P112">
         <f t="shared" si="12"/>
-        <v>1041</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -30352,7 +30390,7 @@
       </c>
       <c r="J113" s="8">
         <f t="shared" si="14"/>
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="K113" s="1">
         <f t="shared" si="15"/>
@@ -30372,7 +30410,7 @@
       </c>
       <c r="P113">
         <f t="shared" si="12"/>
-        <v>1097</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -30411,7 +30449,7 @@
       </c>
       <c r="J114" s="8">
         <f t="shared" si="14"/>
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="K114" s="1">
         <f t="shared" si="15"/>
@@ -30431,7 +30469,7 @@
       </c>
       <c r="P114">
         <f t="shared" si="12"/>
-        <v>1158</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -30470,7 +30508,7 @@
       </c>
       <c r="J115" s="8">
         <f t="shared" si="14"/>
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="K115" s="1">
         <f t="shared" si="15"/>
@@ -30490,7 +30528,7 @@
       </c>
       <c r="P115">
         <f t="shared" si="12"/>
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -30529,7 +30567,7 @@
       </c>
       <c r="J116" s="8">
         <f t="shared" si="14"/>
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="K116" s="1">
         <f t="shared" si="15"/>
@@ -30549,7 +30587,7 @@
       </c>
       <c r="P116">
         <f t="shared" si="12"/>
-        <v>1293</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -30588,7 +30626,7 @@
       </c>
       <c r="J117" s="8">
         <f t="shared" si="14"/>
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="K117" s="1">
         <f t="shared" si="15"/>
@@ -30608,7 +30646,7 @@
       </c>
       <c r="P117">
         <f t="shared" si="12"/>
-        <v>1368</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -30647,7 +30685,7 @@
       </c>
       <c r="J118" s="8">
         <f t="shared" si="14"/>
-        <v>1449</v>
+        <v>1436</v>
       </c>
       <c r="K118" s="1">
         <f t="shared" si="15"/>
@@ -30667,7 +30705,7 @@
       </c>
       <c r="P118">
         <f t="shared" si="12"/>
-        <v>1449</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -30706,7 +30744,7 @@
       </c>
       <c r="J119" s="8">
         <f t="shared" si="14"/>
-        <v>1536</v>
+        <v>1518</v>
       </c>
       <c r="K119" s="1">
         <f t="shared" si="15"/>
@@ -30726,7 +30764,7 @@
       </c>
       <c r="P119">
         <f t="shared" ref="P119:P134" si="30">J119</f>
-        <v>1536</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -30765,7 +30803,7 @@
       </c>
       <c r="J120" s="8">
         <f t="shared" ref="J120:J134" si="31">J119+ROUND(($E$1/$D$2)*G119*(I119/$D$3),0)-ROUND(I119/$D$2,0)</f>
-        <v>1630</v>
+        <v>1607</v>
       </c>
       <c r="K120" s="1">
         <f t="shared" si="15"/>
@@ -30785,7 +30823,7 @@
       </c>
       <c r="P120">
         <f t="shared" si="30"/>
-        <v>1630</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -30796,15 +30834,15 @@
         <v>116</v>
       </c>
       <c r="C121">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="D121">
         <f t="shared" si="17"/>
-        <v>59995745</v>
+        <v>59995751</v>
       </c>
       <c r="E121">
         <f t="shared" si="18"/>
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="F121">
         <f t="shared" si="19"/>
@@ -30812,7 +30850,7 @@
       </c>
       <c r="G121" s="2">
         <f t="shared" si="20"/>
-        <v>59995745</v>
+        <v>59995751</v>
       </c>
       <c r="H121" s="2">
         <f t="shared" si="24"/>
@@ -30824,7 +30862,7 @@
       </c>
       <c r="J121" s="8">
         <f t="shared" si="31"/>
-        <v>1732</v>
+        <v>1703</v>
       </c>
       <c r="K121" s="1">
         <f t="shared" si="15"/>
@@ -30832,7 +30870,7 @@
       </c>
       <c r="L121">
         <f t="shared" ref="L121" si="33">E121</f>
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="M121">
         <f>RealData!B118</f>
@@ -30844,7 +30882,7 @@
       </c>
       <c r="P121">
         <f t="shared" si="30"/>
-        <v>1732</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -30855,15 +30893,15 @@
         <v>117</v>
       </c>
       <c r="C122">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="D122">
         <f t="shared" si="17"/>
-        <v>59995491</v>
+        <v>59995503</v>
       </c>
       <c r="E122">
         <f t="shared" si="18"/>
-        <v>1863</v>
+        <v>1851</v>
       </c>
       <c r="F122">
         <f t="shared" si="19"/>
@@ -30871,7 +30909,7 @@
       </c>
       <c r="G122" s="2">
         <f t="shared" si="20"/>
-        <v>59995491</v>
+        <v>59995503</v>
       </c>
       <c r="H122" s="2">
         <f t="shared" si="24"/>
@@ -30883,7 +30921,7 @@
       </c>
       <c r="J122" s="8">
         <f t="shared" si="31"/>
-        <v>1841</v>
+        <v>1806</v>
       </c>
       <c r="K122" s="1">
         <f t="shared" si="15"/>
@@ -30891,7 +30929,7 @@
       </c>
       <c r="L122">
         <f t="shared" ref="L122:L124" si="34">E122</f>
-        <v>1863</v>
+        <v>1851</v>
       </c>
       <c r="M122">
         <f>RealData!B119</f>
@@ -30903,7 +30941,7 @@
       </c>
       <c r="P122">
         <f t="shared" si="30"/>
-        <v>1841</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -30914,23 +30952,23 @@
         <v>118</v>
       </c>
       <c r="C123">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="D123">
         <f t="shared" ref="D123:D132" si="35">D122-ROUND((C123/$D$2)*D122*(E122/$D$3),0)</f>
-        <v>59995221</v>
+        <v>59995241</v>
       </c>
       <c r="E123">
         <f t="shared" ref="E123:E132" si="36">E122+ROUND((C123/$D$2)*D122*(E122/$D$3),0)-ROUND(E122/$D$2,0)</f>
-        <v>1978</v>
+        <v>1959</v>
       </c>
       <c r="F123">
         <f t="shared" ref="F123:F132" si="37">F122+ROUND(E122/$D$2,0)</f>
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="G123" s="2">
         <f t="shared" ref="G123:G132" si="38">D123</f>
-        <v>59995221</v>
+        <v>59995241</v>
       </c>
       <c r="H123" s="2">
         <f t="shared" ref="H123:H132" si="39">H122+ROUND(($D$1/$D$2)*G122*(H122/$D$3),0)-ROUND(H122/$D$2,0)</f>
@@ -30942,7 +30980,7 @@
       </c>
       <c r="J123" s="8">
         <f t="shared" si="31"/>
-        <v>1960</v>
+        <v>1918</v>
       </c>
       <c r="K123" s="1">
         <f t="shared" si="15"/>
@@ -30950,7 +30988,7 @@
       </c>
       <c r="L123">
         <f t="shared" si="34"/>
-        <v>1978</v>
+        <v>1959</v>
       </c>
       <c r="M123">
         <f>RealData!B120</f>
@@ -30962,7 +31000,7 @@
       </c>
       <c r="P123">
         <f t="shared" si="30"/>
-        <v>1960</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -30973,23 +31011,23 @@
         <v>119</v>
       </c>
       <c r="C124">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="D124">
         <f t="shared" si="35"/>
-        <v>59994934</v>
+        <v>59994963</v>
       </c>
       <c r="E124">
         <f t="shared" si="36"/>
-        <v>2100</v>
+        <v>2074</v>
       </c>
       <c r="F124">
         <f t="shared" si="37"/>
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="G124" s="2">
         <f t="shared" si="38"/>
-        <v>59994934</v>
+        <v>59994963</v>
       </c>
       <c r="H124" s="2">
         <f t="shared" si="39"/>
@@ -31001,7 +31039,7 @@
       </c>
       <c r="J124" s="8">
         <f t="shared" si="31"/>
-        <v>2087</v>
+        <v>2039</v>
       </c>
       <c r="K124" s="1">
         <f t="shared" si="15"/>
@@ -31009,7 +31047,7 @@
       </c>
       <c r="L124">
         <f t="shared" si="34"/>
-        <v>2100</v>
+        <v>2074</v>
       </c>
       <c r="M124">
         <f>RealData!B121</f>
@@ -31021,7 +31059,7 @@
       </c>
       <c r="P124">
         <f t="shared" si="30"/>
-        <v>2087</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -31032,23 +31070,23 @@
         <v>120</v>
       </c>
       <c r="C125">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="D125">
         <f t="shared" si="35"/>
-        <v>59994630</v>
+        <v>59994669</v>
       </c>
       <c r="E125">
         <f t="shared" si="36"/>
-        <v>2229</v>
+        <v>2195</v>
       </c>
       <c r="F125">
         <f t="shared" si="37"/>
-        <v>3141</v>
+        <v>3136</v>
       </c>
       <c r="G125" s="2">
         <f t="shared" si="38"/>
-        <v>59994630</v>
+        <v>59994669</v>
       </c>
       <c r="H125" s="2">
         <f t="shared" si="39"/>
@@ -31060,7 +31098,7 @@
       </c>
       <c r="J125" s="8">
         <f t="shared" si="31"/>
-        <v>2225</v>
+        <v>2169</v>
       </c>
       <c r="K125" s="1">
         <f t="shared" si="15"/>
@@ -31068,15 +31106,15 @@
       </c>
       <c r="L125">
         <f t="shared" ref="L125" si="40">E125</f>
-        <v>2229</v>
+        <v>2195</v>
       </c>
       <c r="M125">
         <f>RealData!B122</f>
         <v>2225</v>
       </c>
       <c r="N125">
-        <f t="shared" ref="N115:N134" si="41">E125</f>
-        <v>2229</v>
+        <f t="shared" ref="N125:N134" si="41">E125</f>
+        <v>2195</v>
       </c>
       <c r="O125">
         <f t="shared" si="29"/>
@@ -31084,7 +31122,7 @@
       </c>
       <c r="P125">
         <f t="shared" si="30"/>
-        <v>2225</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -31095,23 +31133,23 @@
         <v>121</v>
       </c>
       <c r="C126" s="4">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="D126" s="4">
         <f t="shared" si="35"/>
-        <v>59994307</v>
+        <v>59994358</v>
       </c>
       <c r="E126" s="4">
         <f t="shared" si="36"/>
-        <v>2366</v>
+        <v>2323</v>
       </c>
       <c r="F126" s="4">
         <f t="shared" si="37"/>
-        <v>3327</v>
+        <v>3319</v>
       </c>
       <c r="G126" s="2">
         <f t="shared" si="38"/>
-        <v>59994307</v>
+        <v>59994358</v>
       </c>
       <c r="H126" s="2">
         <f t="shared" si="39"/>
@@ -31123,17 +31161,23 @@
       </c>
       <c r="J126" s="8">
         <f t="shared" si="31"/>
-        <v>2373</v>
+        <v>2309</v>
       </c>
       <c r="K126" s="3">
         <f t="shared" si="15"/>
         <v>44139</v>
       </c>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
+      <c r="L126" s="4">
+        <f t="shared" ref="L126" si="42">E126</f>
+        <v>2323</v>
+      </c>
+      <c r="M126" s="4">
+        <f>RealData!B123</f>
+        <v>2292</v>
+      </c>
       <c r="N126" s="4">
         <f t="shared" si="41"/>
-        <v>2366</v>
+        <v>2323</v>
       </c>
       <c r="O126" s="4">
         <f t="shared" si="29"/>
@@ -31141,7 +31185,7 @@
       </c>
       <c r="P126" s="4">
         <f t="shared" si="30"/>
-        <v>2373</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -31152,23 +31196,23 @@
         <v>122</v>
       </c>
       <c r="C127" s="4">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="D127" s="4">
         <f t="shared" si="35"/>
-        <v>59993964</v>
+        <v>59994029</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="36"/>
-        <v>2512</v>
+        <v>2458</v>
       </c>
       <c r="F127" s="4">
         <f t="shared" si="37"/>
-        <v>3524</v>
+        <v>3513</v>
       </c>
       <c r="G127" s="2">
         <f t="shared" si="38"/>
-        <v>59993964</v>
+        <v>59994029</v>
       </c>
       <c r="H127" s="2">
         <f t="shared" si="39"/>
@@ -31180,7 +31224,7 @@
       </c>
       <c r="J127" s="8">
         <f t="shared" si="31"/>
-        <v>2534</v>
+        <v>2461</v>
       </c>
       <c r="K127" s="3">
         <f t="shared" si="15"/>
@@ -31190,7 +31234,7 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4">
         <f t="shared" si="41"/>
-        <v>2512</v>
+        <v>2458</v>
       </c>
       <c r="O127" s="4">
         <f t="shared" si="29"/>
@@ -31198,7 +31242,7 @@
       </c>
       <c r="P127" s="4">
         <f t="shared" si="30"/>
-        <v>2534</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -31209,23 +31253,23 @@
         <v>123</v>
       </c>
       <c r="C128" s="4">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" si="35"/>
-        <v>59993600</v>
+        <v>59993681</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="36"/>
-        <v>2667</v>
+        <v>2601</v>
       </c>
       <c r="F128" s="4">
         <f t="shared" si="37"/>
-        <v>3733</v>
+        <v>3718</v>
       </c>
       <c r="G128" s="2">
         <f t="shared" si="38"/>
-        <v>59993600</v>
+        <v>59993681</v>
       </c>
       <c r="H128" s="2">
         <f t="shared" si="39"/>
@@ -31237,7 +31281,7 @@
       </c>
       <c r="J128" s="8">
         <f t="shared" si="31"/>
-        <v>2707</v>
+        <v>2625</v>
       </c>
       <c r="K128" s="3">
         <f t="shared" si="15"/>
@@ -31247,7 +31291,7 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4">
         <f t="shared" si="41"/>
-        <v>2667</v>
+        <v>2601</v>
       </c>
       <c r="O128" s="4">
         <f t="shared" si="29"/>
@@ -31255,7 +31299,7 @@
       </c>
       <c r="P128" s="4">
         <f t="shared" si="30"/>
-        <v>2707</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -31266,23 +31310,23 @@
         <v>124</v>
       </c>
       <c r="C129" s="4">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" si="35"/>
-        <v>59993213</v>
+        <v>59993313</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="36"/>
-        <v>2832</v>
+        <v>2752</v>
       </c>
       <c r="F129" s="4">
         <f t="shared" si="37"/>
-        <v>3955</v>
+        <v>3935</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" si="38"/>
-        <v>59993213</v>
+        <v>59993313</v>
       </c>
       <c r="H129" s="2">
         <f t="shared" si="39"/>
@@ -31294,7 +31338,7 @@
       </c>
       <c r="J129" s="8">
         <f t="shared" si="31"/>
-        <v>2893</v>
+        <v>2801</v>
       </c>
       <c r="K129" s="3">
         <f t="shared" si="15"/>
@@ -31304,7 +31348,7 @@
       <c r="M129" s="4"/>
       <c r="N129" s="4">
         <f t="shared" si="41"/>
-        <v>2832</v>
+        <v>2752</v>
       </c>
       <c r="O129" s="4">
         <f t="shared" si="29"/>
@@ -31312,7 +31356,7 @@
       </c>
       <c r="P129" s="4">
         <f t="shared" si="30"/>
-        <v>2893</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -31323,23 +31367,23 @@
         <v>125</v>
       </c>
       <c r="C130" s="4">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" si="35"/>
-        <v>59992802</v>
+        <v>59992923</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="36"/>
-        <v>3007</v>
+        <v>2913</v>
       </c>
       <c r="F130" s="4">
         <f t="shared" si="37"/>
-        <v>4191</v>
+        <v>4164</v>
       </c>
       <c r="G130" s="2">
         <f t="shared" si="38"/>
-        <v>59992802</v>
+        <v>59992923</v>
       </c>
       <c r="H130" s="2">
         <f t="shared" si="39"/>
@@ -31351,7 +31395,7 @@
       </c>
       <c r="J130" s="8">
         <f t="shared" si="31"/>
-        <v>3094</v>
+        <v>2991</v>
       </c>
       <c r="K130" s="3">
         <f t="shared" si="15"/>
@@ -31361,7 +31405,7 @@
       <c r="M130" s="4"/>
       <c r="N130" s="4">
         <f t="shared" si="41"/>
-        <v>3007</v>
+        <v>2913</v>
       </c>
       <c r="O130" s="4">
         <f t="shared" si="29"/>
@@ -31369,7 +31413,7 @@
       </c>
       <c r="P130" s="4">
         <f t="shared" si="30"/>
-        <v>3094</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -31380,23 +31424,23 @@
         <v>126</v>
       </c>
       <c r="C131" s="4">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="35"/>
-        <v>59992366</v>
+        <v>59992510</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="36"/>
-        <v>3192</v>
+        <v>3083</v>
       </c>
       <c r="F131" s="4">
         <f t="shared" si="37"/>
-        <v>4442</v>
+        <v>4407</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" si="38"/>
-        <v>59992366</v>
+        <v>59992510</v>
       </c>
       <c r="H131" s="2">
         <f t="shared" si="39"/>
@@ -31408,7 +31452,7 @@
       </c>
       <c r="J131" s="8">
         <f t="shared" si="31"/>
-        <v>3310</v>
+        <v>3195</v>
       </c>
       <c r="K131" s="3">
         <f t="shared" si="15"/>
@@ -31418,7 +31462,7 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4">
         <f t="shared" si="41"/>
-        <v>3192</v>
+        <v>3083</v>
       </c>
       <c r="O131" s="4">
         <f t="shared" si="29"/>
@@ -31426,7 +31470,7 @@
       </c>
       <c r="P131" s="4">
         <f t="shared" si="30"/>
-        <v>3310</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -31437,23 +31481,23 @@
         <v>127</v>
       </c>
       <c r="C132" s="4">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" si="35"/>
-        <v>59991903</v>
+        <v>59992073</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" si="36"/>
-        <v>3389</v>
+        <v>3263</v>
       </c>
       <c r="F132" s="4">
         <f t="shared" si="37"/>
-        <v>4708</v>
+        <v>4664</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" si="38"/>
-        <v>59991903</v>
+        <v>59992073</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" si="39"/>
@@ -31465,7 +31509,7 @@
       </c>
       <c r="J132" s="8">
         <f t="shared" si="31"/>
-        <v>3543</v>
+        <v>3415</v>
       </c>
       <c r="K132" s="3">
         <f t="shared" si="15"/>
@@ -31475,7 +31519,7 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4">
         <f t="shared" si="41"/>
-        <v>3389</v>
+        <v>3263</v>
       </c>
       <c r="O132" s="4">
         <f t="shared" si="29"/>
@@ -31483,7 +31527,7 @@
       </c>
       <c r="P132" s="4">
         <f t="shared" si="30"/>
-        <v>3543</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -31497,23 +31541,23 @@
         <v>1.6</v>
       </c>
       <c r="D133" s="10">
-        <f t="shared" ref="D133:D134" si="42">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
-        <v>59991451</v>
+        <f t="shared" ref="D133:D134" si="43">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <v>59991638</v>
       </c>
       <c r="E133" s="10">
-        <f t="shared" ref="E133:E134" si="43">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
-        <v>3559</v>
+        <f t="shared" ref="E133:E134" si="44">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <v>3426</v>
       </c>
       <c r="F133" s="10">
-        <f t="shared" ref="F133:F134" si="44">F132+ROUND(E132/$D$2,0)</f>
-        <v>4990</v>
+        <f t="shared" ref="F133:F134" si="45">F132+ROUND(E132/$D$2,0)</f>
+        <v>4936</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="45">D133</f>
-        <v>59991451</v>
+        <f t="shared" ref="G133:G134" si="46">D133</f>
+        <v>59991638</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" ref="H133:H134" si="46">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <f t="shared" ref="H133:H134" si="47">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
         <v>4403</v>
       </c>
       <c r="I133" s="7">
@@ -31522,7 +31566,7 @@
       </c>
       <c r="J133" s="8">
         <f t="shared" si="31"/>
-        <v>3795</v>
+        <v>3653</v>
       </c>
       <c r="K133" s="9">
         <f t="shared" si="15"/>
@@ -31532,7 +31576,7 @@
       <c r="M133" s="10"/>
       <c r="N133" s="10">
         <f t="shared" si="41"/>
-        <v>3559</v>
+        <v>3426</v>
       </c>
       <c r="O133" s="10">
         <f t="shared" si="29"/>
@@ -31540,7 +31584,7 @@
       </c>
       <c r="P133" s="10">
         <f t="shared" si="30"/>
-        <v>3795</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -31554,23 +31598,23 @@
         <v>1.6</v>
       </c>
       <c r="D134" s="10">
-        <f t="shared" si="42"/>
-        <v>59990977</v>
+        <f t="shared" si="43"/>
+        <v>59991181</v>
       </c>
       <c r="E134" s="10">
-        <f t="shared" si="43"/>
-        <v>3736</v>
+        <f t="shared" si="44"/>
+        <v>3597</v>
       </c>
       <c r="F134" s="10">
-        <f t="shared" si="44"/>
-        <v>5287</v>
+        <f t="shared" si="45"/>
+        <v>5222</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="45"/>
-        <v>59990977</v>
+        <f t="shared" si="46"/>
+        <v>59991181</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>4748</v>
       </c>
       <c r="I134" s="7">
@@ -31579,7 +31623,7 @@
       </c>
       <c r="J134" s="8">
         <f t="shared" si="31"/>
-        <v>4066</v>
+        <v>3910</v>
       </c>
       <c r="K134" s="9">
         <f t="shared" si="15"/>
@@ -31589,7 +31633,7 @@
       <c r="M134" s="10"/>
       <c r="N134" s="10">
         <f t="shared" si="41"/>
-        <v>3736</v>
+        <v>3597</v>
       </c>
       <c r="O134" s="10">
         <f t="shared" si="29"/>
@@ -31597,7 +31641,7 @@
       </c>
       <c r="P134" s="10">
         <f t="shared" si="30"/>
-        <v>4066</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -31611,50 +31655,50 @@
         <v>1.6</v>
       </c>
       <c r="D135" s="10">
-        <f t="shared" ref="D135:D139" si="47">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
-        <v>59990479</v>
+        <f t="shared" ref="D135:D139" si="48">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
+        <v>59990701</v>
       </c>
       <c r="E135" s="10">
-        <f t="shared" ref="E135:E139" si="48">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
-        <v>3923</v>
+        <f t="shared" ref="E135:E139" si="49">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
+        <v>3777</v>
       </c>
       <c r="F135" s="10">
-        <f t="shared" ref="F135:F139" si="49">F134+ROUND(E134/$D$2,0)</f>
-        <v>5598</v>
+        <f t="shared" ref="F135:F139" si="50">F134+ROUND(E134/$D$2,0)</f>
+        <v>5522</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" ref="G135:G139" si="50">D135</f>
-        <v>59990479</v>
+        <f t="shared" ref="G135:G139" si="51">D135</f>
+        <v>59990701</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H139" si="51">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
+        <f t="shared" ref="H135:H139" si="52">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" ref="I135:I139" si="52">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="I135:I139" si="53">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="J135" s="8">
-        <f t="shared" ref="J135:J139" si="53">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
-        <v>4358</v>
+        <f t="shared" ref="J135:J139" si="54">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <v>4187</v>
       </c>
       <c r="K135" s="9">
-        <f t="shared" ref="K135:K139" si="54">A135</f>
+        <f t="shared" ref="K135:K139" si="55">A135</f>
         <v>44148</v>
       </c>
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
       <c r="N135" s="10">
-        <f t="shared" ref="N135:N139" si="55">E135</f>
-        <v>3923</v>
+        <f t="shared" ref="N135:N139" si="56">E135</f>
+        <v>3777</v>
       </c>
       <c r="O135" s="10">
-        <f t="shared" ref="O135:O139" si="56">I135</f>
+        <f t="shared" ref="O135:O139" si="57">I135</f>
         <v>5119</v>
       </c>
       <c r="P135" s="10">
-        <f t="shared" ref="P135:P139" si="57">J135</f>
-        <v>4358</v>
+        <f t="shared" ref="P135:P139" si="58">J135</f>
+        <v>4187</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -31668,50 +31712,50 @@
         <v>1.6</v>
       </c>
       <c r="D136" s="10">
-        <f t="shared" si="47"/>
-        <v>59989956</v>
+        <f t="shared" si="48"/>
+        <v>59990197</v>
       </c>
       <c r="E136" s="10">
-        <f t="shared" si="48"/>
-        <v>4119</v>
+        <f t="shared" si="49"/>
+        <v>3966</v>
       </c>
       <c r="F136" s="10">
-        <f t="shared" si="49"/>
-        <v>5925</v>
+        <f t="shared" si="50"/>
+        <v>5837</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="50"/>
-        <v>59989956</v>
+        <f t="shared" si="51"/>
+        <v>59990197</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="51"/>
-        <v>5519</v>
-      </c>
-      <c r="I136" s="7">
         <f t="shared" si="52"/>
         <v>5519</v>
       </c>
+      <c r="I136" s="7">
+        <f t="shared" si="53"/>
+        <v>5519</v>
+      </c>
       <c r="J136" s="8">
-        <f t="shared" si="53"/>
-        <v>4673</v>
+        <f t="shared" si="54"/>
+        <v>4485</v>
       </c>
       <c r="K136" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>44149</v>
       </c>
       <c r="L136" s="10"/>
       <c r="M136" s="10"/>
       <c r="N136" s="10">
-        <f t="shared" si="55"/>
-        <v>4119</v>
+        <f t="shared" si="56"/>
+        <v>3966</v>
       </c>
       <c r="O136" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>5519</v>
       </c>
       <c r="P136" s="10">
-        <f t="shared" si="57"/>
-        <v>4673</v>
+        <f t="shared" si="58"/>
+        <v>4485</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -31725,50 +31769,50 @@
         <v>1.6</v>
       </c>
       <c r="D137" s="10">
-        <f t="shared" si="47"/>
-        <v>59989407</v>
+        <f t="shared" si="48"/>
+        <v>59989668</v>
       </c>
       <c r="E137" s="10">
-        <f t="shared" si="48"/>
-        <v>4325</v>
+        <f t="shared" si="49"/>
+        <v>4164</v>
       </c>
       <c r="F137" s="10">
-        <f t="shared" si="49"/>
-        <v>6268</v>
+        <f t="shared" si="50"/>
+        <v>6168</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="50"/>
-        <v>59989407</v>
+        <f t="shared" si="51"/>
+        <v>59989668</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="51"/>
-        <v>5951</v>
-      </c>
-      <c r="I137" s="7">
         <f t="shared" si="52"/>
         <v>5951</v>
       </c>
+      <c r="I137" s="7">
+        <f t="shared" si="53"/>
+        <v>5951</v>
+      </c>
       <c r="J137" s="8">
-        <f t="shared" si="53"/>
-        <v>5013</v>
+        <f t="shared" si="54"/>
+        <v>4807</v>
       </c>
       <c r="K137" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>44150</v>
       </c>
       <c r="L137" s="10"/>
       <c r="M137" s="10"/>
       <c r="N137" s="10">
-        <f t="shared" si="55"/>
-        <v>4325</v>
+        <f t="shared" si="56"/>
+        <v>4164</v>
       </c>
       <c r="O137" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>5951</v>
       </c>
       <c r="P137" s="10">
-        <f t="shared" si="57"/>
-        <v>5013</v>
+        <f t="shared" si="58"/>
+        <v>4807</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
@@ -31782,50 +31826,50 @@
         <v>1.6</v>
       </c>
       <c r="D138" s="10">
-        <f t="shared" si="47"/>
-        <v>59988830</v>
+        <f t="shared" si="48"/>
+        <v>59989113</v>
       </c>
       <c r="E138" s="10">
-        <f t="shared" si="48"/>
-        <v>4542</v>
+        <f t="shared" si="49"/>
+        <v>4372</v>
       </c>
       <c r="F138" s="10">
-        <f t="shared" si="49"/>
-        <v>6628</v>
+        <f t="shared" si="50"/>
+        <v>6515</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="50"/>
-        <v>59988830</v>
+        <f t="shared" si="51"/>
+        <v>59989113</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="51"/>
-        <v>6417</v>
-      </c>
-      <c r="I138" s="7">
         <f t="shared" si="52"/>
         <v>6417</v>
       </c>
+      <c r="I138" s="7">
+        <f t="shared" si="53"/>
+        <v>6417</v>
+      </c>
       <c r="J138" s="8">
-        <f t="shared" si="53"/>
-        <v>5380</v>
+        <f t="shared" si="54"/>
+        <v>5154</v>
       </c>
       <c r="K138" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>44151</v>
       </c>
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
       <c r="N138" s="10">
-        <f t="shared" si="55"/>
-        <v>4542</v>
+        <f t="shared" si="56"/>
+        <v>4372</v>
       </c>
       <c r="O138" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>6417</v>
       </c>
       <c r="P138" s="10">
-        <f t="shared" si="57"/>
-        <v>5380</v>
+        <f t="shared" si="58"/>
+        <v>5154</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
@@ -31839,50 +31883,50 @@
         <v>1.6</v>
       </c>
       <c r="D139" s="10">
-        <f t="shared" si="47"/>
-        <v>59988225</v>
+        <f t="shared" si="48"/>
+        <v>59988530</v>
       </c>
       <c r="E139" s="10">
-        <f t="shared" si="48"/>
-        <v>4768</v>
+        <f t="shared" si="49"/>
+        <v>4591</v>
       </c>
       <c r="F139" s="10">
-        <f t="shared" si="49"/>
-        <v>7007</v>
+        <f t="shared" si="50"/>
+        <v>6879</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="50"/>
-        <v>59988225</v>
+        <f t="shared" si="51"/>
+        <v>59988530</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="51"/>
-        <v>6919</v>
-      </c>
-      <c r="I139" s="7">
         <f t="shared" si="52"/>
         <v>6919</v>
       </c>
+      <c r="I139" s="7">
+        <f t="shared" si="53"/>
+        <v>6919</v>
+      </c>
       <c r="J139" s="8">
-        <f t="shared" si="53"/>
-        <v>5775</v>
+        <f t="shared" si="54"/>
+        <v>5528</v>
       </c>
       <c r="K139" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>44152</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
       <c r="N139" s="10">
-        <f t="shared" si="55"/>
-        <v>4768</v>
+        <f t="shared" si="56"/>
+        <v>4591</v>
       </c>
       <c r="O139" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>6919</v>
       </c>
       <c r="P139" s="10">
-        <f t="shared" si="57"/>
-        <v>5775</v>
+        <f t="shared" si="58"/>
+        <v>5528</v>
       </c>
     </row>
   </sheetData>
@@ -31896,7 +31940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C18E4-1873-48DD-B7B4-EAEB82B5E392}">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L120" sqref="L120:M121"/>
     </sheetView>
   </sheetViews>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1222E696-8C60-4BA7-BFAE-2F5F2616E3CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3450D9-1D26-4483-8A1C-90716973EA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20880" yWindow="1065" windowWidth="17640" windowHeight="10065" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="1485" yWindow="630" windowWidth="17640" windowHeight="10065" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,10 @@
                   <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2323</c:v>
+                  <c:v>2292</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,6 +1095,9 @@
                 <c:pt idx="56">
                   <c:v>2292</c:v>
                 </c:pt>
+                <c:pt idx="57">
+                  <c:v>2391</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1784,199 +1790,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>405</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>407</c:v>
+                  <c:v>797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>410</c:v>
+                  <c:v>799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>412</c:v>
+                  <c:v>801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>415</c:v>
+                  <c:v>803</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>418</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>421</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>424</c:v>
+                  <c:v>811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>428</c:v>
+                  <c:v>814</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>432</c:v>
+                  <c:v>817</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>437</c:v>
+                  <c:v>821</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>442</c:v>
+                  <c:v>824</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>447</c:v>
+                  <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>452</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>457</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>463</c:v>
+                  <c:v>841</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>470</c:v>
+                  <c:v>846</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>477</c:v>
+                  <c:v>851</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>485</c:v>
+                  <c:v>857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>494</c:v>
+                  <c:v>864</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>504</c:v>
+                  <c:v>871</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>515</c:v>
+                  <c:v>879</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>525</c:v>
+                  <c:v>887</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>536</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>549</c:v>
+                  <c:v>906</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>563</c:v>
+                  <c:v>917</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>578</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>594</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>612</c:v>
+                  <c:v>953</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>631</c:v>
+                  <c:v>967</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>651</c:v>
+                  <c:v>982</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>672</c:v>
+                  <c:v>998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>695</c:v>
+                  <c:v>1015</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>719</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>746</c:v>
+                  <c:v>1054</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>775</c:v>
+                  <c:v>1076</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>806</c:v>
+                  <c:v>1099</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>840</c:v>
+                  <c:v>1124</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>876</c:v>
+                  <c:v>1151</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>915</c:v>
+                  <c:v>1180</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>957</c:v>
+                  <c:v>1212</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1002</c:v>
+                  <c:v>1246</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1051</c:v>
+                  <c:v>1283</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1104</c:v>
+                  <c:v>1323</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1161</c:v>
+                  <c:v>1366</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1222</c:v>
+                  <c:v>1412</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1288</c:v>
+                  <c:v>1462</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1359</c:v>
+                  <c:v>1516</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1436</c:v>
+                  <c:v>1574</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1518</c:v>
+                  <c:v>1636</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1607</c:v>
+                  <c:v>1703</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1703</c:v>
+                  <c:v>1776</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1806</c:v>
+                  <c:v>1854</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1918</c:v>
+                  <c:v>1939</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2039</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2169</c:v>
+                  <c:v>2129</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2309</c:v>
+                  <c:v>2235</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2461</c:v>
+                  <c:v>2350</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2625</c:v>
+                  <c:v>2474</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2801</c:v>
+                  <c:v>2607</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2991</c:v>
+                  <c:v>2751</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3195</c:v>
+                  <c:v>2906</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3415</c:v>
+                  <c:v>3073</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3653</c:v>
+                  <c:v>3254</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3910</c:v>
+                  <c:v>3448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3067,7 +3073,10 @@
                   <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2323</c:v>
+                  <c:v>2292</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3882,6 +3891,9 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>2292</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4970,7 +4982,10 @@
                   <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2323</c:v>
+                  <c:v>2292</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5768,6 +5783,9 @@
                 <c:pt idx="120">
                   <c:v>2292</c:v>
                 </c:pt>
+                <c:pt idx="121">
+                  <c:v>2391</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6205,25 +6223,25 @@
                   <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2323</c:v>
+                  <c:v>2292</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2458</c:v>
+                  <c:v>2393</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2601</c:v>
+                  <c:v>2499</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2752</c:v>
+                  <c:v>2610</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2913</c:v>
+                  <c:v>2725</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3083</c:v>
+                  <c:v>2816</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3263</c:v>
+                  <c:v>2909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7333,7 +7351,10 @@
                   <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2323</c:v>
+                  <c:v>2292</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8152,6 +8173,9 @@
                 <c:pt idx="120">
                   <c:v>2292</c:v>
                 </c:pt>
+                <c:pt idx="121">
+                  <c:v>2391</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8610,46 +8634,46 @@
                   <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2323</c:v>
+                  <c:v>2292</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2458</c:v>
+                  <c:v>2393</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2601</c:v>
+                  <c:v>2499</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2752</c:v>
+                  <c:v>2610</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2913</c:v>
+                  <c:v>2725</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3083</c:v>
+                  <c:v>2816</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3263</c:v>
+                  <c:v>2909</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3426</c:v>
+                  <c:v>3006</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3597</c:v>
+                  <c:v>3106</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3777</c:v>
+                  <c:v>3209</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3966</c:v>
+                  <c:v>3316</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>4164</c:v>
+                  <c:v>3427</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>4372</c:v>
+                  <c:v>3541</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>4591</c:v>
+                  <c:v>3659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9158,7 +9182,10 @@
                   <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2323</c:v>
+                  <c:v>2292</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9396,6 +9423,9 @@
                 <c:pt idx="24">
                   <c:v>2292</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>2391</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9800,103 +9830,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>695</c:v>
+                  <c:v>1015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>719</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>746</c:v>
+                  <c:v>1054</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>775</c:v>
+                  <c:v>1076</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>806</c:v>
+                  <c:v>1099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>840</c:v>
+                  <c:v>1124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>876</c:v>
+                  <c:v>1151</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>915</c:v>
+                  <c:v>1180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>957</c:v>
+                  <c:v>1212</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1002</c:v>
+                  <c:v>1246</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1051</c:v>
+                  <c:v>1283</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1104</c:v>
+                  <c:v>1323</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1161</c:v>
+                  <c:v>1366</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1222</c:v>
+                  <c:v>1412</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1288</c:v>
+                  <c:v>1462</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1359</c:v>
+                  <c:v>1516</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1436</c:v>
+                  <c:v>1574</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1518</c:v>
+                  <c:v>1636</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1607</c:v>
+                  <c:v>1703</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1703</c:v>
+                  <c:v>1776</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1806</c:v>
+                  <c:v>1854</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1918</c:v>
+                  <c:v>1939</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2039</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2169</c:v>
+                  <c:v>2129</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2309</c:v>
+                  <c:v>2235</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2461</c:v>
+                  <c:v>2350</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2625</c:v>
+                  <c:v>2474</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2801</c:v>
+                  <c:v>2607</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2991</c:v>
+                  <c:v>2751</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3195</c:v>
+                  <c:v>2906</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3415</c:v>
+                  <c:v>3073</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3653</c:v>
+                  <c:v>3254</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3910</c:v>
+                  <c:v>3448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23638,10 +23668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K123"/>
+  <dimension ref="A2:K124"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+      <selection activeCell="A123" sqref="A123:A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24632,6 +24662,14 @@
         <v>2292</v>
       </c>
     </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B124">
+        <v>2391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24642,8 +24680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C112" workbookViewId="0">
-      <selection activeCell="Q113" sqref="Q113:Q126"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24660,7 +24698,7 @@
         <v>1.94</v>
       </c>
       <c r="E1">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -26909,7 +26947,7 @@
         <v>12</v>
       </c>
       <c r="J54" s="8">
-        <v>385</v>
+        <v>780</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="1"/>
@@ -26929,7 +26967,7 @@
       </c>
       <c r="P54">
         <f>J54</f>
-        <v>385</v>
+        <v>780</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -26968,7 +27006,7 @@
       </c>
       <c r="J55" s="8">
         <f>J54+ROUND(($E$1/$D$2)*G54*(I54/$D$3),0)-ROUND(I54/$D$2,0)</f>
-        <v>386</v>
+        <v>781</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="1"/>
@@ -26988,7 +27026,7 @@
       </c>
       <c r="P55">
         <f t="shared" ref="P55:P118" si="12">J55</f>
-        <v>386</v>
+        <v>781</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -27027,7 +27065,7 @@
       </c>
       <c r="J56" s="8">
         <f t="shared" ref="J56:J119" si="14">J55+ROUND(($E$1/$D$2)*G55*(I55/$D$3),0)-ROUND(I55/$D$2,0)</f>
-        <v>387</v>
+        <v>782</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="1"/>
@@ -27047,7 +27085,7 @@
       </c>
       <c r="P56">
         <f t="shared" si="12"/>
-        <v>387</v>
+        <v>782</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -27086,7 +27124,7 @@
       </c>
       <c r="J57" s="8">
         <f t="shared" si="14"/>
-        <v>388</v>
+        <v>783</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="1"/>
@@ -27106,7 +27144,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="12"/>
-        <v>388</v>
+        <v>783</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -27145,7 +27183,7 @@
       </c>
       <c r="J58" s="8">
         <f t="shared" si="14"/>
-        <v>389</v>
+        <v>784</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" si="1"/>
@@ -27165,7 +27203,7 @@
       </c>
       <c r="P58">
         <f t="shared" si="12"/>
-        <v>389</v>
+        <v>784</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -27204,7 +27242,7 @@
       </c>
       <c r="J59" s="8">
         <f t="shared" si="14"/>
-        <v>390</v>
+        <v>785</v>
       </c>
       <c r="K59" s="1">
         <f t="shared" si="1"/>
@@ -27224,7 +27262,7 @@
       </c>
       <c r="P59">
         <f t="shared" si="12"/>
-        <v>390</v>
+        <v>785</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -27263,7 +27301,7 @@
       </c>
       <c r="J60" s="8">
         <f t="shared" si="14"/>
-        <v>391</v>
+        <v>785</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="1"/>
@@ -27283,7 +27321,7 @@
       </c>
       <c r="P60">
         <f t="shared" si="12"/>
-        <v>391</v>
+        <v>785</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -27322,7 +27360,7 @@
       </c>
       <c r="J61" s="8">
         <f t="shared" si="14"/>
-        <v>392</v>
+        <v>785</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="1"/>
@@ -27342,7 +27380,7 @@
       </c>
       <c r="P61">
         <f t="shared" si="12"/>
-        <v>392</v>
+        <v>785</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -27381,7 +27419,7 @@
       </c>
       <c r="J62" s="8">
         <f t="shared" si="14"/>
-        <v>393</v>
+        <v>786</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="1"/>
@@ -27401,7 +27439,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="12"/>
-        <v>393</v>
+        <v>786</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -27440,7 +27478,7 @@
       </c>
       <c r="J63" s="8">
         <f t="shared" si="14"/>
-        <v>394</v>
+        <v>787</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" si="1"/>
@@ -27460,7 +27498,7 @@
       </c>
       <c r="P63">
         <f t="shared" si="12"/>
-        <v>394</v>
+        <v>787</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -27499,7 +27537,7 @@
       </c>
       <c r="J64" s="8">
         <f t="shared" si="14"/>
-        <v>395</v>
+        <v>788</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" si="1"/>
@@ -27519,7 +27557,7 @@
       </c>
       <c r="P64">
         <f t="shared" si="12"/>
-        <v>395</v>
+        <v>788</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -27558,7 +27596,7 @@
       </c>
       <c r="J65" s="8">
         <f t="shared" si="14"/>
-        <v>396</v>
+        <v>789</v>
       </c>
       <c r="K65" s="1">
         <f t="shared" si="1"/>
@@ -27578,7 +27616,7 @@
       </c>
       <c r="P65">
         <f t="shared" si="12"/>
-        <v>396</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -27617,7 +27655,7 @@
       </c>
       <c r="J66" s="8">
         <f t="shared" si="14"/>
-        <v>398</v>
+        <v>790</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" si="1"/>
@@ -27637,7 +27675,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="12"/>
-        <v>398</v>
+        <v>790</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -27676,7 +27714,7 @@
       </c>
       <c r="J67" s="8">
         <f t="shared" si="14"/>
-        <v>400</v>
+        <v>792</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" si="1"/>
@@ -27696,7 +27734,7 @@
       </c>
       <c r="P67">
         <f t="shared" si="12"/>
-        <v>400</v>
+        <v>792</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -27735,7 +27773,7 @@
       </c>
       <c r="J68" s="8">
         <f t="shared" si="14"/>
-        <v>401</v>
+        <v>793</v>
       </c>
       <c r="K68" s="1">
         <f t="shared" si="1"/>
@@ -27755,7 +27793,7 @@
       </c>
       <c r="P68">
         <f t="shared" si="12"/>
-        <v>401</v>
+        <v>793</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -27794,7 +27832,7 @@
       </c>
       <c r="J69" s="8">
         <f t="shared" si="14"/>
-        <v>403</v>
+        <v>794</v>
       </c>
       <c r="K69" s="1">
         <f t="shared" si="1"/>
@@ -27814,7 +27852,7 @@
       </c>
       <c r="P69">
         <f t="shared" si="12"/>
-        <v>403</v>
+        <v>794</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -27853,7 +27891,7 @@
       </c>
       <c r="J70" s="8">
         <f t="shared" si="14"/>
-        <v>405</v>
+        <v>795</v>
       </c>
       <c r="K70" s="1">
         <f t="shared" si="1"/>
@@ -27873,7 +27911,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="12"/>
-        <v>405</v>
+        <v>795</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -27912,7 +27950,7 @@
       </c>
       <c r="J71" s="8">
         <f t="shared" si="14"/>
-        <v>407</v>
+        <v>797</v>
       </c>
       <c r="K71" s="1">
         <f t="shared" ref="K71:K134" si="15">A71</f>
@@ -27932,7 +27970,7 @@
       </c>
       <c r="P71">
         <f t="shared" si="12"/>
-        <v>407</v>
+        <v>797</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -27971,7 +28009,7 @@
       </c>
       <c r="J72" s="8">
         <f t="shared" si="14"/>
-        <v>410</v>
+        <v>799</v>
       </c>
       <c r="K72" s="1">
         <f t="shared" si="15"/>
@@ -27991,7 +28029,7 @@
       </c>
       <c r="P72">
         <f t="shared" si="12"/>
-        <v>410</v>
+        <v>799</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -28030,7 +28068,7 @@
       </c>
       <c r="J73" s="8">
         <f t="shared" si="14"/>
-        <v>412</v>
+        <v>801</v>
       </c>
       <c r="K73" s="1">
         <f t="shared" si="15"/>
@@ -28050,7 +28088,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="12"/>
-        <v>412</v>
+        <v>801</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -28089,7 +28127,7 @@
       </c>
       <c r="J74" s="8">
         <f t="shared" si="14"/>
-        <v>415</v>
+        <v>803</v>
       </c>
       <c r="K74" s="1">
         <f t="shared" si="15"/>
@@ -28109,7 +28147,7 @@
       </c>
       <c r="P74">
         <f t="shared" si="12"/>
-        <v>415</v>
+        <v>803</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -28148,7 +28186,7 @@
       </c>
       <c r="J75" s="8">
         <f t="shared" si="14"/>
-        <v>418</v>
+        <v>806</v>
       </c>
       <c r="K75" s="1">
         <f t="shared" si="15"/>
@@ -28168,7 +28206,7 @@
       </c>
       <c r="P75">
         <f t="shared" si="12"/>
-        <v>418</v>
+        <v>806</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -28207,7 +28245,7 @@
       </c>
       <c r="J76" s="8">
         <f t="shared" si="14"/>
-        <v>421</v>
+        <v>808</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" si="15"/>
@@ -28227,7 +28265,7 @@
       </c>
       <c r="P76">
         <f t="shared" si="12"/>
-        <v>421</v>
+        <v>808</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -28266,7 +28304,7 @@
       </c>
       <c r="J77" s="8">
         <f t="shared" si="14"/>
-        <v>424</v>
+        <v>811</v>
       </c>
       <c r="K77" s="1">
         <f t="shared" si="15"/>
@@ -28286,7 +28324,7 @@
       </c>
       <c r="P77">
         <f t="shared" si="12"/>
-        <v>424</v>
+        <v>811</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -28325,7 +28363,7 @@
       </c>
       <c r="J78" s="8">
         <f t="shared" si="14"/>
-        <v>428</v>
+        <v>814</v>
       </c>
       <c r="K78" s="1">
         <f t="shared" si="15"/>
@@ -28345,7 +28383,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="12"/>
-        <v>428</v>
+        <v>814</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -28384,7 +28422,7 @@
       </c>
       <c r="J79" s="8">
         <f t="shared" si="14"/>
-        <v>432</v>
+        <v>817</v>
       </c>
       <c r="K79" s="1">
         <f t="shared" si="15"/>
@@ -28404,7 +28442,7 @@
       </c>
       <c r="P79">
         <f t="shared" si="12"/>
-        <v>432</v>
+        <v>817</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -28443,7 +28481,7 @@
       </c>
       <c r="J80" s="8">
         <f t="shared" si="14"/>
-        <v>437</v>
+        <v>821</v>
       </c>
       <c r="K80" s="1">
         <f t="shared" si="15"/>
@@ -28463,7 +28501,7 @@
       </c>
       <c r="P80">
         <f t="shared" si="12"/>
-        <v>437</v>
+        <v>821</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -28502,7 +28540,7 @@
       </c>
       <c r="J81" s="8">
         <f t="shared" si="14"/>
-        <v>442</v>
+        <v>824</v>
       </c>
       <c r="K81" s="1">
         <f t="shared" si="15"/>
@@ -28522,7 +28560,7 @@
       </c>
       <c r="P81">
         <f t="shared" si="12"/>
-        <v>442</v>
+        <v>824</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -28561,7 +28599,7 @@
       </c>
       <c r="J82" s="8">
         <f t="shared" si="14"/>
-        <v>447</v>
+        <v>828</v>
       </c>
       <c r="K82" s="1">
         <f t="shared" si="15"/>
@@ -28581,7 +28619,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="12"/>
-        <v>447</v>
+        <v>828</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -28620,7 +28658,7 @@
       </c>
       <c r="J83" s="8">
         <f t="shared" si="14"/>
-        <v>452</v>
+        <v>832</v>
       </c>
       <c r="K83" s="1">
         <f t="shared" si="15"/>
@@ -28640,7 +28678,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="12"/>
-        <v>452</v>
+        <v>832</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -28679,7 +28717,7 @@
       </c>
       <c r="J84" s="8">
         <f t="shared" si="14"/>
-        <v>457</v>
+        <v>836</v>
       </c>
       <c r="K84" s="1">
         <f t="shared" si="15"/>
@@ -28699,7 +28737,7 @@
       </c>
       <c r="P84">
         <f t="shared" si="12"/>
-        <v>457</v>
+        <v>836</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -28738,7 +28776,7 @@
       </c>
       <c r="J85" s="8">
         <f t="shared" si="14"/>
-        <v>463</v>
+        <v>841</v>
       </c>
       <c r="K85" s="1">
         <f t="shared" si="15"/>
@@ -28758,7 +28796,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="12"/>
-        <v>463</v>
+        <v>841</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -28797,7 +28835,7 @@
       </c>
       <c r="J86" s="8">
         <f t="shared" si="14"/>
-        <v>470</v>
+        <v>846</v>
       </c>
       <c r="K86" s="1">
         <f t="shared" si="15"/>
@@ -28817,7 +28855,7 @@
       </c>
       <c r="P86">
         <f t="shared" si="12"/>
-        <v>470</v>
+        <v>846</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -28856,7 +28894,7 @@
       </c>
       <c r="J87" s="8">
         <f t="shared" si="14"/>
-        <v>477</v>
+        <v>851</v>
       </c>
       <c r="K87" s="1">
         <f t="shared" si="15"/>
@@ -28876,7 +28914,7 @@
       </c>
       <c r="P87">
         <f t="shared" si="12"/>
-        <v>477</v>
+        <v>851</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -28915,7 +28953,7 @@
       </c>
       <c r="J88" s="8">
         <f t="shared" si="14"/>
-        <v>485</v>
+        <v>857</v>
       </c>
       <c r="K88" s="1">
         <f t="shared" si="15"/>
@@ -28935,7 +28973,7 @@
       </c>
       <c r="P88">
         <f t="shared" si="12"/>
-        <v>485</v>
+        <v>857</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -28974,7 +29012,7 @@
       </c>
       <c r="J89" s="8">
         <f t="shared" si="14"/>
-        <v>494</v>
+        <v>864</v>
       </c>
       <c r="K89" s="1">
         <f t="shared" si="15"/>
@@ -28994,7 +29032,7 @@
       </c>
       <c r="P89">
         <f t="shared" si="12"/>
-        <v>494</v>
+        <v>864</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -29033,7 +29071,7 @@
       </c>
       <c r="J90" s="8">
         <f t="shared" si="14"/>
-        <v>504</v>
+        <v>871</v>
       </c>
       <c r="K90" s="1">
         <f t="shared" si="15"/>
@@ -29053,7 +29091,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="12"/>
-        <v>504</v>
+        <v>871</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -29092,7 +29130,7 @@
       </c>
       <c r="J91" s="8">
         <f t="shared" si="14"/>
-        <v>515</v>
+        <v>879</v>
       </c>
       <c r="K91" s="1">
         <f t="shared" si="15"/>
@@ -29112,7 +29150,7 @@
       </c>
       <c r="P91">
         <f t="shared" si="12"/>
-        <v>515</v>
+        <v>879</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -29151,7 +29189,7 @@
       </c>
       <c r="J92" s="8">
         <f t="shared" si="14"/>
-        <v>525</v>
+        <v>887</v>
       </c>
       <c r="K92" s="1">
         <f t="shared" si="15"/>
@@ -29171,7 +29209,7 @@
       </c>
       <c r="P92">
         <f t="shared" si="12"/>
-        <v>525</v>
+        <v>887</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -29210,7 +29248,7 @@
       </c>
       <c r="J93" s="8">
         <f t="shared" si="14"/>
-        <v>536</v>
+        <v>896</v>
       </c>
       <c r="K93" s="1">
         <f t="shared" si="15"/>
@@ -29230,7 +29268,7 @@
       </c>
       <c r="P93">
         <f t="shared" si="12"/>
-        <v>536</v>
+        <v>896</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -29269,7 +29307,7 @@
       </c>
       <c r="J94" s="8">
         <f t="shared" si="14"/>
-        <v>549</v>
+        <v>906</v>
       </c>
       <c r="K94" s="1">
         <f t="shared" si="15"/>
@@ -29289,7 +29327,7 @@
       </c>
       <c r="P94">
         <f t="shared" si="12"/>
-        <v>549</v>
+        <v>906</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -29328,7 +29366,7 @@
       </c>
       <c r="J95" s="8">
         <f t="shared" si="14"/>
-        <v>563</v>
+        <v>917</v>
       </c>
       <c r="K95" s="1">
         <f t="shared" si="15"/>
@@ -29348,7 +29386,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="12"/>
-        <v>563</v>
+        <v>917</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -29387,7 +29425,7 @@
       </c>
       <c r="J96" s="8">
         <f t="shared" si="14"/>
-        <v>578</v>
+        <v>928</v>
       </c>
       <c r="K96" s="1">
         <f t="shared" si="15"/>
@@ -29407,7 +29445,7 @@
       </c>
       <c r="P96">
         <f t="shared" si="12"/>
-        <v>578</v>
+        <v>928</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -29446,7 +29484,7 @@
       </c>
       <c r="J97" s="8">
         <f t="shared" si="14"/>
-        <v>594</v>
+        <v>940</v>
       </c>
       <c r="K97" s="1">
         <f t="shared" si="15"/>
@@ -29466,7 +29504,7 @@
       </c>
       <c r="P97">
         <f t="shared" si="12"/>
-        <v>594</v>
+        <v>940</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -29505,7 +29543,7 @@
       </c>
       <c r="J98" s="8">
         <f t="shared" si="14"/>
-        <v>612</v>
+        <v>953</v>
       </c>
       <c r="K98" s="1">
         <f t="shared" si="15"/>
@@ -29525,7 +29563,7 @@
       </c>
       <c r="P98">
         <f t="shared" si="12"/>
-        <v>612</v>
+        <v>953</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -29564,7 +29602,7 @@
       </c>
       <c r="J99" s="8">
         <f t="shared" si="14"/>
-        <v>631</v>
+        <v>967</v>
       </c>
       <c r="K99" s="1">
         <f t="shared" si="15"/>
@@ -29584,7 +29622,7 @@
       </c>
       <c r="P99">
         <f t="shared" si="12"/>
-        <v>631</v>
+        <v>967</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -29623,7 +29661,7 @@
       </c>
       <c r="J100" s="8">
         <f t="shared" si="14"/>
-        <v>651</v>
+        <v>982</v>
       </c>
       <c r="K100" s="1">
         <f t="shared" si="15"/>
@@ -29643,7 +29681,7 @@
       </c>
       <c r="P100">
         <f t="shared" si="12"/>
-        <v>651</v>
+        <v>982</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -29682,7 +29720,7 @@
       </c>
       <c r="J101" s="8">
         <f t="shared" si="14"/>
-        <v>672</v>
+        <v>998</v>
       </c>
       <c r="K101" s="1">
         <f t="shared" si="15"/>
@@ -29702,7 +29740,7 @@
       </c>
       <c r="P101">
         <f t="shared" si="12"/>
-        <v>672</v>
+        <v>998</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -29741,7 +29779,7 @@
       </c>
       <c r="J102" s="8">
         <f t="shared" si="14"/>
-        <v>695</v>
+        <v>1015</v>
       </c>
       <c r="K102" s="1">
         <f t="shared" si="15"/>
@@ -29761,7 +29799,7 @@
       </c>
       <c r="P102">
         <f t="shared" si="12"/>
-        <v>695</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -29800,7 +29838,7 @@
       </c>
       <c r="J103" s="8">
         <f t="shared" si="14"/>
-        <v>719</v>
+        <v>1033</v>
       </c>
       <c r="K103" s="1">
         <f t="shared" si="15"/>
@@ -29820,7 +29858,7 @@
       </c>
       <c r="P103">
         <f t="shared" si="12"/>
-        <v>719</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -29859,7 +29897,7 @@
       </c>
       <c r="J104" s="8">
         <f t="shared" si="14"/>
-        <v>746</v>
+        <v>1054</v>
       </c>
       <c r="K104" s="1">
         <f t="shared" si="15"/>
@@ -29879,7 +29917,7 @@
       </c>
       <c r="P104">
         <f t="shared" si="12"/>
-        <v>746</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -29918,7 +29956,7 @@
       </c>
       <c r="J105" s="8">
         <f t="shared" si="14"/>
-        <v>775</v>
+        <v>1076</v>
       </c>
       <c r="K105" s="1">
         <f t="shared" si="15"/>
@@ -29938,7 +29976,7 @@
       </c>
       <c r="P105">
         <f t="shared" si="12"/>
-        <v>775</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -29977,7 +30015,7 @@
       </c>
       <c r="J106" s="8">
         <f t="shared" si="14"/>
-        <v>806</v>
+        <v>1099</v>
       </c>
       <c r="K106" s="1">
         <f t="shared" si="15"/>
@@ -29997,7 +30035,7 @@
       </c>
       <c r="P106">
         <f t="shared" si="12"/>
-        <v>806</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -30036,7 +30074,7 @@
       </c>
       <c r="J107" s="8">
         <f t="shared" si="14"/>
-        <v>840</v>
+        <v>1124</v>
       </c>
       <c r="K107" s="1">
         <f t="shared" si="15"/>
@@ -30056,7 +30094,7 @@
       </c>
       <c r="P107">
         <f t="shared" si="12"/>
-        <v>840</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -30095,7 +30133,7 @@
       </c>
       <c r="J108" s="8">
         <f t="shared" si="14"/>
-        <v>876</v>
+        <v>1151</v>
       </c>
       <c r="K108" s="1">
         <f t="shared" si="15"/>
@@ -30115,7 +30153,7 @@
       </c>
       <c r="P108">
         <f t="shared" si="12"/>
-        <v>876</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -30154,7 +30192,7 @@
       </c>
       <c r="J109" s="8">
         <f t="shared" si="14"/>
-        <v>915</v>
+        <v>1180</v>
       </c>
       <c r="K109" s="1">
         <f t="shared" si="15"/>
@@ -30174,7 +30212,7 @@
       </c>
       <c r="P109">
         <f t="shared" si="12"/>
-        <v>915</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -30213,7 +30251,7 @@
       </c>
       <c r="J110" s="8">
         <f t="shared" si="14"/>
-        <v>957</v>
+        <v>1212</v>
       </c>
       <c r="K110" s="1">
         <f t="shared" si="15"/>
@@ -30233,7 +30271,7 @@
       </c>
       <c r="P110">
         <f t="shared" si="12"/>
-        <v>957</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -30272,7 +30310,7 @@
       </c>
       <c r="J111" s="8">
         <f t="shared" si="14"/>
-        <v>1002</v>
+        <v>1246</v>
       </c>
       <c r="K111" s="1">
         <f t="shared" si="15"/>
@@ -30292,7 +30330,7 @@
       </c>
       <c r="P111">
         <f t="shared" si="12"/>
-        <v>1002</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -30331,7 +30369,7 @@
       </c>
       <c r="J112" s="8">
         <f t="shared" si="14"/>
-        <v>1051</v>
+        <v>1283</v>
       </c>
       <c r="K112" s="1">
         <f t="shared" si="15"/>
@@ -30351,7 +30389,7 @@
       </c>
       <c r="P112">
         <f t="shared" si="12"/>
-        <v>1051</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -30390,7 +30428,7 @@
       </c>
       <c r="J113" s="8">
         <f t="shared" si="14"/>
-        <v>1104</v>
+        <v>1323</v>
       </c>
       <c r="K113" s="1">
         <f t="shared" si="15"/>
@@ -30410,7 +30448,7 @@
       </c>
       <c r="P113">
         <f t="shared" si="12"/>
-        <v>1104</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -30449,7 +30487,7 @@
       </c>
       <c r="J114" s="8">
         <f t="shared" si="14"/>
-        <v>1161</v>
+        <v>1366</v>
       </c>
       <c r="K114" s="1">
         <f t="shared" si="15"/>
@@ -30469,7 +30507,7 @@
       </c>
       <c r="P114">
         <f t="shared" si="12"/>
-        <v>1161</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -30508,7 +30546,7 @@
       </c>
       <c r="J115" s="8">
         <f t="shared" si="14"/>
-        <v>1222</v>
+        <v>1412</v>
       </c>
       <c r="K115" s="1">
         <f t="shared" si="15"/>
@@ -30528,7 +30566,7 @@
       </c>
       <c r="P115">
         <f t="shared" si="12"/>
-        <v>1222</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -30567,7 +30605,7 @@
       </c>
       <c r="J116" s="8">
         <f t="shared" si="14"/>
-        <v>1288</v>
+        <v>1462</v>
       </c>
       <c r="K116" s="1">
         <f t="shared" si="15"/>
@@ -30587,7 +30625,7 @@
       </c>
       <c r="P116">
         <f t="shared" si="12"/>
-        <v>1288</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -30626,7 +30664,7 @@
       </c>
       <c r="J117" s="8">
         <f t="shared" si="14"/>
-        <v>1359</v>
+        <v>1516</v>
       </c>
       <c r="K117" s="1">
         <f t="shared" si="15"/>
@@ -30646,7 +30684,7 @@
       </c>
       <c r="P117">
         <f t="shared" si="12"/>
-        <v>1359</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -30685,7 +30723,7 @@
       </c>
       <c r="J118" s="8">
         <f t="shared" si="14"/>
-        <v>1436</v>
+        <v>1574</v>
       </c>
       <c r="K118" s="1">
         <f t="shared" si="15"/>
@@ -30705,7 +30743,7 @@
       </c>
       <c r="P118">
         <f t="shared" si="12"/>
-        <v>1436</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -30744,7 +30782,7 @@
       </c>
       <c r="J119" s="8">
         <f t="shared" si="14"/>
-        <v>1518</v>
+        <v>1636</v>
       </c>
       <c r="K119" s="1">
         <f t="shared" si="15"/>
@@ -30764,7 +30802,7 @@
       </c>
       <c r="P119">
         <f t="shared" ref="P119:P134" si="30">J119</f>
-        <v>1518</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -30803,7 +30841,7 @@
       </c>
       <c r="J120" s="8">
         <f t="shared" ref="J120:J134" si="31">J119+ROUND(($E$1/$D$2)*G119*(I119/$D$3),0)-ROUND(I119/$D$2,0)</f>
-        <v>1607</v>
+        <v>1703</v>
       </c>
       <c r="K120" s="1">
         <f t="shared" si="15"/>
@@ -30823,7 +30861,7 @@
       </c>
       <c r="P120">
         <f t="shared" si="30"/>
-        <v>1607</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -30862,7 +30900,7 @@
       </c>
       <c r="J121" s="8">
         <f t="shared" si="31"/>
-        <v>1703</v>
+        <v>1776</v>
       </c>
       <c r="K121" s="1">
         <f t="shared" si="15"/>
@@ -30882,7 +30920,7 @@
       </c>
       <c r="P121">
         <f t="shared" si="30"/>
-        <v>1703</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -30921,7 +30959,7 @@
       </c>
       <c r="J122" s="8">
         <f t="shared" si="31"/>
-        <v>1806</v>
+        <v>1854</v>
       </c>
       <c r="K122" s="1">
         <f t="shared" si="15"/>
@@ -30941,7 +30979,7 @@
       </c>
       <c r="P122">
         <f t="shared" si="30"/>
-        <v>1806</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -30980,7 +31018,7 @@
       </c>
       <c r="J123" s="8">
         <f t="shared" si="31"/>
-        <v>1918</v>
+        <v>1939</v>
       </c>
       <c r="K123" s="1">
         <f t="shared" si="15"/>
@@ -31000,7 +31038,7 @@
       </c>
       <c r="P123">
         <f t="shared" si="30"/>
-        <v>1918</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -31039,7 +31077,7 @@
       </c>
       <c r="J124" s="8">
         <f t="shared" si="31"/>
-        <v>2039</v>
+        <v>2030</v>
       </c>
       <c r="K124" s="1">
         <f t="shared" si="15"/>
@@ -31059,7 +31097,7 @@
       </c>
       <c r="P124">
         <f t="shared" si="30"/>
-        <v>2039</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -31098,7 +31136,7 @@
       </c>
       <c r="J125" s="8">
         <f t="shared" si="31"/>
-        <v>2169</v>
+        <v>2129</v>
       </c>
       <c r="K125" s="1">
         <f t="shared" si="15"/>
@@ -31122,7 +31160,7 @@
       </c>
       <c r="P125">
         <f t="shared" si="30"/>
-        <v>2169</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -31133,15 +31171,15 @@
         <v>121</v>
       </c>
       <c r="C126" s="4">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="D126" s="4">
         <f t="shared" si="35"/>
-        <v>59994358</v>
+        <v>59994389</v>
       </c>
       <c r="E126" s="4">
         <f t="shared" si="36"/>
-        <v>2323</v>
+        <v>2292</v>
       </c>
       <c r="F126" s="4">
         <f t="shared" si="37"/>
@@ -31149,7 +31187,7 @@
       </c>
       <c r="G126" s="2">
         <f t="shared" si="38"/>
-        <v>59994358</v>
+        <v>59994389</v>
       </c>
       <c r="H126" s="2">
         <f t="shared" si="39"/>
@@ -31161,7 +31199,7 @@
       </c>
       <c r="J126" s="8">
         <f t="shared" si="31"/>
-        <v>2309</v>
+        <v>2235</v>
       </c>
       <c r="K126" s="3">
         <f t="shared" si="15"/>
@@ -31169,7 +31207,7 @@
       </c>
       <c r="L126" s="4">
         <f t="shared" ref="L126" si="42">E126</f>
-        <v>2323</v>
+        <v>2292</v>
       </c>
       <c r="M126" s="4">
         <f>RealData!B123</f>
@@ -31177,7 +31215,7 @@
       </c>
       <c r="N126" s="4">
         <f t="shared" si="41"/>
-        <v>2323</v>
+        <v>2292</v>
       </c>
       <c r="O126" s="4">
         <f t="shared" si="29"/>
@@ -31185,7 +31223,7 @@
       </c>
       <c r="P126" s="4">
         <f t="shared" si="30"/>
-        <v>2309</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -31196,23 +31234,23 @@
         <v>122</v>
       </c>
       <c r="C127" s="4">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="D127" s="4">
         <f t="shared" si="35"/>
-        <v>59994029</v>
+        <v>59994097</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="36"/>
-        <v>2458</v>
+        <v>2393</v>
       </c>
       <c r="F127" s="4">
         <f t="shared" si="37"/>
-        <v>3513</v>
+        <v>3510</v>
       </c>
       <c r="G127" s="2">
         <f t="shared" si="38"/>
-        <v>59994029</v>
+        <v>59994097</v>
       </c>
       <c r="H127" s="2">
         <f t="shared" si="39"/>
@@ -31224,17 +31262,23 @@
       </c>
       <c r="J127" s="8">
         <f t="shared" si="31"/>
-        <v>2461</v>
+        <v>2350</v>
       </c>
       <c r="K127" s="3">
         <f t="shared" si="15"/>
         <v>44140</v>
       </c>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
+      <c r="L127" s="4">
+        <f t="shared" ref="L127" si="43">E127</f>
+        <v>2393</v>
+      </c>
+      <c r="M127" s="4">
+        <f>RealData!B124</f>
+        <v>2391</v>
+      </c>
       <c r="N127" s="4">
         <f t="shared" si="41"/>
-        <v>2458</v>
+        <v>2393</v>
       </c>
       <c r="O127" s="4">
         <f t="shared" si="29"/>
@@ -31242,7 +31286,7 @@
       </c>
       <c r="P127" s="4">
         <f t="shared" si="30"/>
-        <v>2461</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -31253,23 +31297,23 @@
         <v>123</v>
       </c>
       <c r="C128" s="4">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" si="35"/>
-        <v>59993681</v>
+        <v>59993792</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="36"/>
-        <v>2601</v>
+        <v>2499</v>
       </c>
       <c r="F128" s="4">
         <f t="shared" si="37"/>
-        <v>3718</v>
+        <v>3709</v>
       </c>
       <c r="G128" s="2">
         <f t="shared" si="38"/>
-        <v>59993681</v>
+        <v>59993792</v>
       </c>
       <c r="H128" s="2">
         <f t="shared" si="39"/>
@@ -31281,7 +31325,7 @@
       </c>
       <c r="J128" s="8">
         <f t="shared" si="31"/>
-        <v>2625</v>
+        <v>2474</v>
       </c>
       <c r="K128" s="3">
         <f t="shared" si="15"/>
@@ -31291,7 +31335,7 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4">
         <f t="shared" si="41"/>
-        <v>2601</v>
+        <v>2499</v>
       </c>
       <c r="O128" s="4">
         <f t="shared" si="29"/>
@@ -31299,7 +31343,7 @@
       </c>
       <c r="P128" s="4">
         <f t="shared" si="30"/>
-        <v>2625</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -31310,23 +31354,23 @@
         <v>124</v>
       </c>
       <c r="C129" s="4">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" si="35"/>
-        <v>59993313</v>
+        <v>59993473</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="36"/>
-        <v>2752</v>
+        <v>2610</v>
       </c>
       <c r="F129" s="4">
         <f t="shared" si="37"/>
-        <v>3935</v>
+        <v>3917</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" si="38"/>
-        <v>59993313</v>
+        <v>59993473</v>
       </c>
       <c r="H129" s="2">
         <f t="shared" si="39"/>
@@ -31338,7 +31382,7 @@
       </c>
       <c r="J129" s="8">
         <f t="shared" si="31"/>
-        <v>2801</v>
+        <v>2607</v>
       </c>
       <c r="K129" s="3">
         <f t="shared" si="15"/>
@@ -31348,7 +31392,7 @@
       <c r="M129" s="4"/>
       <c r="N129" s="4">
         <f t="shared" si="41"/>
-        <v>2752</v>
+        <v>2610</v>
       </c>
       <c r="O129" s="4">
         <f t="shared" si="29"/>
@@ -31356,7 +31400,7 @@
       </c>
       <c r="P129" s="4">
         <f t="shared" si="30"/>
-        <v>2801</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -31367,23 +31411,23 @@
         <v>125</v>
       </c>
       <c r="C130" s="4">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" si="35"/>
-        <v>59992923</v>
+        <v>59993140</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="36"/>
-        <v>2913</v>
+        <v>2725</v>
       </c>
       <c r="F130" s="4">
         <f t="shared" si="37"/>
-        <v>4164</v>
+        <v>4135</v>
       </c>
       <c r="G130" s="2">
         <f t="shared" si="38"/>
-        <v>59992923</v>
+        <v>59993140</v>
       </c>
       <c r="H130" s="2">
         <f t="shared" si="39"/>
@@ -31395,7 +31439,7 @@
       </c>
       <c r="J130" s="8">
         <f t="shared" si="31"/>
-        <v>2991</v>
+        <v>2751</v>
       </c>
       <c r="K130" s="3">
         <f t="shared" si="15"/>
@@ -31405,7 +31449,7 @@
       <c r="M130" s="4"/>
       <c r="N130" s="4">
         <f t="shared" si="41"/>
-        <v>2913</v>
+        <v>2725</v>
       </c>
       <c r="O130" s="4">
         <f t="shared" si="29"/>
@@ -31413,7 +31457,7 @@
       </c>
       <c r="P130" s="4">
         <f t="shared" si="30"/>
-        <v>2991</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -31424,23 +31468,23 @@
         <v>126</v>
       </c>
       <c r="C131" s="4">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="35"/>
-        <v>59992510</v>
+        <v>59992822</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="36"/>
-        <v>3083</v>
+        <v>2816</v>
       </c>
       <c r="F131" s="4">
         <f t="shared" si="37"/>
-        <v>4407</v>
+        <v>4362</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" si="38"/>
-        <v>59992510</v>
+        <v>59992822</v>
       </c>
       <c r="H131" s="2">
         <f t="shared" si="39"/>
@@ -31452,7 +31496,7 @@
       </c>
       <c r="J131" s="8">
         <f t="shared" si="31"/>
-        <v>3195</v>
+        <v>2906</v>
       </c>
       <c r="K131" s="3">
         <f t="shared" si="15"/>
@@ -31462,7 +31506,7 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4">
         <f t="shared" si="41"/>
-        <v>3083</v>
+        <v>2816</v>
       </c>
       <c r="O131" s="4">
         <f t="shared" si="29"/>
@@ -31470,7 +31514,7 @@
       </c>
       <c r="P131" s="4">
         <f t="shared" si="30"/>
-        <v>3195</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -31481,23 +31525,23 @@
         <v>127</v>
       </c>
       <c r="C132" s="4">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" si="35"/>
-        <v>59992073</v>
+        <v>59992494</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" si="36"/>
-        <v>3263</v>
+        <v>2909</v>
       </c>
       <c r="F132" s="4">
         <f t="shared" si="37"/>
-        <v>4664</v>
+        <v>4597</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" si="38"/>
-        <v>59992073</v>
+        <v>59992494</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" si="39"/>
@@ -31509,7 +31553,7 @@
       </c>
       <c r="J132" s="8">
         <f t="shared" si="31"/>
-        <v>3415</v>
+        <v>3073</v>
       </c>
       <c r="K132" s="3">
         <f t="shared" si="15"/>
@@ -31519,7 +31563,7 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4">
         <f t="shared" si="41"/>
-        <v>3263</v>
+        <v>2909</v>
       </c>
       <c r="O132" s="4">
         <f t="shared" si="29"/>
@@ -31527,7 +31571,7 @@
       </c>
       <c r="P132" s="4">
         <f t="shared" si="30"/>
-        <v>3415</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -31538,26 +31582,26 @@
         <v>128</v>
       </c>
       <c r="C133" s="10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D133" s="10">
-        <f t="shared" ref="D133:D134" si="43">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
-        <v>59991638</v>
+        <f t="shared" ref="D133:D134" si="44">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <v>59992155</v>
       </c>
       <c r="E133" s="10">
-        <f t="shared" ref="E133:E134" si="44">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
-        <v>3426</v>
+        <f t="shared" ref="E133:E134" si="45">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <v>3006</v>
       </c>
       <c r="F133" s="10">
-        <f t="shared" ref="F133:F134" si="45">F132+ROUND(E132/$D$2,0)</f>
-        <v>4936</v>
+        <f t="shared" ref="F133:F134" si="46">F132+ROUND(E132/$D$2,0)</f>
+        <v>4839</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="46">D133</f>
-        <v>59991638</v>
+        <f t="shared" ref="G133:G134" si="47">D133</f>
+        <v>59992155</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" ref="H133:H134" si="47">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <f t="shared" ref="H133:H134" si="48">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
         <v>4403</v>
       </c>
       <c r="I133" s="7">
@@ -31566,7 +31610,7 @@
       </c>
       <c r="J133" s="8">
         <f t="shared" si="31"/>
-        <v>3653</v>
+        <v>3254</v>
       </c>
       <c r="K133" s="9">
         <f t="shared" si="15"/>
@@ -31576,7 +31620,7 @@
       <c r="M133" s="10"/>
       <c r="N133" s="10">
         <f t="shared" si="41"/>
-        <v>3426</v>
+        <v>3006</v>
       </c>
       <c r="O133" s="10">
         <f t="shared" si="29"/>
@@ -31584,7 +31628,7 @@
       </c>
       <c r="P133" s="10">
         <f t="shared" si="30"/>
-        <v>3653</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -31595,26 +31639,26 @@
         <v>129</v>
       </c>
       <c r="C134" s="10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D134" s="10">
-        <f t="shared" si="43"/>
-        <v>59991181</v>
+        <f t="shared" si="44"/>
+        <v>59991804</v>
       </c>
       <c r="E134" s="10">
-        <f t="shared" si="44"/>
-        <v>3597</v>
+        <f t="shared" si="45"/>
+        <v>3106</v>
       </c>
       <c r="F134" s="10">
-        <f t="shared" si="45"/>
-        <v>5222</v>
+        <f t="shared" si="46"/>
+        <v>5090</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="46"/>
-        <v>59991181</v>
+        <f t="shared" si="47"/>
+        <v>59991804</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4748</v>
       </c>
       <c r="I134" s="7">
@@ -31623,7 +31667,7 @@
       </c>
       <c r="J134" s="8">
         <f t="shared" si="31"/>
-        <v>3910</v>
+        <v>3448</v>
       </c>
       <c r="K134" s="9">
         <f t="shared" si="15"/>
@@ -31633,7 +31677,7 @@
       <c r="M134" s="10"/>
       <c r="N134" s="10">
         <f t="shared" si="41"/>
-        <v>3597</v>
+        <v>3106</v>
       </c>
       <c r="O134" s="10">
         <f t="shared" si="29"/>
@@ -31641,7 +31685,7 @@
       </c>
       <c r="P134" s="10">
         <f t="shared" si="30"/>
-        <v>3910</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -31652,53 +31696,53 @@
         <v>130</v>
       </c>
       <c r="C135" s="10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D135" s="10">
-        <f t="shared" ref="D135:D139" si="48">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
-        <v>59990701</v>
+        <f t="shared" ref="D135:D139" si="49">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
+        <v>59991442</v>
       </c>
       <c r="E135" s="10">
-        <f t="shared" ref="E135:E139" si="49">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
-        <v>3777</v>
+        <f t="shared" ref="E135:E139" si="50">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
+        <v>3209</v>
       </c>
       <c r="F135" s="10">
-        <f t="shared" ref="F135:F139" si="50">F134+ROUND(E134/$D$2,0)</f>
-        <v>5522</v>
+        <f t="shared" ref="F135:F139" si="51">F134+ROUND(E134/$D$2,0)</f>
+        <v>5349</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" ref="G135:G139" si="51">D135</f>
-        <v>59990701</v>
+        <f t="shared" ref="G135:G139" si="52">D135</f>
+        <v>59991442</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H139" si="52">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
+        <f t="shared" ref="H135:H139" si="53">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" ref="I135:I139" si="53">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="I135:I139" si="54">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="J135" s="8">
-        <f t="shared" ref="J135:J139" si="54">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
-        <v>4187</v>
+        <f t="shared" ref="J135:J139" si="55">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <v>3657</v>
       </c>
       <c r="K135" s="9">
-        <f t="shared" ref="K135:K139" si="55">A135</f>
+        <f t="shared" ref="K135:K139" si="56">A135</f>
         <v>44148</v>
       </c>
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
       <c r="N135" s="10">
-        <f t="shared" ref="N135:N139" si="56">E135</f>
-        <v>3777</v>
+        <f t="shared" ref="N135:N139" si="57">E135</f>
+        <v>3209</v>
       </c>
       <c r="O135" s="10">
-        <f t="shared" ref="O135:O139" si="57">I135</f>
+        <f t="shared" ref="O135:O139" si="58">I135</f>
         <v>5119</v>
       </c>
       <c r="P135" s="10">
-        <f t="shared" ref="P135:P139" si="58">J135</f>
-        <v>4187</v>
+        <f t="shared" ref="P135:P139" si="59">J135</f>
+        <v>3657</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -31709,53 +31753,53 @@
         <v>131</v>
       </c>
       <c r="C136" s="10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D136" s="10">
-        <f t="shared" si="48"/>
-        <v>59990197</v>
+        <f t="shared" si="49"/>
+        <v>59991068</v>
       </c>
       <c r="E136" s="10">
-        <f t="shared" si="49"/>
-        <v>3966</v>
+        <f t="shared" si="50"/>
+        <v>3316</v>
       </c>
       <c r="F136" s="10">
-        <f t="shared" si="50"/>
-        <v>5837</v>
+        <f t="shared" si="51"/>
+        <v>5616</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="51"/>
-        <v>59990197</v>
+        <f t="shared" si="52"/>
+        <v>59991068</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="52"/>
-        <v>5519</v>
-      </c>
-      <c r="I136" s="7">
         <f t="shared" si="53"/>
         <v>5519</v>
       </c>
+      <c r="I136" s="7">
+        <f t="shared" si="54"/>
+        <v>5519</v>
+      </c>
       <c r="J136" s="8">
-        <f t="shared" si="54"/>
-        <v>4485</v>
+        <f t="shared" si="55"/>
+        <v>3883</v>
       </c>
       <c r="K136" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>44149</v>
       </c>
       <c r="L136" s="10"/>
       <c r="M136" s="10"/>
       <c r="N136" s="10">
-        <f t="shared" si="56"/>
-        <v>3966</v>
+        <f t="shared" si="57"/>
+        <v>3316</v>
       </c>
       <c r="O136" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5519</v>
       </c>
       <c r="P136" s="10">
-        <f t="shared" si="58"/>
-        <v>4485</v>
+        <f t="shared" si="59"/>
+        <v>3883</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -31766,53 +31810,53 @@
         <v>132</v>
       </c>
       <c r="C137" s="10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D137" s="10">
-        <f t="shared" si="48"/>
-        <v>59989668</v>
+        <f t="shared" si="49"/>
+        <v>59990681</v>
       </c>
       <c r="E137" s="10">
-        <f t="shared" si="49"/>
-        <v>4164</v>
+        <f t="shared" si="50"/>
+        <v>3427</v>
       </c>
       <c r="F137" s="10">
-        <f t="shared" si="50"/>
-        <v>6168</v>
+        <f t="shared" si="51"/>
+        <v>5892</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="51"/>
-        <v>59989668</v>
+        <f t="shared" si="52"/>
+        <v>59990681</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="52"/>
-        <v>5951</v>
-      </c>
-      <c r="I137" s="7">
         <f t="shared" si="53"/>
         <v>5951</v>
       </c>
+      <c r="I137" s="7">
+        <f t="shared" si="54"/>
+        <v>5951</v>
+      </c>
       <c r="J137" s="8">
-        <f t="shared" si="54"/>
-        <v>4807</v>
+        <f t="shared" si="55"/>
+        <v>4127</v>
       </c>
       <c r="K137" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>44150</v>
       </c>
       <c r="L137" s="10"/>
       <c r="M137" s="10"/>
       <c r="N137" s="10">
-        <f t="shared" si="56"/>
-        <v>4164</v>
+        <f t="shared" si="57"/>
+        <v>3427</v>
       </c>
       <c r="O137" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5951</v>
       </c>
       <c r="P137" s="10">
-        <f t="shared" si="58"/>
-        <v>4807</v>
+        <f t="shared" si="59"/>
+        <v>4127</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
@@ -31823,53 +31867,53 @@
         <v>133</v>
       </c>
       <c r="C138" s="10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D138" s="10">
-        <f t="shared" si="48"/>
-        <v>59989113</v>
+        <f t="shared" si="49"/>
+        <v>59990281</v>
       </c>
       <c r="E138" s="10">
-        <f t="shared" si="49"/>
-        <v>4372</v>
+        <f t="shared" si="50"/>
+        <v>3541</v>
       </c>
       <c r="F138" s="10">
-        <f t="shared" si="50"/>
-        <v>6515</v>
+        <f t="shared" si="51"/>
+        <v>6178</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="51"/>
-        <v>59989113</v>
+        <f t="shared" si="52"/>
+        <v>59990281</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="52"/>
-        <v>6417</v>
-      </c>
-      <c r="I138" s="7">
         <f t="shared" si="53"/>
         <v>6417</v>
       </c>
+      <c r="I138" s="7">
+        <f t="shared" si="54"/>
+        <v>6417</v>
+      </c>
       <c r="J138" s="8">
-        <f t="shared" si="54"/>
-        <v>5154</v>
+        <f t="shared" si="55"/>
+        <v>4390</v>
       </c>
       <c r="K138" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>44151</v>
       </c>
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
       <c r="N138" s="10">
-        <f t="shared" si="56"/>
-        <v>4372</v>
+        <f t="shared" si="57"/>
+        <v>3541</v>
       </c>
       <c r="O138" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6417</v>
       </c>
       <c r="P138" s="10">
-        <f t="shared" si="58"/>
-        <v>5154</v>
+        <f t="shared" si="59"/>
+        <v>4390</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
@@ -31880,53 +31924,53 @@
         <v>134</v>
       </c>
       <c r="C139" s="10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="D139" s="10">
-        <f t="shared" si="48"/>
-        <v>59988530</v>
+        <f t="shared" si="49"/>
+        <v>59989868</v>
       </c>
       <c r="E139" s="10">
-        <f t="shared" si="49"/>
-        <v>4591</v>
+        <f t="shared" si="50"/>
+        <v>3659</v>
       </c>
       <c r="F139" s="10">
-        <f t="shared" si="50"/>
-        <v>6879</v>
+        <f t="shared" si="51"/>
+        <v>6473</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="51"/>
-        <v>59988530</v>
+        <f t="shared" si="52"/>
+        <v>59989868</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="52"/>
-        <v>6919</v>
-      </c>
-      <c r="I139" s="7">
         <f t="shared" si="53"/>
         <v>6919</v>
       </c>
+      <c r="I139" s="7">
+        <f t="shared" si="54"/>
+        <v>6919</v>
+      </c>
       <c r="J139" s="8">
-        <f t="shared" si="54"/>
-        <v>5528</v>
+        <f t="shared" si="55"/>
+        <v>4673</v>
       </c>
       <c r="K139" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>44152</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
       <c r="N139" s="10">
-        <f t="shared" si="56"/>
-        <v>4591</v>
+        <f t="shared" si="57"/>
+        <v>3659</v>
       </c>
       <c r="O139" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6919</v>
       </c>
       <c r="P139" s="10">
-        <f t="shared" si="58"/>
-        <v>5528</v>
+        <f t="shared" si="59"/>
+        <v>4673</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3450D9-1D26-4483-8A1C-90716973EA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1436B2-0D89-452B-9246-F09CFBB85325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="630" windowWidth="17640" windowHeight="10065" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -667,6 +667,9 @@
                 <c:pt idx="57">
                   <c:v>2393</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>2499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1097,6 +1100,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>2391</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,6 +3084,9 @@
                 <c:pt idx="121">
                   <c:v>2393</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>2499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3894,6 +3903,9 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>2391</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4987,6 +4999,9 @@
                 <c:pt idx="121">
                   <c:v>2393</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>2499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5785,6 +5800,9 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>2391</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7356,6 +7374,9 @@
                 <c:pt idx="121">
                   <c:v>2393</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>2499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8175,6 +8196,9 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>2391</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9187,6 +9211,9 @@
                 <c:pt idx="25">
                   <c:v>2393</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>2499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9425,6 +9452,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2391</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23668,10 +23698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K124"/>
+  <dimension ref="A2:K125"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:A124"/>
+      <selection activeCell="A124" sqref="A124:A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24670,6 +24700,14 @@
         <v>2391</v>
       </c>
     </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B125">
+        <v>2515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24680,8 +24718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31331,8 +31369,14 @@
         <f t="shared" si="15"/>
         <v>44141</v>
       </c>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
+      <c r="L128" s="4">
+        <f t="shared" ref="L128" si="44">E128</f>
+        <v>2499</v>
+      </c>
+      <c r="M128" s="4">
+        <f>RealData!B125</f>
+        <v>2515</v>
+      </c>
       <c r="N128" s="4">
         <f t="shared" si="41"/>
         <v>2499</v>
@@ -31585,23 +31629,23 @@
         <v>1.4</v>
       </c>
       <c r="D133" s="10">
-        <f t="shared" ref="D133:D134" si="44">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <f t="shared" ref="D133:D134" si="45">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
         <v>59992155</v>
       </c>
       <c r="E133" s="10">
-        <f t="shared" ref="E133:E134" si="45">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <f t="shared" ref="E133:E134" si="46">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
         <v>3006</v>
       </c>
       <c r="F133" s="10">
-        <f t="shared" ref="F133:F134" si="46">F132+ROUND(E132/$D$2,0)</f>
+        <f t="shared" ref="F133:F134" si="47">F132+ROUND(E132/$D$2,0)</f>
         <v>4839</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="47">D133</f>
+        <f t="shared" ref="G133:G134" si="48">D133</f>
         <v>59992155</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" ref="H133:H134" si="48">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <f t="shared" ref="H133:H134" si="49">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
         <v>4403</v>
       </c>
       <c r="I133" s="7">
@@ -31642,23 +31686,23 @@
         <v>1.4</v>
       </c>
       <c r="D134" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>59991804</v>
       </c>
       <c r="E134" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>3106</v>
       </c>
       <c r="F134" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5090</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>59991804</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>4748</v>
       </c>
       <c r="I134" s="7">
@@ -31699,49 +31743,49 @@
         <v>1.4</v>
       </c>
       <c r="D135" s="10">
-        <f t="shared" ref="D135:D139" si="49">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
+        <f t="shared" ref="D135:D139" si="50">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
         <v>59991442</v>
       </c>
       <c r="E135" s="10">
-        <f t="shared" ref="E135:E139" si="50">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
+        <f t="shared" ref="E135:E139" si="51">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
         <v>3209</v>
       </c>
       <c r="F135" s="10">
-        <f t="shared" ref="F135:F139" si="51">F134+ROUND(E134/$D$2,0)</f>
+        <f t="shared" ref="F135:F139" si="52">F134+ROUND(E134/$D$2,0)</f>
         <v>5349</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" ref="G135:G139" si="52">D135</f>
+        <f t="shared" ref="G135:G139" si="53">D135</f>
         <v>59991442</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H139" si="53">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
+        <f t="shared" ref="H135:H139" si="54">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" ref="I135:I139" si="54">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="I135:I139" si="55">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="J135" s="8">
-        <f t="shared" ref="J135:J139" si="55">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="J135:J139" si="56">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>3657</v>
       </c>
       <c r="K135" s="9">
-        <f t="shared" ref="K135:K139" si="56">A135</f>
+        <f t="shared" ref="K135:K139" si="57">A135</f>
         <v>44148</v>
       </c>
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
       <c r="N135" s="10">
-        <f t="shared" ref="N135:N139" si="57">E135</f>
+        <f t="shared" ref="N135:N139" si="58">E135</f>
         <v>3209</v>
       </c>
       <c r="O135" s="10">
-        <f t="shared" ref="O135:O139" si="58">I135</f>
+        <f t="shared" ref="O135:O139" si="59">I135</f>
         <v>5119</v>
       </c>
       <c r="P135" s="10">
-        <f t="shared" ref="P135:P139" si="59">J135</f>
+        <f t="shared" ref="P135:P139" si="60">J135</f>
         <v>3657</v>
       </c>
     </row>
@@ -31756,49 +31800,49 @@
         <v>1.4</v>
       </c>
       <c r="D136" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>59991068</v>
       </c>
       <c r="E136" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>3316</v>
       </c>
       <c r="F136" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>5616</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>59991068</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="53"/>
-        <v>5519</v>
-      </c>
-      <c r="I136" s="7">
         <f t="shared" si="54"/>
         <v>5519</v>
       </c>
+      <c r="I136" s="7">
+        <f t="shared" si="55"/>
+        <v>5519</v>
+      </c>
       <c r="J136" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>3883</v>
       </c>
       <c r="K136" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>44149</v>
       </c>
       <c r="L136" s="10"/>
       <c r="M136" s="10"/>
       <c r="N136" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3316</v>
       </c>
       <c r="O136" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>5519</v>
       </c>
       <c r="P136" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>3883</v>
       </c>
     </row>
@@ -31813,49 +31857,49 @@
         <v>1.4</v>
       </c>
       <c r="D137" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>59990681</v>
       </c>
       <c r="E137" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>3427</v>
       </c>
       <c r="F137" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>5892</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>59990681</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="53"/>
-        <v>5951</v>
-      </c>
-      <c r="I137" s="7">
         <f t="shared" si="54"/>
         <v>5951</v>
       </c>
+      <c r="I137" s="7">
+        <f t="shared" si="55"/>
+        <v>5951</v>
+      </c>
       <c r="J137" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4127</v>
       </c>
       <c r="K137" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>44150</v>
       </c>
       <c r="L137" s="10"/>
       <c r="M137" s="10"/>
       <c r="N137" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3427</v>
       </c>
       <c r="O137" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>5951</v>
       </c>
       <c r="P137" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>4127</v>
       </c>
     </row>
@@ -31870,49 +31914,49 @@
         <v>1.4</v>
       </c>
       <c r="D138" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>59990281</v>
       </c>
       <c r="E138" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>3541</v>
       </c>
       <c r="F138" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>6178</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>59990281</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="53"/>
-        <v>6417</v>
-      </c>
-      <c r="I138" s="7">
         <f t="shared" si="54"/>
         <v>6417</v>
       </c>
+      <c r="I138" s="7">
+        <f t="shared" si="55"/>
+        <v>6417</v>
+      </c>
       <c r="J138" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4390</v>
       </c>
       <c r="K138" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>44151</v>
       </c>
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
       <c r="N138" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3541</v>
       </c>
       <c r="O138" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>6417</v>
       </c>
       <c r="P138" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>4390</v>
       </c>
     </row>
@@ -31927,49 +31971,49 @@
         <v>1.4</v>
       </c>
       <c r="D139" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>59989868</v>
       </c>
       <c r="E139" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>3659</v>
       </c>
       <c r="F139" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>6473</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>59989868</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="53"/>
-        <v>6919</v>
-      </c>
-      <c r="I139" s="7">
         <f t="shared" si="54"/>
         <v>6919</v>
       </c>
+      <c r="I139" s="7">
+        <f t="shared" si="55"/>
+        <v>6919</v>
+      </c>
       <c r="J139" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4673</v>
       </c>
       <c r="K139" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>44152</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
       <c r="N139" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3659</v>
       </c>
       <c r="O139" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>6919</v>
       </c>
       <c r="P139" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>4673</v>
       </c>
     </row>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1436B2-0D89-452B-9246-F09CFBB85325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C716938-633A-466E-B557-FDE2539FEED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="23025" yWindow="345" windowWidth="15375" windowHeight="13350" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -662,13 +662,19 @@
                   <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2292</c:v>
+                  <c:v>2295</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2393</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2499</c:v>
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,6 +1109,12 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2634</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3079,13 +3091,19 @@
                   <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2292</c:v>
+                  <c:v>2295</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2393</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2499</c:v>
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3906,6 +3924,12 @@
                 </c:pt>
                 <c:pt idx="122">
                   <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2634</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4994,13 +5018,19 @@
                   <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2292</c:v>
+                  <c:v>2295</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2393</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2499</c:v>
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5804,6 +5834,12 @@
                 <c:pt idx="122">
                   <c:v>2515</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>2634</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2749</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6241,25 +6277,25 @@
                   <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2292</c:v>
+                  <c:v>2295</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2393</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2499</c:v>
+                  <c:v>2510</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2610</c:v>
+                  <c:v>2625</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2725</c:v>
+                  <c:v>2745</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2816</c:v>
+                  <c:v>2836</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2909</c:v>
+                  <c:v>2931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7369,13 +7405,19 @@
                   <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2292</c:v>
+                  <c:v>2295</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2393</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2499</c:v>
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8200,6 +8242,12 @@
                 <c:pt idx="122">
                   <c:v>2515</c:v>
                 </c:pt>
+                <c:pt idx="123">
+                  <c:v>2634</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2749</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8658,46 +8706,46 @@
                   <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2292</c:v>
+                  <c:v>2295</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2393</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2499</c:v>
+                  <c:v>2510</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2610</c:v>
+                  <c:v>2625</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2725</c:v>
+                  <c:v>2745</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2816</c:v>
+                  <c:v>2836</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2909</c:v>
+                  <c:v>2931</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3006</c:v>
+                  <c:v>3029</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3106</c:v>
+                  <c:v>3130</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3209</c:v>
+                  <c:v>3234</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3316</c:v>
+                  <c:v>3341</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3427</c:v>
+                  <c:v>3453</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3541</c:v>
+                  <c:v>3568</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3659</c:v>
+                  <c:v>3687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9206,13 +9254,19 @@
                   <c:v>2195</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2292</c:v>
+                  <c:v>2295</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2393</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2499</c:v>
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9455,6 +9509,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2634</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23698,10 +23758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K125"/>
+  <dimension ref="A2:K127"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:A125"/>
+      <selection activeCell="A123" sqref="A123:A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24708,6 +24768,22 @@
         <v>2515</v>
       </c>
     </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B126">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B127">
+        <v>2749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24718,8 +24794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="E109" workbookViewId="0">
+      <selection activeCell="Q129" sqref="Q129:Q130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31209,15 +31285,15 @@
         <v>121</v>
       </c>
       <c r="C126" s="4">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="D126" s="4">
         <f t="shared" si="35"/>
-        <v>59994389</v>
+        <v>59994386</v>
       </c>
       <c r="E126" s="4">
         <f t="shared" si="36"/>
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="F126" s="4">
         <f t="shared" si="37"/>
@@ -31225,7 +31301,7 @@
       </c>
       <c r="G126" s="2">
         <f t="shared" si="38"/>
-        <v>59994389</v>
+        <v>59994386</v>
       </c>
       <c r="H126" s="2">
         <f t="shared" si="39"/>
@@ -31245,7 +31321,7 @@
       </c>
       <c r="L126" s="4">
         <f t="shared" ref="L126" si="42">E126</f>
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="M126" s="4">
         <f>RealData!B123</f>
@@ -31253,7 +31329,7 @@
       </c>
       <c r="N126" s="4">
         <f t="shared" si="41"/>
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="O126" s="4">
         <f t="shared" si="29"/>
@@ -31272,15 +31348,15 @@
         <v>122</v>
       </c>
       <c r="C127" s="4">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="D127" s="4">
         <f t="shared" si="35"/>
-        <v>59994097</v>
+        <v>59994090</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="36"/>
-        <v>2393</v>
+        <v>2400</v>
       </c>
       <c r="F127" s="4">
         <f t="shared" si="37"/>
@@ -31288,7 +31364,7 @@
       </c>
       <c r="G127" s="2">
         <f t="shared" si="38"/>
-        <v>59994097</v>
+        <v>59994090</v>
       </c>
       <c r="H127" s="2">
         <f t="shared" si="39"/>
@@ -31308,7 +31384,7 @@
       </c>
       <c r="L127" s="4">
         <f t="shared" ref="L127" si="43">E127</f>
-        <v>2393</v>
+        <v>2400</v>
       </c>
       <c r="M127" s="4">
         <f>RealData!B124</f>
@@ -31316,7 +31392,7 @@
       </c>
       <c r="N127" s="4">
         <f t="shared" si="41"/>
-        <v>2393</v>
+        <v>2400</v>
       </c>
       <c r="O127" s="4">
         <f t="shared" si="29"/>
@@ -31335,23 +31411,23 @@
         <v>123</v>
       </c>
       <c r="C128" s="4">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" si="35"/>
-        <v>59993792</v>
+        <v>59993780</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="36"/>
-        <v>2499</v>
+        <v>2510</v>
       </c>
       <c r="F128" s="4">
         <f t="shared" si="37"/>
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="G128" s="2">
         <f t="shared" si="38"/>
-        <v>59993792</v>
+        <v>59993780</v>
       </c>
       <c r="H128" s="2">
         <f t="shared" si="39"/>
@@ -31371,7 +31447,7 @@
       </c>
       <c r="L128" s="4">
         <f t="shared" ref="L128" si="44">E128</f>
-        <v>2499</v>
+        <v>2510</v>
       </c>
       <c r="M128" s="4">
         <f>RealData!B125</f>
@@ -31379,7 +31455,7 @@
       </c>
       <c r="N128" s="4">
         <f t="shared" si="41"/>
-        <v>2499</v>
+        <v>2510</v>
       </c>
       <c r="O128" s="4">
         <f t="shared" si="29"/>
@@ -31398,23 +31474,23 @@
         <v>124</v>
       </c>
       <c r="C129" s="4">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" si="35"/>
-        <v>59993473</v>
+        <v>59993456</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="36"/>
-        <v>2610</v>
+        <v>2625</v>
       </c>
       <c r="F129" s="4">
         <f t="shared" si="37"/>
-        <v>3917</v>
+        <v>3919</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" si="38"/>
-        <v>59993473</v>
+        <v>59993456</v>
       </c>
       <c r="H129" s="2">
         <f t="shared" si="39"/>
@@ -31432,11 +31508,17 @@
         <f t="shared" si="15"/>
         <v>44142</v>
       </c>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
+      <c r="L129" s="4">
+        <f t="shared" ref="L129:L130" si="45">E129</f>
+        <v>2625</v>
+      </c>
+      <c r="M129" s="4">
+        <f>RealData!B126</f>
+        <v>2634</v>
+      </c>
       <c r="N129" s="4">
         <f t="shared" si="41"/>
-        <v>2610</v>
+        <v>2625</v>
       </c>
       <c r="O129" s="4">
         <f t="shared" si="29"/>
@@ -31455,23 +31537,23 @@
         <v>125</v>
       </c>
       <c r="C130" s="4">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" si="35"/>
-        <v>59993140</v>
+        <v>59993117</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="36"/>
-        <v>2725</v>
+        <v>2745</v>
       </c>
       <c r="F130" s="4">
         <f t="shared" si="37"/>
-        <v>4135</v>
+        <v>4138</v>
       </c>
       <c r="G130" s="2">
         <f t="shared" si="38"/>
-        <v>59993140</v>
+        <v>59993117</v>
       </c>
       <c r="H130" s="2">
         <f t="shared" si="39"/>
@@ -31489,11 +31571,17 @@
         <f t="shared" si="15"/>
         <v>44143</v>
       </c>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
+      <c r="L130" s="4">
+        <f t="shared" si="45"/>
+        <v>2745</v>
+      </c>
+      <c r="M130" s="4">
+        <f>RealData!B127</f>
+        <v>2749</v>
+      </c>
       <c r="N130" s="4">
         <f t="shared" si="41"/>
-        <v>2725</v>
+        <v>2745</v>
       </c>
       <c r="O130" s="4">
         <f t="shared" si="29"/>
@@ -31516,19 +31604,19 @@
       </c>
       <c r="D131" s="4">
         <f t="shared" si="35"/>
-        <v>59992822</v>
+        <v>59992797</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="36"/>
-        <v>2816</v>
+        <v>2836</v>
       </c>
       <c r="F131" s="4">
         <f t="shared" si="37"/>
-        <v>4362</v>
+        <v>4367</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" si="38"/>
-        <v>59992822</v>
+        <v>59992797</v>
       </c>
       <c r="H131" s="2">
         <f t="shared" si="39"/>
@@ -31550,7 +31638,7 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4">
         <f t="shared" si="41"/>
-        <v>2816</v>
+        <v>2836</v>
       </c>
       <c r="O131" s="4">
         <f t="shared" si="29"/>
@@ -31573,19 +31661,19 @@
       </c>
       <c r="D132" s="4">
         <f t="shared" si="35"/>
-        <v>59992494</v>
+        <v>59992466</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" si="36"/>
-        <v>2909</v>
+        <v>2931</v>
       </c>
       <c r="F132" s="4">
         <f t="shared" si="37"/>
-        <v>4597</v>
+        <v>4603</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" si="38"/>
-        <v>59992494</v>
+        <v>59992466</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" si="39"/>
@@ -31607,7 +31695,7 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4">
         <f t="shared" si="41"/>
-        <v>2909</v>
+        <v>2931</v>
       </c>
       <c r="O132" s="4">
         <f t="shared" si="29"/>
@@ -31629,23 +31717,23 @@
         <v>1.4</v>
       </c>
       <c r="D133" s="10">
-        <f t="shared" ref="D133:D134" si="45">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
-        <v>59992155</v>
+        <f t="shared" ref="D133:D134" si="46">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <v>59992124</v>
       </c>
       <c r="E133" s="10">
-        <f t="shared" ref="E133:E134" si="46">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
-        <v>3006</v>
+        <f t="shared" ref="E133:E134" si="47">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <v>3029</v>
       </c>
       <c r="F133" s="10">
-        <f t="shared" ref="F133:F134" si="47">F132+ROUND(E132/$D$2,0)</f>
-        <v>4839</v>
+        <f t="shared" ref="F133:F134" si="48">F132+ROUND(E132/$D$2,0)</f>
+        <v>4847</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="48">D133</f>
-        <v>59992155</v>
+        <f t="shared" ref="G133:G134" si="49">D133</f>
+        <v>59992124</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" ref="H133:H134" si="49">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <f t="shared" ref="H133:H134" si="50">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
         <v>4403</v>
       </c>
       <c r="I133" s="7">
@@ -31664,7 +31752,7 @@
       <c r="M133" s="10"/>
       <c r="N133" s="10">
         <f t="shared" si="41"/>
-        <v>3006</v>
+        <v>3029</v>
       </c>
       <c r="O133" s="10">
         <f t="shared" si="29"/>
@@ -31686,23 +31774,23 @@
         <v>1.4</v>
       </c>
       <c r="D134" s="10">
-        <f t="shared" si="45"/>
-        <v>59991804</v>
+        <f t="shared" si="46"/>
+        <v>59991771</v>
       </c>
       <c r="E134" s="10">
-        <f t="shared" si="46"/>
-        <v>3106</v>
+        <f t="shared" si="47"/>
+        <v>3130</v>
       </c>
       <c r="F134" s="10">
-        <f t="shared" si="47"/>
-        <v>5090</v>
+        <f t="shared" si="48"/>
+        <v>5099</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="48"/>
-        <v>59991804</v>
+        <f t="shared" si="49"/>
+        <v>59991771</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4748</v>
       </c>
       <c r="I134" s="7">
@@ -31721,7 +31809,7 @@
       <c r="M134" s="10"/>
       <c r="N134" s="10">
         <f t="shared" si="41"/>
-        <v>3106</v>
+        <v>3130</v>
       </c>
       <c r="O134" s="10">
         <f t="shared" si="29"/>
@@ -31743,49 +31831,49 @@
         <v>1.4</v>
       </c>
       <c r="D135" s="10">
-        <f t="shared" ref="D135:D139" si="50">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
-        <v>59991442</v>
+        <f t="shared" ref="D135:D139" si="51">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
+        <v>59991406</v>
       </c>
       <c r="E135" s="10">
-        <f t="shared" ref="E135:E139" si="51">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
-        <v>3209</v>
+        <f t="shared" ref="E135:E139" si="52">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
+        <v>3234</v>
       </c>
       <c r="F135" s="10">
-        <f t="shared" ref="F135:F139" si="52">F134+ROUND(E134/$D$2,0)</f>
-        <v>5349</v>
+        <f t="shared" ref="F135:F139" si="53">F134+ROUND(E134/$D$2,0)</f>
+        <v>5360</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" ref="G135:G139" si="53">D135</f>
-        <v>59991442</v>
+        <f t="shared" ref="G135:G139" si="54">D135</f>
+        <v>59991406</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H139" si="54">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
+        <f t="shared" ref="H135:H139" si="55">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" ref="I135:I139" si="55">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="I135:I139" si="56">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="J135" s="8">
-        <f t="shared" ref="J135:J139" si="56">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="J135:J139" si="57">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>3657</v>
       </c>
       <c r="K135" s="9">
-        <f t="shared" ref="K135:K139" si="57">A135</f>
+        <f t="shared" ref="K135:K139" si="58">A135</f>
         <v>44148</v>
       </c>
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
       <c r="N135" s="10">
-        <f t="shared" ref="N135:N139" si="58">E135</f>
-        <v>3209</v>
+        <f t="shared" ref="N135:N139" si="59">E135</f>
+        <v>3234</v>
       </c>
       <c r="O135" s="10">
-        <f t="shared" ref="O135:O139" si="59">I135</f>
+        <f t="shared" ref="O135:O139" si="60">I135</f>
         <v>5119</v>
       </c>
       <c r="P135" s="10">
-        <f t="shared" ref="P135:P139" si="60">J135</f>
+        <f t="shared" ref="P135:P139" si="61">J135</f>
         <v>3657</v>
       </c>
     </row>
@@ -31800,49 +31888,49 @@
         <v>1.4</v>
       </c>
       <c r="D136" s="10">
-        <f t="shared" si="50"/>
-        <v>59991068</v>
+        <f t="shared" si="51"/>
+        <v>59991029</v>
       </c>
       <c r="E136" s="10">
-        <f t="shared" si="51"/>
-        <v>3316</v>
+        <f t="shared" si="52"/>
+        <v>3341</v>
       </c>
       <c r="F136" s="10">
-        <f t="shared" si="52"/>
-        <v>5616</v>
+        <f t="shared" si="53"/>
+        <v>5630</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="53"/>
-        <v>59991068</v>
+        <f t="shared" si="54"/>
+        <v>59991029</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="54"/>
-        <v>5519</v>
-      </c>
-      <c r="I136" s="7">
         <f t="shared" si="55"/>
         <v>5519</v>
       </c>
+      <c r="I136" s="7">
+        <f t="shared" si="56"/>
+        <v>5519</v>
+      </c>
       <c r="J136" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>3883</v>
       </c>
       <c r="K136" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>44149</v>
       </c>
       <c r="L136" s="10"/>
       <c r="M136" s="10"/>
       <c r="N136" s="10">
-        <f t="shared" si="58"/>
-        <v>3316</v>
+        <f t="shared" si="59"/>
+        <v>3341</v>
       </c>
       <c r="O136" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>5519</v>
       </c>
       <c r="P136" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3883</v>
       </c>
     </row>
@@ -31857,49 +31945,49 @@
         <v>1.4</v>
       </c>
       <c r="D137" s="10">
-        <f t="shared" si="50"/>
-        <v>59990681</v>
+        <f t="shared" si="51"/>
+        <v>59990639</v>
       </c>
       <c r="E137" s="10">
-        <f t="shared" si="51"/>
-        <v>3427</v>
+        <f t="shared" si="52"/>
+        <v>3453</v>
       </c>
       <c r="F137" s="10">
-        <f t="shared" si="52"/>
-        <v>5892</v>
+        <f t="shared" si="53"/>
+        <v>5908</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="53"/>
-        <v>59990681</v>
+        <f t="shared" si="54"/>
+        <v>59990639</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="54"/>
-        <v>5951</v>
-      </c>
-      <c r="I137" s="7">
         <f t="shared" si="55"/>
         <v>5951</v>
       </c>
+      <c r="I137" s="7">
+        <f t="shared" si="56"/>
+        <v>5951</v>
+      </c>
       <c r="J137" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4127</v>
       </c>
       <c r="K137" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>44150</v>
       </c>
       <c r="L137" s="10"/>
       <c r="M137" s="10"/>
       <c r="N137" s="10">
-        <f t="shared" si="58"/>
-        <v>3427</v>
+        <f t="shared" si="59"/>
+        <v>3453</v>
       </c>
       <c r="O137" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>5951</v>
       </c>
       <c r="P137" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>4127</v>
       </c>
     </row>
@@ -31914,49 +32002,49 @@
         <v>1.4</v>
       </c>
       <c r="D138" s="10">
-        <f t="shared" si="50"/>
-        <v>59990281</v>
+        <f t="shared" si="51"/>
+        <v>59990236</v>
       </c>
       <c r="E138" s="10">
-        <f t="shared" si="51"/>
-        <v>3541</v>
+        <f t="shared" si="52"/>
+        <v>3568</v>
       </c>
       <c r="F138" s="10">
-        <f t="shared" si="52"/>
-        <v>6178</v>
+        <f t="shared" si="53"/>
+        <v>6196</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="53"/>
-        <v>59990281</v>
+        <f t="shared" si="54"/>
+        <v>59990236</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="54"/>
-        <v>6417</v>
-      </c>
-      <c r="I138" s="7">
         <f t="shared" si="55"/>
         <v>6417</v>
       </c>
+      <c r="I138" s="7">
+        <f t="shared" si="56"/>
+        <v>6417</v>
+      </c>
       <c r="J138" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4390</v>
       </c>
       <c r="K138" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>44151</v>
       </c>
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
       <c r="N138" s="10">
-        <f t="shared" si="58"/>
-        <v>3541</v>
+        <f t="shared" si="59"/>
+        <v>3568</v>
       </c>
       <c r="O138" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>6417</v>
       </c>
       <c r="P138" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>4390</v>
       </c>
     </row>
@@ -31971,49 +32059,49 @@
         <v>1.4</v>
       </c>
       <c r="D139" s="10">
-        <f t="shared" si="50"/>
-        <v>59989868</v>
+        <f t="shared" si="51"/>
+        <v>59989820</v>
       </c>
       <c r="E139" s="10">
-        <f t="shared" si="51"/>
-        <v>3659</v>
+        <f t="shared" si="52"/>
+        <v>3687</v>
       </c>
       <c r="F139" s="10">
-        <f t="shared" si="52"/>
-        <v>6473</v>
+        <f t="shared" si="53"/>
+        <v>6493</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="53"/>
-        <v>59989868</v>
+        <f t="shared" si="54"/>
+        <v>59989820</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="54"/>
-        <v>6919</v>
-      </c>
-      <c r="I139" s="7">
         <f t="shared" si="55"/>
         <v>6919</v>
       </c>
+      <c r="I139" s="7">
+        <f t="shared" si="56"/>
+        <v>6919</v>
+      </c>
       <c r="J139" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4673</v>
       </c>
       <c r="K139" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>44152</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
       <c r="N139" s="10">
-        <f t="shared" si="58"/>
-        <v>3659</v>
+        <f t="shared" si="59"/>
+        <v>3687</v>
       </c>
       <c r="O139" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>6919</v>
       </c>
       <c r="P139" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>4673</v>
       </c>
     </row>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C716938-633A-466E-B557-FDE2539FEED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72C99B2-6650-4218-BD36-CC5F20065B9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23025" yWindow="345" windowWidth="15375" windowHeight="13350" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -676,6 +676,9 @@
                 <c:pt idx="60">
                   <c:v>2745</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>2848</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1115,6 +1118,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>2749</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,6 +3111,9 @@
                 <c:pt idx="124">
                   <c:v>2745</c:v>
                 </c:pt>
+                <c:pt idx="125">
+                  <c:v>2848</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3930,6 +3939,9 @@
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>2749</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5032,6 +5044,9 @@
                 <c:pt idx="124">
                   <c:v>2745</c:v>
                 </c:pt>
+                <c:pt idx="125">
+                  <c:v>2848</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5840,6 +5855,9 @@
                 <c:pt idx="124">
                   <c:v>2749</c:v>
                 </c:pt>
+                <c:pt idx="125">
+                  <c:v>2849</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6292,10 +6310,10 @@
                   <c:v>2745</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2836</c:v>
+                  <c:v>2848</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2931</c:v>
+                  <c:v>2955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7419,6 +7437,9 @@
                 <c:pt idx="124">
                   <c:v>2745</c:v>
                 </c:pt>
+                <c:pt idx="125">
+                  <c:v>2848</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8248,6 +8269,9 @@
                 <c:pt idx="124">
                   <c:v>2749</c:v>
                 </c:pt>
+                <c:pt idx="125">
+                  <c:v>2849</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8721,31 +8745,31 @@
                   <c:v>2745</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2836</c:v>
+                  <c:v>2848</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2931</c:v>
+                  <c:v>2955</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3029</c:v>
+                  <c:v>3066</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3130</c:v>
+                  <c:v>3180</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3234</c:v>
+                  <c:v>3299</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3341</c:v>
+                  <c:v>3423</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3453</c:v>
+                  <c:v>3552</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3568</c:v>
+                  <c:v>3685</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3687</c:v>
+                  <c:v>3823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9268,6 +9292,9 @@
                 <c:pt idx="28">
                   <c:v>2745</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>2848</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9515,6 +9542,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2749</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23758,10 +23788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K127"/>
+  <dimension ref="A2:K128"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:A127"/>
+      <selection activeCell="A127" sqref="A127:A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24784,6 +24814,14 @@
         <v>2749</v>
       </c>
     </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B128">
+        <v>2849</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24794,8 +24832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E109" workbookViewId="0">
-      <selection activeCell="Q129" sqref="Q129:Q130"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31600,15 +31638,15 @@
         <v>126</v>
       </c>
       <c r="C131" s="4">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="35"/>
-        <v>59992797</v>
+        <v>59992785</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="36"/>
-        <v>2836</v>
+        <v>2848</v>
       </c>
       <c r="F131" s="4">
         <f t="shared" si="37"/>
@@ -31616,7 +31654,7 @@
       </c>
       <c r="G131" s="2">
         <f t="shared" si="38"/>
-        <v>59992797</v>
+        <v>59992785</v>
       </c>
       <c r="H131" s="2">
         <f t="shared" si="39"/>
@@ -31634,11 +31672,17 @@
         <f t="shared" si="15"/>
         <v>44144</v>
       </c>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
+      <c r="L131" s="4">
+        <f t="shared" ref="L131" si="46">E131</f>
+        <v>2848</v>
+      </c>
+      <c r="M131" s="4">
+        <f>RealData!B128</f>
+        <v>2849</v>
+      </c>
       <c r="N131" s="4">
         <f t="shared" si="41"/>
-        <v>2836</v>
+        <v>2848</v>
       </c>
       <c r="O131" s="4">
         <f t="shared" si="29"/>
@@ -31657,23 +31701,23 @@
         <v>127</v>
       </c>
       <c r="C132" s="4">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" si="35"/>
-        <v>59992466</v>
+        <v>59992441</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" si="36"/>
-        <v>2931</v>
+        <v>2955</v>
       </c>
       <c r="F132" s="4">
         <f t="shared" si="37"/>
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" si="38"/>
-        <v>59992466</v>
+        <v>59992441</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" si="39"/>
@@ -31695,7 +31739,7 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4">
         <f t="shared" si="41"/>
-        <v>2931</v>
+        <v>2955</v>
       </c>
       <c r="O132" s="4">
         <f t="shared" si="29"/>
@@ -31714,26 +31758,26 @@
         <v>128</v>
       </c>
       <c r="C133" s="10">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="D133" s="10">
-        <f t="shared" ref="D133:D134" si="46">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
-        <v>59992124</v>
+        <f t="shared" ref="D133:D134" si="47">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <v>59992084</v>
       </c>
       <c r="E133" s="10">
-        <f t="shared" ref="E133:E134" si="47">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
-        <v>3029</v>
+        <f t="shared" ref="E133:E134" si="48">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <v>3066</v>
       </c>
       <c r="F133" s="10">
-        <f t="shared" ref="F133:F134" si="48">F132+ROUND(E132/$D$2,0)</f>
-        <v>4847</v>
+        <f t="shared" ref="F133:F134" si="49">F132+ROUND(E132/$D$2,0)</f>
+        <v>4850</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="49">D133</f>
-        <v>59992124</v>
+        <f t="shared" ref="G133:G134" si="50">D133</f>
+        <v>59992084</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" ref="H133:H134" si="50">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <f t="shared" ref="H133:H134" si="51">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
         <v>4403</v>
       </c>
       <c r="I133" s="7">
@@ -31752,7 +31796,7 @@
       <c r="M133" s="10"/>
       <c r="N133" s="10">
         <f t="shared" si="41"/>
-        <v>3029</v>
+        <v>3066</v>
       </c>
       <c r="O133" s="10">
         <f t="shared" si="29"/>
@@ -31771,26 +31815,26 @@
         <v>129</v>
       </c>
       <c r="C134" s="10">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="D134" s="10">
-        <f t="shared" si="46"/>
-        <v>59991771</v>
+        <f t="shared" si="47"/>
+        <v>59991714</v>
       </c>
       <c r="E134" s="10">
-        <f t="shared" si="47"/>
-        <v>3130</v>
+        <f t="shared" si="48"/>
+        <v>3180</v>
       </c>
       <c r="F134" s="10">
-        <f t="shared" si="48"/>
-        <v>5099</v>
+        <f t="shared" si="49"/>
+        <v>5106</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="49"/>
-        <v>59991771</v>
+        <f t="shared" si="50"/>
+        <v>59991714</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4748</v>
       </c>
       <c r="I134" s="7">
@@ -31809,7 +31853,7 @@
       <c r="M134" s="10"/>
       <c r="N134" s="10">
         <f t="shared" si="41"/>
-        <v>3130</v>
+        <v>3180</v>
       </c>
       <c r="O134" s="10">
         <f t="shared" si="29"/>
@@ -31828,52 +31872,52 @@
         <v>130</v>
       </c>
       <c r="C135" s="10">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="D135" s="10">
-        <f t="shared" ref="D135:D139" si="51">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
-        <v>59991406</v>
+        <f t="shared" ref="D135:D139" si="52">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
+        <v>59991330</v>
       </c>
       <c r="E135" s="10">
-        <f t="shared" ref="E135:E139" si="52">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
-        <v>3234</v>
+        <f t="shared" ref="E135:E139" si="53">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
+        <v>3299</v>
       </c>
       <c r="F135" s="10">
-        <f t="shared" ref="F135:F139" si="53">F134+ROUND(E134/$D$2,0)</f>
-        <v>5360</v>
+        <f t="shared" ref="F135:F139" si="54">F134+ROUND(E134/$D$2,0)</f>
+        <v>5371</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" ref="G135:G139" si="54">D135</f>
-        <v>59991406</v>
+        <f t="shared" ref="G135:G139" si="55">D135</f>
+        <v>59991330</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H139" si="55">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
+        <f t="shared" ref="H135:H139" si="56">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" ref="I135:I139" si="56">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="I135:I139" si="57">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="J135" s="8">
-        <f t="shared" ref="J135:J139" si="57">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="J135:J139" si="58">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>3657</v>
       </c>
       <c r="K135" s="9">
-        <f t="shared" ref="K135:K139" si="58">A135</f>
+        <f t="shared" ref="K135:K139" si="59">A135</f>
         <v>44148</v>
       </c>
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
       <c r="N135" s="10">
-        <f t="shared" ref="N135:N139" si="59">E135</f>
-        <v>3234</v>
+        <f t="shared" ref="N135:N139" si="60">E135</f>
+        <v>3299</v>
       </c>
       <c r="O135" s="10">
-        <f t="shared" ref="O135:O139" si="60">I135</f>
+        <f t="shared" ref="O135:O139" si="61">I135</f>
         <v>5119</v>
       </c>
       <c r="P135" s="10">
-        <f t="shared" ref="P135:P139" si="61">J135</f>
+        <f t="shared" ref="P135:P139" si="62">J135</f>
         <v>3657</v>
       </c>
     </row>
@@ -31885,52 +31929,52 @@
         <v>131</v>
       </c>
       <c r="C136" s="10">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="D136" s="10">
-        <f t="shared" si="51"/>
-        <v>59991029</v>
+        <f t="shared" si="52"/>
+        <v>59990931</v>
       </c>
       <c r="E136" s="10">
-        <f t="shared" si="52"/>
-        <v>3341</v>
+        <f t="shared" si="53"/>
+        <v>3423</v>
       </c>
       <c r="F136" s="10">
-        <f t="shared" si="53"/>
-        <v>5630</v>
+        <f t="shared" si="54"/>
+        <v>5646</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="54"/>
-        <v>59991029</v>
+        <f t="shared" si="55"/>
+        <v>59990931</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="55"/>
-        <v>5519</v>
-      </c>
-      <c r="I136" s="7">
         <f t="shared" si="56"/>
         <v>5519</v>
       </c>
+      <c r="I136" s="7">
+        <f t="shared" si="57"/>
+        <v>5519</v>
+      </c>
       <c r="J136" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3883</v>
       </c>
       <c r="K136" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>44149</v>
       </c>
       <c r="L136" s="10"/>
       <c r="M136" s="10"/>
       <c r="N136" s="10">
-        <f t="shared" si="59"/>
-        <v>3341</v>
+        <f t="shared" si="60"/>
+        <v>3423</v>
       </c>
       <c r="O136" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>5519</v>
       </c>
       <c r="P136" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3883</v>
       </c>
     </row>
@@ -31942,52 +31986,52 @@
         <v>132</v>
       </c>
       <c r="C137" s="10">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="D137" s="10">
-        <f t="shared" si="51"/>
-        <v>59990639</v>
+        <f t="shared" si="52"/>
+        <v>59990517</v>
       </c>
       <c r="E137" s="10">
-        <f t="shared" si="52"/>
-        <v>3453</v>
+        <f t="shared" si="53"/>
+        <v>3552</v>
       </c>
       <c r="F137" s="10">
-        <f t="shared" si="53"/>
-        <v>5908</v>
+        <f t="shared" si="54"/>
+        <v>5931</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="54"/>
-        <v>59990639</v>
+        <f t="shared" si="55"/>
+        <v>59990517</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="55"/>
-        <v>5951</v>
-      </c>
-      <c r="I137" s="7">
         <f t="shared" si="56"/>
         <v>5951</v>
       </c>
+      <c r="I137" s="7">
+        <f t="shared" si="57"/>
+        <v>5951</v>
+      </c>
       <c r="J137" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4127</v>
       </c>
       <c r="K137" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>44150</v>
       </c>
       <c r="L137" s="10"/>
       <c r="M137" s="10"/>
       <c r="N137" s="10">
-        <f t="shared" si="59"/>
-        <v>3453</v>
+        <f t="shared" si="60"/>
+        <v>3552</v>
       </c>
       <c r="O137" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>5951</v>
       </c>
       <c r="P137" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>4127</v>
       </c>
     </row>
@@ -31999,52 +32043,52 @@
         <v>133</v>
       </c>
       <c r="C138" s="10">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="D138" s="10">
-        <f t="shared" si="51"/>
-        <v>59990236</v>
+        <f t="shared" si="52"/>
+        <v>59990088</v>
       </c>
       <c r="E138" s="10">
-        <f t="shared" si="52"/>
-        <v>3568</v>
+        <f t="shared" si="53"/>
+        <v>3685</v>
       </c>
       <c r="F138" s="10">
-        <f t="shared" si="53"/>
-        <v>6196</v>
+        <f t="shared" si="54"/>
+        <v>6227</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="54"/>
-        <v>59990236</v>
+        <f t="shared" si="55"/>
+        <v>59990088</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="55"/>
-        <v>6417</v>
-      </c>
-      <c r="I138" s="7">
         <f t="shared" si="56"/>
         <v>6417</v>
       </c>
+      <c r="I138" s="7">
+        <f t="shared" si="57"/>
+        <v>6417</v>
+      </c>
       <c r="J138" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4390</v>
       </c>
       <c r="K138" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>44151</v>
       </c>
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
       <c r="N138" s="10">
-        <f t="shared" si="59"/>
-        <v>3568</v>
+        <f t="shared" si="60"/>
+        <v>3685</v>
       </c>
       <c r="O138" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>6417</v>
       </c>
       <c r="P138" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>4390</v>
       </c>
     </row>
@@ -32056,52 +32100,52 @@
         <v>134</v>
       </c>
       <c r="C139" s="10">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="D139" s="10">
-        <f t="shared" si="51"/>
-        <v>59989820</v>
+        <f t="shared" si="52"/>
+        <v>59989643</v>
       </c>
       <c r="E139" s="10">
-        <f t="shared" si="52"/>
-        <v>3687</v>
+        <f t="shared" si="53"/>
+        <v>3823</v>
       </c>
       <c r="F139" s="10">
-        <f t="shared" si="53"/>
-        <v>6493</v>
+        <f t="shared" si="54"/>
+        <v>6534</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="54"/>
-        <v>59989820</v>
+        <f t="shared" si="55"/>
+        <v>59989643</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="55"/>
-        <v>6919</v>
-      </c>
-      <c r="I139" s="7">
         <f t="shared" si="56"/>
         <v>6919</v>
       </c>
+      <c r="I139" s="7">
+        <f t="shared" si="57"/>
+        <v>6919</v>
+      </c>
       <c r="J139" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4673</v>
       </c>
       <c r="K139" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>44152</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
       <c r="N139" s="10">
-        <f t="shared" si="59"/>
-        <v>3687</v>
+        <f t="shared" si="60"/>
+        <v>3823</v>
       </c>
       <c r="O139" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>6919</v>
       </c>
       <c r="P139" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>4673</v>
       </c>
     </row>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72C99B2-6650-4218-BD36-CC5F20065B9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA03B19-F935-4B06-8B8E-2CAE4272B873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
@@ -677,7 +677,10 @@
                   <c:v>2745</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2848</c:v>
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,6 +1125,9 @@
                 <c:pt idx="61">
                   <c:v>2849</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>2971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1814,199 +1820,199 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>795</c:v>
+                  <c:v>1251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>797</c:v>
+                  <c:v>1252</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>799</c:v>
+                  <c:v>1254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>801</c:v>
+                  <c:v>1255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>803</c:v>
+                  <c:v>1257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>806</c:v>
+                  <c:v>1259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>808</c:v>
+                  <c:v>1261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>811</c:v>
+                  <c:v>1263</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>814</c:v>
+                  <c:v>1266</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>817</c:v>
+                  <c:v>1268</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>821</c:v>
+                  <c:v>1271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>824</c:v>
+                  <c:v>1274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>828</c:v>
+                  <c:v>1277</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>832</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>836</c:v>
+                  <c:v>1283</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>841</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>846</c:v>
+                  <c:v>1291</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>851</c:v>
+                  <c:v>1295</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>857</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>864</c:v>
+                  <c:v>1305</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>871</c:v>
+                  <c:v>1311</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>879</c:v>
+                  <c:v>1317</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>887</c:v>
+                  <c:v>1323</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>896</c:v>
+                  <c:v>1329</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>906</c:v>
+                  <c:v>1336</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>917</c:v>
+                  <c:v>1344</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>928</c:v>
+                  <c:v>1352</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>940</c:v>
+                  <c:v>1361</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>953</c:v>
+                  <c:v>1371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>967</c:v>
+                  <c:v>1382</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>982</c:v>
+                  <c:v>1394</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>998</c:v>
+                  <c:v>1406</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1015</c:v>
+                  <c:v>1419</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1033</c:v>
+                  <c:v>1433</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1054</c:v>
+                  <c:v>1449</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1076</c:v>
+                  <c:v>1466</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1099</c:v>
+                  <c:v>1483</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1124</c:v>
+                  <c:v>1502</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1151</c:v>
+                  <c:v>1522</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1180</c:v>
+                  <c:v>1544</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1212</c:v>
+                  <c:v>1568</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1246</c:v>
+                  <c:v>1594</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1283</c:v>
+                  <c:v>1622</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1323</c:v>
+                  <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1366</c:v>
+                  <c:v>1686</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1412</c:v>
+                  <c:v>1721</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1462</c:v>
+                  <c:v>1758</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1516</c:v>
+                  <c:v>1799</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1574</c:v>
+                  <c:v>1843</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1636</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1703</c:v>
+                  <c:v>1941</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1776</c:v>
+                  <c:v>1996</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1854</c:v>
+                  <c:v>2055</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1939</c:v>
+                  <c:v>2119</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2030</c:v>
+                  <c:v>2188</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2129</c:v>
+                  <c:v>2263</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2235</c:v>
+                  <c:v>2343</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2350</c:v>
+                  <c:v>2430</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2474</c:v>
+                  <c:v>2524</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2607</c:v>
+                  <c:v>2624</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2751</c:v>
+                  <c:v>2733</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2906</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3073</c:v>
+                  <c:v>2976</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3254</c:v>
+                  <c:v>3112</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3448</c:v>
+                  <c:v>3259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,7 +3118,10 @@
                   <c:v>2745</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2848</c:v>
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3942,6 +3951,9 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>2849</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5045,7 +5057,10 @@
                   <c:v>2745</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2848</c:v>
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5858,6 +5873,9 @@
                 <c:pt idx="125">
                   <c:v>2849</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>2971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6310,10 +6328,10 @@
                   <c:v>2745</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2848</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2955</c:v>
+                  <c:v>2959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7438,7 +7456,10 @@
                   <c:v>2745</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2848</c:v>
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8272,6 +8293,9 @@
                 <c:pt idx="125">
                   <c:v>2849</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>2971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8745,31 +8769,31 @@
                   <c:v>2745</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2848</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2955</c:v>
+                  <c:v>2959</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3066</c:v>
+                  <c:v>3072</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3180</c:v>
+                  <c:v>3190</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3299</c:v>
+                  <c:v>3312</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3423</c:v>
+                  <c:v>3439</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3552</c:v>
+                  <c:v>3570</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3685</c:v>
+                  <c:v>3706</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3823</c:v>
+                  <c:v>3848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9293,7 +9317,10 @@
                   <c:v>2745</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2848</c:v>
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9546,6 +9573,9 @@
                 <c:pt idx="29">
                   <c:v>2849</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>2971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9950,103 +9980,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>1015</c:v>
+                  <c:v>1419</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1033</c:v>
+                  <c:v>1433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1054</c:v>
+                  <c:v>1449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1076</c:v>
+                  <c:v>1466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1099</c:v>
+                  <c:v>1483</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1124</c:v>
+                  <c:v>1502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1151</c:v>
+                  <c:v>1522</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1180</c:v>
+                  <c:v>1544</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1212</c:v>
+                  <c:v>1568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1246</c:v>
+                  <c:v>1594</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1283</c:v>
+                  <c:v>1622</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1323</c:v>
+                  <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1366</c:v>
+                  <c:v>1686</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1412</c:v>
+                  <c:v>1721</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1462</c:v>
+                  <c:v>1758</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1516</c:v>
+                  <c:v>1799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1574</c:v>
+                  <c:v>1843</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1636</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1703</c:v>
+                  <c:v>1941</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1776</c:v>
+                  <c:v>1996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1854</c:v>
+                  <c:v>2055</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1939</c:v>
+                  <c:v>2119</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2030</c:v>
+                  <c:v>2188</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2129</c:v>
+                  <c:v>2263</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2235</c:v>
+                  <c:v>2343</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2350</c:v>
+                  <c:v>2430</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2474</c:v>
+                  <c:v>2524</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2607</c:v>
+                  <c:v>2624</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2751</c:v>
+                  <c:v>2733</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2906</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3073</c:v>
+                  <c:v>2976</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3254</c:v>
+                  <c:v>3112</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3448</c:v>
+                  <c:v>3259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23788,10 +23818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K128"/>
+  <dimension ref="A2:K129"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:A128"/>
+      <selection activeCell="A128" sqref="A128:A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24822,6 +24852,14 @@
         <v>2849</v>
       </c>
     </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B129">
+        <v>2971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24832,8 +24870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="AA28" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24850,7 +24888,7 @@
         <v>1.94</v>
       </c>
       <c r="E1">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -27099,7 +27137,7 @@
         <v>12</v>
       </c>
       <c r="J54" s="8">
-        <v>780</v>
+        <v>1240</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="1"/>
@@ -27119,7 +27157,7 @@
       </c>
       <c r="P54">
         <f>J54</f>
-        <v>780</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -27158,7 +27196,7 @@
       </c>
       <c r="J55" s="8">
         <f>J54+ROUND(($E$1/$D$2)*G54*(I54/$D$3),0)-ROUND(I54/$D$2,0)</f>
-        <v>781</v>
+        <v>1240</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="1"/>
@@ -27178,7 +27216,7 @@
       </c>
       <c r="P55">
         <f t="shared" ref="P55:P118" si="12">J55</f>
-        <v>781</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -27217,7 +27255,7 @@
       </c>
       <c r="J56" s="8">
         <f t="shared" ref="J56:J119" si="14">J55+ROUND(($E$1/$D$2)*G55*(I55/$D$3),0)-ROUND(I55/$D$2,0)</f>
-        <v>782</v>
+        <v>1241</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="1"/>
@@ -27237,7 +27275,7 @@
       </c>
       <c r="P56">
         <f t="shared" si="12"/>
-        <v>782</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -27276,7 +27314,7 @@
       </c>
       <c r="J57" s="8">
         <f t="shared" si="14"/>
-        <v>783</v>
+        <v>1242</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="1"/>
@@ -27296,7 +27334,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="12"/>
-        <v>783</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -27335,7 +27373,7 @@
       </c>
       <c r="J58" s="8">
         <f t="shared" si="14"/>
-        <v>784</v>
+        <v>1243</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" si="1"/>
@@ -27355,7 +27393,7 @@
       </c>
       <c r="P58">
         <f t="shared" si="12"/>
-        <v>784</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -27394,7 +27432,7 @@
       </c>
       <c r="J59" s="8">
         <f t="shared" si="14"/>
-        <v>785</v>
+        <v>1244</v>
       </c>
       <c r="K59" s="1">
         <f t="shared" si="1"/>
@@ -27414,7 +27452,7 @@
       </c>
       <c r="P59">
         <f t="shared" si="12"/>
-        <v>785</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -27453,7 +27491,7 @@
       </c>
       <c r="J60" s="8">
         <f t="shared" si="14"/>
-        <v>785</v>
+        <v>1244</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="1"/>
@@ -27473,7 +27511,7 @@
       </c>
       <c r="P60">
         <f t="shared" si="12"/>
-        <v>785</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -27512,7 +27550,7 @@
       </c>
       <c r="J61" s="8">
         <f t="shared" si="14"/>
-        <v>785</v>
+        <v>1244</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="1"/>
@@ -27532,7 +27570,7 @@
       </c>
       <c r="P61">
         <f t="shared" si="12"/>
-        <v>785</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -27571,7 +27609,7 @@
       </c>
       <c r="J62" s="8">
         <f t="shared" si="14"/>
-        <v>786</v>
+        <v>1244</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="1"/>
@@ -27591,7 +27629,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="12"/>
-        <v>786</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -27630,7 +27668,7 @@
       </c>
       <c r="J63" s="8">
         <f t="shared" si="14"/>
-        <v>787</v>
+        <v>1244</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" si="1"/>
@@ -27650,7 +27688,7 @@
       </c>
       <c r="P63">
         <f t="shared" si="12"/>
-        <v>787</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -27689,7 +27727,7 @@
       </c>
       <c r="J64" s="8">
         <f t="shared" si="14"/>
-        <v>788</v>
+        <v>1245</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" si="1"/>
@@ -27709,7 +27747,7 @@
       </c>
       <c r="P64">
         <f t="shared" si="12"/>
-        <v>788</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -27748,7 +27786,7 @@
       </c>
       <c r="J65" s="8">
         <f t="shared" si="14"/>
-        <v>789</v>
+        <v>1246</v>
       </c>
       <c r="K65" s="1">
         <f t="shared" si="1"/>
@@ -27768,7 +27806,7 @@
       </c>
       <c r="P65">
         <f t="shared" si="12"/>
-        <v>789</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -27807,7 +27845,7 @@
       </c>
       <c r="J66" s="8">
         <f t="shared" si="14"/>
-        <v>790</v>
+        <v>1247</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" si="1"/>
@@ -27827,7 +27865,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="12"/>
-        <v>790</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -27866,7 +27904,7 @@
       </c>
       <c r="J67" s="8">
         <f t="shared" si="14"/>
-        <v>792</v>
+        <v>1248</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" si="1"/>
@@ -27886,7 +27924,7 @@
       </c>
       <c r="P67">
         <f t="shared" si="12"/>
-        <v>792</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -27925,7 +27963,7 @@
       </c>
       <c r="J68" s="8">
         <f t="shared" si="14"/>
-        <v>793</v>
+        <v>1249</v>
       </c>
       <c r="K68" s="1">
         <f t="shared" si="1"/>
@@ -27945,7 +27983,7 @@
       </c>
       <c r="P68">
         <f t="shared" si="12"/>
-        <v>793</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -27984,7 +28022,7 @@
       </c>
       <c r="J69" s="8">
         <f t="shared" si="14"/>
-        <v>794</v>
+        <v>1250</v>
       </c>
       <c r="K69" s="1">
         <f t="shared" si="1"/>
@@ -28004,7 +28042,7 @@
       </c>
       <c r="P69">
         <f t="shared" si="12"/>
-        <v>794</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -28043,7 +28081,7 @@
       </c>
       <c r="J70" s="8">
         <f t="shared" si="14"/>
-        <v>795</v>
+        <v>1251</v>
       </c>
       <c r="K70" s="1">
         <f t="shared" si="1"/>
@@ -28063,7 +28101,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="12"/>
-        <v>795</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -28102,7 +28140,7 @@
       </c>
       <c r="J71" s="8">
         <f t="shared" si="14"/>
-        <v>797</v>
+        <v>1252</v>
       </c>
       <c r="K71" s="1">
         <f t="shared" ref="K71:K134" si="15">A71</f>
@@ -28122,7 +28160,7 @@
       </c>
       <c r="P71">
         <f t="shared" si="12"/>
-        <v>797</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -28161,7 +28199,7 @@
       </c>
       <c r="J72" s="8">
         <f t="shared" si="14"/>
-        <v>799</v>
+        <v>1254</v>
       </c>
       <c r="K72" s="1">
         <f t="shared" si="15"/>
@@ -28181,7 +28219,7 @@
       </c>
       <c r="P72">
         <f t="shared" si="12"/>
-        <v>799</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -28220,7 +28258,7 @@
       </c>
       <c r="J73" s="8">
         <f t="shared" si="14"/>
-        <v>801</v>
+        <v>1255</v>
       </c>
       <c r="K73" s="1">
         <f t="shared" si="15"/>
@@ -28240,7 +28278,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="12"/>
-        <v>801</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -28279,7 +28317,7 @@
       </c>
       <c r="J74" s="8">
         <f t="shared" si="14"/>
-        <v>803</v>
+        <v>1257</v>
       </c>
       <c r="K74" s="1">
         <f t="shared" si="15"/>
@@ -28299,7 +28337,7 @@
       </c>
       <c r="P74">
         <f t="shared" si="12"/>
-        <v>803</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -28338,7 +28376,7 @@
       </c>
       <c r="J75" s="8">
         <f t="shared" si="14"/>
-        <v>806</v>
+        <v>1259</v>
       </c>
       <c r="K75" s="1">
         <f t="shared" si="15"/>
@@ -28358,7 +28396,7 @@
       </c>
       <c r="P75">
         <f t="shared" si="12"/>
-        <v>806</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -28397,7 +28435,7 @@
       </c>
       <c r="J76" s="8">
         <f t="shared" si="14"/>
-        <v>808</v>
+        <v>1261</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" si="15"/>
@@ -28417,7 +28455,7 @@
       </c>
       <c r="P76">
         <f t="shared" si="12"/>
-        <v>808</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -28456,7 +28494,7 @@
       </c>
       <c r="J77" s="8">
         <f t="shared" si="14"/>
-        <v>811</v>
+        <v>1263</v>
       </c>
       <c r="K77" s="1">
         <f t="shared" si="15"/>
@@ -28476,7 +28514,7 @@
       </c>
       <c r="P77">
         <f t="shared" si="12"/>
-        <v>811</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -28515,7 +28553,7 @@
       </c>
       <c r="J78" s="8">
         <f t="shared" si="14"/>
-        <v>814</v>
+        <v>1266</v>
       </c>
       <c r="K78" s="1">
         <f t="shared" si="15"/>
@@ -28535,7 +28573,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="12"/>
-        <v>814</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -28574,7 +28612,7 @@
       </c>
       <c r="J79" s="8">
         <f t="shared" si="14"/>
-        <v>817</v>
+        <v>1268</v>
       </c>
       <c r="K79" s="1">
         <f t="shared" si="15"/>
@@ -28594,7 +28632,7 @@
       </c>
       <c r="P79">
         <f t="shared" si="12"/>
-        <v>817</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -28633,7 +28671,7 @@
       </c>
       <c r="J80" s="8">
         <f t="shared" si="14"/>
-        <v>821</v>
+        <v>1271</v>
       </c>
       <c r="K80" s="1">
         <f t="shared" si="15"/>
@@ -28653,7 +28691,7 @@
       </c>
       <c r="P80">
         <f t="shared" si="12"/>
-        <v>821</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -28692,7 +28730,7 @@
       </c>
       <c r="J81" s="8">
         <f t="shared" si="14"/>
-        <v>824</v>
+        <v>1274</v>
       </c>
       <c r="K81" s="1">
         <f t="shared" si="15"/>
@@ -28712,7 +28750,7 @@
       </c>
       <c r="P81">
         <f t="shared" si="12"/>
-        <v>824</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -28751,7 +28789,7 @@
       </c>
       <c r="J82" s="8">
         <f t="shared" si="14"/>
-        <v>828</v>
+        <v>1277</v>
       </c>
       <c r="K82" s="1">
         <f t="shared" si="15"/>
@@ -28771,7 +28809,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="12"/>
-        <v>828</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -28810,7 +28848,7 @@
       </c>
       <c r="J83" s="8">
         <f t="shared" si="14"/>
-        <v>832</v>
+        <v>1280</v>
       </c>
       <c r="K83" s="1">
         <f t="shared" si="15"/>
@@ -28830,7 +28868,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="12"/>
-        <v>832</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -28869,7 +28907,7 @@
       </c>
       <c r="J84" s="8">
         <f t="shared" si="14"/>
-        <v>836</v>
+        <v>1283</v>
       </c>
       <c r="K84" s="1">
         <f t="shared" si="15"/>
@@ -28889,7 +28927,7 @@
       </c>
       <c r="P84">
         <f t="shared" si="12"/>
-        <v>836</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -28928,7 +28966,7 @@
       </c>
       <c r="J85" s="8">
         <f t="shared" si="14"/>
-        <v>841</v>
+        <v>1287</v>
       </c>
       <c r="K85" s="1">
         <f t="shared" si="15"/>
@@ -28948,7 +28986,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="12"/>
-        <v>841</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -28987,7 +29025,7 @@
       </c>
       <c r="J86" s="8">
         <f t="shared" si="14"/>
-        <v>846</v>
+        <v>1291</v>
       </c>
       <c r="K86" s="1">
         <f t="shared" si="15"/>
@@ -29007,7 +29045,7 @@
       </c>
       <c r="P86">
         <f t="shared" si="12"/>
-        <v>846</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -29046,7 +29084,7 @@
       </c>
       <c r="J87" s="8">
         <f t="shared" si="14"/>
-        <v>851</v>
+        <v>1295</v>
       </c>
       <c r="K87" s="1">
         <f t="shared" si="15"/>
@@ -29066,7 +29104,7 @@
       </c>
       <c r="P87">
         <f t="shared" si="12"/>
-        <v>851</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -29105,7 +29143,7 @@
       </c>
       <c r="J88" s="8">
         <f t="shared" si="14"/>
-        <v>857</v>
+        <v>1300</v>
       </c>
       <c r="K88" s="1">
         <f t="shared" si="15"/>
@@ -29125,7 +29163,7 @@
       </c>
       <c r="P88">
         <f t="shared" si="12"/>
-        <v>857</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -29164,7 +29202,7 @@
       </c>
       <c r="J89" s="8">
         <f t="shared" si="14"/>
-        <v>864</v>
+        <v>1305</v>
       </c>
       <c r="K89" s="1">
         <f t="shared" si="15"/>
@@ -29184,7 +29222,7 @@
       </c>
       <c r="P89">
         <f t="shared" si="12"/>
-        <v>864</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -29223,7 +29261,7 @@
       </c>
       <c r="J90" s="8">
         <f t="shared" si="14"/>
-        <v>871</v>
+        <v>1311</v>
       </c>
       <c r="K90" s="1">
         <f t="shared" si="15"/>
@@ -29243,7 +29281,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="12"/>
-        <v>871</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -29282,7 +29320,7 @@
       </c>
       <c r="J91" s="8">
         <f t="shared" si="14"/>
-        <v>879</v>
+        <v>1317</v>
       </c>
       <c r="K91" s="1">
         <f t="shared" si="15"/>
@@ -29302,7 +29340,7 @@
       </c>
       <c r="P91">
         <f t="shared" si="12"/>
-        <v>879</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -29341,7 +29379,7 @@
       </c>
       <c r="J92" s="8">
         <f t="shared" si="14"/>
-        <v>887</v>
+        <v>1323</v>
       </c>
       <c r="K92" s="1">
         <f t="shared" si="15"/>
@@ -29361,7 +29399,7 @@
       </c>
       <c r="P92">
         <f t="shared" si="12"/>
-        <v>887</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -29400,7 +29438,7 @@
       </c>
       <c r="J93" s="8">
         <f t="shared" si="14"/>
-        <v>896</v>
+        <v>1329</v>
       </c>
       <c r="K93" s="1">
         <f t="shared" si="15"/>
@@ -29420,7 +29458,7 @@
       </c>
       <c r="P93">
         <f t="shared" si="12"/>
-        <v>896</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -29459,7 +29497,7 @@
       </c>
       <c r="J94" s="8">
         <f t="shared" si="14"/>
-        <v>906</v>
+        <v>1336</v>
       </c>
       <c r="K94" s="1">
         <f t="shared" si="15"/>
@@ -29479,7 +29517,7 @@
       </c>
       <c r="P94">
         <f t="shared" si="12"/>
-        <v>906</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -29518,7 +29556,7 @@
       </c>
       <c r="J95" s="8">
         <f t="shared" si="14"/>
-        <v>917</v>
+        <v>1344</v>
       </c>
       <c r="K95" s="1">
         <f t="shared" si="15"/>
@@ -29538,7 +29576,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="12"/>
-        <v>917</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -29577,7 +29615,7 @@
       </c>
       <c r="J96" s="8">
         <f t="shared" si="14"/>
-        <v>928</v>
+        <v>1352</v>
       </c>
       <c r="K96" s="1">
         <f t="shared" si="15"/>
@@ -29597,7 +29635,7 @@
       </c>
       <c r="P96">
         <f t="shared" si="12"/>
-        <v>928</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -29636,7 +29674,7 @@
       </c>
       <c r="J97" s="8">
         <f t="shared" si="14"/>
-        <v>940</v>
+        <v>1361</v>
       </c>
       <c r="K97" s="1">
         <f t="shared" si="15"/>
@@ -29656,7 +29694,7 @@
       </c>
       <c r="P97">
         <f t="shared" si="12"/>
-        <v>940</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -29695,7 +29733,7 @@
       </c>
       <c r="J98" s="8">
         <f t="shared" si="14"/>
-        <v>953</v>
+        <v>1371</v>
       </c>
       <c r="K98" s="1">
         <f t="shared" si="15"/>
@@ -29715,7 +29753,7 @@
       </c>
       <c r="P98">
         <f t="shared" si="12"/>
-        <v>953</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -29754,7 +29792,7 @@
       </c>
       <c r="J99" s="8">
         <f t="shared" si="14"/>
-        <v>967</v>
+        <v>1382</v>
       </c>
       <c r="K99" s="1">
         <f t="shared" si="15"/>
@@ -29774,7 +29812,7 @@
       </c>
       <c r="P99">
         <f t="shared" si="12"/>
-        <v>967</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -29813,7 +29851,7 @@
       </c>
       <c r="J100" s="8">
         <f t="shared" si="14"/>
-        <v>982</v>
+        <v>1394</v>
       </c>
       <c r="K100" s="1">
         <f t="shared" si="15"/>
@@ -29833,7 +29871,7 @@
       </c>
       <c r="P100">
         <f t="shared" si="12"/>
-        <v>982</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -29872,7 +29910,7 @@
       </c>
       <c r="J101" s="8">
         <f t="shared" si="14"/>
-        <v>998</v>
+        <v>1406</v>
       </c>
       <c r="K101" s="1">
         <f t="shared" si="15"/>
@@ -29892,7 +29930,7 @@
       </c>
       <c r="P101">
         <f t="shared" si="12"/>
-        <v>998</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -29931,7 +29969,7 @@
       </c>
       <c r="J102" s="8">
         <f t="shared" si="14"/>
-        <v>1015</v>
+        <v>1419</v>
       </c>
       <c r="K102" s="1">
         <f t="shared" si="15"/>
@@ -29951,7 +29989,7 @@
       </c>
       <c r="P102">
         <f t="shared" si="12"/>
-        <v>1015</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -29990,7 +30028,7 @@
       </c>
       <c r="J103" s="8">
         <f t="shared" si="14"/>
-        <v>1033</v>
+        <v>1433</v>
       </c>
       <c r="K103" s="1">
         <f t="shared" si="15"/>
@@ -30010,7 +30048,7 @@
       </c>
       <c r="P103">
         <f t="shared" si="12"/>
-        <v>1033</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -30049,7 +30087,7 @@
       </c>
       <c r="J104" s="8">
         <f t="shared" si="14"/>
-        <v>1054</v>
+        <v>1449</v>
       </c>
       <c r="K104" s="1">
         <f t="shared" si="15"/>
@@ -30069,7 +30107,7 @@
       </c>
       <c r="P104">
         <f t="shared" si="12"/>
-        <v>1054</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -30108,7 +30146,7 @@
       </c>
       <c r="J105" s="8">
         <f t="shared" si="14"/>
-        <v>1076</v>
+        <v>1466</v>
       </c>
       <c r="K105" s="1">
         <f t="shared" si="15"/>
@@ -30128,7 +30166,7 @@
       </c>
       <c r="P105">
         <f t="shared" si="12"/>
-        <v>1076</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -30167,7 +30205,7 @@
       </c>
       <c r="J106" s="8">
         <f t="shared" si="14"/>
-        <v>1099</v>
+        <v>1483</v>
       </c>
       <c r="K106" s="1">
         <f t="shared" si="15"/>
@@ -30187,7 +30225,7 @@
       </c>
       <c r="P106">
         <f t="shared" si="12"/>
-        <v>1099</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -30226,7 +30264,7 @@
       </c>
       <c r="J107" s="8">
         <f t="shared" si="14"/>
-        <v>1124</v>
+        <v>1502</v>
       </c>
       <c r="K107" s="1">
         <f t="shared" si="15"/>
@@ -30246,7 +30284,7 @@
       </c>
       <c r="P107">
         <f t="shared" si="12"/>
-        <v>1124</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -30285,7 +30323,7 @@
       </c>
       <c r="J108" s="8">
         <f t="shared" si="14"/>
-        <v>1151</v>
+        <v>1522</v>
       </c>
       <c r="K108" s="1">
         <f t="shared" si="15"/>
@@ -30305,7 +30343,7 @@
       </c>
       <c r="P108">
         <f t="shared" si="12"/>
-        <v>1151</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -30344,7 +30382,7 @@
       </c>
       <c r="J109" s="8">
         <f t="shared" si="14"/>
-        <v>1180</v>
+        <v>1544</v>
       </c>
       <c r="K109" s="1">
         <f t="shared" si="15"/>
@@ -30364,7 +30402,7 @@
       </c>
       <c r="P109">
         <f t="shared" si="12"/>
-        <v>1180</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -30403,7 +30441,7 @@
       </c>
       <c r="J110" s="8">
         <f t="shared" si="14"/>
-        <v>1212</v>
+        <v>1568</v>
       </c>
       <c r="K110" s="1">
         <f t="shared" si="15"/>
@@ -30423,7 +30461,7 @@
       </c>
       <c r="P110">
         <f t="shared" si="12"/>
-        <v>1212</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -30462,7 +30500,7 @@
       </c>
       <c r="J111" s="8">
         <f t="shared" si="14"/>
-        <v>1246</v>
+        <v>1594</v>
       </c>
       <c r="K111" s="1">
         <f t="shared" si="15"/>
@@ -30482,7 +30520,7 @@
       </c>
       <c r="P111">
         <f t="shared" si="12"/>
-        <v>1246</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -30521,7 +30559,7 @@
       </c>
       <c r="J112" s="8">
         <f t="shared" si="14"/>
-        <v>1283</v>
+        <v>1622</v>
       </c>
       <c r="K112" s="1">
         <f t="shared" si="15"/>
@@ -30541,7 +30579,7 @@
       </c>
       <c r="P112">
         <f t="shared" si="12"/>
-        <v>1283</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -30580,7 +30618,7 @@
       </c>
       <c r="J113" s="8">
         <f t="shared" si="14"/>
-        <v>1323</v>
+        <v>1653</v>
       </c>
       <c r="K113" s="1">
         <f t="shared" si="15"/>
@@ -30600,7 +30638,7 @@
       </c>
       <c r="P113">
         <f t="shared" si="12"/>
-        <v>1323</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -30639,7 +30677,7 @@
       </c>
       <c r="J114" s="8">
         <f t="shared" si="14"/>
-        <v>1366</v>
+        <v>1686</v>
       </c>
       <c r="K114" s="1">
         <f t="shared" si="15"/>
@@ -30659,7 +30697,7 @@
       </c>
       <c r="P114">
         <f t="shared" si="12"/>
-        <v>1366</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -30698,7 +30736,7 @@
       </c>
       <c r="J115" s="8">
         <f t="shared" si="14"/>
-        <v>1412</v>
+        <v>1721</v>
       </c>
       <c r="K115" s="1">
         <f t="shared" si="15"/>
@@ -30718,7 +30756,7 @@
       </c>
       <c r="P115">
         <f t="shared" si="12"/>
-        <v>1412</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -30757,7 +30795,7 @@
       </c>
       <c r="J116" s="8">
         <f t="shared" si="14"/>
-        <v>1462</v>
+        <v>1758</v>
       </c>
       <c r="K116" s="1">
         <f t="shared" si="15"/>
@@ -30777,7 +30815,7 @@
       </c>
       <c r="P116">
         <f t="shared" si="12"/>
-        <v>1462</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -30816,7 +30854,7 @@
       </c>
       <c r="J117" s="8">
         <f t="shared" si="14"/>
-        <v>1516</v>
+        <v>1799</v>
       </c>
       <c r="K117" s="1">
         <f t="shared" si="15"/>
@@ -30836,7 +30874,7 @@
       </c>
       <c r="P117">
         <f t="shared" si="12"/>
-        <v>1516</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -30875,7 +30913,7 @@
       </c>
       <c r="J118" s="8">
         <f t="shared" si="14"/>
-        <v>1574</v>
+        <v>1843</v>
       </c>
       <c r="K118" s="1">
         <f t="shared" si="15"/>
@@ -30895,7 +30933,7 @@
       </c>
       <c r="P118">
         <f t="shared" si="12"/>
-        <v>1574</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -30934,7 +30972,7 @@
       </c>
       <c r="J119" s="8">
         <f t="shared" si="14"/>
-        <v>1636</v>
+        <v>1890</v>
       </c>
       <c r="K119" s="1">
         <f t="shared" si="15"/>
@@ -30954,7 +30992,7 @@
       </c>
       <c r="P119">
         <f t="shared" ref="P119:P134" si="30">J119</f>
-        <v>1636</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -30993,7 +31031,7 @@
       </c>
       <c r="J120" s="8">
         <f t="shared" ref="J120:J134" si="31">J119+ROUND(($E$1/$D$2)*G119*(I119/$D$3),0)-ROUND(I119/$D$2,0)</f>
-        <v>1703</v>
+        <v>1941</v>
       </c>
       <c r="K120" s="1">
         <f t="shared" si="15"/>
@@ -31013,7 +31051,7 @@
       </c>
       <c r="P120">
         <f t="shared" si="30"/>
-        <v>1703</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -31052,7 +31090,7 @@
       </c>
       <c r="J121" s="8">
         <f t="shared" si="31"/>
-        <v>1776</v>
+        <v>1996</v>
       </c>
       <c r="K121" s="1">
         <f t="shared" si="15"/>
@@ -31072,7 +31110,7 @@
       </c>
       <c r="P121">
         <f t="shared" si="30"/>
-        <v>1776</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -31111,7 +31149,7 @@
       </c>
       <c r="J122" s="8">
         <f t="shared" si="31"/>
-        <v>1854</v>
+        <v>2055</v>
       </c>
       <c r="K122" s="1">
         <f t="shared" si="15"/>
@@ -31131,7 +31169,7 @@
       </c>
       <c r="P122">
         <f t="shared" si="30"/>
-        <v>1854</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -31170,7 +31208,7 @@
       </c>
       <c r="J123" s="8">
         <f t="shared" si="31"/>
-        <v>1939</v>
+        <v>2119</v>
       </c>
       <c r="K123" s="1">
         <f t="shared" si="15"/>
@@ -31190,7 +31228,7 @@
       </c>
       <c r="P123">
         <f t="shared" si="30"/>
-        <v>1939</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -31229,7 +31267,7 @@
       </c>
       <c r="J124" s="8">
         <f t="shared" si="31"/>
-        <v>2030</v>
+        <v>2188</v>
       </c>
       <c r="K124" s="1">
         <f t="shared" si="15"/>
@@ -31249,7 +31287,7 @@
       </c>
       <c r="P124">
         <f t="shared" si="30"/>
-        <v>2030</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -31288,7 +31326,7 @@
       </c>
       <c r="J125" s="8">
         <f t="shared" si="31"/>
-        <v>2129</v>
+        <v>2263</v>
       </c>
       <c r="K125" s="1">
         <f t="shared" si="15"/>
@@ -31312,7 +31350,7 @@
       </c>
       <c r="P125">
         <f t="shared" si="30"/>
-        <v>2129</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -31351,7 +31389,7 @@
       </c>
       <c r="J126" s="8">
         <f t="shared" si="31"/>
-        <v>2235</v>
+        <v>2343</v>
       </c>
       <c r="K126" s="3">
         <f t="shared" si="15"/>
@@ -31375,7 +31413,7 @@
       </c>
       <c r="P126" s="4">
         <f t="shared" si="30"/>
-        <v>2235</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -31414,7 +31452,7 @@
       </c>
       <c r="J127" s="8">
         <f t="shared" si="31"/>
-        <v>2350</v>
+        <v>2430</v>
       </c>
       <c r="K127" s="3">
         <f t="shared" si="15"/>
@@ -31438,7 +31476,7 @@
       </c>
       <c r="P127" s="4">
         <f t="shared" si="30"/>
-        <v>2350</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -31477,7 +31515,7 @@
       </c>
       <c r="J128" s="8">
         <f t="shared" si="31"/>
-        <v>2474</v>
+        <v>2524</v>
       </c>
       <c r="K128" s="3">
         <f t="shared" si="15"/>
@@ -31501,7 +31539,7 @@
       </c>
       <c r="P128" s="4">
         <f t="shared" si="30"/>
-        <v>2474</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -31540,7 +31578,7 @@
       </c>
       <c r="J129" s="8">
         <f t="shared" si="31"/>
-        <v>2607</v>
+        <v>2624</v>
       </c>
       <c r="K129" s="3">
         <f t="shared" si="15"/>
@@ -31564,7 +31602,7 @@
       </c>
       <c r="P129" s="4">
         <f t="shared" si="30"/>
-        <v>2607</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -31603,7 +31641,7 @@
       </c>
       <c r="J130" s="8">
         <f t="shared" si="31"/>
-        <v>2751</v>
+        <v>2733</v>
       </c>
       <c r="K130" s="3">
         <f t="shared" si="15"/>
@@ -31627,7 +31665,7 @@
       </c>
       <c r="P130" s="4">
         <f t="shared" si="30"/>
-        <v>2751</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -31638,15 +31676,15 @@
         <v>126</v>
       </c>
       <c r="C131" s="4">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="35"/>
-        <v>59992785</v>
+        <v>59992783</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="36"/>
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="F131" s="4">
         <f t="shared" si="37"/>
@@ -31654,7 +31692,7 @@
       </c>
       <c r="G131" s="2">
         <f t="shared" si="38"/>
-        <v>59992785</v>
+        <v>59992783</v>
       </c>
       <c r="H131" s="2">
         <f t="shared" si="39"/>
@@ -31666,7 +31704,7 @@
       </c>
       <c r="J131" s="8">
         <f t="shared" si="31"/>
-        <v>2906</v>
+        <v>2850</v>
       </c>
       <c r="K131" s="3">
         <f t="shared" si="15"/>
@@ -31674,7 +31712,7 @@
       </c>
       <c r="L131" s="4">
         <f t="shared" ref="L131" si="46">E131</f>
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="M131" s="4">
         <f>RealData!B128</f>
@@ -31682,7 +31720,7 @@
       </c>
       <c r="N131" s="4">
         <f t="shared" si="41"/>
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="O131" s="4">
         <f t="shared" si="29"/>
@@ -31690,7 +31728,7 @@
       </c>
       <c r="P131" s="4">
         <f t="shared" si="30"/>
-        <v>2906</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -31701,23 +31739,23 @@
         <v>127</v>
       </c>
       <c r="C132" s="4">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" si="35"/>
-        <v>59992441</v>
+        <v>59992436</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" si="36"/>
-        <v>2955</v>
+        <v>2959</v>
       </c>
       <c r="F132" s="4">
         <f t="shared" si="37"/>
-        <v>4604</v>
+        <v>4605</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" si="38"/>
-        <v>59992441</v>
+        <v>59992436</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" si="39"/>
@@ -31729,17 +31767,23 @@
       </c>
       <c r="J132" s="8">
         <f t="shared" si="31"/>
-        <v>3073</v>
+        <v>2976</v>
       </c>
       <c r="K132" s="3">
         <f t="shared" si="15"/>
         <v>44145</v>
       </c>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
+      <c r="L132" s="4">
+        <f t="shared" ref="L132" si="47">E132</f>
+        <v>2959</v>
+      </c>
+      <c r="M132" s="4">
+        <f>RealData!B129</f>
+        <v>2971</v>
+      </c>
       <c r="N132" s="4">
         <f t="shared" si="41"/>
-        <v>2955</v>
+        <v>2959</v>
       </c>
       <c r="O132" s="4">
         <f t="shared" si="29"/>
@@ -31747,7 +31791,7 @@
       </c>
       <c r="P132" s="4">
         <f t="shared" si="30"/>
-        <v>3073</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -31758,26 +31802,26 @@
         <v>128</v>
       </c>
       <c r="C133" s="10">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="D133" s="10">
-        <f t="shared" ref="D133:D134" si="47">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
-        <v>59992084</v>
+        <f t="shared" ref="D133:D134" si="48">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <v>59992076</v>
       </c>
       <c r="E133" s="10">
-        <f t="shared" ref="E133:E134" si="48">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
-        <v>3066</v>
+        <f t="shared" ref="E133:E134" si="49">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <v>3072</v>
       </c>
       <c r="F133" s="10">
-        <f t="shared" ref="F133:F134" si="49">F132+ROUND(E132/$D$2,0)</f>
-        <v>4850</v>
+        <f t="shared" ref="F133:F134" si="50">F132+ROUND(E132/$D$2,0)</f>
+        <v>4852</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="50">D133</f>
-        <v>59992084</v>
+        <f t="shared" ref="G133:G134" si="51">D133</f>
+        <v>59992076</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" ref="H133:H134" si="51">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <f t="shared" ref="H133:H134" si="52">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
         <v>4403</v>
       </c>
       <c r="I133" s="7">
@@ -31786,7 +31830,7 @@
       </c>
       <c r="J133" s="8">
         <f t="shared" si="31"/>
-        <v>3254</v>
+        <v>3112</v>
       </c>
       <c r="K133" s="9">
         <f t="shared" si="15"/>
@@ -31796,7 +31840,7 @@
       <c r="M133" s="10"/>
       <c r="N133" s="10">
         <f t="shared" si="41"/>
-        <v>3066</v>
+        <v>3072</v>
       </c>
       <c r="O133" s="10">
         <f t="shared" si="29"/>
@@ -31804,7 +31848,7 @@
       </c>
       <c r="P133" s="10">
         <f t="shared" si="30"/>
-        <v>3254</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -31815,26 +31859,26 @@
         <v>129</v>
       </c>
       <c r="C134" s="10">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="D134" s="10">
-        <f t="shared" si="47"/>
-        <v>59991714</v>
+        <f t="shared" si="48"/>
+        <v>59991702</v>
       </c>
       <c r="E134" s="10">
-        <f t="shared" si="48"/>
-        <v>3180</v>
+        <f t="shared" si="49"/>
+        <v>3190</v>
       </c>
       <c r="F134" s="10">
-        <f t="shared" si="49"/>
-        <v>5106</v>
+        <f t="shared" si="50"/>
+        <v>5108</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="50"/>
-        <v>59991714</v>
+        <f t="shared" si="51"/>
+        <v>59991702</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>4748</v>
       </c>
       <c r="I134" s="7">
@@ -31843,7 +31887,7 @@
       </c>
       <c r="J134" s="8">
         <f t="shared" si="31"/>
-        <v>3448</v>
+        <v>3259</v>
       </c>
       <c r="K134" s="9">
         <f t="shared" si="15"/>
@@ -31853,7 +31897,7 @@
       <c r="M134" s="10"/>
       <c r="N134" s="10">
         <f t="shared" si="41"/>
-        <v>3180</v>
+        <v>3190</v>
       </c>
       <c r="O134" s="10">
         <f t="shared" si="29"/>
@@ -31861,7 +31905,7 @@
       </c>
       <c r="P134" s="10">
         <f t="shared" si="30"/>
-        <v>3448</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -31872,53 +31916,53 @@
         <v>130</v>
       </c>
       <c r="C135" s="10">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="D135" s="10">
-        <f t="shared" ref="D135:D139" si="52">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
-        <v>59991330</v>
+        <f t="shared" ref="D135:D139" si="53">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
+        <v>59991314</v>
       </c>
       <c r="E135" s="10">
-        <f t="shared" ref="E135:E139" si="53">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
-        <v>3299</v>
+        <f t="shared" ref="E135:E139" si="54">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
+        <v>3312</v>
       </c>
       <c r="F135" s="10">
-        <f t="shared" ref="F135:F139" si="54">F134+ROUND(E134/$D$2,0)</f>
-        <v>5371</v>
+        <f t="shared" ref="F135:F139" si="55">F134+ROUND(E134/$D$2,0)</f>
+        <v>5374</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" ref="G135:G139" si="55">D135</f>
-        <v>59991330</v>
+        <f t="shared" ref="G135:G139" si="56">D135</f>
+        <v>59991314</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H139" si="56">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
+        <f t="shared" ref="H135:H139" si="57">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" ref="I135:I139" si="57">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="I135:I139" si="58">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="J135" s="8">
-        <f t="shared" ref="J135:J139" si="58">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
-        <v>3657</v>
+        <f t="shared" ref="J135:J139" si="59">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <v>3417</v>
       </c>
       <c r="K135" s="9">
-        <f t="shared" ref="K135:K139" si="59">A135</f>
+        <f t="shared" ref="K135:K139" si="60">A135</f>
         <v>44148</v>
       </c>
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
       <c r="N135" s="10">
-        <f t="shared" ref="N135:N139" si="60">E135</f>
-        <v>3299</v>
+        <f t="shared" ref="N135:N139" si="61">E135</f>
+        <v>3312</v>
       </c>
       <c r="O135" s="10">
-        <f t="shared" ref="O135:O139" si="61">I135</f>
+        <f t="shared" ref="O135:O139" si="62">I135</f>
         <v>5119</v>
       </c>
       <c r="P135" s="10">
-        <f t="shared" ref="P135:P139" si="62">J135</f>
-        <v>3657</v>
+        <f t="shared" ref="P135:P139" si="63">J135</f>
+        <v>3417</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -31929,53 +31973,53 @@
         <v>131</v>
       </c>
       <c r="C136" s="10">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="D136" s="10">
-        <f t="shared" si="52"/>
-        <v>59990931</v>
+        <f t="shared" si="53"/>
+        <v>59990911</v>
       </c>
       <c r="E136" s="10">
-        <f t="shared" si="53"/>
-        <v>3423</v>
+        <f t="shared" si="54"/>
+        <v>3439</v>
       </c>
       <c r="F136" s="10">
-        <f t="shared" si="54"/>
-        <v>5646</v>
+        <f t="shared" si="55"/>
+        <v>5650</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="55"/>
-        <v>59990931</v>
+        <f t="shared" si="56"/>
+        <v>59990911</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="56"/>
-        <v>5519</v>
-      </c>
-      <c r="I136" s="7">
         <f t="shared" si="57"/>
         <v>5519</v>
       </c>
+      <c r="I136" s="7">
+        <f t="shared" si="58"/>
+        <v>5519</v>
+      </c>
       <c r="J136" s="8">
-        <f t="shared" si="58"/>
-        <v>3883</v>
+        <f t="shared" si="59"/>
+        <v>3587</v>
       </c>
       <c r="K136" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44149</v>
       </c>
       <c r="L136" s="10"/>
       <c r="M136" s="10"/>
       <c r="N136" s="10">
-        <f t="shared" si="60"/>
-        <v>3423</v>
+        <f t="shared" si="61"/>
+        <v>3439</v>
       </c>
       <c r="O136" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>5519</v>
       </c>
       <c r="P136" s="10">
-        <f t="shared" si="62"/>
-        <v>3883</v>
+        <f t="shared" si="63"/>
+        <v>3587</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -31986,53 +32030,53 @@
         <v>132</v>
       </c>
       <c r="C137" s="10">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="D137" s="10">
-        <f t="shared" si="52"/>
-        <v>59990517</v>
+        <f t="shared" si="53"/>
+        <v>59990493</v>
       </c>
       <c r="E137" s="10">
-        <f t="shared" si="53"/>
-        <v>3552</v>
+        <f t="shared" si="54"/>
+        <v>3570</v>
       </c>
       <c r="F137" s="10">
-        <f t="shared" si="54"/>
-        <v>5931</v>
+        <f t="shared" si="55"/>
+        <v>5937</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="55"/>
-        <v>59990517</v>
+        <f t="shared" si="56"/>
+        <v>59990493</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="56"/>
-        <v>5951</v>
-      </c>
-      <c r="I137" s="7">
         <f t="shared" si="57"/>
         <v>5951</v>
       </c>
+      <c r="I137" s="7">
+        <f t="shared" si="58"/>
+        <v>5951</v>
+      </c>
       <c r="J137" s="8">
-        <f t="shared" si="58"/>
-        <v>4127</v>
+        <f t="shared" si="59"/>
+        <v>3771</v>
       </c>
       <c r="K137" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44150</v>
       </c>
       <c r="L137" s="10"/>
       <c r="M137" s="10"/>
       <c r="N137" s="10">
-        <f t="shared" si="60"/>
-        <v>3552</v>
+        <f t="shared" si="61"/>
+        <v>3570</v>
       </c>
       <c r="O137" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>5951</v>
       </c>
       <c r="P137" s="10">
-        <f t="shared" si="62"/>
-        <v>4127</v>
+        <f t="shared" si="63"/>
+        <v>3771</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
@@ -32043,53 +32087,53 @@
         <v>133</v>
       </c>
       <c r="C138" s="10">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="D138" s="10">
-        <f t="shared" si="52"/>
-        <v>59990088</v>
+        <f t="shared" si="53"/>
+        <v>59990059</v>
       </c>
       <c r="E138" s="10">
-        <f t="shared" si="53"/>
-        <v>3685</v>
+        <f t="shared" si="54"/>
+        <v>3706</v>
       </c>
       <c r="F138" s="10">
-        <f t="shared" si="54"/>
-        <v>6227</v>
+        <f t="shared" si="55"/>
+        <v>6235</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="55"/>
-        <v>59990088</v>
+        <f t="shared" si="56"/>
+        <v>59990059</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="56"/>
-        <v>6417</v>
-      </c>
-      <c r="I138" s="7">
         <f t="shared" si="57"/>
         <v>6417</v>
       </c>
+      <c r="I138" s="7">
+        <f t="shared" si="58"/>
+        <v>6417</v>
+      </c>
       <c r="J138" s="8">
-        <f t="shared" si="58"/>
-        <v>4390</v>
+        <f t="shared" si="59"/>
+        <v>3969</v>
       </c>
       <c r="K138" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44151</v>
       </c>
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
       <c r="N138" s="10">
-        <f t="shared" si="60"/>
-        <v>3685</v>
+        <f t="shared" si="61"/>
+        <v>3706</v>
       </c>
       <c r="O138" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>6417</v>
       </c>
       <c r="P138" s="10">
-        <f t="shared" si="62"/>
-        <v>4390</v>
+        <f t="shared" si="63"/>
+        <v>3969</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
@@ -32100,53 +32144,53 @@
         <v>134</v>
       </c>
       <c r="C139" s="10">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="D139" s="10">
-        <f t="shared" si="52"/>
-        <v>59989643</v>
+        <f t="shared" si="53"/>
+        <v>59989608</v>
       </c>
       <c r="E139" s="10">
-        <f t="shared" si="53"/>
-        <v>3823</v>
+        <f t="shared" si="54"/>
+        <v>3848</v>
       </c>
       <c r="F139" s="10">
-        <f t="shared" si="54"/>
-        <v>6534</v>
+        <f t="shared" si="55"/>
+        <v>6544</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="55"/>
-        <v>59989643</v>
+        <f t="shared" si="56"/>
+        <v>59989608</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="56"/>
-        <v>6919</v>
-      </c>
-      <c r="I139" s="7">
         <f t="shared" si="57"/>
         <v>6919</v>
       </c>
+      <c r="I139" s="7">
+        <f t="shared" si="58"/>
+        <v>6919</v>
+      </c>
       <c r="J139" s="8">
-        <f t="shared" si="58"/>
-        <v>4673</v>
+        <f t="shared" si="59"/>
+        <v>4183</v>
       </c>
       <c r="K139" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>44152</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
       <c r="N139" s="10">
-        <f t="shared" si="60"/>
-        <v>3823</v>
+        <f t="shared" si="61"/>
+        <v>3848</v>
       </c>
       <c r="O139" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>6919</v>
       </c>
       <c r="P139" s="10">
-        <f t="shared" si="62"/>
-        <v>4673</v>
+        <f t="shared" si="63"/>
+        <v>4183</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA03B19-F935-4B06-8B8E-2CAE4272B873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C30E16-CC5A-4F86-A3B7-8A3EC96FC2B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="23160" yWindow="705" windowWidth="15720" windowHeight="11460" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -682,6 +682,9 @@
                 <c:pt idx="62">
                   <c:v>2959</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>3072</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1127,6 +1130,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2971</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3123,6 +3129,9 @@
                 <c:pt idx="126">
                   <c:v>2959</c:v>
                 </c:pt>
+                <c:pt idx="127">
+                  <c:v>3072</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3954,6 +3963,9 @@
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>2971</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7461,6 +7473,9 @@
                 <c:pt idx="126">
                   <c:v>2959</c:v>
                 </c:pt>
+                <c:pt idx="127">
+                  <c:v>3072</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8295,6 +8310,9 @@
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>2971</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9322,6 +9340,9 @@
                 <c:pt idx="30">
                   <c:v>2959</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>3072</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9575,6 +9596,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2971</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23818,10 +23842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K129"/>
+  <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128:A129"/>
+      <selection activeCell="A129" sqref="A129:A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24860,6 +24884,14 @@
         <v>2971</v>
       </c>
     </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B130">
+        <v>3081</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24870,8 +24902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA28" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="L143" sqref="L143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31836,8 +31868,14 @@
         <f t="shared" si="15"/>
         <v>44146</v>
       </c>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10"/>
+      <c r="L133" s="10">
+        <f t="shared" ref="L133" si="53">E133</f>
+        <v>3072</v>
+      </c>
+      <c r="M133" s="10">
+        <f>RealData!B130</f>
+        <v>3081</v>
+      </c>
       <c r="N133" s="10">
         <f t="shared" si="41"/>
         <v>3072</v>
@@ -31919,49 +31957,49 @@
         <v>1.46</v>
       </c>
       <c r="D135" s="10">
-        <f t="shared" ref="D135:D139" si="53">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
+        <f t="shared" ref="D135:D139" si="54">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
         <v>59991314</v>
       </c>
       <c r="E135" s="10">
-        <f t="shared" ref="E135:E139" si="54">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
+        <f t="shared" ref="E135:E139" si="55">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
         <v>3312</v>
       </c>
       <c r="F135" s="10">
-        <f t="shared" ref="F135:F139" si="55">F134+ROUND(E134/$D$2,0)</f>
+        <f t="shared" ref="F135:F139" si="56">F134+ROUND(E134/$D$2,0)</f>
         <v>5374</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" ref="G135:G139" si="56">D135</f>
+        <f t="shared" ref="G135:G139" si="57">D135</f>
         <v>59991314</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H139" si="57">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
+        <f t="shared" ref="H135:H139" si="58">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" ref="I135:I139" si="58">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="I135:I139" si="59">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="J135" s="8">
-        <f t="shared" ref="J135:J139" si="59">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="J135:J139" si="60">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>3417</v>
       </c>
       <c r="K135" s="9">
-        <f t="shared" ref="K135:K139" si="60">A135</f>
+        <f t="shared" ref="K135:K139" si="61">A135</f>
         <v>44148</v>
       </c>
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
       <c r="N135" s="10">
-        <f t="shared" ref="N135:N139" si="61">E135</f>
+        <f t="shared" ref="N135:N139" si="62">E135</f>
         <v>3312</v>
       </c>
       <c r="O135" s="10">
-        <f t="shared" ref="O135:O139" si="62">I135</f>
+        <f t="shared" ref="O135:O139" si="63">I135</f>
         <v>5119</v>
       </c>
       <c r="P135" s="10">
-        <f t="shared" ref="P135:P139" si="63">J135</f>
+        <f t="shared" ref="P135:P139" si="64">J135</f>
         <v>3417</v>
       </c>
     </row>
@@ -31976,49 +32014,49 @@
         <v>1.46</v>
       </c>
       <c r="D136" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>59990911</v>
       </c>
       <c r="E136" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3439</v>
       </c>
       <c r="F136" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>5650</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>59990911</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="57"/>
-        <v>5519</v>
-      </c>
-      <c r="I136" s="7">
         <f t="shared" si="58"/>
         <v>5519</v>
       </c>
+      <c r="I136" s="7">
+        <f t="shared" si="59"/>
+        <v>5519</v>
+      </c>
       <c r="J136" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>3587</v>
       </c>
       <c r="K136" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>44149</v>
       </c>
       <c r="L136" s="10"/>
       <c r="M136" s="10"/>
       <c r="N136" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3439</v>
       </c>
       <c r="O136" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>5519</v>
       </c>
       <c r="P136" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3587</v>
       </c>
     </row>
@@ -32033,49 +32071,49 @@
         <v>1.46</v>
       </c>
       <c r="D137" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>59990493</v>
       </c>
       <c r="E137" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3570</v>
       </c>
       <c r="F137" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>5937</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>59990493</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="57"/>
-        <v>5951</v>
-      </c>
-      <c r="I137" s="7">
         <f t="shared" si="58"/>
         <v>5951</v>
       </c>
+      <c r="I137" s="7">
+        <f t="shared" si="59"/>
+        <v>5951</v>
+      </c>
       <c r="J137" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>3771</v>
       </c>
       <c r="K137" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>44150</v>
       </c>
       <c r="L137" s="10"/>
       <c r="M137" s="10"/>
       <c r="N137" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3570</v>
       </c>
       <c r="O137" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>5951</v>
       </c>
       <c r="P137" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3771</v>
       </c>
     </row>
@@ -32090,49 +32128,49 @@
         <v>1.46</v>
       </c>
       <c r="D138" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>59990059</v>
       </c>
       <c r="E138" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3706</v>
       </c>
       <c r="F138" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6235</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>59990059</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="57"/>
-        <v>6417</v>
-      </c>
-      <c r="I138" s="7">
         <f t="shared" si="58"/>
         <v>6417</v>
       </c>
+      <c r="I138" s="7">
+        <f t="shared" si="59"/>
+        <v>6417</v>
+      </c>
       <c r="J138" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>3969</v>
       </c>
       <c r="K138" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>44151</v>
       </c>
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
       <c r="N138" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3706</v>
       </c>
       <c r="O138" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>6417</v>
       </c>
       <c r="P138" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3969</v>
       </c>
     </row>
@@ -32147,49 +32185,49 @@
         <v>1.46</v>
       </c>
       <c r="D139" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>59989608</v>
       </c>
       <c r="E139" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3848</v>
       </c>
       <c r="F139" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6544</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>59989608</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="57"/>
-        <v>6919</v>
-      </c>
-      <c r="I139" s="7">
         <f t="shared" si="58"/>
         <v>6919</v>
       </c>
+      <c r="I139" s="7">
+        <f t="shared" si="59"/>
+        <v>6919</v>
+      </c>
       <c r="J139" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>4183</v>
       </c>
       <c r="K139" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>44152</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
       <c r="N139" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3848</v>
       </c>
       <c r="O139" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>6919</v>
       </c>
       <c r="P139" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>4183</v>
       </c>
     </row>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C30E16-CC5A-4F86-A3B7-8A3EC96FC2B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121713DB-E1CB-4D43-93B4-734CAD7FA65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="705" windowWidth="15720" windowHeight="11460" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -285,10 +285,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$70:$K$134</c:f>
+              <c:f>Model!$K$70:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>44083.708333333336</c:v>
                 </c:pt>
@@ -483,16 +483,31 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$70:$L$134</c:f>
+              <c:f>Model!$L$70:$L$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>162</c:v>
                 </c:pt>
@@ -684,6 +699,18 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3154</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3238</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3324</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,10 +761,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$70:$K$134</c:f>
+              <c:f>Model!$K$70:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>44083.708333333336</c:v>
                 </c:pt>
@@ -932,16 +959,31 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$70:$M$134</c:f>
+              <c:f>Model!$M$70:$M$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
                 </c:pt>
@@ -1133,6 +1175,18 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3230</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3306</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,10 +1227,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$70:$K$134</c:f>
+              <c:f>Model!$K$70:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>44083.708333333336</c:v>
                 </c:pt>
@@ -1371,16 +1425,31 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$O$70:$O$134</c:f>
+              <c:f>Model!$O$70:$O$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -1575,6 +1644,21 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>4748</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5119</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5519</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5951</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6417</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,10 +1701,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$70:$K$134</c:f>
+              <c:f>Model!$K$70:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>44083.708333333336</c:v>
                 </c:pt>
@@ -1815,16 +1899,31 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$P$70:$P$134</c:f>
+              <c:f>Model!$P$70:$P$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>1251</c:v>
                 </c:pt>
@@ -2019,6 +2118,21 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>3259</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3417</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3587</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3771</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3969</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2345,10 +2459,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$135</c:f>
+              <c:f>Model!$K$6:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -2738,16 +2852,28 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$6:$L$135</c:f>
+              <c:f>Model!$L$6:$L$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -3131,6 +3257,18 @@
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3154</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3238</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3324</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3180,10 +3318,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$135</c:f>
+              <c:f>Model!$K$6:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -3573,16 +3711,28 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$6:$M$135</c:f>
+              <c:f>Model!$M$6:$M$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="130"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -3966,6 +4116,18 @@
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3230</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3306</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7476,6 +7638,18 @@
                 <c:pt idx="127">
                   <c:v>3072</c:v>
                 </c:pt>
+                <c:pt idx="128">
+                  <c:v>3154</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3238</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3324</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3413</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8314,6 +8488,18 @@
                 <c:pt idx="127">
                   <c:v>3081</c:v>
                 </c:pt>
+                <c:pt idx="128">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3230</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3306</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3422</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8796,22 +8982,22 @@
                   <c:v>3072</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3190</c:v>
+                  <c:v>3154</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3312</c:v>
+                  <c:v>3238</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3439</c:v>
+                  <c:v>3324</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3570</c:v>
+                  <c:v>3413</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3706</c:v>
+                  <c:v>3504</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3848</c:v>
+                  <c:v>3597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9135,10 +9321,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$134</c:f>
+              <c:f>Model!$K$102:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -9237,16 +9423,31 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$102:$L$134</c:f>
+              <c:f>Model!$L$102:$L$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>431</c:v>
                 </c:pt>
@@ -9342,6 +9543,18 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3154</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3238</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3324</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9392,10 +9605,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$134</c:f>
+              <c:f>Model!$K$102:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -9494,16 +9707,31 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$102:$M$134</c:f>
+              <c:f>Model!$M$102:$M$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>420</c:v>
                 </c:pt>
@@ -9599,6 +9827,18 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3230</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3306</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9639,10 +9879,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$134</c:f>
+              <c:f>Model!$K$102:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -9741,16 +9981,31 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$O$102:$O$134</c:f>
+              <c:f>Model!$O$102:$O$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>427</c:v>
                 </c:pt>
@@ -9849,6 +10104,21 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>4748</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5119</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5519</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5951</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6417</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9875,11 +10145,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
               <a:round/>
@@ -9891,10 +10159,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$134</c:f>
+              <c:f>Model!$K$102:$K$139</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -9993,16 +10261,31 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$P$102:$P$134</c:f>
+              <c:f>Model!$P$102:$P$139</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1419</c:v>
                 </c:pt>
@@ -10101,6 +10384,21 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3259</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3417</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3587</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3771</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3969</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23842,10 +24140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:A130"/>
+      <selection activeCell="A130" sqref="A130:A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24892,6 +25190,38 @@
         <v>3081</v>
       </c>
     </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B131">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B132">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B133">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B134">
+        <v>3422</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24902,8 +25232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="L143" sqref="L143"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AQ16" sqref="AQ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31897,15 +32227,15 @@
         <v>129</v>
       </c>
       <c r="C134" s="10">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="D134" s="10">
         <f t="shared" si="48"/>
-        <v>59991702</v>
+        <v>59991738</v>
       </c>
       <c r="E134" s="10">
         <f t="shared" si="49"/>
-        <v>3190</v>
+        <v>3154</v>
       </c>
       <c r="F134" s="10">
         <f t="shared" si="50"/>
@@ -31913,7 +32243,7 @@
       </c>
       <c r="G134" s="2">
         <f t="shared" si="51"/>
-        <v>59991702</v>
+        <v>59991738</v>
       </c>
       <c r="H134" s="2">
         <f t="shared" si="52"/>
@@ -31931,11 +32261,17 @@
         <f t="shared" si="15"/>
         <v>44147</v>
       </c>
-      <c r="L134" s="10"/>
-      <c r="M134" s="10"/>
+      <c r="L134" s="10">
+        <f t="shared" ref="L134:L137" si="54">E134</f>
+        <v>3154</v>
+      </c>
+      <c r="M134" s="10">
+        <f>RealData!B131</f>
+        <v>3170</v>
+      </c>
       <c r="N134" s="10">
         <f t="shared" si="41"/>
-        <v>3190</v>
+        <v>3154</v>
       </c>
       <c r="O134" s="10">
         <f t="shared" si="29"/>
@@ -31954,52 +32290,58 @@
         <v>130</v>
       </c>
       <c r="C135" s="10">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="D135" s="10">
-        <f t="shared" ref="D135:D139" si="54">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
-        <v>59991314</v>
+        <f t="shared" ref="D135:D139" si="55">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
+        <v>59991391</v>
       </c>
       <c r="E135" s="10">
-        <f t="shared" ref="E135:E139" si="55">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
-        <v>3312</v>
+        <f t="shared" ref="E135:E139" si="56">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
+        <v>3238</v>
       </c>
       <c r="F135" s="10">
-        <f t="shared" ref="F135:F139" si="56">F134+ROUND(E134/$D$2,0)</f>
-        <v>5374</v>
+        <f t="shared" ref="F135:F139" si="57">F134+ROUND(E134/$D$2,0)</f>
+        <v>5371</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" ref="G135:G139" si="57">D135</f>
-        <v>59991314</v>
+        <f t="shared" ref="G135:G139" si="58">D135</f>
+        <v>59991391</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H139" si="58">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
+        <f t="shared" ref="H135:H139" si="59">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" ref="I135:I139" si="59">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="I135:I139" si="60">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="J135" s="8">
-        <f t="shared" ref="J135:J139" si="60">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="J135:J139" si="61">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>3417</v>
       </c>
       <c r="K135" s="9">
-        <f t="shared" ref="K135:K139" si="61">A135</f>
+        <f t="shared" ref="K135:K139" si="62">A135</f>
         <v>44148</v>
       </c>
-      <c r="L135" s="10"/>
-      <c r="M135" s="10"/>
+      <c r="L135" s="10">
+        <f t="shared" si="54"/>
+        <v>3238</v>
+      </c>
+      <c r="M135" s="10">
+        <f>RealData!B132</f>
+        <v>3230</v>
+      </c>
       <c r="N135" s="10">
-        <f t="shared" ref="N135:N139" si="62">E135</f>
-        <v>3312</v>
+        <f t="shared" ref="N135:N139" si="63">E135</f>
+        <v>3238</v>
       </c>
       <c r="O135" s="10">
-        <f t="shared" ref="O135:O139" si="63">I135</f>
+        <f t="shared" ref="O135:O139" si="64">I135</f>
         <v>5119</v>
       </c>
       <c r="P135" s="10">
-        <f t="shared" ref="P135:P139" si="64">J135</f>
+        <f t="shared" ref="P135:P139" si="65">J135</f>
         <v>3417</v>
       </c>
     </row>
@@ -32011,52 +32353,58 @@
         <v>131</v>
       </c>
       <c r="C136" s="10">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="D136" s="10">
-        <f t="shared" si="54"/>
-        <v>59990911</v>
+        <f t="shared" si="55"/>
+        <v>59991035</v>
       </c>
       <c r="E136" s="10">
-        <f t="shared" si="55"/>
-        <v>3439</v>
+        <f t="shared" si="56"/>
+        <v>3324</v>
       </c>
       <c r="F136" s="10">
-        <f t="shared" si="56"/>
-        <v>5650</v>
+        <f t="shared" si="57"/>
+        <v>5641</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="57"/>
-        <v>59990911</v>
+        <f t="shared" si="58"/>
+        <v>59991035</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="58"/>
-        <v>5519</v>
-      </c>
-      <c r="I136" s="7">
         <f t="shared" si="59"/>
         <v>5519</v>
       </c>
+      <c r="I136" s="7">
+        <f t="shared" si="60"/>
+        <v>5519</v>
+      </c>
       <c r="J136" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3587</v>
       </c>
       <c r="K136" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>44149</v>
       </c>
-      <c r="L136" s="10"/>
-      <c r="M136" s="10"/>
+      <c r="L136" s="10">
+        <f t="shared" si="54"/>
+        <v>3324</v>
+      </c>
+      <c r="M136" s="10">
+        <f>RealData!B133</f>
+        <v>3306</v>
+      </c>
       <c r="N136" s="10">
-        <f t="shared" si="62"/>
-        <v>3439</v>
+        <f t="shared" si="63"/>
+        <v>3324</v>
       </c>
       <c r="O136" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5519</v>
       </c>
       <c r="P136" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>3587</v>
       </c>
     </row>
@@ -32068,52 +32416,58 @@
         <v>132</v>
       </c>
       <c r="C137" s="10">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="D137" s="10">
-        <f t="shared" si="54"/>
-        <v>59990493</v>
+        <f t="shared" si="55"/>
+        <v>59990669</v>
       </c>
       <c r="E137" s="10">
-        <f t="shared" si="55"/>
-        <v>3570</v>
+        <f t="shared" si="56"/>
+        <v>3413</v>
       </c>
       <c r="F137" s="10">
-        <f t="shared" si="56"/>
-        <v>5937</v>
+        <f t="shared" si="57"/>
+        <v>5918</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="57"/>
-        <v>59990493</v>
+        <f t="shared" si="58"/>
+        <v>59990669</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="58"/>
-        <v>5951</v>
-      </c>
-      <c r="I137" s="7">
         <f t="shared" si="59"/>
         <v>5951</v>
       </c>
+      <c r="I137" s="7">
+        <f t="shared" si="60"/>
+        <v>5951</v>
+      </c>
       <c r="J137" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3771</v>
       </c>
       <c r="K137" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>44150</v>
       </c>
-      <c r="L137" s="10"/>
-      <c r="M137" s="10"/>
+      <c r="L137" s="10">
+        <f t="shared" si="54"/>
+        <v>3413</v>
+      </c>
+      <c r="M137" s="10">
+        <f>RealData!B134</f>
+        <v>3422</v>
+      </c>
       <c r="N137" s="10">
-        <f t="shared" si="62"/>
-        <v>3570</v>
+        <f t="shared" si="63"/>
+        <v>3413</v>
       </c>
       <c r="O137" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5951</v>
       </c>
       <c r="P137" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>3771</v>
       </c>
     </row>
@@ -32125,52 +32479,52 @@
         <v>133</v>
       </c>
       <c r="C138" s="10">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="D138" s="10">
-        <f t="shared" si="54"/>
-        <v>59990059</v>
+        <f t="shared" si="55"/>
+        <v>59990294</v>
       </c>
       <c r="E138" s="10">
-        <f t="shared" si="55"/>
-        <v>3706</v>
+        <f t="shared" si="56"/>
+        <v>3504</v>
       </c>
       <c r="F138" s="10">
-        <f t="shared" si="56"/>
-        <v>6235</v>
+        <f t="shared" si="57"/>
+        <v>6202</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="57"/>
-        <v>59990059</v>
+        <f t="shared" si="58"/>
+        <v>59990294</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="58"/>
-        <v>6417</v>
-      </c>
-      <c r="I138" s="7">
         <f t="shared" si="59"/>
         <v>6417</v>
       </c>
+      <c r="I138" s="7">
+        <f t="shared" si="60"/>
+        <v>6417</v>
+      </c>
       <c r="J138" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3969</v>
       </c>
       <c r="K138" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>44151</v>
       </c>
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
       <c r="N138" s="10">
-        <f t="shared" si="62"/>
-        <v>3706</v>
+        <f t="shared" si="63"/>
+        <v>3504</v>
       </c>
       <c r="O138" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>6417</v>
       </c>
       <c r="P138" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>3969</v>
       </c>
     </row>
@@ -32182,52 +32536,52 @@
         <v>134</v>
       </c>
       <c r="C139" s="10">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="D139" s="10">
-        <f t="shared" si="54"/>
-        <v>59989608</v>
+        <f t="shared" si="55"/>
+        <v>59989909</v>
       </c>
       <c r="E139" s="10">
-        <f t="shared" si="55"/>
-        <v>3848</v>
+        <f t="shared" si="56"/>
+        <v>3597</v>
       </c>
       <c r="F139" s="10">
-        <f t="shared" si="56"/>
-        <v>6544</v>
+        <f t="shared" si="57"/>
+        <v>6494</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="57"/>
-        <v>59989608</v>
+        <f t="shared" si="58"/>
+        <v>59989909</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="58"/>
-        <v>6919</v>
-      </c>
-      <c r="I139" s="7">
         <f t="shared" si="59"/>
         <v>6919</v>
       </c>
+      <c r="I139" s="7">
+        <f t="shared" si="60"/>
+        <v>6919</v>
+      </c>
       <c r="J139" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>4183</v>
       </c>
       <c r="K139" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>44152</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
       <c r="N139" s="10">
-        <f t="shared" si="62"/>
-        <v>3848</v>
+        <f t="shared" si="63"/>
+        <v>3597</v>
       </c>
       <c r="O139" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>6919</v>
       </c>
       <c r="P139" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4183</v>
       </c>
     </row>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121713DB-E1CB-4D43-93B4-734CAD7FA65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2023717B-A677-4420-87AD-94D0AEE20D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="23790" yWindow="3090" windowWidth="15720" windowHeight="10920" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -712,6 +712,12 @@
                 <c:pt idx="67">
                   <c:v>3413</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3597</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1187,6 +1193,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>3422</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3492</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3270,6 +3282,12 @@
                 <c:pt idx="131">
                   <c:v>3413</c:v>
                 </c:pt>
+                <c:pt idx="132">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3597</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4128,6 +4146,12 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>3422</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3492</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7650,6 +7674,12 @@
                 <c:pt idx="131">
                   <c:v>3413</c:v>
                 </c:pt>
+                <c:pt idx="132">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3597</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8499,6 +8529,12 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>3422</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3492</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9556,6 +9592,12 @@
                 <c:pt idx="35">
                   <c:v>3413</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3597</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9839,6 +9881,12 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3422</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3492</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24140,10 +24188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:A134"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25222,6 +25270,22 @@
         <v>3422</v>
       </c>
     </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B135">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B136">
+        <v>3612</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25230,10 +25294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
-  <dimension ref="A1:P139"/>
+  <dimension ref="A1:P146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AQ16" sqref="AQ16"/>
+    <sheetView tabSelected="1" topLeftCell="AC25" workbookViewId="0">
+      <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32293,35 +32357,35 @@
         <v>1.32</v>
       </c>
       <c r="D135" s="10">
-        <f t="shared" ref="D135:D139" si="55">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
+        <f t="shared" ref="D135:D141" si="55">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
         <v>59991391</v>
       </c>
       <c r="E135" s="10">
-        <f t="shared" ref="E135:E139" si="56">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
+        <f t="shared" ref="E135:E141" si="56">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
         <v>3238</v>
       </c>
       <c r="F135" s="10">
-        <f t="shared" ref="F135:F139" si="57">F134+ROUND(E134/$D$2,0)</f>
+        <f t="shared" ref="F135:F141" si="57">F134+ROUND(E134/$D$2,0)</f>
         <v>5371</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" ref="G135:G139" si="58">D135</f>
+        <f t="shared" ref="G135:G141" si="58">D135</f>
         <v>59991391</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H139" si="59">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
+        <f t="shared" ref="H135:H141" si="59">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" ref="I135:I139" si="60">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="I135:I141" si="60">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="J135" s="8">
-        <f t="shared" ref="J135:J139" si="61">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="J135:J141" si="61">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>3417</v>
       </c>
       <c r="K135" s="9">
-        <f t="shared" ref="K135:K139" si="62">A135</f>
+        <f t="shared" ref="K135:K141" si="62">A135</f>
         <v>44148</v>
       </c>
       <c r="L135" s="10">
@@ -32333,15 +32397,15 @@
         <v>3230</v>
       </c>
       <c r="N135" s="10">
-        <f t="shared" ref="N135:N139" si="63">E135</f>
+        <f t="shared" ref="N135:N141" si="63">E135</f>
         <v>3238</v>
       </c>
       <c r="O135" s="10">
-        <f t="shared" ref="O135:O139" si="64">I135</f>
+        <f t="shared" ref="O135:O141" si="64">I135</f>
         <v>5119</v>
       </c>
       <c r="P135" s="10">
-        <f t="shared" ref="P135:P139" si="65">J135</f>
+        <f t="shared" ref="P135:P141" si="65">J135</f>
         <v>3417</v>
       </c>
     </row>
@@ -32513,8 +32577,14 @@
         <f t="shared" si="62"/>
         <v>44151</v>
       </c>
-      <c r="L138" s="10"/>
-      <c r="M138" s="10"/>
+      <c r="L138" s="10">
+        <f t="shared" ref="L138:L144" si="66">E138</f>
+        <v>3504</v>
+      </c>
+      <c r="M138" s="10">
+        <f>RealData!B135</f>
+        <v>3492</v>
+      </c>
       <c r="N138" s="10">
         <f t="shared" si="63"/>
         <v>3504</v>
@@ -32570,8 +32640,14 @@
         <f t="shared" si="62"/>
         <v>44152</v>
       </c>
-      <c r="L139" s="10"/>
-      <c r="M139" s="10"/>
+      <c r="L139" s="10">
+        <f t="shared" si="66"/>
+        <v>3597</v>
+      </c>
+      <c r="M139" s="10">
+        <f>RealData!B136</f>
+        <v>3612</v>
+      </c>
       <c r="N139" s="10">
         <f t="shared" si="63"/>
         <v>3597</v>
@@ -32583,6 +32659,405 @@
       <c r="P139" s="10">
         <f t="shared" si="65"/>
         <v>4183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>44153</v>
+      </c>
+      <c r="B140" s="4">
+        <v>128</v>
+      </c>
+      <c r="C140" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="D140" s="4">
+        <f t="shared" si="55"/>
+        <v>59989555</v>
+      </c>
+      <c r="E140" s="4">
+        <f t="shared" si="56"/>
+        <v>3651</v>
+      </c>
+      <c r="F140" s="4">
+        <f t="shared" si="57"/>
+        <v>6794</v>
+      </c>
+      <c r="G140" s="2">
+        <f t="shared" si="58"/>
+        <v>59989555</v>
+      </c>
+      <c r="H140" s="2">
+        <f t="shared" si="59"/>
+        <v>7460</v>
+      </c>
+      <c r="I140" s="7">
+        <f t="shared" si="60"/>
+        <v>7460</v>
+      </c>
+      <c r="J140" s="8">
+        <f t="shared" si="61"/>
+        <v>4413</v>
+      </c>
+      <c r="K140" s="3">
+        <f t="shared" si="62"/>
+        <v>44153</v>
+      </c>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4">
+        <f t="shared" si="63"/>
+        <v>3651</v>
+      </c>
+      <c r="O140" s="4">
+        <f t="shared" si="64"/>
+        <v>7460</v>
+      </c>
+      <c r="P140" s="4">
+        <f t="shared" si="65"/>
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>44154</v>
+      </c>
+      <c r="B141" s="4">
+        <v>129</v>
+      </c>
+      <c r="C141" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="D141" s="4">
+        <f t="shared" si="55"/>
+        <v>59989196</v>
+      </c>
+      <c r="E141" s="4">
+        <f t="shared" si="56"/>
+        <v>3706</v>
+      </c>
+      <c r="F141" s="4">
+        <f t="shared" si="57"/>
+        <v>7098</v>
+      </c>
+      <c r="G141" s="2">
+        <f t="shared" si="58"/>
+        <v>59989196</v>
+      </c>
+      <c r="H141" s="2">
+        <f t="shared" si="59"/>
+        <v>8044</v>
+      </c>
+      <c r="I141" s="7">
+        <f t="shared" si="60"/>
+        <v>8044</v>
+      </c>
+      <c r="J141" s="8">
+        <f t="shared" si="61"/>
+        <v>4661</v>
+      </c>
+      <c r="K141" s="3">
+        <f t="shared" si="62"/>
+        <v>44154</v>
+      </c>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4">
+        <f t="shared" si="63"/>
+        <v>3706</v>
+      </c>
+      <c r="O141" s="4">
+        <f t="shared" si="64"/>
+        <v>8044</v>
+      </c>
+      <c r="P141" s="4">
+        <f t="shared" si="65"/>
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>44155</v>
+      </c>
+      <c r="B142" s="4">
+        <v>130</v>
+      </c>
+      <c r="C142" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="D142" s="4">
+        <f t="shared" ref="D142:D146" si="67">D141-ROUND((C142/$D$2)*D141*(E141/$D$3),0)</f>
+        <v>59988832</v>
+      </c>
+      <c r="E142" s="4">
+        <f t="shared" ref="E142:E146" si="68">E141+ROUND((C142/$D$2)*D141*(E141/$D$3),0)-ROUND(E141/$D$2,0)</f>
+        <v>3761</v>
+      </c>
+      <c r="F142" s="4">
+        <f t="shared" ref="F142:F146" si="69">F141+ROUND(E141/$D$2,0)</f>
+        <v>7407</v>
+      </c>
+      <c r="G142" s="2">
+        <f t="shared" ref="G142:G146" si="70">D142</f>
+        <v>59988832</v>
+      </c>
+      <c r="H142" s="2">
+        <f t="shared" ref="H142:H146" si="71">H141+ROUND(($D$1/$D$2)*G141*(H141/$D$3),0)-ROUND(H141/$D$2,0)</f>
+        <v>8674</v>
+      </c>
+      <c r="I142" s="7">
+        <f t="shared" ref="I142:I146" si="72">I141+ROUND(($D$1/$D$2)*G141*(I141/$D$3),0)-ROUND(I141/$D$2,0)</f>
+        <v>8674</v>
+      </c>
+      <c r="J142" s="8">
+        <f t="shared" ref="J142:J146" si="73">J141+ROUND(($E$1/$D$2)*G141*(I141/$D$3),0)-ROUND(I141/$D$2,0)</f>
+        <v>4929</v>
+      </c>
+      <c r="K142" s="3">
+        <f t="shared" ref="K142:K146" si="74">A142</f>
+        <v>44155</v>
+      </c>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4">
+        <f t="shared" ref="N142:N146" si="75">E142</f>
+        <v>3761</v>
+      </c>
+      <c r="O142" s="4">
+        <f t="shared" ref="O142:O146" si="76">I142</f>
+        <v>8674</v>
+      </c>
+      <c r="P142" s="4">
+        <f t="shared" ref="P142:P146" si="77">J142</f>
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>44156</v>
+      </c>
+      <c r="B143" s="4">
+        <v>131</v>
+      </c>
+      <c r="C143" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="D143" s="4">
+        <f t="shared" si="67"/>
+        <v>59988462</v>
+      </c>
+      <c r="E143" s="4">
+        <f t="shared" si="68"/>
+        <v>3818</v>
+      </c>
+      <c r="F143" s="4">
+        <f t="shared" si="69"/>
+        <v>7720</v>
+      </c>
+      <c r="G143" s="2">
+        <f t="shared" si="70"/>
+        <v>59988462</v>
+      </c>
+      <c r="H143" s="2">
+        <f t="shared" si="71"/>
+        <v>9353</v>
+      </c>
+      <c r="I143" s="7">
+        <f t="shared" si="72"/>
+        <v>9353</v>
+      </c>
+      <c r="J143" s="8">
+        <f t="shared" si="73"/>
+        <v>5218</v>
+      </c>
+      <c r="K143" s="3">
+        <f t="shared" si="74"/>
+        <v>44156</v>
+      </c>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4">
+        <f t="shared" si="75"/>
+        <v>3818</v>
+      </c>
+      <c r="O143" s="4">
+        <f t="shared" si="76"/>
+        <v>9353</v>
+      </c>
+      <c r="P143" s="4">
+        <f t="shared" si="77"/>
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>44157</v>
+      </c>
+      <c r="B144" s="4">
+        <v>132</v>
+      </c>
+      <c r="C144" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="D144" s="4">
+        <f t="shared" si="67"/>
+        <v>59988087</v>
+      </c>
+      <c r="E144" s="4">
+        <f t="shared" si="68"/>
+        <v>3875</v>
+      </c>
+      <c r="F144" s="4">
+        <f t="shared" si="69"/>
+        <v>8038</v>
+      </c>
+      <c r="G144" s="2">
+        <f t="shared" si="70"/>
+        <v>59988087</v>
+      </c>
+      <c r="H144" s="2">
+        <f t="shared" si="71"/>
+        <v>10086</v>
+      </c>
+      <c r="I144" s="7">
+        <f t="shared" si="72"/>
+        <v>10086</v>
+      </c>
+      <c r="J144" s="8">
+        <f t="shared" si="73"/>
+        <v>5530</v>
+      </c>
+      <c r="K144" s="3">
+        <f t="shared" si="74"/>
+        <v>44157</v>
+      </c>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4">
+        <f t="shared" si="75"/>
+        <v>3875</v>
+      </c>
+      <c r="O144" s="4">
+        <f t="shared" si="76"/>
+        <v>10086</v>
+      </c>
+      <c r="P144" s="4">
+        <f t="shared" si="77"/>
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>44158</v>
+      </c>
+      <c r="B145" s="4">
+        <v>133</v>
+      </c>
+      <c r="C145" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="D145" s="4">
+        <f t="shared" si="67"/>
+        <v>59987706</v>
+      </c>
+      <c r="E145" s="4">
+        <f t="shared" si="68"/>
+        <v>3933</v>
+      </c>
+      <c r="F145" s="4">
+        <f t="shared" si="69"/>
+        <v>8361</v>
+      </c>
+      <c r="G145" s="2">
+        <f t="shared" si="70"/>
+        <v>59987706</v>
+      </c>
+      <c r="H145" s="2">
+        <f t="shared" si="71"/>
+        <v>10875</v>
+      </c>
+      <c r="I145" s="7">
+        <f t="shared" si="72"/>
+        <v>10875</v>
+      </c>
+      <c r="J145" s="8">
+        <f t="shared" si="73"/>
+        <v>5865</v>
+      </c>
+      <c r="K145" s="3">
+        <f t="shared" si="74"/>
+        <v>44158</v>
+      </c>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4">
+        <f t="shared" si="75"/>
+        <v>3933</v>
+      </c>
+      <c r="O145" s="4">
+        <f t="shared" si="76"/>
+        <v>10875</v>
+      </c>
+      <c r="P145" s="4">
+        <f t="shared" si="77"/>
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>44159</v>
+      </c>
+      <c r="B146" s="4">
+        <v>134</v>
+      </c>
+      <c r="C146" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="D146" s="4">
+        <f t="shared" si="67"/>
+        <v>59987319</v>
+      </c>
+      <c r="E146" s="4">
+        <f t="shared" si="68"/>
+        <v>3992</v>
+      </c>
+      <c r="F146" s="4">
+        <f t="shared" si="69"/>
+        <v>8689</v>
+      </c>
+      <c r="G146" s="2">
+        <f t="shared" si="70"/>
+        <v>59987319</v>
+      </c>
+      <c r="H146" s="2">
+        <f t="shared" si="71"/>
+        <v>11727</v>
+      </c>
+      <c r="I146" s="7">
+        <f t="shared" si="72"/>
+        <v>11727</v>
+      </c>
+      <c r="J146" s="8">
+        <f t="shared" si="73"/>
+        <v>6227</v>
+      </c>
+      <c r="K146" s="3">
+        <f t="shared" si="74"/>
+        <v>44159</v>
+      </c>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4">
+        <f t="shared" si="75"/>
+        <v>3992</v>
+      </c>
+      <c r="O146" s="4">
+        <f t="shared" si="76"/>
+        <v>11727</v>
+      </c>
+      <c r="P146" s="4">
+        <f t="shared" si="77"/>
+        <v>6227</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2023717B-A677-4420-87AD-94D0AEE20D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854D8FFA-A73E-41A7-AB40-F8E577F6DA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23790" yWindow="3090" windowWidth="15720" windowHeight="10920" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="23040" yWindow="660" windowWidth="15720" windowHeight="10920" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -285,10 +285,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$70:$K$139</c:f>
+              <c:f>Model!$K$70:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>44083.708333333336</c:v>
                 </c:pt>
@@ -498,16 +498,58 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$70:$L$139</c:f>
+              <c:f>Model!$L$70:$L$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>162</c:v>
                 </c:pt>
@@ -701,22 +743,25 @@
                   <c:v>3072</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3154</c:v>
+                  <c:v>3151</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3238</c:v>
+                  <c:v>3232</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3324</c:v>
+                  <c:v>3316</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3413</c:v>
+                  <c:v>3402</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3504</c:v>
+                  <c:v>3489</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3597</c:v>
+                  <c:v>3579</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,10 +812,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$70:$K$139</c:f>
+              <c:f>Model!$K$70:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>44083.708333333336</c:v>
                 </c:pt>
@@ -980,16 +1025,58 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$70:$M$139</c:f>
+              <c:f>Model!$M$70:$M$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
                 </c:pt>
@@ -1199,6 +1286,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>3612</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,10 +1329,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$70:$K$139</c:f>
+              <c:f>Model!$K$70:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>44083.708333333336</c:v>
                 </c:pt>
@@ -1452,16 +1542,58 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$O$70:$O$139</c:f>
+              <c:f>Model!$O$70:$O$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -1671,6 +1803,48 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>6919</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7460</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8044</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8674</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9353</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10086</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11727</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12645</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13635</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14703</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>15854</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>17095</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18433</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>19876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,10 +1887,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$70:$K$139</c:f>
+              <c:f>Model!$K$70:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>44083.708333333336</c:v>
                 </c:pt>
@@ -1926,16 +2100,58 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$P$70:$P$139</c:f>
+              <c:f>Model!$P$70:$P$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>1251</c:v>
                 </c:pt>
@@ -2145,6 +2361,48 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>4183</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4413</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4661</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4929</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5218</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5530</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5865</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6227</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6618</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7039</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7493</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7983</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8511</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9080</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2471,10 +2729,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$139</c:f>
+              <c:f>Model!$K$6:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="134"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -2876,16 +3134,58 @@
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$6:$L$139</c:f>
+              <c:f>Model!$L$6:$L$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="134"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -3271,22 +3571,25 @@
                   <c:v>3072</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3154</c:v>
+                  <c:v>3151</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3238</c:v>
+                  <c:v>3232</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3324</c:v>
+                  <c:v>3316</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3413</c:v>
+                  <c:v>3402</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3504</c:v>
+                  <c:v>3489</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3597</c:v>
+                  <c:v>3579</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3336,10 +3639,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$139</c:f>
+              <c:f>Model!$K$6:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="134"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -3741,16 +4044,58 @@
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$6:$M$139</c:f>
+              <c:f>Model!$M$6:$M$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="134"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -4152,6 +4497,9 @@
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>3612</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4485,10 +4833,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$132</c:f>
+              <c:f>Model!$K$6:$K$146</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="127"/>
+                <c:ptCount val="141"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -4869,16 +5217,58 @@
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$6:$L$132</c:f>
+              <c:f>Model!$L$6:$L$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="127"/>
+                <c:ptCount val="141"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -5259,6 +5649,30 @@
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>2959</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3151</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3232</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3316</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3402</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3489</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3579</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5299,10 +5713,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$132</c:f>
+              <c:f>Model!$K$6:$K$146</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="127"/>
+                <c:ptCount val="141"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -5683,16 +6097,58 @@
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$6:$M$132</c:f>
+              <c:f>Model!$M$6:$M$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="127"/>
+                <c:ptCount val="141"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -6073,6 +6529,30 @@
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>2971</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3230</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3306</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3422</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3492</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3612</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6113,10 +6593,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$132</c:f>
+              <c:f>Model!$K$6:$K$146</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="127"/>
+                <c:ptCount val="141"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -6497,39 +6977,78 @@
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$6:$N$132</c:f>
+              <c:f>Model!$N$6:$N$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="127"/>
-                <c:pt idx="119">
-                  <c:v>2195</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2295</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2510</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2625</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2745</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2850</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2959</c:v>
+                <c:ptCount val="141"/>
+                <c:pt idx="134">
+                  <c:v>3672</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3767</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3864</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3964</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4067</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4172</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6609,7 +7128,6 @@
         <c:axId val="1076745616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6863,10 +7381,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$139</c:f>
+              <c:f>Model!$K$6:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="134"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -7268,16 +7786,58 @@
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$6:$L$139</c:f>
+              <c:f>Model!$L$6:$L$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="134"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -7663,22 +8223,25 @@
                   <c:v>3072</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3154</c:v>
+                  <c:v>3151</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3238</c:v>
+                  <c:v>3232</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3324</c:v>
+                  <c:v>3316</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3413</c:v>
+                  <c:v>3402</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3504</c:v>
+                  <c:v>3489</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3597</c:v>
+                  <c:v>3579</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7719,10 +8282,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$139</c:f>
+              <c:f>Model!$K$6:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="134"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -8124,16 +8687,58 @@
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$6:$M$139</c:f>
+              <c:f>Model!$M$6:$M$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="134"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -8535,6 +9140,9 @@
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>3612</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8575,10 +9183,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$139</c:f>
+              <c:f>Model!$K$6:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="134"/>
+                <c:ptCount val="148"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -8980,60 +9588,99 @@
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$6:$N$139</c:f>
+              <c:f>Model!$N$6:$N$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="134"/>
-                <c:pt idx="119">
-                  <c:v>2195</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2295</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2510</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2625</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2745</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2850</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2959</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>3072</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>3154</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>3238</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>3324</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>3413</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>3504</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>3597</c:v>
+                <c:ptCount val="148"/>
+                <c:pt idx="134">
+                  <c:v>3672</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3767</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3864</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3964</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4067</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4172</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4279</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4389</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4502</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4618</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4737</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4859</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4984</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9357,10 +10004,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$139</c:f>
+              <c:f>Model!$K$102:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -9474,16 +10121,58 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$102:$L$139</c:f>
+              <c:f>Model!$L$102:$L$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>431</c:v>
                 </c:pt>
@@ -9581,22 +10270,25 @@
                   <c:v>3072</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3154</c:v>
+                  <c:v>3151</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3238</c:v>
+                  <c:v>3232</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3324</c:v>
+                  <c:v>3316</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3413</c:v>
+                  <c:v>3402</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3504</c:v>
+                  <c:v>3489</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3597</c:v>
+                  <c:v>3579</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9647,10 +10339,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$139</c:f>
+              <c:f>Model!$K$102:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -9764,16 +10456,58 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$102:$M$139</c:f>
+              <c:f>Model!$M$102:$M$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>420</c:v>
                 </c:pt>
@@ -9887,6 +10621,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3612</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9927,10 +10664,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$139</c:f>
+              <c:f>Model!$K$102:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -10044,16 +10781,58 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$O$102:$O$139</c:f>
+              <c:f>Model!$O$102:$O$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>427</c:v>
                 </c:pt>
@@ -10167,6 +10946,48 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>6919</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7460</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8044</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8674</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9353</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10086</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11727</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12645</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13635</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14703</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15854</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17095</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18433</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10207,10 +11028,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$139</c:f>
+              <c:f>Model!$K$102:$K$153</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -10324,16 +11145,58 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$P$102:$P$139</c:f>
+              <c:f>Model!$P$102:$P$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1419</c:v>
                 </c:pt>
@@ -10447,6 +11310,48 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4183</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4413</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4661</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4929</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5218</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5530</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5865</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6227</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6618</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7039</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7493</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7983</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8511</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9080</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10525,6 +11430,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="30000"/>
           <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -24188,10 +25094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+      <selection activeCell="A136" sqref="A136:A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25286,6 +26192,14 @@
         <v>3612</v>
       </c>
     </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B137">
+        <v>3670</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25294,10 +26208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
-  <dimension ref="A1:P146"/>
+  <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC25" workbookViewId="0">
-      <selection activeCell="I148" sqref="I148"/>
+    <sheetView tabSelected="1" topLeftCell="AD31" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31766,10 +32680,6 @@
         <f>RealData!B122</f>
         <v>2225</v>
       </c>
-      <c r="N125">
-        <f t="shared" ref="N125:N134" si="41">E125</f>
-        <v>2195</v>
-      </c>
       <c r="O125">
         <f t="shared" si="29"/>
         <v>2409</v>
@@ -31822,17 +32732,14 @@
         <v>44139</v>
       </c>
       <c r="L126" s="4">
-        <f t="shared" ref="L126" si="42">E126</f>
+        <f t="shared" ref="L126" si="41">E126</f>
         <v>2295</v>
       </c>
       <c r="M126" s="4">
         <f>RealData!B123</f>
         <v>2292</v>
       </c>
-      <c r="N126" s="4">
-        <f t="shared" si="41"/>
-        <v>2295</v>
-      </c>
+      <c r="N126" s="4"/>
       <c r="O126" s="4">
         <f t="shared" si="29"/>
         <v>2597</v>
@@ -31885,17 +32792,14 @@
         <v>44140</v>
       </c>
       <c r="L127" s="4">
-        <f t="shared" ref="L127" si="43">E127</f>
+        <f t="shared" ref="L127" si="42">E127</f>
         <v>2400</v>
       </c>
       <c r="M127" s="4">
         <f>RealData!B124</f>
         <v>2391</v>
       </c>
-      <c r="N127" s="4">
-        <f t="shared" si="41"/>
-        <v>2400</v>
-      </c>
+      <c r="N127" s="4"/>
       <c r="O127" s="4">
         <f t="shared" si="29"/>
         <v>2801</v>
@@ -31948,17 +32852,14 @@
         <v>44141</v>
       </c>
       <c r="L128" s="4">
-        <f t="shared" ref="L128" si="44">E128</f>
+        <f t="shared" ref="L128" si="43">E128</f>
         <v>2510</v>
       </c>
       <c r="M128" s="4">
         <f>RealData!B125</f>
         <v>2515</v>
       </c>
-      <c r="N128" s="4">
-        <f t="shared" si="41"/>
-        <v>2510</v>
-      </c>
+      <c r="N128" s="4"/>
       <c r="O128" s="4">
         <f t="shared" si="29"/>
         <v>3021</v>
@@ -32011,17 +32912,14 @@
         <v>44142</v>
       </c>
       <c r="L129" s="4">
-        <f t="shared" ref="L129:L130" si="45">E129</f>
+        <f t="shared" ref="L129:L130" si="44">E129</f>
         <v>2625</v>
       </c>
       <c r="M129" s="4">
         <f>RealData!B126</f>
         <v>2634</v>
       </c>
-      <c r="N129" s="4">
-        <f t="shared" si="41"/>
-        <v>2625</v>
-      </c>
+      <c r="N129" s="4"/>
       <c r="O129" s="4">
         <f t="shared" si="29"/>
         <v>3257</v>
@@ -32074,17 +32972,14 @@
         <v>44143</v>
       </c>
       <c r="L130" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2745</v>
       </c>
       <c r="M130" s="4">
         <f>RealData!B127</f>
         <v>2749</v>
       </c>
-      <c r="N130" s="4">
-        <f t="shared" si="41"/>
-        <v>2745</v>
-      </c>
+      <c r="N130" s="4"/>
       <c r="O130" s="4">
         <f t="shared" si="29"/>
         <v>3512</v>
@@ -32137,17 +33032,14 @@
         <v>44144</v>
       </c>
       <c r="L131" s="4">
-        <f t="shared" ref="L131" si="46">E131</f>
+        <f t="shared" ref="L131" si="45">E131</f>
         <v>2850</v>
       </c>
       <c r="M131" s="4">
         <f>RealData!B128</f>
         <v>2849</v>
       </c>
-      <c r="N131" s="4">
-        <f t="shared" si="41"/>
-        <v>2850</v>
-      </c>
+      <c r="N131" s="4"/>
       <c r="O131" s="4">
         <f t="shared" si="29"/>
         <v>3787</v>
@@ -32200,17 +33092,14 @@
         <v>44145</v>
       </c>
       <c r="L132" s="4">
-        <f t="shared" ref="L132" si="47">E132</f>
+        <f t="shared" ref="L132" si="46">E132</f>
         <v>2959</v>
       </c>
       <c r="M132" s="4">
         <f>RealData!B129</f>
         <v>2971</v>
       </c>
-      <c r="N132" s="4">
-        <f t="shared" si="41"/>
-        <v>2959</v>
-      </c>
+      <c r="N132" s="4"/>
       <c r="O132" s="4">
         <f t="shared" si="29"/>
         <v>4083</v>
@@ -32231,23 +33120,23 @@
         <v>1.46</v>
       </c>
       <c r="D133" s="10">
-        <f t="shared" ref="D133:D134" si="48">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
+        <f t="shared" ref="D133:D134" si="47">D132-ROUND((C133/$D$2)*D132*(E132/$D$3),0)</f>
         <v>59992076</v>
       </c>
       <c r="E133" s="10">
-        <f t="shared" ref="E133:E134" si="49">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
+        <f t="shared" ref="E133:E134" si="48">E132+ROUND((C133/$D$2)*D132*(E132/$D$3),0)-ROUND(E132/$D$2,0)</f>
         <v>3072</v>
       </c>
       <c r="F133" s="10">
-        <f t="shared" ref="F133:F134" si="50">F132+ROUND(E132/$D$2,0)</f>
+        <f t="shared" ref="F133:F134" si="49">F132+ROUND(E132/$D$2,0)</f>
         <v>4852</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G134" si="51">D133</f>
+        <f t="shared" ref="G133:G134" si="50">D133</f>
         <v>59992076</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" ref="H133:H134" si="52">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
+        <f t="shared" ref="H133:H134" si="51">H132+ROUND(($D$1/$D$2)*G132*(H132/$D$3),0)-ROUND(H132/$D$2,0)</f>
         <v>4403</v>
       </c>
       <c r="I133" s="7">
@@ -32263,17 +33152,14 @@
         <v>44146</v>
       </c>
       <c r="L133" s="10">
-        <f t="shared" ref="L133" si="53">E133</f>
+        <f t="shared" ref="L133" si="52">E133</f>
         <v>3072</v>
       </c>
       <c r="M133" s="10">
         <f>RealData!B130</f>
         <v>3081</v>
       </c>
-      <c r="N133" s="10">
-        <f t="shared" si="41"/>
-        <v>3072</v>
-      </c>
+      <c r="N133" s="10"/>
       <c r="O133" s="10">
         <f t="shared" si="29"/>
         <v>4403</v>
@@ -32291,26 +33177,26 @@
         <v>129</v>
       </c>
       <c r="C134" s="10">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="D134" s="10">
+        <f t="shared" si="47"/>
+        <v>59991741</v>
+      </c>
+      <c r="E134" s="10">
         <f t="shared" si="48"/>
-        <v>59991738</v>
-      </c>
-      <c r="E134" s="10">
+        <v>3151</v>
+      </c>
+      <c r="F134" s="10">
         <f t="shared" si="49"/>
-        <v>3154</v>
-      </c>
-      <c r="F134" s="10">
+        <v>5108</v>
+      </c>
+      <c r="G134" s="2">
         <f t="shared" si="50"/>
-        <v>5108</v>
-      </c>
-      <c r="G134" s="2">
+        <v>59991741</v>
+      </c>
+      <c r="H134" s="2">
         <f t="shared" si="51"/>
-        <v>59991738</v>
-      </c>
-      <c r="H134" s="2">
-        <f t="shared" si="52"/>
         <v>4748</v>
       </c>
       <c r="I134" s="7">
@@ -32326,17 +33212,14 @@
         <v>44147</v>
       </c>
       <c r="L134" s="10">
-        <f t="shared" ref="L134:L137" si="54">E134</f>
-        <v>3154</v>
+        <f t="shared" ref="L134:L137" si="53">E134</f>
+        <v>3151</v>
       </c>
       <c r="M134" s="10">
         <f>RealData!B131</f>
         <v>3170</v>
       </c>
-      <c r="N134" s="10">
-        <f t="shared" si="41"/>
-        <v>3154</v>
-      </c>
+      <c r="N134" s="10"/>
       <c r="O134" s="10">
         <f t="shared" si="29"/>
         <v>4748</v>
@@ -32354,58 +33237,55 @@
         <v>130</v>
       </c>
       <c r="C135" s="10">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="D135" s="10">
-        <f t="shared" ref="D135:D141" si="55">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
-        <v>59991391</v>
+        <f t="shared" ref="D135:D141" si="54">D134-ROUND((C135/$D$2)*D134*(E134/$D$3),0)</f>
+        <v>59991397</v>
       </c>
       <c r="E135" s="10">
-        <f t="shared" ref="E135:E141" si="56">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
-        <v>3238</v>
+        <f t="shared" ref="E135:E141" si="55">E134+ROUND((C135/$D$2)*D134*(E134/$D$3),0)-ROUND(E134/$D$2,0)</f>
+        <v>3232</v>
       </c>
       <c r="F135" s="10">
-        <f t="shared" ref="F135:F141" si="57">F134+ROUND(E134/$D$2,0)</f>
+        <f t="shared" ref="F135:F141" si="56">F134+ROUND(E134/$D$2,0)</f>
         <v>5371</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" ref="G135:G141" si="58">D135</f>
-        <v>59991391</v>
+        <f t="shared" ref="G135:G141" si="57">D135</f>
+        <v>59991397</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" ref="H135:H141" si="59">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
+        <f t="shared" ref="H135:H141" si="58">H134+ROUND(($D$1/$D$2)*G134*(H134/$D$3),0)-ROUND(H134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" ref="I135:I141" si="60">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="I135:I141" si="59">I134+ROUND(($D$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>5119</v>
       </c>
       <c r="J135" s="8">
-        <f t="shared" ref="J135:J141" si="61">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
+        <f t="shared" ref="J135:J141" si="60">J134+ROUND(($E$1/$D$2)*G134*(I134/$D$3),0)-ROUND(I134/$D$2,0)</f>
         <v>3417</v>
       </c>
       <c r="K135" s="9">
-        <f t="shared" ref="K135:K141" si="62">A135</f>
+        <f t="shared" ref="K135:K141" si="61">A135</f>
         <v>44148</v>
       </c>
       <c r="L135" s="10">
-        <f t="shared" si="54"/>
-        <v>3238</v>
+        <f t="shared" si="53"/>
+        <v>3232</v>
       </c>
       <c r="M135" s="10">
         <f>RealData!B132</f>
         <v>3230</v>
       </c>
-      <c r="N135" s="10">
-        <f t="shared" ref="N135:N141" si="63">E135</f>
-        <v>3238</v>
-      </c>
+      <c r="N135" s="10"/>
       <c r="O135" s="10">
-        <f t="shared" ref="O135:O141" si="64">I135</f>
+        <f t="shared" ref="O135:O141" si="62">I135</f>
         <v>5119</v>
       </c>
       <c r="P135" s="10">
-        <f t="shared" ref="P135:P141" si="65">J135</f>
+        <f t="shared" ref="P135:P141" si="63">J135</f>
         <v>3417</v>
       </c>
     </row>
@@ -32417,58 +33297,55 @@
         <v>131</v>
       </c>
       <c r="C136" s="10">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="D136" s="10">
+        <f t="shared" si="54"/>
+        <v>59991044</v>
+      </c>
+      <c r="E136" s="10">
         <f t="shared" si="55"/>
-        <v>59991035</v>
-      </c>
-      <c r="E136" s="10">
+        <v>3316</v>
+      </c>
+      <c r="F136" s="10">
         <f t="shared" si="56"/>
-        <v>3324</v>
-      </c>
-      <c r="F136" s="10">
+        <v>5640</v>
+      </c>
+      <c r="G136" s="2">
         <f t="shared" si="57"/>
-        <v>5641</v>
-      </c>
-      <c r="G136" s="2">
+        <v>59991044</v>
+      </c>
+      <c r="H136" s="2">
         <f t="shared" si="58"/>
-        <v>59991035</v>
-      </c>
-      <c r="H136" s="2">
+        <v>5519</v>
+      </c>
+      <c r="I136" s="7">
         <f t="shared" si="59"/>
         <v>5519</v>
       </c>
-      <c r="I136" s="7">
+      <c r="J136" s="8">
         <f t="shared" si="60"/>
-        <v>5519</v>
-      </c>
-      <c r="J136" s="8">
+        <v>3587</v>
+      </c>
+      <c r="K136" s="9">
         <f t="shared" si="61"/>
-        <v>3587</v>
-      </c>
-      <c r="K136" s="9">
-        <f t="shared" si="62"/>
         <v>44149</v>
       </c>
       <c r="L136" s="10">
-        <f t="shared" si="54"/>
-        <v>3324</v>
+        <f t="shared" si="53"/>
+        <v>3316</v>
       </c>
       <c r="M136" s="10">
         <f>RealData!B133</f>
         <v>3306</v>
       </c>
-      <c r="N136" s="10">
+      <c r="N136" s="10"/>
+      <c r="O136" s="10">
+        <f t="shared" si="62"/>
+        <v>5519</v>
+      </c>
+      <c r="P136" s="10">
         <f t="shared" si="63"/>
-        <v>3324</v>
-      </c>
-      <c r="O136" s="10">
-        <f t="shared" si="64"/>
-        <v>5519</v>
-      </c>
-      <c r="P136" s="10">
-        <f t="shared" si="65"/>
         <v>3587</v>
       </c>
     </row>
@@ -32480,58 +33357,55 @@
         <v>132</v>
       </c>
       <c r="C137" s="10">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="D137" s="10">
+        <f t="shared" si="54"/>
+        <v>59990682</v>
+      </c>
+      <c r="E137" s="10">
         <f t="shared" si="55"/>
-        <v>59990669</v>
-      </c>
-      <c r="E137" s="10">
+        <v>3402</v>
+      </c>
+      <c r="F137" s="10">
         <f t="shared" si="56"/>
-        <v>3413</v>
-      </c>
-      <c r="F137" s="10">
+        <v>5916</v>
+      </c>
+      <c r="G137" s="2">
         <f t="shared" si="57"/>
-        <v>5918</v>
-      </c>
-      <c r="G137" s="2">
+        <v>59990682</v>
+      </c>
+      <c r="H137" s="2">
         <f t="shared" si="58"/>
-        <v>59990669</v>
-      </c>
-      <c r="H137" s="2">
+        <v>5951</v>
+      </c>
+      <c r="I137" s="7">
         <f t="shared" si="59"/>
         <v>5951</v>
       </c>
-      <c r="I137" s="7">
+      <c r="J137" s="8">
         <f t="shared" si="60"/>
-        <v>5951</v>
-      </c>
-      <c r="J137" s="8">
+        <v>3771</v>
+      </c>
+      <c r="K137" s="9">
         <f t="shared" si="61"/>
-        <v>3771</v>
-      </c>
-      <c r="K137" s="9">
-        <f t="shared" si="62"/>
         <v>44150</v>
       </c>
       <c r="L137" s="10">
-        <f t="shared" si="54"/>
-        <v>3413</v>
+        <f t="shared" si="53"/>
+        <v>3402</v>
       </c>
       <c r="M137" s="10">
         <f>RealData!B134</f>
         <v>3422</v>
       </c>
-      <c r="N137" s="10">
+      <c r="N137" s="10"/>
+      <c r="O137" s="10">
+        <f t="shared" si="62"/>
+        <v>5951</v>
+      </c>
+      <c r="P137" s="10">
         <f t="shared" si="63"/>
-        <v>3413</v>
-      </c>
-      <c r="O137" s="10">
-        <f t="shared" si="64"/>
-        <v>5951</v>
-      </c>
-      <c r="P137" s="10">
-        <f t="shared" si="65"/>
         <v>3771</v>
       </c>
     </row>
@@ -32543,58 +33417,55 @@
         <v>133</v>
       </c>
       <c r="C138" s="10">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="D138" s="10">
+        <f t="shared" si="54"/>
+        <v>59990311</v>
+      </c>
+      <c r="E138" s="10">
         <f t="shared" si="55"/>
-        <v>59990294</v>
-      </c>
-      <c r="E138" s="10">
+        <v>3489</v>
+      </c>
+      <c r="F138" s="10">
         <f t="shared" si="56"/>
-        <v>3504</v>
-      </c>
-      <c r="F138" s="10">
+        <v>6200</v>
+      </c>
+      <c r="G138" s="2">
         <f t="shared" si="57"/>
-        <v>6202</v>
-      </c>
-      <c r="G138" s="2">
+        <v>59990311</v>
+      </c>
+      <c r="H138" s="2">
         <f t="shared" si="58"/>
-        <v>59990294</v>
-      </c>
-      <c r="H138" s="2">
+        <v>6417</v>
+      </c>
+      <c r="I138" s="7">
         <f t="shared" si="59"/>
         <v>6417</v>
       </c>
-      <c r="I138" s="7">
+      <c r="J138" s="8">
         <f t="shared" si="60"/>
-        <v>6417</v>
-      </c>
-      <c r="J138" s="8">
+        <v>3969</v>
+      </c>
+      <c r="K138" s="9">
         <f t="shared" si="61"/>
-        <v>3969</v>
-      </c>
-      <c r="K138" s="9">
-        <f t="shared" si="62"/>
         <v>44151</v>
       </c>
       <c r="L138" s="10">
-        <f t="shared" ref="L138:L144" si="66">E138</f>
-        <v>3504</v>
+        <f t="shared" ref="L138:L139" si="64">E138</f>
+        <v>3489</v>
       </c>
       <c r="M138" s="10">
         <f>RealData!B135</f>
         <v>3492</v>
       </c>
-      <c r="N138" s="10">
+      <c r="N138" s="10"/>
+      <c r="O138" s="10">
+        <f t="shared" si="62"/>
+        <v>6417</v>
+      </c>
+      <c r="P138" s="10">
         <f t="shared" si="63"/>
-        <v>3504</v>
-      </c>
-      <c r="O138" s="10">
-        <f t="shared" si="64"/>
-        <v>6417</v>
-      </c>
-      <c r="P138" s="10">
-        <f t="shared" si="65"/>
         <v>3969</v>
       </c>
     </row>
@@ -32606,58 +33477,55 @@
         <v>134</v>
       </c>
       <c r="C139" s="10">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="D139" s="10">
+        <f t="shared" si="54"/>
+        <v>59989930</v>
+      </c>
+      <c r="E139" s="10">
         <f t="shared" si="55"/>
-        <v>59989909</v>
-      </c>
-      <c r="E139" s="10">
+        <v>3579</v>
+      </c>
+      <c r="F139" s="10">
         <f t="shared" si="56"/>
-        <v>3597</v>
-      </c>
-      <c r="F139" s="10">
+        <v>6491</v>
+      </c>
+      <c r="G139" s="2">
         <f t="shared" si="57"/>
-        <v>6494</v>
-      </c>
-      <c r="G139" s="2">
+        <v>59989930</v>
+      </c>
+      <c r="H139" s="2">
         <f t="shared" si="58"/>
-        <v>59989909</v>
-      </c>
-      <c r="H139" s="2">
+        <v>6919</v>
+      </c>
+      <c r="I139" s="7">
         <f t="shared" si="59"/>
         <v>6919</v>
       </c>
-      <c r="I139" s="7">
+      <c r="J139" s="8">
         <f t="shared" si="60"/>
-        <v>6919</v>
-      </c>
-      <c r="J139" s="8">
+        <v>4183</v>
+      </c>
+      <c r="K139" s="9">
         <f t="shared" si="61"/>
-        <v>4183</v>
-      </c>
-      <c r="K139" s="9">
-        <f t="shared" si="62"/>
         <v>44152</v>
       </c>
       <c r="L139" s="10">
-        <f t="shared" si="66"/>
-        <v>3597</v>
+        <f t="shared" si="64"/>
+        <v>3579</v>
       </c>
       <c r="M139" s="10">
         <f>RealData!B136</f>
         <v>3612</v>
       </c>
-      <c r="N139" s="10">
+      <c r="N139" s="10"/>
+      <c r="O139" s="10">
+        <f t="shared" si="62"/>
+        <v>6919</v>
+      </c>
+      <c r="P139" s="10">
         <f t="shared" si="63"/>
-        <v>3597</v>
-      </c>
-      <c r="O139" s="10">
-        <f t="shared" si="64"/>
-        <v>6919</v>
-      </c>
-      <c r="P139" s="10">
-        <f t="shared" si="65"/>
         <v>4183</v>
       </c>
     </row>
@@ -32669,52 +33537,58 @@
         <v>128</v>
       </c>
       <c r="C140" s="4">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="D140" s="4">
+        <f t="shared" si="54"/>
+        <v>59989539</v>
+      </c>
+      <c r="E140" s="4">
         <f t="shared" si="55"/>
-        <v>59989555</v>
-      </c>
-      <c r="E140" s="4">
+        <v>3672</v>
+      </c>
+      <c r="F140" s="4">
         <f t="shared" si="56"/>
-        <v>3651</v>
-      </c>
-      <c r="F140" s="4">
+        <v>6789</v>
+      </c>
+      <c r="G140" s="2">
         <f t="shared" si="57"/>
-        <v>6794</v>
-      </c>
-      <c r="G140" s="2">
+        <v>59989539</v>
+      </c>
+      <c r="H140" s="2">
         <f t="shared" si="58"/>
-        <v>59989555</v>
-      </c>
-      <c r="H140" s="2">
+        <v>7460</v>
+      </c>
+      <c r="I140" s="7">
         <f t="shared" si="59"/>
         <v>7460</v>
       </c>
-      <c r="I140" s="7">
+      <c r="J140" s="8">
         <f t="shared" si="60"/>
+        <v>4413</v>
+      </c>
+      <c r="K140" s="3">
+        <f t="shared" si="61"/>
+        <v>44153</v>
+      </c>
+      <c r="L140" s="4">
+        <f t="shared" ref="L140" si="65">E140</f>
+        <v>3672</v>
+      </c>
+      <c r="M140" s="4">
+        <f>RealData!B137</f>
+        <v>3670</v>
+      </c>
+      <c r="N140" s="4">
+        <f t="shared" ref="N135:N141" si="66">E140</f>
+        <v>3672</v>
+      </c>
+      <c r="O140" s="4">
+        <f t="shared" si="62"/>
         <v>7460</v>
       </c>
-      <c r="J140" s="8">
-        <f t="shared" si="61"/>
-        <v>4413</v>
-      </c>
-      <c r="K140" s="3">
-        <f t="shared" si="62"/>
-        <v>44153</v>
-      </c>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4">
+      <c r="P140" s="4">
         <f t="shared" si="63"/>
-        <v>3651</v>
-      </c>
-      <c r="O140" s="4">
-        <f t="shared" si="64"/>
-        <v>7460</v>
-      </c>
-      <c r="P140" s="4">
-        <f t="shared" si="65"/>
         <v>4413</v>
       </c>
     </row>
@@ -32726,52 +33600,52 @@
         <v>129</v>
       </c>
       <c r="C141" s="4">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="D141" s="4">
+        <f t="shared" si="54"/>
+        <v>59989138</v>
+      </c>
+      <c r="E141" s="4">
         <f t="shared" si="55"/>
-        <v>59989196</v>
-      </c>
-      <c r="E141" s="4">
+        <v>3767</v>
+      </c>
+      <c r="F141" s="4">
         <f t="shared" si="56"/>
-        <v>3706</v>
-      </c>
-      <c r="F141" s="4">
+        <v>7095</v>
+      </c>
+      <c r="G141" s="2">
         <f t="shared" si="57"/>
-        <v>7098</v>
-      </c>
-      <c r="G141" s="2">
+        <v>59989138</v>
+      </c>
+      <c r="H141" s="2">
         <f t="shared" si="58"/>
-        <v>59989196</v>
-      </c>
-      <c r="H141" s="2">
+        <v>8044</v>
+      </c>
+      <c r="I141" s="7">
         <f t="shared" si="59"/>
         <v>8044</v>
       </c>
-      <c r="I141" s="7">
+      <c r="J141" s="8">
         <f t="shared" si="60"/>
-        <v>8044</v>
-      </c>
-      <c r="J141" s="8">
+        <v>4661</v>
+      </c>
+      <c r="K141" s="3">
         <f t="shared" si="61"/>
-        <v>4661</v>
-      </c>
-      <c r="K141" s="3">
-        <f t="shared" si="62"/>
         <v>44154</v>
       </c>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4">
+        <f t="shared" si="66"/>
+        <v>3767</v>
+      </c>
+      <c r="O141" s="4">
+        <f t="shared" si="62"/>
+        <v>8044</v>
+      </c>
+      <c r="P141" s="4">
         <f t="shared" si="63"/>
-        <v>3706</v>
-      </c>
-      <c r="O141" s="4">
-        <f t="shared" si="64"/>
-        <v>8044</v>
-      </c>
-      <c r="P141" s="4">
-        <f t="shared" si="65"/>
         <v>4661</v>
       </c>
     </row>
@@ -32783,23 +33657,23 @@
         <v>130</v>
       </c>
       <c r="C142" s="4">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="D142" s="4">
         <f t="shared" ref="D142:D146" si="67">D141-ROUND((C142/$D$2)*D141*(E141/$D$3),0)</f>
-        <v>59988832</v>
+        <v>59988727</v>
       </c>
       <c r="E142" s="4">
         <f t="shared" ref="E142:E146" si="68">E141+ROUND((C142/$D$2)*D141*(E141/$D$3),0)-ROUND(E141/$D$2,0)</f>
-        <v>3761</v>
+        <v>3864</v>
       </c>
       <c r="F142" s="4">
         <f t="shared" ref="F142:F146" si="69">F141+ROUND(E141/$D$2,0)</f>
-        <v>7407</v>
+        <v>7409</v>
       </c>
       <c r="G142" s="2">
         <f t="shared" ref="G142:G146" si="70">D142</f>
-        <v>59988832</v>
+        <v>59988727</v>
       </c>
       <c r="H142" s="2">
         <f t="shared" ref="H142:H146" si="71">H141+ROUND(($D$1/$D$2)*G141*(H141/$D$3),0)-ROUND(H141/$D$2,0)</f>
@@ -32821,7 +33695,7 @@
       <c r="M142" s="4"/>
       <c r="N142" s="4">
         <f t="shared" ref="N142:N146" si="75">E142</f>
-        <v>3761</v>
+        <v>3864</v>
       </c>
       <c r="O142" s="4">
         <f t="shared" ref="O142:O146" si="76">I142</f>
@@ -32840,23 +33714,23 @@
         <v>131</v>
       </c>
       <c r="C143" s="4">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="D143" s="4">
         <f t="shared" si="67"/>
-        <v>59988462</v>
+        <v>59988305</v>
       </c>
       <c r="E143" s="4">
         <f t="shared" si="68"/>
-        <v>3818</v>
+        <v>3964</v>
       </c>
       <c r="F143" s="4">
         <f t="shared" si="69"/>
-        <v>7720</v>
+        <v>7731</v>
       </c>
       <c r="G143" s="2">
         <f t="shared" si="70"/>
-        <v>59988462</v>
+        <v>59988305</v>
       </c>
       <c r="H143" s="2">
         <f t="shared" si="71"/>
@@ -32878,7 +33752,7 @@
       <c r="M143" s="4"/>
       <c r="N143" s="4">
         <f t="shared" si="75"/>
-        <v>3818</v>
+        <v>3964</v>
       </c>
       <c r="O143" s="4">
         <f t="shared" si="76"/>
@@ -32897,23 +33771,23 @@
         <v>132</v>
       </c>
       <c r="C144" s="4">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" si="67"/>
-        <v>59988087</v>
+        <v>59987872</v>
       </c>
       <c r="E144" s="4">
         <f t="shared" si="68"/>
-        <v>3875</v>
+        <v>4067</v>
       </c>
       <c r="F144" s="4">
         <f t="shared" si="69"/>
-        <v>8038</v>
+        <v>8061</v>
       </c>
       <c r="G144" s="2">
         <f t="shared" si="70"/>
-        <v>59988087</v>
+        <v>59987872</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" si="71"/>
@@ -32935,7 +33809,7 @@
       <c r="M144" s="4"/>
       <c r="N144" s="4">
         <f t="shared" si="75"/>
-        <v>3875</v>
+        <v>4067</v>
       </c>
       <c r="O144" s="4">
         <f t="shared" si="76"/>
@@ -32954,23 +33828,23 @@
         <v>133</v>
       </c>
       <c r="C145" s="4">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="D145" s="4">
         <f t="shared" si="67"/>
-        <v>59987706</v>
+        <v>59987428</v>
       </c>
       <c r="E145" s="4">
         <f t="shared" si="68"/>
-        <v>3933</v>
+        <v>4172</v>
       </c>
       <c r="F145" s="4">
         <f t="shared" si="69"/>
-        <v>8361</v>
+        <v>8400</v>
       </c>
       <c r="G145" s="2">
         <f t="shared" si="70"/>
-        <v>59987706</v>
+        <v>59987428</v>
       </c>
       <c r="H145" s="2">
         <f t="shared" si="71"/>
@@ -32992,7 +33866,7 @@
       <c r="M145" s="4"/>
       <c r="N145" s="4">
         <f t="shared" si="75"/>
-        <v>3933</v>
+        <v>4172</v>
       </c>
       <c r="O145" s="4">
         <f t="shared" si="76"/>
@@ -33011,23 +33885,23 @@
         <v>134</v>
       </c>
       <c r="C146" s="4">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="67"/>
-        <v>59987319</v>
+        <v>59986973</v>
       </c>
       <c r="E146" s="4">
         <f t="shared" si="68"/>
-        <v>3992</v>
+        <v>4279</v>
       </c>
       <c r="F146" s="4">
         <f t="shared" si="69"/>
-        <v>8689</v>
+        <v>8748</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" si="70"/>
-        <v>59987319</v>
+        <v>59986973</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="71"/>
@@ -33049,7 +33923,7 @@
       <c r="M146" s="4"/>
       <c r="N146" s="4">
         <f t="shared" si="75"/>
-        <v>3992</v>
+        <v>4279</v>
       </c>
       <c r="O146" s="4">
         <f t="shared" si="76"/>
@@ -33058,6 +33932,405 @@
       <c r="P146" s="4">
         <f t="shared" si="77"/>
         <v>6227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="9">
+        <v>44160</v>
+      </c>
+      <c r="B147" s="10">
+        <v>134</v>
+      </c>
+      <c r="C147" s="10">
+        <v>1.31</v>
+      </c>
+      <c r="D147" s="10">
+        <f t="shared" ref="D147:D153" si="78">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
+        <v>59986506</v>
+      </c>
+      <c r="E147" s="10">
+        <f t="shared" ref="E147:E153" si="79">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
+        <v>4389</v>
+      </c>
+      <c r="F147" s="10">
+        <f t="shared" ref="F147:F153" si="80">F146+ROUND(E146/$D$2,0)</f>
+        <v>9105</v>
+      </c>
+      <c r="G147" s="2">
+        <f t="shared" ref="G147:G153" si="81">D147</f>
+        <v>59986506</v>
+      </c>
+      <c r="H147" s="2">
+        <f t="shared" ref="H147:H153" si="82">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
+        <v>12645</v>
+      </c>
+      <c r="I147" s="7">
+        <f t="shared" ref="I147:I153" si="83">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <v>12645</v>
+      </c>
+      <c r="J147" s="8">
+        <f t="shared" ref="J147:J153" si="84">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <v>6618</v>
+      </c>
+      <c r="K147" s="9">
+        <f t="shared" ref="K147:K153" si="85">A147</f>
+        <v>44160</v>
+      </c>
+      <c r="L147" s="10"/>
+      <c r="M147" s="10"/>
+      <c r="N147" s="10">
+        <f t="shared" ref="N147:N153" si="86">E147</f>
+        <v>4389</v>
+      </c>
+      <c r="O147" s="10">
+        <f t="shared" ref="O147:O153" si="87">I147</f>
+        <v>12645</v>
+      </c>
+      <c r="P147" s="10">
+        <f t="shared" ref="P147:P153" si="88">J147</f>
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="9">
+        <v>44161</v>
+      </c>
+      <c r="B148" s="10">
+        <v>134</v>
+      </c>
+      <c r="C148" s="10">
+        <v>1.31</v>
+      </c>
+      <c r="D148" s="10">
+        <f t="shared" si="78"/>
+        <v>59986027</v>
+      </c>
+      <c r="E148" s="10">
+        <f t="shared" si="79"/>
+        <v>4502</v>
+      </c>
+      <c r="F148" s="10">
+        <f t="shared" si="80"/>
+        <v>9471</v>
+      </c>
+      <c r="G148" s="2">
+        <f t="shared" si="81"/>
+        <v>59986027</v>
+      </c>
+      <c r="H148" s="2">
+        <f t="shared" si="82"/>
+        <v>13635</v>
+      </c>
+      <c r="I148" s="7">
+        <f t="shared" si="83"/>
+        <v>13635</v>
+      </c>
+      <c r="J148" s="8">
+        <f t="shared" si="84"/>
+        <v>7039</v>
+      </c>
+      <c r="K148" s="9">
+        <f t="shared" si="85"/>
+        <v>44161</v>
+      </c>
+      <c r="L148" s="10"/>
+      <c r="M148" s="10"/>
+      <c r="N148" s="10">
+        <f t="shared" si="86"/>
+        <v>4502</v>
+      </c>
+      <c r="O148" s="10">
+        <f t="shared" si="87"/>
+        <v>13635</v>
+      </c>
+      <c r="P148" s="10">
+        <f t="shared" si="88"/>
+        <v>7039</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="9">
+        <v>44162</v>
+      </c>
+      <c r="B149" s="10">
+        <v>134</v>
+      </c>
+      <c r="C149" s="10">
+        <v>1.31</v>
+      </c>
+      <c r="D149" s="10">
+        <f t="shared" si="78"/>
+        <v>59985536</v>
+      </c>
+      <c r="E149" s="10">
+        <f t="shared" si="79"/>
+        <v>4618</v>
+      </c>
+      <c r="F149" s="10">
+        <f t="shared" si="80"/>
+        <v>9846</v>
+      </c>
+      <c r="G149" s="2">
+        <f t="shared" si="81"/>
+        <v>59985536</v>
+      </c>
+      <c r="H149" s="2">
+        <f t="shared" si="82"/>
+        <v>14703</v>
+      </c>
+      <c r="I149" s="7">
+        <f t="shared" si="83"/>
+        <v>14703</v>
+      </c>
+      <c r="J149" s="8">
+        <f t="shared" si="84"/>
+        <v>7493</v>
+      </c>
+      <c r="K149" s="9">
+        <f t="shared" si="85"/>
+        <v>44162</v>
+      </c>
+      <c r="L149" s="10"/>
+      <c r="M149" s="10"/>
+      <c r="N149" s="10">
+        <f t="shared" si="86"/>
+        <v>4618</v>
+      </c>
+      <c r="O149" s="10">
+        <f t="shared" si="87"/>
+        <v>14703</v>
+      </c>
+      <c r="P149" s="10">
+        <f t="shared" si="88"/>
+        <v>7493</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="9">
+        <v>44163</v>
+      </c>
+      <c r="B150" s="10">
+        <v>134</v>
+      </c>
+      <c r="C150" s="10">
+        <v>1.31</v>
+      </c>
+      <c r="D150" s="10">
+        <f t="shared" si="78"/>
+        <v>59985032</v>
+      </c>
+      <c r="E150" s="10">
+        <f t="shared" si="79"/>
+        <v>4737</v>
+      </c>
+      <c r="F150" s="10">
+        <f t="shared" si="80"/>
+        <v>10231</v>
+      </c>
+      <c r="G150" s="2">
+        <f t="shared" si="81"/>
+        <v>59985032</v>
+      </c>
+      <c r="H150" s="2">
+        <f t="shared" si="82"/>
+        <v>15854</v>
+      </c>
+      <c r="I150" s="7">
+        <f t="shared" si="83"/>
+        <v>15854</v>
+      </c>
+      <c r="J150" s="8">
+        <f t="shared" si="84"/>
+        <v>7983</v>
+      </c>
+      <c r="K150" s="9">
+        <f t="shared" si="85"/>
+        <v>44163</v>
+      </c>
+      <c r="L150" s="10"/>
+      <c r="M150" s="10"/>
+      <c r="N150" s="10">
+        <f t="shared" si="86"/>
+        <v>4737</v>
+      </c>
+      <c r="O150" s="10">
+        <f t="shared" si="87"/>
+        <v>15854</v>
+      </c>
+      <c r="P150" s="10">
+        <f t="shared" si="88"/>
+        <v>7983</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="9">
+        <v>44164</v>
+      </c>
+      <c r="B151" s="10">
+        <v>134</v>
+      </c>
+      <c r="C151" s="10">
+        <v>1.31</v>
+      </c>
+      <c r="D151" s="10">
+        <f t="shared" si="78"/>
+        <v>59984515</v>
+      </c>
+      <c r="E151" s="10">
+        <f t="shared" si="79"/>
+        <v>4859</v>
+      </c>
+      <c r="F151" s="10">
+        <f t="shared" si="80"/>
+        <v>10626</v>
+      </c>
+      <c r="G151" s="2">
+        <f t="shared" si="81"/>
+        <v>59984515</v>
+      </c>
+      <c r="H151" s="2">
+        <f t="shared" si="82"/>
+        <v>17095</v>
+      </c>
+      <c r="I151" s="7">
+        <f t="shared" si="83"/>
+        <v>17095</v>
+      </c>
+      <c r="J151" s="8">
+        <f t="shared" si="84"/>
+        <v>8511</v>
+      </c>
+      <c r="K151" s="9">
+        <f t="shared" si="85"/>
+        <v>44164</v>
+      </c>
+      <c r="L151" s="10"/>
+      <c r="M151" s="10"/>
+      <c r="N151" s="10">
+        <f t="shared" si="86"/>
+        <v>4859</v>
+      </c>
+      <c r="O151" s="10">
+        <f t="shared" si="87"/>
+        <v>17095</v>
+      </c>
+      <c r="P151" s="10">
+        <f t="shared" si="88"/>
+        <v>8511</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="9">
+        <v>44165</v>
+      </c>
+      <c r="B152" s="10">
+        <v>134</v>
+      </c>
+      <c r="C152" s="10">
+        <v>1.31</v>
+      </c>
+      <c r="D152" s="10">
+        <f t="shared" si="78"/>
+        <v>59983985</v>
+      </c>
+      <c r="E152" s="10">
+        <f t="shared" si="79"/>
+        <v>4984</v>
+      </c>
+      <c r="F152" s="10">
+        <f t="shared" si="80"/>
+        <v>11031</v>
+      </c>
+      <c r="G152" s="2">
+        <f t="shared" si="81"/>
+        <v>59983985</v>
+      </c>
+      <c r="H152" s="2">
+        <f t="shared" si="82"/>
+        <v>18433</v>
+      </c>
+      <c r="I152" s="7">
+        <f t="shared" si="83"/>
+        <v>18433</v>
+      </c>
+      <c r="J152" s="8">
+        <f t="shared" si="84"/>
+        <v>9080</v>
+      </c>
+      <c r="K152" s="9">
+        <f t="shared" si="85"/>
+        <v>44165</v>
+      </c>
+      <c r="L152" s="10"/>
+      <c r="M152" s="10"/>
+      <c r="N152" s="10">
+        <f t="shared" si="86"/>
+        <v>4984</v>
+      </c>
+      <c r="O152" s="10">
+        <f t="shared" si="87"/>
+        <v>18433</v>
+      </c>
+      <c r="P152" s="10">
+        <f t="shared" si="88"/>
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" s="9">
+        <v>44166</v>
+      </c>
+      <c r="B153" s="10">
+        <v>134</v>
+      </c>
+      <c r="C153" s="10">
+        <v>1.31</v>
+      </c>
+      <c r="D153" s="10">
+        <f t="shared" si="78"/>
+        <v>59983441</v>
+      </c>
+      <c r="E153" s="10">
+        <f t="shared" si="79"/>
+        <v>5113</v>
+      </c>
+      <c r="F153" s="10">
+        <f t="shared" si="80"/>
+        <v>11446</v>
+      </c>
+      <c r="G153" s="2">
+        <f t="shared" si="81"/>
+        <v>59983441</v>
+      </c>
+      <c r="H153" s="2">
+        <f t="shared" si="82"/>
+        <v>19876</v>
+      </c>
+      <c r="I153" s="7">
+        <f t="shared" si="83"/>
+        <v>19876</v>
+      </c>
+      <c r="J153" s="8">
+        <f t="shared" si="84"/>
+        <v>9694</v>
+      </c>
+      <c r="K153" s="9">
+        <f t="shared" si="85"/>
+        <v>44166</v>
+      </c>
+      <c r="L153" s="10"/>
+      <c r="M153" s="10"/>
+      <c r="N153" s="10">
+        <f t="shared" si="86"/>
+        <v>5113</v>
+      </c>
+      <c r="O153" s="10">
+        <f t="shared" si="87"/>
+        <v>19876</v>
+      </c>
+      <c r="P153" s="10">
+        <f t="shared" si="88"/>
+        <v>9694</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854D8FFA-A73E-41A7-AB40-F8E577F6DA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C91431A-69D2-48AB-9BB2-3587BD22EB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="660" windowWidth="15720" windowHeight="10920" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="22560" yWindow="930" windowWidth="15720" windowHeight="10920" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -763,6 +763,9 @@
                 <c:pt idx="70">
                   <c:v>3672</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>3733</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1289,6 +1292,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>3670</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3591,6 +3597,9 @@
                 <c:pt idx="134">
                   <c:v>3672</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>3733</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4500,6 +4509,9 @@
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>3670</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5674,6 +5686,9 @@
                 <c:pt idx="134">
                   <c:v>3672</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>3733</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6554,6 +6569,9 @@
                 <c:pt idx="134">
                   <c:v>3670</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>3712</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7033,22 +7051,22 @@
                   <c:v>3672</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3767</c:v>
+                  <c:v>3733</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3864</c:v>
+                  <c:v>3795</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3964</c:v>
+                  <c:v>3858</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>4067</c:v>
+                  <c:v>3922</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>4172</c:v>
+                  <c:v>3987</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>4279</c:v>
+                  <c:v>4054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8243,6 +8261,9 @@
                 <c:pt idx="134">
                   <c:v>3672</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>3733</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9144,6 +9165,9 @@
                 <c:pt idx="134">
                   <c:v>3670</c:v>
                 </c:pt>
+                <c:pt idx="135">
+                  <c:v>3712</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9644,43 +9668,43 @@
                   <c:v>3672</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3767</c:v>
+                  <c:v>3733</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3864</c:v>
+                  <c:v>3795</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3964</c:v>
+                  <c:v>3858</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>4067</c:v>
+                  <c:v>3922</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>4172</c:v>
+                  <c:v>3987</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>4279</c:v>
+                  <c:v>4054</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>4389</c:v>
+                  <c:v>4121</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>4502</c:v>
+                  <c:v>4190</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>4618</c:v>
+                  <c:v>4260</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>4737</c:v>
+                  <c:v>4331</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>4859</c:v>
+                  <c:v>4403</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>4984</c:v>
+                  <c:v>4476</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>5113</c:v>
+                  <c:v>4550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10290,6 +10314,9 @@
                 <c:pt idx="38">
                   <c:v>3672</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>3733</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10624,6 +10651,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>3670</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25094,10 +25124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136:A137"/>
+      <selection activeCell="A135" sqref="A135:A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26200,6 +26230,14 @@
         <v>3670</v>
       </c>
     </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B138">
+        <v>3712</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26210,8 +26248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD31" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="AE28" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142:C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33580,7 +33618,7 @@
         <v>3670</v>
       </c>
       <c r="N140" s="4">
-        <f t="shared" ref="N135:N141" si="66">E140</f>
+        <f t="shared" ref="N140:N141" si="66">E140</f>
         <v>3672</v>
       </c>
       <c r="O140" s="4">
@@ -33600,15 +33638,15 @@
         <v>129</v>
       </c>
       <c r="C141" s="4">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="D141" s="4">
         <f t="shared" si="54"/>
-        <v>59989138</v>
+        <v>59989172</v>
       </c>
       <c r="E141" s="4">
         <f t="shared" si="55"/>
-        <v>3767</v>
+        <v>3733</v>
       </c>
       <c r="F141" s="4">
         <f t="shared" si="56"/>
@@ -33616,7 +33654,7 @@
       </c>
       <c r="G141" s="2">
         <f t="shared" si="57"/>
-        <v>59989138</v>
+        <v>59989172</v>
       </c>
       <c r="H141" s="2">
         <f t="shared" si="58"/>
@@ -33634,11 +33672,17 @@
         <f t="shared" si="61"/>
         <v>44154</v>
       </c>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
+      <c r="L141" s="4">
+        <f t="shared" ref="L141" si="67">E141</f>
+        <v>3733</v>
+      </c>
+      <c r="M141" s="4">
+        <f>RealData!B138</f>
+        <v>3712</v>
+      </c>
       <c r="N141" s="4">
         <f t="shared" si="66"/>
-        <v>3767</v>
+        <v>3733</v>
       </c>
       <c r="O141" s="4">
         <f t="shared" si="62"/>
@@ -33657,52 +33701,52 @@
         <v>130</v>
       </c>
       <c r="C142" s="4">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="D142" s="4">
-        <f t="shared" ref="D142:D146" si="67">D141-ROUND((C142/$D$2)*D141*(E141/$D$3),0)</f>
-        <v>59988727</v>
+        <f t="shared" ref="D142:D146" si="68">D141-ROUND((C142/$D$2)*D141*(E141/$D$3),0)</f>
+        <v>59988799</v>
       </c>
       <c r="E142" s="4">
-        <f t="shared" ref="E142:E146" si="68">E141+ROUND((C142/$D$2)*D141*(E141/$D$3),0)-ROUND(E141/$D$2,0)</f>
-        <v>3864</v>
+        <f t="shared" ref="E142:E146" si="69">E141+ROUND((C142/$D$2)*D141*(E141/$D$3),0)-ROUND(E141/$D$2,0)</f>
+        <v>3795</v>
       </c>
       <c r="F142" s="4">
-        <f t="shared" ref="F142:F146" si="69">F141+ROUND(E141/$D$2,0)</f>
-        <v>7409</v>
+        <f t="shared" ref="F142:F146" si="70">F141+ROUND(E141/$D$2,0)</f>
+        <v>7406</v>
       </c>
       <c r="G142" s="2">
-        <f t="shared" ref="G142:G146" si="70">D142</f>
-        <v>59988727</v>
+        <f t="shared" ref="G142:G146" si="71">D142</f>
+        <v>59988799</v>
       </c>
       <c r="H142" s="2">
-        <f t="shared" ref="H142:H146" si="71">H141+ROUND(($D$1/$D$2)*G141*(H141/$D$3),0)-ROUND(H141/$D$2,0)</f>
+        <f t="shared" ref="H142:H146" si="72">H141+ROUND(($D$1/$D$2)*G141*(H141/$D$3),0)-ROUND(H141/$D$2,0)</f>
         <v>8674</v>
       </c>
       <c r="I142" s="7">
-        <f t="shared" ref="I142:I146" si="72">I141+ROUND(($D$1/$D$2)*G141*(I141/$D$3),0)-ROUND(I141/$D$2,0)</f>
+        <f t="shared" ref="I142:I146" si="73">I141+ROUND(($D$1/$D$2)*G141*(I141/$D$3),0)-ROUND(I141/$D$2,0)</f>
         <v>8674</v>
       </c>
       <c r="J142" s="8">
-        <f t="shared" ref="J142:J146" si="73">J141+ROUND(($E$1/$D$2)*G141*(I141/$D$3),0)-ROUND(I141/$D$2,0)</f>
+        <f t="shared" ref="J142:J146" si="74">J141+ROUND(($E$1/$D$2)*G141*(I141/$D$3),0)-ROUND(I141/$D$2,0)</f>
         <v>4929</v>
       </c>
       <c r="K142" s="3">
-        <f t="shared" ref="K142:K146" si="74">A142</f>
+        <f t="shared" ref="K142:K146" si="75">A142</f>
         <v>44155</v>
       </c>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
       <c r="N142" s="4">
-        <f t="shared" ref="N142:N146" si="75">E142</f>
-        <v>3864</v>
+        <f t="shared" ref="N142:N146" si="76">E142</f>
+        <v>3795</v>
       </c>
       <c r="O142" s="4">
-        <f t="shared" ref="O142:O146" si="76">I142</f>
+        <f t="shared" ref="O142:O146" si="77">I142</f>
         <v>8674</v>
       </c>
       <c r="P142" s="4">
-        <f t="shared" ref="P142:P146" si="77">J142</f>
+        <f t="shared" ref="P142:P146" si="78">J142</f>
         <v>4929</v>
       </c>
     </row>
@@ -33714,52 +33758,52 @@
         <v>131</v>
       </c>
       <c r="C143" s="4">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="D143" s="4">
-        <f t="shared" si="67"/>
-        <v>59988305</v>
+        <f t="shared" si="68"/>
+        <v>59988420</v>
       </c>
       <c r="E143" s="4">
-        <f t="shared" si="68"/>
-        <v>3964</v>
+        <f t="shared" si="69"/>
+        <v>3858</v>
       </c>
       <c r="F143" s="4">
-        <f t="shared" si="69"/>
-        <v>7731</v>
+        <f t="shared" si="70"/>
+        <v>7722</v>
       </c>
       <c r="G143" s="2">
-        <f t="shared" si="70"/>
-        <v>59988305</v>
+        <f t="shared" si="71"/>
+        <v>59988420</v>
       </c>
       <c r="H143" s="2">
-        <f t="shared" si="71"/>
-        <v>9353</v>
-      </c>
-      <c r="I143" s="7">
         <f t="shared" si="72"/>
         <v>9353</v>
       </c>
+      <c r="I143" s="7">
+        <f t="shared" si="73"/>
+        <v>9353</v>
+      </c>
       <c r="J143" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5218</v>
       </c>
       <c r="K143" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>44156</v>
       </c>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4">
-        <f t="shared" si="75"/>
-        <v>3964</v>
+        <f t="shared" si="76"/>
+        <v>3858</v>
       </c>
       <c r="O143" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>9353</v>
       </c>
       <c r="P143" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>5218</v>
       </c>
     </row>
@@ -33771,52 +33815,52 @@
         <v>132</v>
       </c>
       <c r="C144" s="4">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="D144" s="4">
-        <f t="shared" si="67"/>
-        <v>59987872</v>
+        <f t="shared" si="68"/>
+        <v>59988034</v>
       </c>
       <c r="E144" s="4">
-        <f t="shared" si="68"/>
-        <v>4067</v>
+        <f t="shared" si="69"/>
+        <v>3922</v>
       </c>
       <c r="F144" s="4">
-        <f t="shared" si="69"/>
-        <v>8061</v>
+        <f t="shared" si="70"/>
+        <v>8044</v>
       </c>
       <c r="G144" s="2">
-        <f t="shared" si="70"/>
-        <v>59987872</v>
+        <f t="shared" si="71"/>
+        <v>59988034</v>
       </c>
       <c r="H144" s="2">
-        <f t="shared" si="71"/>
-        <v>10086</v>
-      </c>
-      <c r="I144" s="7">
         <f t="shared" si="72"/>
         <v>10086</v>
       </c>
+      <c r="I144" s="7">
+        <f t="shared" si="73"/>
+        <v>10086</v>
+      </c>
       <c r="J144" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5530</v>
       </c>
       <c r="K144" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>44157</v>
       </c>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4">
-        <f t="shared" si="75"/>
-        <v>4067</v>
+        <f t="shared" si="76"/>
+        <v>3922</v>
       </c>
       <c r="O144" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10086</v>
       </c>
       <c r="P144" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>5530</v>
       </c>
     </row>
@@ -33828,52 +33872,52 @@
         <v>133</v>
       </c>
       <c r="C145" s="4">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="D145" s="4">
-        <f t="shared" si="67"/>
-        <v>59987428</v>
+        <f t="shared" si="68"/>
+        <v>59987642</v>
       </c>
       <c r="E145" s="4">
-        <f t="shared" si="68"/>
-        <v>4172</v>
+        <f t="shared" si="69"/>
+        <v>3987</v>
       </c>
       <c r="F145" s="4">
-        <f t="shared" si="69"/>
-        <v>8400</v>
+        <f t="shared" si="70"/>
+        <v>8371</v>
       </c>
       <c r="G145" s="2">
-        <f t="shared" si="70"/>
-        <v>59987428</v>
+        <f t="shared" si="71"/>
+        <v>59987642</v>
       </c>
       <c r="H145" s="2">
-        <f t="shared" si="71"/>
-        <v>10875</v>
-      </c>
-      <c r="I145" s="7">
         <f t="shared" si="72"/>
         <v>10875</v>
       </c>
+      <c r="I145" s="7">
+        <f t="shared" si="73"/>
+        <v>10875</v>
+      </c>
       <c r="J145" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5865</v>
       </c>
       <c r="K145" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>44158</v>
       </c>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4">
-        <f t="shared" si="75"/>
-        <v>4172</v>
+        <f t="shared" si="76"/>
+        <v>3987</v>
       </c>
       <c r="O145" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>10875</v>
       </c>
       <c r="P145" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>5865</v>
       </c>
     </row>
@@ -33885,52 +33929,52 @@
         <v>134</v>
       </c>
       <c r="C146" s="4">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="D146" s="4">
-        <f t="shared" si="67"/>
-        <v>59986973</v>
+        <f t="shared" si="68"/>
+        <v>59987243</v>
       </c>
       <c r="E146" s="4">
-        <f t="shared" si="68"/>
-        <v>4279</v>
+        <f t="shared" si="69"/>
+        <v>4054</v>
       </c>
       <c r="F146" s="4">
-        <f t="shared" si="69"/>
-        <v>8748</v>
+        <f t="shared" si="70"/>
+        <v>8703</v>
       </c>
       <c r="G146" s="2">
-        <f t="shared" si="70"/>
-        <v>59986973</v>
+        <f t="shared" si="71"/>
+        <v>59987243</v>
       </c>
       <c r="H146" s="2">
-        <f t="shared" si="71"/>
-        <v>11727</v>
-      </c>
-      <c r="I146" s="7">
         <f t="shared" si="72"/>
         <v>11727</v>
       </c>
+      <c r="I146" s="7">
+        <f t="shared" si="73"/>
+        <v>11727</v>
+      </c>
       <c r="J146" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>6227</v>
       </c>
       <c r="K146" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>44159</v>
       </c>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
       <c r="N146" s="4">
-        <f t="shared" si="75"/>
-        <v>4279</v>
+        <f t="shared" si="76"/>
+        <v>4054</v>
       </c>
       <c r="O146" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>11727</v>
       </c>
       <c r="P146" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>6227</v>
       </c>
     </row>
@@ -33942,52 +33986,52 @@
         <v>134</v>
       </c>
       <c r="C147" s="10">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="D147" s="10">
-        <f t="shared" ref="D147:D153" si="78">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
-        <v>59986506</v>
+        <f t="shared" ref="D147:D153" si="79">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
+        <v>59986838</v>
       </c>
       <c r="E147" s="10">
-        <f t="shared" ref="E147:E153" si="79">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
-        <v>4389</v>
+        <f t="shared" ref="E147:E153" si="80">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
+        <v>4121</v>
       </c>
       <c r="F147" s="10">
-        <f t="shared" ref="F147:F153" si="80">F146+ROUND(E146/$D$2,0)</f>
-        <v>9105</v>
+        <f t="shared" ref="F147:F153" si="81">F146+ROUND(E146/$D$2,0)</f>
+        <v>9041</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" ref="G147:G153" si="81">D147</f>
-        <v>59986506</v>
+        <f t="shared" ref="G147:G153" si="82">D147</f>
+        <v>59986838</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" ref="H147:H153" si="82">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
+        <f t="shared" ref="H147:H153" si="83">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
         <v>12645</v>
       </c>
       <c r="I147" s="7">
-        <f t="shared" ref="I147:I153" si="83">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="I147:I153" si="84">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>12645</v>
       </c>
       <c r="J147" s="8">
-        <f t="shared" ref="J147:J153" si="84">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="J147:J153" si="85">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>6618</v>
       </c>
       <c r="K147" s="9">
-        <f t="shared" ref="K147:K153" si="85">A147</f>
+        <f t="shared" ref="K147:K153" si="86">A147</f>
         <v>44160</v>
       </c>
       <c r="L147" s="10"/>
       <c r="M147" s="10"/>
       <c r="N147" s="10">
-        <f t="shared" ref="N147:N153" si="86">E147</f>
-        <v>4389</v>
+        <f t="shared" ref="N147:N153" si="87">E147</f>
+        <v>4121</v>
       </c>
       <c r="O147" s="10">
-        <f t="shared" ref="O147:O153" si="87">I147</f>
+        <f t="shared" ref="O147:O153" si="88">I147</f>
         <v>12645</v>
       </c>
       <c r="P147" s="10">
-        <f t="shared" ref="P147:P153" si="88">J147</f>
+        <f t="shared" ref="P147:P153" si="89">J147</f>
         <v>6618</v>
       </c>
     </row>
@@ -33999,52 +34043,52 @@
         <v>134</v>
       </c>
       <c r="C148" s="10">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="D148" s="10">
-        <f t="shared" si="78"/>
-        <v>59986027</v>
+        <f t="shared" si="79"/>
+        <v>59986426</v>
       </c>
       <c r="E148" s="10">
-        <f t="shared" si="79"/>
-        <v>4502</v>
+        <f t="shared" si="80"/>
+        <v>4190</v>
       </c>
       <c r="F148" s="10">
-        <f t="shared" si="80"/>
-        <v>9471</v>
+        <f t="shared" si="81"/>
+        <v>9384</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="81"/>
-        <v>59986027</v>
+        <f t="shared" si="82"/>
+        <v>59986426</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="82"/>
-        <v>13635</v>
-      </c>
-      <c r="I148" s="7">
         <f t="shared" si="83"/>
         <v>13635</v>
       </c>
+      <c r="I148" s="7">
+        <f t="shared" si="84"/>
+        <v>13635</v>
+      </c>
       <c r="J148" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>7039</v>
       </c>
       <c r="K148" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>44161</v>
       </c>
       <c r="L148" s="10"/>
       <c r="M148" s="10"/>
       <c r="N148" s="10">
-        <f t="shared" si="86"/>
-        <v>4502</v>
+        <f t="shared" si="87"/>
+        <v>4190</v>
       </c>
       <c r="O148" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>13635</v>
       </c>
       <c r="P148" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>7039</v>
       </c>
     </row>
@@ -34056,52 +34100,52 @@
         <v>134</v>
       </c>
       <c r="C149" s="10">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="D149" s="10">
-        <f t="shared" si="78"/>
-        <v>59985536</v>
+        <f t="shared" si="79"/>
+        <v>59986007</v>
       </c>
       <c r="E149" s="10">
-        <f t="shared" si="79"/>
-        <v>4618</v>
+        <f t="shared" si="80"/>
+        <v>4260</v>
       </c>
       <c r="F149" s="10">
-        <f t="shared" si="80"/>
-        <v>9846</v>
+        <f t="shared" si="81"/>
+        <v>9733</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="81"/>
-        <v>59985536</v>
+        <f t="shared" si="82"/>
+        <v>59986007</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="82"/>
-        <v>14703</v>
-      </c>
-      <c r="I149" s="7">
         <f t="shared" si="83"/>
         <v>14703</v>
       </c>
+      <c r="I149" s="7">
+        <f t="shared" si="84"/>
+        <v>14703</v>
+      </c>
       <c r="J149" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>7493</v>
       </c>
       <c r="K149" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>44162</v>
       </c>
       <c r="L149" s="10"/>
       <c r="M149" s="10"/>
       <c r="N149" s="10">
-        <f t="shared" si="86"/>
-        <v>4618</v>
+        <f t="shared" si="87"/>
+        <v>4260</v>
       </c>
       <c r="O149" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>14703</v>
       </c>
       <c r="P149" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>7493</v>
       </c>
     </row>
@@ -34113,52 +34157,52 @@
         <v>134</v>
       </c>
       <c r="C150" s="10">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="D150" s="10">
-        <f t="shared" si="78"/>
-        <v>59985032</v>
+        <f t="shared" si="79"/>
+        <v>59985581</v>
       </c>
       <c r="E150" s="10">
-        <f t="shared" si="79"/>
-        <v>4737</v>
+        <f t="shared" si="80"/>
+        <v>4331</v>
       </c>
       <c r="F150" s="10">
-        <f t="shared" si="80"/>
-        <v>10231</v>
+        <f t="shared" si="81"/>
+        <v>10088</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="81"/>
-        <v>59985032</v>
+        <f t="shared" si="82"/>
+        <v>59985581</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="82"/>
-        <v>15854</v>
-      </c>
-      <c r="I150" s="7">
         <f t="shared" si="83"/>
         <v>15854</v>
       </c>
+      <c r="I150" s="7">
+        <f t="shared" si="84"/>
+        <v>15854</v>
+      </c>
       <c r="J150" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>7983</v>
       </c>
       <c r="K150" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>44163</v>
       </c>
       <c r="L150" s="10"/>
       <c r="M150" s="10"/>
       <c r="N150" s="10">
-        <f t="shared" si="86"/>
-        <v>4737</v>
+        <f t="shared" si="87"/>
+        <v>4331</v>
       </c>
       <c r="O150" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>15854</v>
       </c>
       <c r="P150" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>7983</v>
       </c>
     </row>
@@ -34170,52 +34214,52 @@
         <v>134</v>
       </c>
       <c r="C151" s="10">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="D151" s="10">
-        <f t="shared" si="78"/>
-        <v>59984515</v>
+        <f t="shared" si="79"/>
+        <v>59985148</v>
       </c>
       <c r="E151" s="10">
-        <f t="shared" si="79"/>
-        <v>4859</v>
+        <f t="shared" si="80"/>
+        <v>4403</v>
       </c>
       <c r="F151" s="10">
-        <f t="shared" si="80"/>
-        <v>10626</v>
+        <f t="shared" si="81"/>
+        <v>10449</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="81"/>
-        <v>59984515</v>
+        <f t="shared" si="82"/>
+        <v>59985148</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="82"/>
-        <v>17095</v>
-      </c>
-      <c r="I151" s="7">
         <f t="shared" si="83"/>
         <v>17095</v>
       </c>
+      <c r="I151" s="7">
+        <f t="shared" si="84"/>
+        <v>17095</v>
+      </c>
       <c r="J151" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>8511</v>
       </c>
       <c r="K151" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>44164</v>
       </c>
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
       <c r="N151" s="10">
-        <f t="shared" si="86"/>
-        <v>4859</v>
+        <f t="shared" si="87"/>
+        <v>4403</v>
       </c>
       <c r="O151" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>17095</v>
       </c>
       <c r="P151" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>8511</v>
       </c>
     </row>
@@ -34227,52 +34271,52 @@
         <v>134</v>
       </c>
       <c r="C152" s="10">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="D152" s="10">
-        <f t="shared" si="78"/>
-        <v>59983985</v>
+        <f t="shared" si="79"/>
+        <v>59984708</v>
       </c>
       <c r="E152" s="10">
-        <f t="shared" si="79"/>
-        <v>4984</v>
+        <f t="shared" si="80"/>
+        <v>4476</v>
       </c>
       <c r="F152" s="10">
-        <f t="shared" si="80"/>
-        <v>11031</v>
+        <f t="shared" si="81"/>
+        <v>10816</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="81"/>
-        <v>59983985</v>
+        <f t="shared" si="82"/>
+        <v>59984708</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="82"/>
-        <v>18433</v>
-      </c>
-      <c r="I152" s="7">
         <f t="shared" si="83"/>
         <v>18433</v>
       </c>
+      <c r="I152" s="7">
+        <f t="shared" si="84"/>
+        <v>18433</v>
+      </c>
       <c r="J152" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>9080</v>
       </c>
       <c r="K152" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>44165</v>
       </c>
       <c r="L152" s="10"/>
       <c r="M152" s="10"/>
       <c r="N152" s="10">
-        <f t="shared" si="86"/>
-        <v>4984</v>
+        <f t="shared" si="87"/>
+        <v>4476</v>
       </c>
       <c r="O152" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>18433</v>
       </c>
       <c r="P152" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>9080</v>
       </c>
     </row>
@@ -34284,52 +34328,52 @@
         <v>134</v>
       </c>
       <c r="C153" s="10">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="D153" s="10">
-        <f t="shared" si="78"/>
-        <v>59983441</v>
+        <f t="shared" si="79"/>
+        <v>59984261</v>
       </c>
       <c r="E153" s="10">
-        <f t="shared" si="79"/>
-        <v>5113</v>
+        <f t="shared" si="80"/>
+        <v>4550</v>
       </c>
       <c r="F153" s="10">
-        <f t="shared" si="80"/>
-        <v>11446</v>
+        <f t="shared" si="81"/>
+        <v>11189</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="81"/>
-        <v>59983441</v>
+        <f t="shared" si="82"/>
+        <v>59984261</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="82"/>
-        <v>19876</v>
-      </c>
-      <c r="I153" s="7">
         <f t="shared" si="83"/>
         <v>19876</v>
       </c>
+      <c r="I153" s="7">
+        <f t="shared" si="84"/>
+        <v>19876</v>
+      </c>
       <c r="J153" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>9694</v>
       </c>
       <c r="K153" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>44166</v>
       </c>
       <c r="L153" s="10"/>
       <c r="M153" s="10"/>
       <c r="N153" s="10">
-        <f t="shared" si="86"/>
-        <v>5113</v>
+        <f t="shared" si="87"/>
+        <v>4550</v>
       </c>
       <c r="O153" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>19876</v>
       </c>
       <c r="P153" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>9694</v>
       </c>
     </row>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C91431A-69D2-48AB-9BB2-3587BD22EB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD7EE53-6F36-4992-8258-969843DA6759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22560" yWindow="930" windowWidth="15720" windowHeight="10920" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -764,7 +764,10 @@
                   <c:v>3672</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3733</c:v>
+                  <c:v>3709</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,6 +1298,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>3712</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3598,7 +3604,10 @@
                   <c:v>3672</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3733</c:v>
+                  <c:v>3709</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4512,6 +4521,9 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>3712</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5687,7 +5699,10 @@
                   <c:v>3672</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3733</c:v>
+                  <c:v>3709</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6572,6 +6587,9 @@
                 <c:pt idx="135">
                   <c:v>3712</c:v>
                 </c:pt>
+                <c:pt idx="136">
+                  <c:v>3748</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7051,22 +7069,22 @@
                   <c:v>3672</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3733</c:v>
+                  <c:v>3709</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3795</c:v>
+                  <c:v>3746</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3858</c:v>
+                  <c:v>3784</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3922</c:v>
+                  <c:v>3822</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3987</c:v>
+                  <c:v>3860</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>4054</c:v>
+                  <c:v>3898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8262,7 +8280,10 @@
                   <c:v>3672</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3733</c:v>
+                  <c:v>3709</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9168,6 +9189,9 @@
                 <c:pt idx="135">
                   <c:v>3712</c:v>
                 </c:pt>
+                <c:pt idx="136">
+                  <c:v>3748</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9668,43 +9692,43 @@
                   <c:v>3672</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3733</c:v>
+                  <c:v>3709</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3795</c:v>
+                  <c:v>3746</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3858</c:v>
+                  <c:v>3784</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3922</c:v>
+                  <c:v>3822</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3987</c:v>
+                  <c:v>3860</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>4054</c:v>
+                  <c:v>3898</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>4121</c:v>
+                  <c:v>3904</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>4190</c:v>
+                  <c:v>3911</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>4260</c:v>
+                  <c:v>3917</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>4331</c:v>
+                  <c:v>3924</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>4403</c:v>
+                  <c:v>3930</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>4476</c:v>
+                  <c:v>3936</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>4550</c:v>
+                  <c:v>3942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10315,7 +10339,10 @@
                   <c:v>3672</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3733</c:v>
+                  <c:v>3709</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10654,6 +10681,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>3712</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25124,10 +25154,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
-  <dimension ref="A2:K138"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:K139"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:A138"/>
+      <selection activeCell="A137" sqref="A137:A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26238,6 +26269,14 @@
         <v>3712</v>
       </c>
     </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B139">
+        <v>3748</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26246,10 +26285,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE28" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142:C153"/>
+    <sheetView tabSelected="1" topLeftCell="W25" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147:C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33638,15 +33678,15 @@
         <v>129</v>
       </c>
       <c r="C141" s="4">
-        <v>1.2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D141" s="4">
         <f t="shared" si="54"/>
-        <v>59989172</v>
+        <v>59989196</v>
       </c>
       <c r="E141" s="4">
         <f t="shared" si="55"/>
-        <v>3733</v>
+        <v>3709</v>
       </c>
       <c r="F141" s="4">
         <f t="shared" si="56"/>
@@ -33654,7 +33694,7 @@
       </c>
       <c r="G141" s="2">
         <f t="shared" si="57"/>
-        <v>59989172</v>
+        <v>59989196</v>
       </c>
       <c r="H141" s="2">
         <f t="shared" si="58"/>
@@ -33674,7 +33714,7 @@
       </c>
       <c r="L141" s="4">
         <f t="shared" ref="L141" si="67">E141</f>
-        <v>3733</v>
+        <v>3709</v>
       </c>
       <c r="M141" s="4">
         <f>RealData!B138</f>
@@ -33682,7 +33722,7 @@
       </c>
       <c r="N141" s="4">
         <f t="shared" si="66"/>
-        <v>3733</v>
+        <v>3709</v>
       </c>
       <c r="O141" s="4">
         <f t="shared" si="62"/>
@@ -33701,23 +33741,23 @@
         <v>130</v>
       </c>
       <c r="C142" s="4">
-        <v>1.2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D142" s="4">
         <f t="shared" ref="D142:D146" si="68">D141-ROUND((C142/$D$2)*D141*(E141/$D$3),0)</f>
-        <v>59988799</v>
+        <v>59988850</v>
       </c>
       <c r="E142" s="4">
         <f t="shared" ref="E142:E146" si="69">E141+ROUND((C142/$D$2)*D141*(E141/$D$3),0)-ROUND(E141/$D$2,0)</f>
-        <v>3795</v>
+        <v>3746</v>
       </c>
       <c r="F142" s="4">
         <f t="shared" ref="F142:F146" si="70">F141+ROUND(E141/$D$2,0)</f>
-        <v>7406</v>
+        <v>7404</v>
       </c>
       <c r="G142" s="2">
         <f t="shared" ref="G142:G146" si="71">D142</f>
-        <v>59988799</v>
+        <v>59988850</v>
       </c>
       <c r="H142" s="2">
         <f t="shared" ref="H142:H146" si="72">H141+ROUND(($D$1/$D$2)*G141*(H141/$D$3),0)-ROUND(H141/$D$2,0)</f>
@@ -33735,18 +33775,24 @@
         <f t="shared" ref="K142:K146" si="75">A142</f>
         <v>44155</v>
       </c>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
+      <c r="L142" s="4">
+        <f t="shared" ref="L142" si="76">E142</f>
+        <v>3746</v>
+      </c>
+      <c r="M142" s="4">
+        <f>RealData!B139</f>
+        <v>3748</v>
+      </c>
       <c r="N142" s="4">
-        <f t="shared" ref="N142:N146" si="76">E142</f>
-        <v>3795</v>
+        <f t="shared" ref="N142:N146" si="77">E142</f>
+        <v>3746</v>
       </c>
       <c r="O142" s="4">
-        <f t="shared" ref="O142:O146" si="77">I142</f>
+        <f t="shared" ref="O142:O146" si="78">I142</f>
         <v>8674</v>
       </c>
       <c r="P142" s="4">
-        <f t="shared" ref="P142:P146" si="78">J142</f>
+        <f t="shared" ref="P142:P146" si="79">J142</f>
         <v>4929</v>
       </c>
     </row>
@@ -33758,23 +33804,23 @@
         <v>131</v>
       </c>
       <c r="C143" s="4">
-        <v>1.2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D143" s="4">
         <f t="shared" si="68"/>
-        <v>59988420</v>
+        <v>59988500</v>
       </c>
       <c r="E143" s="4">
         <f t="shared" si="69"/>
-        <v>3858</v>
+        <v>3784</v>
       </c>
       <c r="F143" s="4">
         <f t="shared" si="70"/>
-        <v>7722</v>
+        <v>7716</v>
       </c>
       <c r="G143" s="2">
         <f t="shared" si="71"/>
-        <v>59988420</v>
+        <v>59988500</v>
       </c>
       <c r="H143" s="2">
         <f t="shared" si="72"/>
@@ -33795,15 +33841,15 @@
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4">
-        <f t="shared" si="76"/>
-        <v>3858</v>
+        <f t="shared" si="77"/>
+        <v>3784</v>
       </c>
       <c r="O143" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>9353</v>
       </c>
       <c r="P143" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>5218</v>
       </c>
     </row>
@@ -33815,23 +33861,23 @@
         <v>132</v>
       </c>
       <c r="C144" s="4">
-        <v>1.2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" si="68"/>
-        <v>59988034</v>
+        <v>59988147</v>
       </c>
       <c r="E144" s="4">
         <f t="shared" si="69"/>
-        <v>3922</v>
+        <v>3822</v>
       </c>
       <c r="F144" s="4">
         <f t="shared" si="70"/>
-        <v>8044</v>
+        <v>8031</v>
       </c>
       <c r="G144" s="2">
         <f t="shared" si="71"/>
-        <v>59988034</v>
+        <v>59988147</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" si="72"/>
@@ -33852,15 +33898,15 @@
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4">
-        <f t="shared" si="76"/>
-        <v>3922</v>
+        <f t="shared" si="77"/>
+        <v>3822</v>
       </c>
       <c r="O144" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>10086</v>
       </c>
       <c r="P144" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>5530</v>
       </c>
     </row>
@@ -33872,23 +33918,23 @@
         <v>133</v>
       </c>
       <c r="C145" s="4">
-        <v>1.2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D145" s="4">
         <f t="shared" si="68"/>
-        <v>59987642</v>
+        <v>59987790</v>
       </c>
       <c r="E145" s="4">
         <f t="shared" si="69"/>
-        <v>3987</v>
+        <v>3860</v>
       </c>
       <c r="F145" s="4">
         <f t="shared" si="70"/>
-        <v>8371</v>
+        <v>8350</v>
       </c>
       <c r="G145" s="2">
         <f t="shared" si="71"/>
-        <v>59987642</v>
+        <v>59987790</v>
       </c>
       <c r="H145" s="2">
         <f t="shared" si="72"/>
@@ -33909,15 +33955,15 @@
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4">
-        <f t="shared" si="76"/>
-        <v>3987</v>
+        <f t="shared" si="77"/>
+        <v>3860</v>
       </c>
       <c r="O145" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>10875</v>
       </c>
       <c r="P145" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>5865</v>
       </c>
     </row>
@@ -33929,23 +33975,23 @@
         <v>134</v>
       </c>
       <c r="C146" s="4">
-        <v>1.2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="68"/>
-        <v>59987243</v>
+        <v>59987430</v>
       </c>
       <c r="E146" s="4">
         <f t="shared" si="69"/>
-        <v>4054</v>
+        <v>3898</v>
       </c>
       <c r="F146" s="4">
         <f t="shared" si="70"/>
-        <v>8703</v>
+        <v>8672</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" si="71"/>
-        <v>59987243</v>
+        <v>59987430</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="72"/>
@@ -33966,15 +34012,15 @@
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
       <c r="N146" s="4">
-        <f t="shared" si="76"/>
-        <v>4054</v>
+        <f t="shared" si="77"/>
+        <v>3898</v>
       </c>
       <c r="O146" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>11727</v>
       </c>
       <c r="P146" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>6227</v>
       </c>
     </row>
@@ -33986,52 +34032,52 @@
         <v>134</v>
       </c>
       <c r="C147" s="10">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="D147" s="10">
-        <f t="shared" ref="D147:D153" si="79">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
-        <v>59986838</v>
+        <f t="shared" ref="D147:D153" si="80">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
+        <v>59987099</v>
       </c>
       <c r="E147" s="10">
-        <f t="shared" ref="E147:E153" si="80">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
-        <v>4121</v>
+        <f t="shared" ref="E147:E153" si="81">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
+        <v>3904</v>
       </c>
       <c r="F147" s="10">
-        <f t="shared" ref="F147:F153" si="81">F146+ROUND(E146/$D$2,0)</f>
-        <v>9041</v>
+        <f t="shared" ref="F147:F153" si="82">F146+ROUND(E146/$D$2,0)</f>
+        <v>8997</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" ref="G147:G153" si="82">D147</f>
-        <v>59986838</v>
+        <f t="shared" ref="G147:G153" si="83">D147</f>
+        <v>59987099</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" ref="H147:H153" si="83">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
+        <f t="shared" ref="H147:H153" si="84">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
         <v>12645</v>
       </c>
       <c r="I147" s="7">
-        <f t="shared" ref="I147:I153" si="84">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="I147:I153" si="85">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>12645</v>
       </c>
       <c r="J147" s="8">
-        <f t="shared" ref="J147:J153" si="85">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="J147:J153" si="86">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>6618</v>
       </c>
       <c r="K147" s="9">
-        <f t="shared" ref="K147:K153" si="86">A147</f>
+        <f t="shared" ref="K147:K153" si="87">A147</f>
         <v>44160</v>
       </c>
       <c r="L147" s="10"/>
       <c r="M147" s="10"/>
       <c r="N147" s="10">
-        <f t="shared" ref="N147:N153" si="87">E147</f>
-        <v>4121</v>
+        <f t="shared" ref="N147:N153" si="88">E147</f>
+        <v>3904</v>
       </c>
       <c r="O147" s="10">
-        <f t="shared" ref="O147:O153" si="88">I147</f>
+        <f t="shared" ref="O147:O153" si="89">I147</f>
         <v>12645</v>
       </c>
       <c r="P147" s="10">
-        <f t="shared" ref="P147:P153" si="89">J147</f>
+        <f t="shared" ref="P147:P153" si="90">J147</f>
         <v>6618</v>
       </c>
     </row>
@@ -34043,52 +34089,52 @@
         <v>134</v>
       </c>
       <c r="C148" s="10">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="D148" s="10">
-        <f t="shared" si="79"/>
-        <v>59986426</v>
+        <f t="shared" si="80"/>
+        <v>59986767</v>
       </c>
       <c r="E148" s="10">
-        <f t="shared" si="80"/>
-        <v>4190</v>
+        <f t="shared" si="81"/>
+        <v>3911</v>
       </c>
       <c r="F148" s="10">
-        <f t="shared" si="81"/>
-        <v>9384</v>
+        <f t="shared" si="82"/>
+        <v>9322</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="82"/>
-        <v>59986426</v>
+        <f t="shared" si="83"/>
+        <v>59986767</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="83"/>
-        <v>13635</v>
-      </c>
-      <c r="I148" s="7">
         <f t="shared" si="84"/>
         <v>13635</v>
       </c>
+      <c r="I148" s="7">
+        <f t="shared" si="85"/>
+        <v>13635</v>
+      </c>
       <c r="J148" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>7039</v>
       </c>
       <c r="K148" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>44161</v>
       </c>
       <c r="L148" s="10"/>
       <c r="M148" s="10"/>
       <c r="N148" s="10">
-        <f t="shared" si="87"/>
-        <v>4190</v>
+        <f t="shared" si="88"/>
+        <v>3911</v>
       </c>
       <c r="O148" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>13635</v>
       </c>
       <c r="P148" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>7039</v>
       </c>
     </row>
@@ -34100,52 +34146,52 @@
         <v>134</v>
       </c>
       <c r="C149" s="10">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="D149" s="10">
-        <f t="shared" si="79"/>
-        <v>59986007</v>
+        <f t="shared" si="80"/>
+        <v>59986435</v>
       </c>
       <c r="E149" s="10">
-        <f t="shared" si="80"/>
-        <v>4260</v>
+        <f t="shared" si="81"/>
+        <v>3917</v>
       </c>
       <c r="F149" s="10">
-        <f t="shared" si="81"/>
-        <v>9733</v>
+        <f t="shared" si="82"/>
+        <v>9648</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="82"/>
-        <v>59986007</v>
+        <f t="shared" si="83"/>
+        <v>59986435</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="83"/>
-        <v>14703</v>
-      </c>
-      <c r="I149" s="7">
         <f t="shared" si="84"/>
         <v>14703</v>
       </c>
+      <c r="I149" s="7">
+        <f t="shared" si="85"/>
+        <v>14703</v>
+      </c>
       <c r="J149" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>7493</v>
       </c>
       <c r="K149" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>44162</v>
       </c>
       <c r="L149" s="10"/>
       <c r="M149" s="10"/>
       <c r="N149" s="10">
-        <f t="shared" si="87"/>
-        <v>4260</v>
+        <f t="shared" si="88"/>
+        <v>3917</v>
       </c>
       <c r="O149" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>14703</v>
       </c>
       <c r="P149" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>7493</v>
       </c>
     </row>
@@ -34157,52 +34203,52 @@
         <v>134</v>
       </c>
       <c r="C150" s="10">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="D150" s="10">
-        <f t="shared" si="79"/>
-        <v>59985581</v>
+        <f t="shared" si="80"/>
+        <v>59986102</v>
       </c>
       <c r="E150" s="10">
-        <f t="shared" si="80"/>
-        <v>4331</v>
+        <f t="shared" si="81"/>
+        <v>3924</v>
       </c>
       <c r="F150" s="10">
-        <f t="shared" si="81"/>
-        <v>10088</v>
+        <f t="shared" si="82"/>
+        <v>9974</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="82"/>
-        <v>59985581</v>
+        <f t="shared" si="83"/>
+        <v>59986102</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="83"/>
-        <v>15854</v>
-      </c>
-      <c r="I150" s="7">
         <f t="shared" si="84"/>
         <v>15854</v>
       </c>
+      <c r="I150" s="7">
+        <f t="shared" si="85"/>
+        <v>15854</v>
+      </c>
       <c r="J150" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>7983</v>
       </c>
       <c r="K150" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>44163</v>
       </c>
       <c r="L150" s="10"/>
       <c r="M150" s="10"/>
       <c r="N150" s="10">
-        <f t="shared" si="87"/>
-        <v>4331</v>
+        <f t="shared" si="88"/>
+        <v>3924</v>
       </c>
       <c r="O150" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>15854</v>
       </c>
       <c r="P150" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>7983</v>
       </c>
     </row>
@@ -34214,52 +34260,52 @@
         <v>134</v>
       </c>
       <c r="C151" s="10">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="D151" s="10">
-        <f t="shared" si="79"/>
-        <v>59985148</v>
+        <f t="shared" si="80"/>
+        <v>59985769</v>
       </c>
       <c r="E151" s="10">
-        <f t="shared" si="80"/>
-        <v>4403</v>
+        <f t="shared" si="81"/>
+        <v>3930</v>
       </c>
       <c r="F151" s="10">
-        <f t="shared" si="81"/>
-        <v>10449</v>
+        <f t="shared" si="82"/>
+        <v>10301</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="82"/>
-        <v>59985148</v>
+        <f t="shared" si="83"/>
+        <v>59985769</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="83"/>
-        <v>17095</v>
-      </c>
-      <c r="I151" s="7">
         <f t="shared" si="84"/>
         <v>17095</v>
       </c>
+      <c r="I151" s="7">
+        <f t="shared" si="85"/>
+        <v>17095</v>
+      </c>
       <c r="J151" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>8511</v>
       </c>
       <c r="K151" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>44164</v>
       </c>
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
       <c r="N151" s="10">
-        <f t="shared" si="87"/>
-        <v>4403</v>
+        <f t="shared" si="88"/>
+        <v>3930</v>
       </c>
       <c r="O151" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>17095</v>
       </c>
       <c r="P151" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>8511</v>
       </c>
     </row>
@@ -34271,52 +34317,52 @@
         <v>134</v>
       </c>
       <c r="C152" s="10">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="D152" s="10">
-        <f t="shared" si="79"/>
-        <v>59984708</v>
+        <f t="shared" si="80"/>
+        <v>59985435</v>
       </c>
       <c r="E152" s="10">
-        <f t="shared" si="80"/>
-        <v>4476</v>
+        <f t="shared" si="81"/>
+        <v>3936</v>
       </c>
       <c r="F152" s="10">
-        <f t="shared" si="81"/>
-        <v>10816</v>
+        <f t="shared" si="82"/>
+        <v>10629</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="82"/>
-        <v>59984708</v>
+        <f t="shared" si="83"/>
+        <v>59985435</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="83"/>
-        <v>18433</v>
-      </c>
-      <c r="I152" s="7">
         <f t="shared" si="84"/>
         <v>18433</v>
       </c>
+      <c r="I152" s="7">
+        <f t="shared" si="85"/>
+        <v>18433</v>
+      </c>
       <c r="J152" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>9080</v>
       </c>
       <c r="K152" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>44165</v>
       </c>
       <c r="L152" s="10"/>
       <c r="M152" s="10"/>
       <c r="N152" s="10">
-        <f t="shared" si="87"/>
-        <v>4476</v>
+        <f t="shared" si="88"/>
+        <v>3936</v>
       </c>
       <c r="O152" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>18433</v>
       </c>
       <c r="P152" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>9080</v>
       </c>
     </row>
@@ -34328,52 +34374,52 @@
         <v>134</v>
       </c>
       <c r="C153" s="10">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="D153" s="10">
-        <f t="shared" si="79"/>
-        <v>59984261</v>
+        <f t="shared" si="80"/>
+        <v>59985101</v>
       </c>
       <c r="E153" s="10">
-        <f t="shared" si="80"/>
-        <v>4550</v>
+        <f t="shared" si="81"/>
+        <v>3942</v>
       </c>
       <c r="F153" s="10">
-        <f t="shared" si="81"/>
-        <v>11189</v>
+        <f t="shared" si="82"/>
+        <v>10957</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="82"/>
-        <v>59984261</v>
+        <f t="shared" si="83"/>
+        <v>59985101</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="83"/>
-        <v>19876</v>
-      </c>
-      <c r="I153" s="7">
         <f t="shared" si="84"/>
         <v>19876</v>
       </c>
+      <c r="I153" s="7">
+        <f t="shared" si="85"/>
+        <v>19876</v>
+      </c>
       <c r="J153" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>9694</v>
       </c>
       <c r="K153" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>44166</v>
       </c>
       <c r="L153" s="10"/>
       <c r="M153" s="10"/>
       <c r="N153" s="10">
-        <f t="shared" si="87"/>
-        <v>4550</v>
+        <f t="shared" si="88"/>
+        <v>3942</v>
       </c>
       <c r="O153" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>19876</v>
       </c>
       <c r="P153" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>9694</v>
       </c>
     </row>
@@ -34386,6 +34432,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C18E4-1873-48DD-B7B4-EAEB82B5E392}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P134"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD7EE53-6F36-4992-8258-969843DA6759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F3B36E-FF4D-44F5-9BE8-205AB317EDCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
@@ -769,6 +769,15 @@
                 <c:pt idx="72">
                   <c:v>3746</c:v>
                 </c:pt>
+                <c:pt idx="73">
+                  <c:v>3768</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3790</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3812</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1301,6 +1310,15 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>3748</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3758</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3609,6 +3627,15 @@
                 <c:pt idx="136">
                   <c:v>3746</c:v>
                 </c:pt>
+                <c:pt idx="137">
+                  <c:v>3768</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3790</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3812</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4524,6 +4551,15 @@
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>3748</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3758</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5704,6 +5740,15 @@
                 <c:pt idx="136">
                   <c:v>3746</c:v>
                 </c:pt>
+                <c:pt idx="137">
+                  <c:v>3768</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3790</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3812</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6590,6 +6635,15 @@
                 <c:pt idx="136">
                   <c:v>3748</c:v>
                 </c:pt>
+                <c:pt idx="137">
+                  <c:v>3758</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3810</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7075,16 +7129,16 @@
                   <c:v>3746</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3784</c:v>
+                  <c:v>3768</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3822</c:v>
+                  <c:v>3790</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3860</c:v>
+                  <c:v>3812</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3898</c:v>
+                  <c:v>3834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8285,6 +8339,15 @@
                 <c:pt idx="136">
                   <c:v>3746</c:v>
                 </c:pt>
+                <c:pt idx="137">
+                  <c:v>3768</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3790</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3812</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9192,6 +9255,15 @@
                 <c:pt idx="136">
                   <c:v>3748</c:v>
                 </c:pt>
+                <c:pt idx="137">
+                  <c:v>3758</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3810</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9698,37 +9770,37 @@
                   <c:v>3746</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3784</c:v>
+                  <c:v>3768</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3822</c:v>
+                  <c:v>3790</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3860</c:v>
+                  <c:v>3812</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3898</c:v>
+                  <c:v>3834</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3904</c:v>
+                  <c:v>3840</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3911</c:v>
+                  <c:v>3846</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3917</c:v>
+                  <c:v>3852</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3924</c:v>
+                  <c:v>3858</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3930</c:v>
+                  <c:v>3864</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3936</c:v>
+                  <c:v>3870</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3942</c:v>
+                  <c:v>3876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10344,6 +10416,15 @@
                 <c:pt idx="40">
                   <c:v>3746</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>3768</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3790</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3812</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10684,6 +10765,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3748</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3758</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25155,10 +25245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:K139"/>
+  <dimension ref="A2:K142"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:A139"/>
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26277,6 +26367,30 @@
         <v>3748</v>
       </c>
     </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B140">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B141">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B142">
+        <v>3810</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26288,8 +26402,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W25" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147:C153"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33804,15 +33918,15 @@
         <v>131</v>
       </c>
       <c r="C143" s="4">
-        <v>1.1200000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="D143" s="4">
         <f t="shared" si="68"/>
-        <v>59988500</v>
+        <v>59988516</v>
       </c>
       <c r="E143" s="4">
         <f t="shared" si="69"/>
-        <v>3784</v>
+        <v>3768</v>
       </c>
       <c r="F143" s="4">
         <f t="shared" si="70"/>
@@ -33820,7 +33934,7 @@
       </c>
       <c r="G143" s="2">
         <f t="shared" si="71"/>
-        <v>59988500</v>
+        <v>59988516</v>
       </c>
       <c r="H143" s="2">
         <f t="shared" si="72"/>
@@ -33838,11 +33952,17 @@
         <f t="shared" si="75"/>
         <v>44156</v>
       </c>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
+      <c r="L143" s="4">
+        <f t="shared" ref="L143:L145" si="80">E143</f>
+        <v>3768</v>
+      </c>
+      <c r="M143" s="4">
+        <f>RealData!B140</f>
+        <v>3758</v>
+      </c>
       <c r="N143" s="4">
         <f t="shared" si="77"/>
-        <v>3784</v>
+        <v>3768</v>
       </c>
       <c r="O143" s="4">
         <f t="shared" si="78"/>
@@ -33861,23 +33981,23 @@
         <v>132</v>
       </c>
       <c r="C144" s="4">
-        <v>1.1200000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" si="68"/>
-        <v>59988147</v>
+        <v>59988180</v>
       </c>
       <c r="E144" s="4">
         <f t="shared" si="69"/>
-        <v>3822</v>
+        <v>3790</v>
       </c>
       <c r="F144" s="4">
         <f t="shared" si="70"/>
-        <v>8031</v>
+        <v>8030</v>
       </c>
       <c r="G144" s="2">
         <f t="shared" si="71"/>
-        <v>59988147</v>
+        <v>59988180</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" si="72"/>
@@ -33895,11 +34015,17 @@
         <f t="shared" si="75"/>
         <v>44157</v>
       </c>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
+      <c r="L144" s="4">
+        <f t="shared" si="80"/>
+        <v>3790</v>
+      </c>
+      <c r="M144" s="4">
+        <f>RealData!B141</f>
+        <v>3801</v>
+      </c>
       <c r="N144" s="4">
         <f t="shared" si="77"/>
-        <v>3822</v>
+        <v>3790</v>
       </c>
       <c r="O144" s="4">
         <f t="shared" si="78"/>
@@ -33918,23 +34044,23 @@
         <v>133</v>
       </c>
       <c r="C145" s="4">
-        <v>1.1200000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="D145" s="4">
         <f t="shared" si="68"/>
-        <v>59987790</v>
+        <v>59987842</v>
       </c>
       <c r="E145" s="4">
         <f t="shared" si="69"/>
-        <v>3860</v>
+        <v>3812</v>
       </c>
       <c r="F145" s="4">
         <f t="shared" si="70"/>
-        <v>8350</v>
+        <v>8346</v>
       </c>
       <c r="G145" s="2">
         <f t="shared" si="71"/>
-        <v>59987790</v>
+        <v>59987842</v>
       </c>
       <c r="H145" s="2">
         <f t="shared" si="72"/>
@@ -33952,11 +34078,17 @@
         <f t="shared" si="75"/>
         <v>44158</v>
       </c>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
+      <c r="L145" s="4">
+        <f t="shared" si="80"/>
+        <v>3812</v>
+      </c>
+      <c r="M145" s="4">
+        <f>RealData!B142</f>
+        <v>3810</v>
+      </c>
       <c r="N145" s="4">
         <f t="shared" si="77"/>
-        <v>3860</v>
+        <v>3812</v>
       </c>
       <c r="O145" s="4">
         <f t="shared" si="78"/>
@@ -33975,23 +34107,23 @@
         <v>134</v>
       </c>
       <c r="C146" s="4">
-        <v>1.1200000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="68"/>
-        <v>59987430</v>
+        <v>59987502</v>
       </c>
       <c r="E146" s="4">
         <f t="shared" si="69"/>
-        <v>3898</v>
+        <v>3834</v>
       </c>
       <c r="F146" s="4">
         <f t="shared" si="70"/>
-        <v>8672</v>
+        <v>8664</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" si="71"/>
-        <v>59987430</v>
+        <v>59987502</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="72"/>
@@ -34013,7 +34145,7 @@
       <c r="M146" s="4"/>
       <c r="N146" s="4">
         <f t="shared" si="77"/>
-        <v>3898</v>
+        <v>3834</v>
       </c>
       <c r="O146" s="4">
         <f t="shared" si="78"/>
@@ -34035,49 +34167,49 @@
         <v>1.02</v>
       </c>
       <c r="D147" s="10">
-        <f t="shared" ref="D147:D153" si="80">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
-        <v>59987099</v>
+        <f t="shared" ref="D147:D153" si="81">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
+        <v>59987176</v>
       </c>
       <c r="E147" s="10">
-        <f t="shared" ref="E147:E153" si="81">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
-        <v>3904</v>
+        <f t="shared" ref="E147:E153" si="82">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
+        <v>3840</v>
       </c>
       <c r="F147" s="10">
-        <f t="shared" ref="F147:F153" si="82">F146+ROUND(E146/$D$2,0)</f>
-        <v>8997</v>
+        <f t="shared" ref="F147:F153" si="83">F146+ROUND(E146/$D$2,0)</f>
+        <v>8984</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" ref="G147:G153" si="83">D147</f>
-        <v>59987099</v>
+        <f t="shared" ref="G147:G153" si="84">D147</f>
+        <v>59987176</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" ref="H147:H153" si="84">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
+        <f t="shared" ref="H147:H153" si="85">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
         <v>12645</v>
       </c>
       <c r="I147" s="7">
-        <f t="shared" ref="I147:I153" si="85">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="I147:I153" si="86">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>12645</v>
       </c>
       <c r="J147" s="8">
-        <f t="shared" ref="J147:J153" si="86">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="J147:J153" si="87">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>6618</v>
       </c>
       <c r="K147" s="9">
-        <f t="shared" ref="K147:K153" si="87">A147</f>
+        <f t="shared" ref="K147:K153" si="88">A147</f>
         <v>44160</v>
       </c>
       <c r="L147" s="10"/>
       <c r="M147" s="10"/>
       <c r="N147" s="10">
-        <f t="shared" ref="N147:N153" si="88">E147</f>
-        <v>3904</v>
+        <f t="shared" ref="N147:N153" si="89">E147</f>
+        <v>3840</v>
       </c>
       <c r="O147" s="10">
-        <f t="shared" ref="O147:O153" si="89">I147</f>
+        <f t="shared" ref="O147:O153" si="90">I147</f>
         <v>12645</v>
       </c>
       <c r="P147" s="10">
-        <f t="shared" ref="P147:P153" si="90">J147</f>
+        <f t="shared" ref="P147:P153" si="91">J147</f>
         <v>6618</v>
       </c>
     </row>
@@ -34092,49 +34224,49 @@
         <v>1.02</v>
       </c>
       <c r="D148" s="10">
-        <f t="shared" si="80"/>
-        <v>59986767</v>
+        <f t="shared" si="81"/>
+        <v>59986850</v>
       </c>
       <c r="E148" s="10">
-        <f t="shared" si="81"/>
-        <v>3911</v>
+        <f t="shared" si="82"/>
+        <v>3846</v>
       </c>
       <c r="F148" s="10">
-        <f t="shared" si="82"/>
-        <v>9322</v>
+        <f t="shared" si="83"/>
+        <v>9304</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="83"/>
-        <v>59986767</v>
+        <f t="shared" si="84"/>
+        <v>59986850</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="84"/>
-        <v>13635</v>
-      </c>
-      <c r="I148" s="7">
         <f t="shared" si="85"/>
         <v>13635</v>
       </c>
+      <c r="I148" s="7">
+        <f t="shared" si="86"/>
+        <v>13635</v>
+      </c>
       <c r="J148" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>7039</v>
       </c>
       <c r="K148" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>44161</v>
       </c>
       <c r="L148" s="10"/>
       <c r="M148" s="10"/>
       <c r="N148" s="10">
-        <f t="shared" si="88"/>
-        <v>3911</v>
+        <f t="shared" si="89"/>
+        <v>3846</v>
       </c>
       <c r="O148" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>13635</v>
       </c>
       <c r="P148" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>7039</v>
       </c>
     </row>
@@ -34149,49 +34281,49 @@
         <v>1.02</v>
       </c>
       <c r="D149" s="10">
-        <f t="shared" si="80"/>
-        <v>59986435</v>
+        <f t="shared" si="81"/>
+        <v>59986523</v>
       </c>
       <c r="E149" s="10">
-        <f t="shared" si="81"/>
-        <v>3917</v>
+        <f t="shared" si="82"/>
+        <v>3852</v>
       </c>
       <c r="F149" s="10">
-        <f t="shared" si="82"/>
-        <v>9648</v>
+        <f t="shared" si="83"/>
+        <v>9625</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="83"/>
-        <v>59986435</v>
+        <f t="shared" si="84"/>
+        <v>59986523</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="84"/>
-        <v>14703</v>
-      </c>
-      <c r="I149" s="7">
         <f t="shared" si="85"/>
         <v>14703</v>
       </c>
+      <c r="I149" s="7">
+        <f t="shared" si="86"/>
+        <v>14703</v>
+      </c>
       <c r="J149" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>7493</v>
       </c>
       <c r="K149" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>44162</v>
       </c>
       <c r="L149" s="10"/>
       <c r="M149" s="10"/>
       <c r="N149" s="10">
-        <f t="shared" si="88"/>
-        <v>3917</v>
+        <f t="shared" si="89"/>
+        <v>3852</v>
       </c>
       <c r="O149" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>14703</v>
       </c>
       <c r="P149" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>7493</v>
       </c>
     </row>
@@ -34206,49 +34338,49 @@
         <v>1.02</v>
       </c>
       <c r="D150" s="10">
-        <f t="shared" si="80"/>
-        <v>59986102</v>
+        <f t="shared" si="81"/>
+        <v>59986196</v>
       </c>
       <c r="E150" s="10">
-        <f t="shared" si="81"/>
-        <v>3924</v>
+        <f t="shared" si="82"/>
+        <v>3858</v>
       </c>
       <c r="F150" s="10">
-        <f t="shared" si="82"/>
-        <v>9974</v>
+        <f t="shared" si="83"/>
+        <v>9946</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="83"/>
-        <v>59986102</v>
+        <f t="shared" si="84"/>
+        <v>59986196</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="84"/>
-        <v>15854</v>
-      </c>
-      <c r="I150" s="7">
         <f t="shared" si="85"/>
         <v>15854</v>
       </c>
+      <c r="I150" s="7">
+        <f t="shared" si="86"/>
+        <v>15854</v>
+      </c>
       <c r="J150" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>7983</v>
       </c>
       <c r="K150" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>44163</v>
       </c>
       <c r="L150" s="10"/>
       <c r="M150" s="10"/>
       <c r="N150" s="10">
-        <f t="shared" si="88"/>
-        <v>3924</v>
+        <f t="shared" si="89"/>
+        <v>3858</v>
       </c>
       <c r="O150" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>15854</v>
       </c>
       <c r="P150" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>7983</v>
       </c>
     </row>
@@ -34263,49 +34395,49 @@
         <v>1.02</v>
       </c>
       <c r="D151" s="10">
-        <f t="shared" si="80"/>
-        <v>59985769</v>
+        <f t="shared" si="81"/>
+        <v>59985868</v>
       </c>
       <c r="E151" s="10">
-        <f t="shared" si="81"/>
-        <v>3930</v>
+        <f t="shared" si="82"/>
+        <v>3864</v>
       </c>
       <c r="F151" s="10">
-        <f t="shared" si="82"/>
-        <v>10301</v>
+        <f t="shared" si="83"/>
+        <v>10268</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="83"/>
-        <v>59985769</v>
+        <f t="shared" si="84"/>
+        <v>59985868</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="84"/>
-        <v>17095</v>
-      </c>
-      <c r="I151" s="7">
         <f t="shared" si="85"/>
         <v>17095</v>
       </c>
+      <c r="I151" s="7">
+        <f t="shared" si="86"/>
+        <v>17095</v>
+      </c>
       <c r="J151" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>8511</v>
       </c>
       <c r="K151" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>44164</v>
       </c>
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
       <c r="N151" s="10">
-        <f t="shared" si="88"/>
-        <v>3930</v>
+        <f t="shared" si="89"/>
+        <v>3864</v>
       </c>
       <c r="O151" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>17095</v>
       </c>
       <c r="P151" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>8511</v>
       </c>
     </row>
@@ -34320,49 +34452,49 @@
         <v>1.02</v>
       </c>
       <c r="D152" s="10">
-        <f t="shared" si="80"/>
-        <v>59985435</v>
+        <f t="shared" si="81"/>
+        <v>59985540</v>
       </c>
       <c r="E152" s="10">
-        <f t="shared" si="81"/>
-        <v>3936</v>
+        <f t="shared" si="82"/>
+        <v>3870</v>
       </c>
       <c r="F152" s="10">
-        <f t="shared" si="82"/>
-        <v>10629</v>
+        <f t="shared" si="83"/>
+        <v>10590</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="83"/>
-        <v>59985435</v>
+        <f t="shared" si="84"/>
+        <v>59985540</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="84"/>
-        <v>18433</v>
-      </c>
-      <c r="I152" s="7">
         <f t="shared" si="85"/>
         <v>18433</v>
       </c>
+      <c r="I152" s="7">
+        <f t="shared" si="86"/>
+        <v>18433</v>
+      </c>
       <c r="J152" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>9080</v>
       </c>
       <c r="K152" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>44165</v>
       </c>
       <c r="L152" s="10"/>
       <c r="M152" s="10"/>
       <c r="N152" s="10">
-        <f t="shared" si="88"/>
-        <v>3936</v>
+        <f t="shared" si="89"/>
+        <v>3870</v>
       </c>
       <c r="O152" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>18433</v>
       </c>
       <c r="P152" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>9080</v>
       </c>
     </row>
@@ -34377,49 +34509,49 @@
         <v>1.02</v>
       </c>
       <c r="D153" s="10">
-        <f t="shared" si="80"/>
-        <v>59985101</v>
+        <f t="shared" si="81"/>
+        <v>59985211</v>
       </c>
       <c r="E153" s="10">
-        <f t="shared" si="81"/>
-        <v>3942</v>
+        <f t="shared" si="82"/>
+        <v>3876</v>
       </c>
       <c r="F153" s="10">
-        <f t="shared" si="82"/>
-        <v>10957</v>
+        <f t="shared" si="83"/>
+        <v>10913</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="83"/>
-        <v>59985101</v>
+        <f t="shared" si="84"/>
+        <v>59985211</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="84"/>
-        <v>19876</v>
-      </c>
-      <c r="I153" s="7">
         <f t="shared" si="85"/>
         <v>19876</v>
       </c>
+      <c r="I153" s="7">
+        <f t="shared" si="86"/>
+        <v>19876</v>
+      </c>
       <c r="J153" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>9694</v>
       </c>
       <c r="K153" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>44166</v>
       </c>
       <c r="L153" s="10"/>
       <c r="M153" s="10"/>
       <c r="N153" s="10">
-        <f t="shared" si="88"/>
-        <v>3942</v>
+        <f t="shared" si="89"/>
+        <v>3876</v>
       </c>
       <c r="O153" s="10">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>19876</v>
       </c>
       <c r="P153" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>9694</v>
       </c>
     </row>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F3B36E-FF4D-44F5-9BE8-205AB317EDCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6586096-1CC9-49D1-BD85-9A5F3C68D926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="21840" yWindow="375" windowWidth="15720" windowHeight="10920" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -778,6 +778,9 @@
                 <c:pt idx="75">
                   <c:v>3812</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>3818</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1319,6 +1322,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>3810</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3636,6 +3642,9 @@
                 <c:pt idx="139">
                   <c:v>3812</c:v>
                 </c:pt>
+                <c:pt idx="140">
+                  <c:v>3818</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4560,6 +4569,9 @@
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>3810</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5749,6 +5761,9 @@
                 <c:pt idx="139">
                   <c:v>3812</c:v>
                 </c:pt>
+                <c:pt idx="140">
+                  <c:v>3818</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6644,6 +6659,9 @@
                 <c:pt idx="139">
                   <c:v>3810</c:v>
                 </c:pt>
+                <c:pt idx="140">
+                  <c:v>3816</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7138,7 +7156,7 @@
                   <c:v>3812</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3834</c:v>
+                  <c:v>3818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8348,6 +8366,9 @@
                 <c:pt idx="139">
                   <c:v>3812</c:v>
                 </c:pt>
+                <c:pt idx="140">
+                  <c:v>3818</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9264,6 +9285,9 @@
                 <c:pt idx="139">
                   <c:v>3810</c:v>
                 </c:pt>
+                <c:pt idx="140">
+                  <c:v>3816</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9779,28 +9803,28 @@
                   <c:v>3812</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3834</c:v>
+                  <c:v>3818</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3840</c:v>
+                  <c:v>3824</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3846</c:v>
+                  <c:v>3830</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3852</c:v>
+                  <c:v>3830</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3858</c:v>
+                  <c:v>3830</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3864</c:v>
+                  <c:v>3830</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3870</c:v>
+                  <c:v>3830</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3876</c:v>
+                  <c:v>3830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10425,6 +10449,9 @@
                 <c:pt idx="43">
                   <c:v>3812</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>3818</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10774,6 +10801,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3810</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25245,10 +25275,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:K142"/>
+  <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26391,6 +26421,14 @@
         <v>3810</v>
       </c>
     </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B143">
+        <v>3816</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26402,8 +26440,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" topLeftCell="AD34" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149:C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34107,15 +34145,15 @@
         <v>134</v>
       </c>
       <c r="C146" s="4">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="68"/>
-        <v>59987502</v>
+        <v>59987518</v>
       </c>
       <c r="E146" s="4">
         <f t="shared" si="69"/>
-        <v>3834</v>
+        <v>3818</v>
       </c>
       <c r="F146" s="4">
         <f t="shared" si="70"/>
@@ -34123,7 +34161,7 @@
       </c>
       <c r="G146" s="2">
         <f t="shared" si="71"/>
-        <v>59987502</v>
+        <v>59987518</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="72"/>
@@ -34141,11 +34179,17 @@
         <f t="shared" si="75"/>
         <v>44159</v>
       </c>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
+      <c r="L146" s="4">
+        <f t="shared" ref="L146" si="81">E146</f>
+        <v>3818</v>
+      </c>
+      <c r="M146" s="4">
+        <f>RealData!B143</f>
+        <v>3816</v>
+      </c>
       <c r="N146" s="4">
         <f t="shared" si="77"/>
-        <v>3834</v>
+        <v>3818</v>
       </c>
       <c r="O146" s="4">
         <f t="shared" si="78"/>
@@ -34167,49 +34211,49 @@
         <v>1.02</v>
       </c>
       <c r="D147" s="10">
-        <f t="shared" ref="D147:D153" si="81">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
-        <v>59987176</v>
+        <f t="shared" ref="D147:D153" si="82">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
+        <v>59987194</v>
       </c>
       <c r="E147" s="10">
-        <f t="shared" ref="E147:E153" si="82">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
-        <v>3840</v>
+        <f t="shared" ref="E147:E153" si="83">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
+        <v>3824</v>
       </c>
       <c r="F147" s="10">
-        <f t="shared" ref="F147:F153" si="83">F146+ROUND(E146/$D$2,0)</f>
-        <v>8984</v>
+        <f t="shared" ref="F147:F153" si="84">F146+ROUND(E146/$D$2,0)</f>
+        <v>8982</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" ref="G147:G153" si="84">D147</f>
-        <v>59987176</v>
+        <f t="shared" ref="G147:G153" si="85">D147</f>
+        <v>59987194</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" ref="H147:H153" si="85">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
+        <f t="shared" ref="H147:H153" si="86">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
         <v>12645</v>
       </c>
       <c r="I147" s="7">
-        <f t="shared" ref="I147:I153" si="86">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="I147:I153" si="87">I146+ROUND(($D$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>12645</v>
       </c>
       <c r="J147" s="8">
-        <f t="shared" ref="J147:J153" si="87">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
+        <f t="shared" ref="J147:J153" si="88">J146+ROUND(($E$1/$D$2)*G146*(I146/$D$3),0)-ROUND(I146/$D$2,0)</f>
         <v>6618</v>
       </c>
       <c r="K147" s="9">
-        <f t="shared" ref="K147:K153" si="88">A147</f>
+        <f t="shared" ref="K147:K153" si="89">A147</f>
         <v>44160</v>
       </c>
       <c r="L147" s="10"/>
       <c r="M147" s="10"/>
       <c r="N147" s="10">
-        <f t="shared" ref="N147:N153" si="89">E147</f>
-        <v>3840</v>
+        <f t="shared" ref="N147:N153" si="90">E147</f>
+        <v>3824</v>
       </c>
       <c r="O147" s="10">
-        <f t="shared" ref="O147:O153" si="90">I147</f>
+        <f t="shared" ref="O147:O153" si="91">I147</f>
         <v>12645</v>
       </c>
       <c r="P147" s="10">
-        <f t="shared" ref="P147:P153" si="91">J147</f>
+        <f t="shared" ref="P147:P153" si="92">J147</f>
         <v>6618</v>
       </c>
     </row>
@@ -34224,49 +34268,49 @@
         <v>1.02</v>
       </c>
       <c r="D148" s="10">
-        <f t="shared" si="81"/>
-        <v>59986850</v>
+        <f t="shared" si="82"/>
+        <v>59986869</v>
       </c>
       <c r="E148" s="10">
-        <f t="shared" si="82"/>
-        <v>3846</v>
+        <f t="shared" si="83"/>
+        <v>3830</v>
       </c>
       <c r="F148" s="10">
-        <f t="shared" si="83"/>
-        <v>9304</v>
+        <f t="shared" si="84"/>
+        <v>9301</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="84"/>
-        <v>59986850</v>
+        <f t="shared" si="85"/>
+        <v>59986869</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="85"/>
-        <v>13635</v>
-      </c>
-      <c r="I148" s="7">
         <f t="shared" si="86"/>
         <v>13635</v>
       </c>
+      <c r="I148" s="7">
+        <f t="shared" si="87"/>
+        <v>13635</v>
+      </c>
       <c r="J148" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>7039</v>
       </c>
       <c r="K148" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>44161</v>
       </c>
       <c r="L148" s="10"/>
       <c r="M148" s="10"/>
       <c r="N148" s="10">
-        <f t="shared" si="89"/>
-        <v>3846</v>
+        <f t="shared" si="90"/>
+        <v>3830</v>
       </c>
       <c r="O148" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>13635</v>
       </c>
       <c r="P148" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>7039</v>
       </c>
     </row>
@@ -34278,52 +34322,52 @@
         <v>134</v>
       </c>
       <c r="C149" s="10">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="D149" s="10">
-        <f t="shared" si="81"/>
-        <v>59986523</v>
+        <f t="shared" si="82"/>
+        <v>59986550</v>
       </c>
       <c r="E149" s="10">
-        <f t="shared" si="82"/>
-        <v>3852</v>
+        <f t="shared" si="83"/>
+        <v>3830</v>
       </c>
       <c r="F149" s="10">
-        <f t="shared" si="83"/>
-        <v>9625</v>
+        <f t="shared" si="84"/>
+        <v>9620</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="84"/>
-        <v>59986523</v>
+        <f t="shared" si="85"/>
+        <v>59986550</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="85"/>
-        <v>14703</v>
-      </c>
-      <c r="I149" s="7">
         <f t="shared" si="86"/>
         <v>14703</v>
       </c>
+      <c r="I149" s="7">
+        <f t="shared" si="87"/>
+        <v>14703</v>
+      </c>
       <c r="J149" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>7493</v>
       </c>
       <c r="K149" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>44162</v>
       </c>
       <c r="L149" s="10"/>
       <c r="M149" s="10"/>
       <c r="N149" s="10">
-        <f t="shared" si="89"/>
-        <v>3852</v>
+        <f t="shared" si="90"/>
+        <v>3830</v>
       </c>
       <c r="O149" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>14703</v>
       </c>
       <c r="P149" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>7493</v>
       </c>
     </row>
@@ -34335,52 +34379,52 @@
         <v>134</v>
       </c>
       <c r="C150" s="10">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="D150" s="10">
-        <f t="shared" si="81"/>
-        <v>59986196</v>
+        <f t="shared" si="82"/>
+        <v>59986231</v>
       </c>
       <c r="E150" s="10">
-        <f t="shared" si="82"/>
-        <v>3858</v>
+        <f t="shared" si="83"/>
+        <v>3830</v>
       </c>
       <c r="F150" s="10">
-        <f t="shared" si="83"/>
-        <v>9946</v>
+        <f t="shared" si="84"/>
+        <v>9939</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="84"/>
-        <v>59986196</v>
+        <f t="shared" si="85"/>
+        <v>59986231</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="85"/>
-        <v>15854</v>
-      </c>
-      <c r="I150" s="7">
         <f t="shared" si="86"/>
         <v>15854</v>
       </c>
+      <c r="I150" s="7">
+        <f t="shared" si="87"/>
+        <v>15854</v>
+      </c>
       <c r="J150" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>7983</v>
       </c>
       <c r="K150" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>44163</v>
       </c>
       <c r="L150" s="10"/>
       <c r="M150" s="10"/>
       <c r="N150" s="10">
-        <f t="shared" si="89"/>
-        <v>3858</v>
+        <f t="shared" si="90"/>
+        <v>3830</v>
       </c>
       <c r="O150" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>15854</v>
       </c>
       <c r="P150" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>7983</v>
       </c>
     </row>
@@ -34392,52 +34436,52 @@
         <v>134</v>
       </c>
       <c r="C151" s="10">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="D151" s="10">
-        <f t="shared" si="81"/>
-        <v>59985868</v>
+        <f t="shared" si="82"/>
+        <v>59985912</v>
       </c>
       <c r="E151" s="10">
-        <f t="shared" si="82"/>
-        <v>3864</v>
+        <f t="shared" si="83"/>
+        <v>3830</v>
       </c>
       <c r="F151" s="10">
-        <f t="shared" si="83"/>
-        <v>10268</v>
+        <f t="shared" si="84"/>
+        <v>10258</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="84"/>
-        <v>59985868</v>
+        <f t="shared" si="85"/>
+        <v>59985912</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="85"/>
-        <v>17095</v>
-      </c>
-      <c r="I151" s="7">
         <f t="shared" si="86"/>
         <v>17095</v>
       </c>
+      <c r="I151" s="7">
+        <f t="shared" si="87"/>
+        <v>17095</v>
+      </c>
       <c r="J151" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>8511</v>
       </c>
       <c r="K151" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>44164</v>
       </c>
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
       <c r="N151" s="10">
-        <f t="shared" si="89"/>
-        <v>3864</v>
+        <f t="shared" si="90"/>
+        <v>3830</v>
       </c>
       <c r="O151" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>17095</v>
       </c>
       <c r="P151" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>8511</v>
       </c>
     </row>
@@ -34449,52 +34493,52 @@
         <v>134</v>
       </c>
       <c r="C152" s="10">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="D152" s="10">
-        <f t="shared" si="81"/>
-        <v>59985540</v>
+        <f t="shared" si="82"/>
+        <v>59985593</v>
       </c>
       <c r="E152" s="10">
-        <f t="shared" si="82"/>
-        <v>3870</v>
+        <f t="shared" si="83"/>
+        <v>3830</v>
       </c>
       <c r="F152" s="10">
-        <f t="shared" si="83"/>
-        <v>10590</v>
+        <f t="shared" si="84"/>
+        <v>10577</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="84"/>
-        <v>59985540</v>
+        <f t="shared" si="85"/>
+        <v>59985593</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="85"/>
-        <v>18433</v>
-      </c>
-      <c r="I152" s="7">
         <f t="shared" si="86"/>
         <v>18433</v>
       </c>
+      <c r="I152" s="7">
+        <f t="shared" si="87"/>
+        <v>18433</v>
+      </c>
       <c r="J152" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>9080</v>
       </c>
       <c r="K152" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>44165</v>
       </c>
       <c r="L152" s="10"/>
       <c r="M152" s="10"/>
       <c r="N152" s="10">
-        <f t="shared" si="89"/>
-        <v>3870</v>
+        <f t="shared" si="90"/>
+        <v>3830</v>
       </c>
       <c r="O152" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>18433</v>
       </c>
       <c r="P152" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>9080</v>
       </c>
     </row>
@@ -34506,52 +34550,52 @@
         <v>134</v>
       </c>
       <c r="C153" s="10">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="D153" s="10">
-        <f t="shared" si="81"/>
-        <v>59985211</v>
+        <f t="shared" si="82"/>
+        <v>59985274</v>
       </c>
       <c r="E153" s="10">
-        <f t="shared" si="82"/>
-        <v>3876</v>
+        <f t="shared" si="83"/>
+        <v>3830</v>
       </c>
       <c r="F153" s="10">
-        <f t="shared" si="83"/>
-        <v>10913</v>
+        <f t="shared" si="84"/>
+        <v>10896</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="84"/>
-        <v>59985211</v>
+        <f t="shared" si="85"/>
+        <v>59985274</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="85"/>
-        <v>19876</v>
-      </c>
-      <c r="I153" s="7">
         <f t="shared" si="86"/>
         <v>19876</v>
       </c>
+      <c r="I153" s="7">
+        <f t="shared" si="87"/>
+        <v>19876</v>
+      </c>
       <c r="J153" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>9694</v>
       </c>
       <c r="K153" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>44166</v>
       </c>
       <c r="L153" s="10"/>
       <c r="M153" s="10"/>
       <c r="N153" s="10">
-        <f t="shared" si="89"/>
-        <v>3876</v>
+        <f t="shared" si="90"/>
+        <v>3830</v>
       </c>
       <c r="O153" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>19876</v>
       </c>
       <c r="P153" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>9694</v>
       </c>
     </row>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6586096-1CC9-49D1-BD85-9A5F3C68D926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490CDB3A-DF08-46C9-9EB7-2D76668A38EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21840" yWindow="375" windowWidth="15720" windowHeight="10920" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
+    <workbookView xWindow="23445" yWindow="600" windowWidth="15720" windowHeight="10920" activeTab="2" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
   <sheets>
     <sheet name="RealData" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,10 @@
                   <c:v>3812</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3818</c:v>
+                  <c:v>3827</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,6 +1328,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>3816</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,7 +3649,10 @@
                   <c:v>3812</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3818</c:v>
+                  <c:v>3827</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4572,6 +4581,9 @@
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>3816</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5762,7 +5774,7 @@
                   <c:v>3812</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3818</c:v>
+                  <c:v>3827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7156,7 +7168,7 @@
                   <c:v>3812</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3818</c:v>
+                  <c:v>3827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8367,7 +8379,10 @@
                   <c:v>3812</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3818</c:v>
+                  <c:v>3827</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9288,6 +9303,9 @@
                 <c:pt idx="140">
                   <c:v>3816</c:v>
                 </c:pt>
+                <c:pt idx="141">
+                  <c:v>3848</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9803,28 +9821,28 @@
                   <c:v>3812</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3818</c:v>
+                  <c:v>3827</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3824</c:v>
+                  <c:v>3843</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3830</c:v>
+                  <c:v>3859</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3830</c:v>
+                  <c:v>3865</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3830</c:v>
+                  <c:v>3871</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3830</c:v>
+                  <c:v>3877</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3830</c:v>
+                  <c:v>3883</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3830</c:v>
+                  <c:v>3889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10450,7 +10468,10 @@
                   <c:v>3812</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3818</c:v>
+                  <c:v>3827</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10804,6 +10825,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>3816</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25275,10 +25299,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:K143"/>
+  <dimension ref="A2:K144"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26429,6 +26453,14 @@
         <v>3816</v>
       </c>
     </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B144">
+        <v>3848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26440,8 +26472,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD34" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149:C153"/>
+    <sheetView topLeftCell="X25" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147:C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34145,15 +34177,15 @@
         <v>134</v>
       </c>
       <c r="C146" s="4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="68"/>
-        <v>59987518</v>
+        <v>59987509</v>
       </c>
       <c r="E146" s="4">
         <f t="shared" si="69"/>
-        <v>3818</v>
+        <v>3827</v>
       </c>
       <c r="F146" s="4">
         <f t="shared" si="70"/>
@@ -34161,7 +34193,7 @@
       </c>
       <c r="G146" s="2">
         <f t="shared" si="71"/>
-        <v>59987518</v>
+        <v>59987509</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="72"/>
@@ -34181,7 +34213,7 @@
       </c>
       <c r="L146" s="4">
         <f t="shared" ref="L146" si="81">E146</f>
-        <v>3818</v>
+        <v>3827</v>
       </c>
       <c r="M146" s="4">
         <f>RealData!B143</f>
@@ -34189,7 +34221,7 @@
       </c>
       <c r="N146" s="4">
         <f t="shared" si="77"/>
-        <v>3818</v>
+        <v>3827</v>
       </c>
       <c r="O146" s="4">
         <f t="shared" si="78"/>
@@ -34208,23 +34240,23 @@
         <v>134</v>
       </c>
       <c r="C147" s="10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="D147" s="10">
         <f t="shared" ref="D147:D153" si="82">D146-ROUND((C147/$D$2)*D146*(E146/$D$3),0)</f>
-        <v>59987194</v>
+        <v>59987174</v>
       </c>
       <c r="E147" s="10">
         <f t="shared" ref="E147:E153" si="83">E146+ROUND((C147/$D$2)*D146*(E146/$D$3),0)-ROUND(E146/$D$2,0)</f>
-        <v>3824</v>
+        <v>3843</v>
       </c>
       <c r="F147" s="10">
         <f t="shared" ref="F147:F153" si="84">F146+ROUND(E146/$D$2,0)</f>
-        <v>8982</v>
+        <v>8983</v>
       </c>
       <c r="G147" s="2">
         <f t="shared" ref="G147:G153" si="85">D147</f>
-        <v>59987194</v>
+        <v>59987174</v>
       </c>
       <c r="H147" s="2">
         <f t="shared" ref="H147:H153" si="86">H146+ROUND(($D$1/$D$2)*G146*(H146/$D$3),0)-ROUND(H146/$D$2,0)</f>
@@ -34242,18 +34274,24 @@
         <f t="shared" ref="K147:K153" si="89">A147</f>
         <v>44160</v>
       </c>
-      <c r="L147" s="10"/>
-      <c r="M147" s="10"/>
+      <c r="L147" s="10">
+        <f t="shared" ref="L147" si="90">E147</f>
+        <v>3843</v>
+      </c>
+      <c r="M147" s="10">
+        <f>RealData!B144</f>
+        <v>3848</v>
+      </c>
       <c r="N147" s="10">
-        <f t="shared" ref="N147:N153" si="90">E147</f>
-        <v>3824</v>
+        <f t="shared" ref="N147:N153" si="91">E147</f>
+        <v>3843</v>
       </c>
       <c r="O147" s="10">
-        <f t="shared" ref="O147:O153" si="91">I147</f>
+        <f t="shared" ref="O147:O153" si="92">I147</f>
         <v>12645</v>
       </c>
       <c r="P147" s="10">
-        <f t="shared" ref="P147:P153" si="92">J147</f>
+        <f t="shared" ref="P147:P153" si="93">J147</f>
         <v>6618</v>
       </c>
     </row>
@@ -34265,23 +34303,23 @@
         <v>134</v>
       </c>
       <c r="C148" s="10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="D148" s="10">
         <f t="shared" si="82"/>
-        <v>59986869</v>
+        <v>59986838</v>
       </c>
       <c r="E148" s="10">
         <f t="shared" si="83"/>
-        <v>3830</v>
+        <v>3859</v>
       </c>
       <c r="F148" s="10">
         <f t="shared" si="84"/>
-        <v>9301</v>
+        <v>9303</v>
       </c>
       <c r="G148" s="2">
         <f t="shared" si="85"/>
-        <v>59986869</v>
+        <v>59986838</v>
       </c>
       <c r="H148" s="2">
         <f t="shared" si="86"/>
@@ -34302,15 +34340,15 @@
       <c r="L148" s="10"/>
       <c r="M148" s="10"/>
       <c r="N148" s="10">
-        <f t="shared" si="90"/>
-        <v>3830</v>
+        <f t="shared" si="91"/>
+        <v>3859</v>
       </c>
       <c r="O148" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>13635</v>
       </c>
       <c r="P148" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>7039</v>
       </c>
     </row>
@@ -34322,23 +34360,23 @@
         <v>134</v>
       </c>
       <c r="C149" s="10">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="D149" s="10">
         <f t="shared" si="82"/>
-        <v>59986550</v>
+        <v>59986510</v>
       </c>
       <c r="E149" s="10">
         <f t="shared" si="83"/>
-        <v>3830</v>
+        <v>3865</v>
       </c>
       <c r="F149" s="10">
         <f t="shared" si="84"/>
-        <v>9620</v>
+        <v>9625</v>
       </c>
       <c r="G149" s="2">
         <f t="shared" si="85"/>
-        <v>59986550</v>
+        <v>59986510</v>
       </c>
       <c r="H149" s="2">
         <f t="shared" si="86"/>
@@ -34359,15 +34397,15 @@
       <c r="L149" s="10"/>
       <c r="M149" s="10"/>
       <c r="N149" s="10">
-        <f t="shared" si="90"/>
-        <v>3830</v>
+        <f t="shared" si="91"/>
+        <v>3865</v>
       </c>
       <c r="O149" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>14703</v>
       </c>
       <c r="P149" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>7493</v>
       </c>
     </row>
@@ -34379,23 +34417,23 @@
         <v>134</v>
       </c>
       <c r="C150" s="10">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="D150" s="10">
         <f t="shared" si="82"/>
-        <v>59986231</v>
+        <v>59986182</v>
       </c>
       <c r="E150" s="10">
         <f t="shared" si="83"/>
-        <v>3830</v>
+        <v>3871</v>
       </c>
       <c r="F150" s="10">
         <f t="shared" si="84"/>
-        <v>9939</v>
+        <v>9947</v>
       </c>
       <c r="G150" s="2">
         <f t="shared" si="85"/>
-        <v>59986231</v>
+        <v>59986182</v>
       </c>
       <c r="H150" s="2">
         <f t="shared" si="86"/>
@@ -34416,15 +34454,15 @@
       <c r="L150" s="10"/>
       <c r="M150" s="10"/>
       <c r="N150" s="10">
-        <f t="shared" si="90"/>
-        <v>3830</v>
+        <f t="shared" si="91"/>
+        <v>3871</v>
       </c>
       <c r="O150" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>15854</v>
       </c>
       <c r="P150" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>7983</v>
       </c>
     </row>
@@ -34436,23 +34474,23 @@
         <v>134</v>
       </c>
       <c r="C151" s="10">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="D151" s="10">
         <f t="shared" si="82"/>
-        <v>59985912</v>
+        <v>59985853</v>
       </c>
       <c r="E151" s="10">
         <f t="shared" si="83"/>
-        <v>3830</v>
+        <v>3877</v>
       </c>
       <c r="F151" s="10">
         <f t="shared" si="84"/>
-        <v>10258</v>
+        <v>10270</v>
       </c>
       <c r="G151" s="2">
         <f t="shared" si="85"/>
-        <v>59985912</v>
+        <v>59985853</v>
       </c>
       <c r="H151" s="2">
         <f t="shared" si="86"/>
@@ -34473,15 +34511,15 @@
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
       <c r="N151" s="10">
-        <f t="shared" si="90"/>
-        <v>3830</v>
+        <f t="shared" si="91"/>
+        <v>3877</v>
       </c>
       <c r="O151" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>17095</v>
       </c>
       <c r="P151" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>8511</v>
       </c>
     </row>
@@ -34493,23 +34531,23 @@
         <v>134</v>
       </c>
       <c r="C152" s="10">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="D152" s="10">
         <f t="shared" si="82"/>
-        <v>59985593</v>
+        <v>59985524</v>
       </c>
       <c r="E152" s="10">
         <f t="shared" si="83"/>
-        <v>3830</v>
+        <v>3883</v>
       </c>
       <c r="F152" s="10">
         <f t="shared" si="84"/>
-        <v>10577</v>
+        <v>10593</v>
       </c>
       <c r="G152" s="2">
         <f t="shared" si="85"/>
-        <v>59985593</v>
+        <v>59985524</v>
       </c>
       <c r="H152" s="2">
         <f t="shared" si="86"/>
@@ -34530,15 +34568,15 @@
       <c r="L152" s="10"/>
       <c r="M152" s="10"/>
       <c r="N152" s="10">
-        <f t="shared" si="90"/>
-        <v>3830</v>
+        <f t="shared" si="91"/>
+        <v>3883</v>
       </c>
       <c r="O152" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>18433</v>
       </c>
       <c r="P152" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>9080</v>
       </c>
     </row>
@@ -34550,23 +34588,23 @@
         <v>134</v>
       </c>
       <c r="C153" s="10">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="D153" s="10">
         <f t="shared" si="82"/>
-        <v>59985274</v>
+        <v>59985194</v>
       </c>
       <c r="E153" s="10">
         <f t="shared" si="83"/>
-        <v>3830</v>
+        <v>3889</v>
       </c>
       <c r="F153" s="10">
         <f t="shared" si="84"/>
-        <v>10896</v>
+        <v>10917</v>
       </c>
       <c r="G153" s="2">
         <f t="shared" si="85"/>
-        <v>59985274</v>
+        <v>59985194</v>
       </c>
       <c r="H153" s="2">
         <f t="shared" si="86"/>
@@ -34587,15 +34625,15 @@
       <c r="L153" s="10"/>
       <c r="M153" s="10"/>
       <c r="N153" s="10">
-        <f t="shared" si="90"/>
-        <v>3830</v>
+        <f t="shared" si="91"/>
+        <v>3889</v>
       </c>
       <c r="O153" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>19876</v>
       </c>
       <c r="P153" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>9694</v>
       </c>
     </row>
@@ -34611,7 +34649,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L120" sqref="L120:M121"/>
     </sheetView>
   </sheetViews>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA376BEC-107E-40CD-9DA4-7B349CD1AD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611A0EBF-9D7D-477F-878B-2B4A753DA6CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
@@ -285,10 +285,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$70:$K$160</c:f>
+              <c:f>Model!$K$70:$K$181</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>44083.708333333336</c:v>
                 </c:pt>
@@ -561,16 +561,79 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$70:$L$160</c:f>
+              <c:f>Model!$L$70:$L$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>162</c:v>
                 </c:pt>
@@ -836,13 +899,37 @@
                   <c:v>3511</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3455</c:v>
+                  <c:v>3458</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3400</c:v>
+                  <c:v>3406</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3346</c:v>
+                  <c:v>3355</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3313</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3231</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3191</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3151</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3088</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,10 +980,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$70:$K$160</c:f>
+              <c:f>Model!$K$70:$K$181</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>44083.708333333336</c:v>
                 </c:pt>
@@ -1169,16 +1256,79 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$70:$M$160</c:f>
+              <c:f>Model!$M$70:$M$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
                 </c:pt>
@@ -1451,6 +1601,30 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>3345</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3320</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3291</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3265</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3199</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3095</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,10 +1665,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$70:$K$160</c:f>
+              <c:f>Model!$K$70:$K$181</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>44083.708333333336</c:v>
                 </c:pt>
@@ -1767,16 +1941,79 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$O$70:$O$160</c:f>
+              <c:f>Model!$O$70:$O$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>38</c:v>
                 </c:pt>
@@ -2049,6 +2286,69 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>33689</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>36327</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>39171</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42238</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>49111</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>52955</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>57101</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>61572</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>66392</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>71589</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>77193</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>83236</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>89752</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>96778</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>104354</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>112523</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>121331</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>130829</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>141071</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>152114</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>164022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2091,10 +2391,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$70:$K$160</c:f>
+              <c:f>Model!$K$70:$K$181</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>44083.708333333336</c:v>
                 </c:pt>
@@ -2367,288 +2667,414 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$P$70:$P$160</c:f>
+              <c:f>Model!$P$70:$P$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
-                  <c:v>6469</c:v>
+                  <c:v>21277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6426</c:v>
+                  <c:v>20852</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6383</c:v>
+                  <c:v>20435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6340</c:v>
+                  <c:v>20026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6298</c:v>
+                  <c:v>19625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6256</c:v>
+                  <c:v>19233</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6215</c:v>
+                  <c:v>18848</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6173</c:v>
+                  <c:v>18471</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6132</c:v>
+                  <c:v>18102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6091</c:v>
+                  <c:v>17739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6050</c:v>
+                  <c:v>17384</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6010</c:v>
+                  <c:v>17036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5970</c:v>
+                  <c:v>16695</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5930</c:v>
+                  <c:v>16361</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5891</c:v>
+                  <c:v>16034</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5852</c:v>
+                  <c:v>15713</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5813</c:v>
+                  <c:v>15399</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5775</c:v>
+                  <c:v>15091</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5737</c:v>
+                  <c:v>14789</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5699</c:v>
+                  <c:v>14494</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5661</c:v>
+                  <c:v>14204</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5623</c:v>
+                  <c:v>13920</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5585</c:v>
+                  <c:v>13642</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5548</c:v>
+                  <c:v>13369</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5511</c:v>
+                  <c:v>13102</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5475</c:v>
+                  <c:v>12840</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5439</c:v>
+                  <c:v>12583</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5403</c:v>
+                  <c:v>12331</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5367</c:v>
+                  <c:v>12084</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5331</c:v>
+                  <c:v>11842</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5296</c:v>
+                  <c:v>11605</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5261</c:v>
+                  <c:v>11373</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5226</c:v>
+                  <c:v>11145</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5191</c:v>
+                  <c:v>10922</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5156</c:v>
+                  <c:v>10704</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5121</c:v>
+                  <c:v>10490</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5087</c:v>
+                  <c:v>10280</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5053</c:v>
+                  <c:v>10074</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5019</c:v>
+                  <c:v>9872</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4986</c:v>
+                  <c:v>9674</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4952</c:v>
+                  <c:v>9481</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4919</c:v>
+                  <c:v>9291</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4886</c:v>
+                  <c:v>9105</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4854</c:v>
+                  <c:v>8923</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4821</c:v>
+                  <c:v>8744</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4789</c:v>
+                  <c:v>8569</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4757</c:v>
+                  <c:v>8398</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4726</c:v>
+                  <c:v>8230</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4694</c:v>
+                  <c:v>8065</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4663</c:v>
+                  <c:v>7904</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4631</c:v>
+                  <c:v>7746</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4600</c:v>
+                  <c:v>7591</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4570</c:v>
+                  <c:v>7439</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4539</c:v>
+                  <c:v>7290</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4509</c:v>
+                  <c:v>7144</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4479</c:v>
+                  <c:v>7001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4449</c:v>
+                  <c:v>6861</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4419</c:v>
+                  <c:v>6723</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4390</c:v>
+                  <c:v>6589</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4361</c:v>
+                  <c:v>6457</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4332</c:v>
+                  <c:v>6328</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4303</c:v>
+                  <c:v>6202</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4274</c:v>
+                  <c:v>6078</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4246</c:v>
+                  <c:v>5956</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4217</c:v>
+                  <c:v>5837</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4189</c:v>
+                  <c:v>5721</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4161</c:v>
+                  <c:v>5606</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4133</c:v>
+                  <c:v>5494</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4106</c:v>
+                  <c:v>5384</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4079</c:v>
+                  <c:v>5276</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4052</c:v>
+                  <c:v>5170</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4025</c:v>
+                  <c:v>5066</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3999</c:v>
+                  <c:v>4965</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3973</c:v>
+                  <c:v>4865</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3947</c:v>
+                  <c:v>4768</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3921</c:v>
+                  <c:v>4673</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>4580</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4488</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4398</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4309</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4223</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4138</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4055</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3974</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>3895</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>3869</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3844</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3819</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3794</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3769</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3744</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3719</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3694</c:v>
-                </c:pt>
                 <c:pt idx="85">
-                  <c:v>3669</c:v>
+                  <c:v>3817</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3644</c:v>
+                  <c:v>3741</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3619</c:v>
+                  <c:v>3666</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3594</c:v>
+                  <c:v>3592</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3569</c:v>
+                  <c:v>3520</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3546</c:v>
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3380</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3312</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3181</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3117</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3054</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2992</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2932</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2874</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2816</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2759</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2704</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2494</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2444</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2347</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2975,10 +3401,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$160</c:f>
+              <c:f>Model!$K$6:$K$181</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="155"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -3443,16 +3869,79 @@
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$6:$L$160</c:f>
+              <c:f>Model!$L$6:$L$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="155"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -3910,13 +4399,37 @@
                   <c:v>3511</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3455</c:v>
+                  <c:v>3458</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3400</c:v>
+                  <c:v>3406</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3346</c:v>
+                  <c:v>3355</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3313</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3231</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3191</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3151</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3088</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3966,10 +4479,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$160</c:f>
+              <c:f>Model!$K$6:$K$181</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="155"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -4434,16 +4947,79 @@
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$6:$M$160</c:f>
+              <c:f>Model!$M$6:$M$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="155"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -4908,6 +5484,30 @@
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>3345</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3320</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3291</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3265</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3199</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3095</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5241,10 +5841,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$153</c:f>
+              <c:f>Model!$K$6:$K$181</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -5688,16 +6288,100 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$6:$L$153</c:f>
+              <c:f>Model!$L$6:$L$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -6141,6 +6825,51 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>3665</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3620</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3583</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3547</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3511</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3458</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3406</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3355</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3313</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3231</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3191</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3151</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3088</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6181,10 +6910,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$153</c:f>
+              <c:f>Model!$K$6:$K$181</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -6628,16 +7357,100 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$6:$M$153</c:f>
+              <c:f>Model!$M$6:$M$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -7081,6 +7894,51 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>3663</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3616</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3597</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3567</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3517</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3454</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3382</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3345</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3320</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3291</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3265</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3199</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3095</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7121,10 +7979,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$6:$K$153</c:f>
+              <c:f>Model!$K$6:$K$181</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="148"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>44019.708333333336</c:v>
                 </c:pt>
@@ -7568,33 +8426,141 @@
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$N$6:$N$153</c:f>
+              <c:f>Model!$N$6:$N$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="148"/>
-                <c:pt idx="142">
-                  <c:v>3843</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>3818</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>3793</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>3768</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>3743</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>3665</c:v>
+                <c:ptCount val="176"/>
+                <c:pt idx="162">
+                  <c:v>2967</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2908</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2792</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2736</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2628</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2575</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2523</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2473</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2424</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2375</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2327</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8862,13 +9828,13 @@
                   <c:v>3511</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3455</c:v>
+                  <c:v>3458</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3400</c:v>
+                  <c:v>3406</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3346</c:v>
+                  <c:v>3355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10369,45 +11335,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="155"/>
-                <c:pt idx="142">
-                  <c:v>3843</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>3818</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>3793</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>3768</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>3743</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>3665</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>3620</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>3583</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>3547</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>3511</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>3455</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>3346</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10730,10 +11657,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$160</c:f>
+              <c:f>Model!$K$102:$K$181</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -10910,16 +11837,79 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$L$102:$L$160</c:f>
+              <c:f>Model!$L$102:$L$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>431</c:v>
                 </c:pt>
@@ -11089,13 +12079,37 @@
                   <c:v>3511</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3455</c:v>
+                  <c:v>3458</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3400</c:v>
+                  <c:v>3406</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3346</c:v>
+                  <c:v>3355</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3313</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3231</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3191</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3151</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3088</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11146,10 +12160,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$160</c:f>
+              <c:f>Model!$K$102:$K$181</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -11326,16 +12340,79 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$M$102:$M$160</c:f>
+              <c:f>Model!$M$102:$M$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>420</c:v>
                 </c:pt>
@@ -11512,6 +12589,30 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>3345</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3320</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3291</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3265</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3199</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3095</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11552,10 +12653,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$160</c:f>
+              <c:f>Model!$K$102:$K$181</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -11732,16 +12833,79 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$O$102:$O$160</c:f>
+              <c:f>Model!$O$102:$O$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>427</c:v>
                 </c:pt>
@@ -11918,6 +13082,69 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>33689</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36327</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39171</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42238</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45545</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49111</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>52955</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57101</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>61572</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>66392</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71589</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>77193</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>83236</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>89752</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>96778</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>104354</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>112523</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>121331</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>130829</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>141071</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>152114</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>164022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11958,10 +13185,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Model!$K$102:$K$160</c:f>
+              <c:f>Model!$K$102:$K$181</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>44115.708333333336</c:v>
                 </c:pt>
@@ -12138,192 +13365,318 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$P$102:$P$160</c:f>
+              <c:f>Model!$P$102:$P$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>5226</c:v>
+                  <c:v>11145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5191</c:v>
+                  <c:v>10922</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5156</c:v>
+                  <c:v>10704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5121</c:v>
+                  <c:v>10490</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5087</c:v>
+                  <c:v>10280</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5053</c:v>
+                  <c:v>10074</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5019</c:v>
+                  <c:v>9872</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4986</c:v>
+                  <c:v>9674</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4952</c:v>
+                  <c:v>9481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4919</c:v>
+                  <c:v>9291</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4886</c:v>
+                  <c:v>9105</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4854</c:v>
+                  <c:v>8923</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4821</c:v>
+                  <c:v>8744</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4789</c:v>
+                  <c:v>8569</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4757</c:v>
+                  <c:v>8398</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4726</c:v>
+                  <c:v>8230</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4694</c:v>
+                  <c:v>8065</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4663</c:v>
+                  <c:v>7904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4631</c:v>
+                  <c:v>7746</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4600</c:v>
+                  <c:v>7591</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4570</c:v>
+                  <c:v>7439</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4539</c:v>
+                  <c:v>7290</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4509</c:v>
+                  <c:v>7144</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4479</c:v>
+                  <c:v>7001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4449</c:v>
+                  <c:v>6861</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4419</c:v>
+                  <c:v>6723</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4390</c:v>
+                  <c:v>6589</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4361</c:v>
+                  <c:v>6457</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4332</c:v>
+                  <c:v>6328</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4303</c:v>
+                  <c:v>6202</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4274</c:v>
+                  <c:v>6078</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4246</c:v>
+                  <c:v>5956</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4217</c:v>
+                  <c:v>5837</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4189</c:v>
+                  <c:v>5721</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4161</c:v>
+                  <c:v>5606</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4133</c:v>
+                  <c:v>5494</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4106</c:v>
+                  <c:v>5384</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4079</c:v>
+                  <c:v>5276</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4052</c:v>
+                  <c:v>5170</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4025</c:v>
+                  <c:v>5066</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3999</c:v>
+                  <c:v>4965</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3973</c:v>
+                  <c:v>4865</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3947</c:v>
+                  <c:v>4768</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3921</c:v>
+                  <c:v>4673</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>4580</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4488</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4398</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4309</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4223</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4138</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4055</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3974</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>3895</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>3869</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3844</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3819</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3794</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3769</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3744</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3719</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3694</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>3669</c:v>
+                  <c:v>3817</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3644</c:v>
+                  <c:v>3741</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3619</c:v>
+                  <c:v>3666</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3594</c:v>
+                  <c:v>3592</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3569</c:v>
+                  <c:v>3520</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3546</c:v>
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3380</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3312</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3246</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3181</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3117</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3054</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2992</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2932</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2874</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2816</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2759</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2704</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2494</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2444</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2347</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26067,10 +27420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:K157"/>
+  <dimension ref="A2:K165"/>
   <sheetViews>
     <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:A157"/>
+      <selection activeCell="A153" sqref="A153:A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27333,6 +28686,70 @@
         <v>3345</v>
       </c>
     </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B158">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B159">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B160">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B161">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B162">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B163">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B164">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B165">
+        <v>2926</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27342,10 +28759,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8076A-EB14-4DFF-97BA-E5541A25D5B9}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P160"/>
+  <dimension ref="A1:P181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O164" sqref="O164"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27362,7 +28779,7 @@
         <v>1.94</v>
       </c>
       <c r="E1">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -29611,7 +31028,7 @@
         <v>12</v>
       </c>
       <c r="J54" s="8">
-        <v>7200</v>
+        <v>29400</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="1"/>
@@ -29631,7 +31048,7 @@
       </c>
       <c r="P54">
         <f>J54</f>
-        <v>7200</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -29670,7 +31087,7 @@
       </c>
       <c r="J55" s="8">
         <f t="shared" ref="J55:J118" si="12">J54+ROUND(($E$1/$D$2)*G54*(J54/$D$3),0)-ROUND(J54/$D$2,0)</f>
-        <v>7152</v>
+        <v>28812</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="1"/>
@@ -29690,7 +31107,7 @@
       </c>
       <c r="P55">
         <f t="shared" ref="P55:P118" si="13">J55</f>
-        <v>7152</v>
+        <v>28812</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -29729,7 +31146,7 @@
       </c>
       <c r="J56" s="8">
         <f t="shared" si="12"/>
-        <v>7104</v>
+        <v>28236</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="1"/>
@@ -29749,7 +31166,7 @@
       </c>
       <c r="P56">
         <f t="shared" si="13"/>
-        <v>7104</v>
+        <v>28236</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -29788,7 +31205,7 @@
       </c>
       <c r="J57" s="8">
         <f t="shared" si="12"/>
-        <v>7057</v>
+        <v>27671</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="1"/>
@@ -29808,7 +31225,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="13"/>
-        <v>7057</v>
+        <v>27671</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -29847,7 +31264,7 @@
       </c>
       <c r="J58" s="8">
         <f t="shared" si="12"/>
-        <v>7010</v>
+        <v>27117</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" si="1"/>
@@ -29867,7 +31284,7 @@
       </c>
       <c r="P58">
         <f t="shared" si="13"/>
-        <v>7010</v>
+        <v>27117</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -29906,7 +31323,7 @@
       </c>
       <c r="J59" s="8">
         <f t="shared" si="12"/>
-        <v>6963</v>
+        <v>26574</v>
       </c>
       <c r="K59" s="1">
         <f t="shared" si="1"/>
@@ -29926,7 +31343,7 @@
       </c>
       <c r="P59">
         <f t="shared" si="13"/>
-        <v>6963</v>
+        <v>26574</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -29965,7 +31382,7 @@
       </c>
       <c r="J60" s="8">
         <f t="shared" si="12"/>
-        <v>6917</v>
+        <v>26042</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="1"/>
@@ -29985,7 +31402,7 @@
       </c>
       <c r="P60">
         <f t="shared" si="13"/>
-        <v>6917</v>
+        <v>26042</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -30024,7 +31441,7 @@
       </c>
       <c r="J61" s="8">
         <f t="shared" si="12"/>
-        <v>6871</v>
+        <v>25521</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="1"/>
@@ -30044,7 +31461,7 @@
       </c>
       <c r="P61">
         <f t="shared" si="13"/>
-        <v>6871</v>
+        <v>25521</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -30083,7 +31500,7 @@
       </c>
       <c r="J62" s="8">
         <f t="shared" si="12"/>
-        <v>6825</v>
+        <v>25010</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="1"/>
@@ -30103,7 +31520,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="13"/>
-        <v>6825</v>
+        <v>25010</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -30142,7 +31559,7 @@
       </c>
       <c r="J63" s="8">
         <f t="shared" si="12"/>
-        <v>6779</v>
+        <v>24510</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" si="1"/>
@@ -30162,7 +31579,7 @@
       </c>
       <c r="P63">
         <f t="shared" si="13"/>
-        <v>6779</v>
+        <v>24510</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -30201,7 +31618,7 @@
       </c>
       <c r="J64" s="8">
         <f t="shared" si="12"/>
-        <v>6734</v>
+        <v>24019</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" si="1"/>
@@ -30221,7 +31638,7 @@
       </c>
       <c r="P64">
         <f t="shared" si="13"/>
-        <v>6734</v>
+        <v>24019</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -30260,7 +31677,7 @@
       </c>
       <c r="J65" s="8">
         <f t="shared" si="12"/>
-        <v>6689</v>
+        <v>23538</v>
       </c>
       <c r="K65" s="1">
         <f t="shared" si="1"/>
@@ -30280,7 +31697,7 @@
       </c>
       <c r="P65">
         <f t="shared" si="13"/>
-        <v>6689</v>
+        <v>23538</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -30319,7 +31736,7 @@
       </c>
       <c r="J66" s="8">
         <f t="shared" si="12"/>
-        <v>6645</v>
+        <v>23067</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" si="1"/>
@@ -30339,7 +31756,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="13"/>
-        <v>6645</v>
+        <v>23067</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -30378,7 +31795,7 @@
       </c>
       <c r="J67" s="8">
         <f t="shared" si="12"/>
-        <v>6600</v>
+        <v>22606</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" si="1"/>
@@ -30398,7 +31815,7 @@
       </c>
       <c r="P67">
         <f t="shared" si="13"/>
-        <v>6600</v>
+        <v>22606</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -30437,7 +31854,7 @@
       </c>
       <c r="J68" s="8">
         <f t="shared" si="12"/>
-        <v>6556</v>
+        <v>22154</v>
       </c>
       <c r="K68" s="1">
         <f t="shared" si="1"/>
@@ -30457,7 +31874,7 @@
       </c>
       <c r="P68">
         <f t="shared" si="13"/>
-        <v>6556</v>
+        <v>22154</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -30496,7 +31913,7 @@
       </c>
       <c r="J69" s="8">
         <f t="shared" si="12"/>
-        <v>6513</v>
+        <v>21711</v>
       </c>
       <c r="K69" s="1">
         <f t="shared" si="1"/>
@@ -30516,7 +31933,7 @@
       </c>
       <c r="P69">
         <f t="shared" si="13"/>
-        <v>6513</v>
+        <v>21711</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -30555,7 +31972,7 @@
       </c>
       <c r="J70" s="8">
         <f t="shared" si="12"/>
-        <v>6469</v>
+        <v>21277</v>
       </c>
       <c r="K70" s="1">
         <f t="shared" si="1"/>
@@ -30575,7 +31992,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="13"/>
-        <v>6469</v>
+        <v>21277</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -30614,7 +32031,7 @@
       </c>
       <c r="J71" s="8">
         <f t="shared" si="12"/>
-        <v>6426</v>
+        <v>20852</v>
       </c>
       <c r="K71" s="1">
         <f t="shared" ref="K71:K134" si="15">A71</f>
@@ -30634,7 +32051,7 @@
       </c>
       <c r="P71">
         <f t="shared" si="13"/>
-        <v>6426</v>
+        <v>20852</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -30673,7 +32090,7 @@
       </c>
       <c r="J72" s="8">
         <f t="shared" si="12"/>
-        <v>6383</v>
+        <v>20435</v>
       </c>
       <c r="K72" s="1">
         <f t="shared" si="15"/>
@@ -30693,7 +32110,7 @@
       </c>
       <c r="P72">
         <f t="shared" si="13"/>
-        <v>6383</v>
+        <v>20435</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -30732,7 +32149,7 @@
       </c>
       <c r="J73" s="8">
         <f t="shared" si="12"/>
-        <v>6340</v>
+        <v>20026</v>
       </c>
       <c r="K73" s="1">
         <f t="shared" si="15"/>
@@ -30752,7 +32169,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="13"/>
-        <v>6340</v>
+        <v>20026</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -30791,7 +32208,7 @@
       </c>
       <c r="J74" s="8">
         <f t="shared" si="12"/>
-        <v>6298</v>
+        <v>19625</v>
       </c>
       <c r="K74" s="1">
         <f t="shared" si="15"/>
@@ -30811,7 +32228,7 @@
       </c>
       <c r="P74">
         <f t="shared" si="13"/>
-        <v>6298</v>
+        <v>19625</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -30850,7 +32267,7 @@
       </c>
       <c r="J75" s="8">
         <f t="shared" si="12"/>
-        <v>6256</v>
+        <v>19233</v>
       </c>
       <c r="K75" s="1">
         <f t="shared" si="15"/>
@@ -30870,7 +32287,7 @@
       </c>
       <c r="P75">
         <f t="shared" si="13"/>
-        <v>6256</v>
+        <v>19233</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -30909,7 +32326,7 @@
       </c>
       <c r="J76" s="8">
         <f t="shared" si="12"/>
-        <v>6215</v>
+        <v>18848</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" si="15"/>
@@ -30929,7 +32346,7 @@
       </c>
       <c r="P76">
         <f t="shared" si="13"/>
-        <v>6215</v>
+        <v>18848</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -30968,7 +32385,7 @@
       </c>
       <c r="J77" s="8">
         <f t="shared" si="12"/>
-        <v>6173</v>
+        <v>18471</v>
       </c>
       <c r="K77" s="1">
         <f t="shared" si="15"/>
@@ -30988,7 +32405,7 @@
       </c>
       <c r="P77">
         <f t="shared" si="13"/>
-        <v>6173</v>
+        <v>18471</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -31027,7 +32444,7 @@
       </c>
       <c r="J78" s="8">
         <f t="shared" si="12"/>
-        <v>6132</v>
+        <v>18102</v>
       </c>
       <c r="K78" s="1">
         <f t="shared" si="15"/>
@@ -31047,7 +32464,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="13"/>
-        <v>6132</v>
+        <v>18102</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -31086,7 +32503,7 @@
       </c>
       <c r="J79" s="8">
         <f t="shared" si="12"/>
-        <v>6091</v>
+        <v>17739</v>
       </c>
       <c r="K79" s="1">
         <f t="shared" si="15"/>
@@ -31106,7 +32523,7 @@
       </c>
       <c r="P79">
         <f t="shared" si="13"/>
-        <v>6091</v>
+        <v>17739</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -31145,7 +32562,7 @@
       </c>
       <c r="J80" s="8">
         <f t="shared" si="12"/>
-        <v>6050</v>
+        <v>17384</v>
       </c>
       <c r="K80" s="1">
         <f t="shared" si="15"/>
@@ -31165,7 +32582,7 @@
       </c>
       <c r="P80">
         <f t="shared" si="13"/>
-        <v>6050</v>
+        <v>17384</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -31204,7 +32621,7 @@
       </c>
       <c r="J81" s="8">
         <f t="shared" si="12"/>
-        <v>6010</v>
+        <v>17036</v>
       </c>
       <c r="K81" s="1">
         <f t="shared" si="15"/>
@@ -31224,7 +32641,7 @@
       </c>
       <c r="P81">
         <f t="shared" si="13"/>
-        <v>6010</v>
+        <v>17036</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -31263,7 +32680,7 @@
       </c>
       <c r="J82" s="8">
         <f t="shared" si="12"/>
-        <v>5970</v>
+        <v>16695</v>
       </c>
       <c r="K82" s="1">
         <f t="shared" si="15"/>
@@ -31283,7 +32700,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="13"/>
-        <v>5970</v>
+        <v>16695</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -31322,7 +32739,7 @@
       </c>
       <c r="J83" s="8">
         <f t="shared" si="12"/>
-        <v>5930</v>
+        <v>16361</v>
       </c>
       <c r="K83" s="1">
         <f t="shared" si="15"/>
@@ -31342,7 +32759,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="13"/>
-        <v>5930</v>
+        <v>16361</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -31381,7 +32798,7 @@
       </c>
       <c r="J84" s="8">
         <f t="shared" si="12"/>
-        <v>5891</v>
+        <v>16034</v>
       </c>
       <c r="K84" s="1">
         <f t="shared" si="15"/>
@@ -31401,7 +32818,7 @@
       </c>
       <c r="P84">
         <f t="shared" si="13"/>
-        <v>5891</v>
+        <v>16034</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -31440,7 +32857,7 @@
       </c>
       <c r="J85" s="8">
         <f t="shared" si="12"/>
-        <v>5852</v>
+        <v>15713</v>
       </c>
       <c r="K85" s="1">
         <f t="shared" si="15"/>
@@ -31460,7 +32877,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="13"/>
-        <v>5852</v>
+        <v>15713</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -31499,7 +32916,7 @@
       </c>
       <c r="J86" s="8">
         <f t="shared" si="12"/>
-        <v>5813</v>
+        <v>15399</v>
       </c>
       <c r="K86" s="1">
         <f t="shared" si="15"/>
@@ -31519,7 +32936,7 @@
       </c>
       <c r="P86">
         <f t="shared" si="13"/>
-        <v>5813</v>
+        <v>15399</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -31558,7 +32975,7 @@
       </c>
       <c r="J87" s="8">
         <f t="shared" si="12"/>
-        <v>5775</v>
+        <v>15091</v>
       </c>
       <c r="K87" s="1">
         <f t="shared" si="15"/>
@@ -31578,7 +32995,7 @@
       </c>
       <c r="P87">
         <f t="shared" si="13"/>
-        <v>5775</v>
+        <v>15091</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -31617,7 +33034,7 @@
       </c>
       <c r="J88" s="8">
         <f t="shared" si="12"/>
-        <v>5737</v>
+        <v>14789</v>
       </c>
       <c r="K88" s="1">
         <f t="shared" si="15"/>
@@ -31637,7 +33054,7 @@
       </c>
       <c r="P88">
         <f t="shared" si="13"/>
-        <v>5737</v>
+        <v>14789</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -31676,7 +33093,7 @@
       </c>
       <c r="J89" s="8">
         <f t="shared" si="12"/>
-        <v>5699</v>
+        <v>14494</v>
       </c>
       <c r="K89" s="1">
         <f t="shared" si="15"/>
@@ -31696,7 +33113,7 @@
       </c>
       <c r="P89">
         <f t="shared" si="13"/>
-        <v>5699</v>
+        <v>14494</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -31735,7 +33152,7 @@
       </c>
       <c r="J90" s="8">
         <f t="shared" si="12"/>
-        <v>5661</v>
+        <v>14204</v>
       </c>
       <c r="K90" s="1">
         <f t="shared" si="15"/>
@@ -31755,7 +33172,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="13"/>
-        <v>5661</v>
+        <v>14204</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -31794,7 +33211,7 @@
       </c>
       <c r="J91" s="8">
         <f t="shared" si="12"/>
-        <v>5623</v>
+        <v>13920</v>
       </c>
       <c r="K91" s="1">
         <f t="shared" si="15"/>
@@ -31814,7 +33231,7 @@
       </c>
       <c r="P91">
         <f t="shared" si="13"/>
-        <v>5623</v>
+        <v>13920</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -31853,7 +33270,7 @@
       </c>
       <c r="J92" s="8">
         <f t="shared" si="12"/>
-        <v>5585</v>
+        <v>13642</v>
       </c>
       <c r="K92" s="1">
         <f t="shared" si="15"/>
@@ -31873,7 +33290,7 @@
       </c>
       <c r="P92">
         <f t="shared" si="13"/>
-        <v>5585</v>
+        <v>13642</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -31912,7 +33329,7 @@
       </c>
       <c r="J93" s="8">
         <f t="shared" si="12"/>
-        <v>5548</v>
+        <v>13369</v>
       </c>
       <c r="K93" s="1">
         <f t="shared" si="15"/>
@@ -31932,7 +33349,7 @@
       </c>
       <c r="P93">
         <f t="shared" si="13"/>
-        <v>5548</v>
+        <v>13369</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -31971,7 +33388,7 @@
       </c>
       <c r="J94" s="8">
         <f t="shared" si="12"/>
-        <v>5511</v>
+        <v>13102</v>
       </c>
       <c r="K94" s="1">
         <f t="shared" si="15"/>
@@ -31991,7 +33408,7 @@
       </c>
       <c r="P94">
         <f t="shared" si="13"/>
-        <v>5511</v>
+        <v>13102</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -32030,7 +33447,7 @@
       </c>
       <c r="J95" s="8">
         <f t="shared" si="12"/>
-        <v>5475</v>
+        <v>12840</v>
       </c>
       <c r="K95" s="1">
         <f t="shared" si="15"/>
@@ -32050,7 +33467,7 @@
       </c>
       <c r="P95">
         <f t="shared" si="13"/>
-        <v>5475</v>
+        <v>12840</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -32089,7 +33506,7 @@
       </c>
       <c r="J96" s="8">
         <f t="shared" si="12"/>
-        <v>5439</v>
+        <v>12583</v>
       </c>
       <c r="K96" s="1">
         <f t="shared" si="15"/>
@@ -32109,7 +33526,7 @@
       </c>
       <c r="P96">
         <f t="shared" si="13"/>
-        <v>5439</v>
+        <v>12583</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -32148,7 +33565,7 @@
       </c>
       <c r="J97" s="8">
         <f t="shared" si="12"/>
-        <v>5403</v>
+        <v>12331</v>
       </c>
       <c r="K97" s="1">
         <f t="shared" si="15"/>
@@ -32168,7 +33585,7 @@
       </c>
       <c r="P97">
         <f t="shared" si="13"/>
-        <v>5403</v>
+        <v>12331</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -32207,7 +33624,7 @@
       </c>
       <c r="J98" s="8">
         <f t="shared" si="12"/>
-        <v>5367</v>
+        <v>12084</v>
       </c>
       <c r="K98" s="1">
         <f t="shared" si="15"/>
@@ -32227,7 +33644,7 @@
       </c>
       <c r="P98">
         <f t="shared" si="13"/>
-        <v>5367</v>
+        <v>12084</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -32266,7 +33683,7 @@
       </c>
       <c r="J99" s="8">
         <f t="shared" si="12"/>
-        <v>5331</v>
+        <v>11842</v>
       </c>
       <c r="K99" s="1">
         <f t="shared" si="15"/>
@@ -32286,7 +33703,7 @@
       </c>
       <c r="P99">
         <f t="shared" si="13"/>
-        <v>5331</v>
+        <v>11842</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -32325,7 +33742,7 @@
       </c>
       <c r="J100" s="8">
         <f t="shared" si="12"/>
-        <v>5296</v>
+        <v>11605</v>
       </c>
       <c r="K100" s="1">
         <f t="shared" si="15"/>
@@ -32345,7 +33762,7 @@
       </c>
       <c r="P100">
         <f t="shared" si="13"/>
-        <v>5296</v>
+        <v>11605</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -32384,7 +33801,7 @@
       </c>
       <c r="J101" s="8">
         <f t="shared" si="12"/>
-        <v>5261</v>
+        <v>11373</v>
       </c>
       <c r="K101" s="1">
         <f t="shared" si="15"/>
@@ -32404,7 +33821,7 @@
       </c>
       <c r="P101">
         <f t="shared" si="13"/>
-        <v>5261</v>
+        <v>11373</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -32443,7 +33860,7 @@
       </c>
       <c r="J102" s="8">
         <f t="shared" si="12"/>
-        <v>5226</v>
+        <v>11145</v>
       </c>
       <c r="K102" s="1">
         <f t="shared" si="15"/>
@@ -32463,7 +33880,7 @@
       </c>
       <c r="P102">
         <f t="shared" si="13"/>
-        <v>5226</v>
+        <v>11145</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -32502,7 +33919,7 @@
       </c>
       <c r="J103" s="8">
         <f t="shared" si="12"/>
-        <v>5191</v>
+        <v>10922</v>
       </c>
       <c r="K103" s="1">
         <f t="shared" si="15"/>
@@ -32522,7 +33939,7 @@
       </c>
       <c r="P103">
         <f t="shared" si="13"/>
-        <v>5191</v>
+        <v>10922</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -32561,7 +33978,7 @@
       </c>
       <c r="J104" s="8">
         <f t="shared" si="12"/>
-        <v>5156</v>
+        <v>10704</v>
       </c>
       <c r="K104" s="1">
         <f t="shared" si="15"/>
@@ -32581,7 +33998,7 @@
       </c>
       <c r="P104">
         <f t="shared" si="13"/>
-        <v>5156</v>
+        <v>10704</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -32620,7 +34037,7 @@
       </c>
       <c r="J105" s="8">
         <f t="shared" si="12"/>
-        <v>5121</v>
+        <v>10490</v>
       </c>
       <c r="K105" s="1">
         <f t="shared" si="15"/>
@@ -32640,7 +34057,7 @@
       </c>
       <c r="P105">
         <f t="shared" si="13"/>
-        <v>5121</v>
+        <v>10490</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -32679,7 +34096,7 @@
       </c>
       <c r="J106" s="8">
         <f t="shared" si="12"/>
-        <v>5087</v>
+        <v>10280</v>
       </c>
       <c r="K106" s="1">
         <f t="shared" si="15"/>
@@ -32699,7 +34116,7 @@
       </c>
       <c r="P106">
         <f t="shared" si="13"/>
-        <v>5087</v>
+        <v>10280</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -32738,7 +34155,7 @@
       </c>
       <c r="J107" s="8">
         <f t="shared" si="12"/>
-        <v>5053</v>
+        <v>10074</v>
       </c>
       <c r="K107" s="1">
         <f t="shared" si="15"/>
@@ -32758,7 +34175,7 @@
       </c>
       <c r="P107">
         <f t="shared" si="13"/>
-        <v>5053</v>
+        <v>10074</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -32797,7 +34214,7 @@
       </c>
       <c r="J108" s="8">
         <f t="shared" si="12"/>
-        <v>5019</v>
+        <v>9872</v>
       </c>
       <c r="K108" s="1">
         <f t="shared" si="15"/>
@@ -32817,7 +34234,7 @@
       </c>
       <c r="P108">
         <f t="shared" si="13"/>
-        <v>5019</v>
+        <v>9872</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -32856,7 +34273,7 @@
       </c>
       <c r="J109" s="8">
         <f t="shared" si="12"/>
-        <v>4986</v>
+        <v>9674</v>
       </c>
       <c r="K109" s="1">
         <f t="shared" si="15"/>
@@ -32876,7 +34293,7 @@
       </c>
       <c r="P109">
         <f t="shared" si="13"/>
-        <v>4986</v>
+        <v>9674</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -32915,7 +34332,7 @@
       </c>
       <c r="J110" s="8">
         <f t="shared" si="12"/>
-        <v>4952</v>
+        <v>9481</v>
       </c>
       <c r="K110" s="1">
         <f t="shared" si="15"/>
@@ -32935,7 +34352,7 @@
       </c>
       <c r="P110">
         <f t="shared" si="13"/>
-        <v>4952</v>
+        <v>9481</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -32974,7 +34391,7 @@
       </c>
       <c r="J111" s="8">
         <f t="shared" si="12"/>
-        <v>4919</v>
+        <v>9291</v>
       </c>
       <c r="K111" s="1">
         <f t="shared" si="15"/>
@@ -32994,7 +34411,7 @@
       </c>
       <c r="P111">
         <f t="shared" si="13"/>
-        <v>4919</v>
+        <v>9291</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -33033,7 +34450,7 @@
       </c>
       <c r="J112" s="8">
         <f t="shared" si="12"/>
-        <v>4886</v>
+        <v>9105</v>
       </c>
       <c r="K112" s="1">
         <f t="shared" si="15"/>
@@ -33053,7 +34470,7 @@
       </c>
       <c r="P112">
         <f t="shared" si="13"/>
-        <v>4886</v>
+        <v>9105</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -33092,7 +34509,7 @@
       </c>
       <c r="J113" s="8">
         <f t="shared" si="12"/>
-        <v>4854</v>
+        <v>8923</v>
       </c>
       <c r="K113" s="1">
         <f t="shared" si="15"/>
@@ -33112,7 +34529,7 @@
       </c>
       <c r="P113">
         <f t="shared" si="13"/>
-        <v>4854</v>
+        <v>8923</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -33151,7 +34568,7 @@
       </c>
       <c r="J114" s="8">
         <f t="shared" si="12"/>
-        <v>4821</v>
+        <v>8744</v>
       </c>
       <c r="K114" s="1">
         <f t="shared" si="15"/>
@@ -33171,7 +34588,7 @@
       </c>
       <c r="P114">
         <f t="shared" si="13"/>
-        <v>4821</v>
+        <v>8744</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -33210,7 +34627,7 @@
       </c>
       <c r="J115" s="8">
         <f t="shared" si="12"/>
-        <v>4789</v>
+        <v>8569</v>
       </c>
       <c r="K115" s="1">
         <f t="shared" si="15"/>
@@ -33230,7 +34647,7 @@
       </c>
       <c r="P115">
         <f t="shared" si="13"/>
-        <v>4789</v>
+        <v>8569</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -33269,7 +34686,7 @@
       </c>
       <c r="J116" s="8">
         <f t="shared" si="12"/>
-        <v>4757</v>
+        <v>8398</v>
       </c>
       <c r="K116" s="1">
         <f t="shared" si="15"/>
@@ -33289,7 +34706,7 @@
       </c>
       <c r="P116">
         <f t="shared" si="13"/>
-        <v>4757</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -33328,7 +34745,7 @@
       </c>
       <c r="J117" s="8">
         <f t="shared" si="12"/>
-        <v>4726</v>
+        <v>8230</v>
       </c>
       <c r="K117" s="1">
         <f t="shared" si="15"/>
@@ -33348,7 +34765,7 @@
       </c>
       <c r="P117">
         <f t="shared" si="13"/>
-        <v>4726</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -33387,7 +34804,7 @@
       </c>
       <c r="J118" s="8">
         <f t="shared" si="12"/>
-        <v>4694</v>
+        <v>8065</v>
       </c>
       <c r="K118" s="1">
         <f t="shared" si="15"/>
@@ -33407,7 +34824,7 @@
       </c>
       <c r="P118">
         <f t="shared" si="13"/>
-        <v>4694</v>
+        <v>8065</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -33446,7 +34863,7 @@
       </c>
       <c r="J119" s="8">
         <f t="shared" ref="J119:J122" si="28">J118+ROUND(($E$1/$D$2)*G118*(J118/$D$3),0)-ROUND(J118/$D$2,0)</f>
-        <v>4663</v>
+        <v>7904</v>
       </c>
       <c r="K119" s="1">
         <f t="shared" si="15"/>
@@ -33466,7 +34883,7 @@
       </c>
       <c r="P119">
         <f t="shared" ref="P119:P134" si="31">J119</f>
-        <v>4663</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -33505,7 +34922,7 @@
       </c>
       <c r="J120" s="8">
         <f t="shared" si="28"/>
-        <v>4631</v>
+        <v>7746</v>
       </c>
       <c r="K120" s="1">
         <f t="shared" si="15"/>
@@ -33525,7 +34942,7 @@
       </c>
       <c r="P120">
         <f t="shared" si="31"/>
-        <v>4631</v>
+        <v>7746</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -33564,7 +34981,7 @@
       </c>
       <c r="J121" s="8">
         <f t="shared" si="28"/>
-        <v>4600</v>
+        <v>7591</v>
       </c>
       <c r="K121" s="1">
         <f t="shared" si="15"/>
@@ -33584,7 +35001,7 @@
       </c>
       <c r="P121">
         <f t="shared" si="31"/>
-        <v>4600</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -33623,7 +35040,7 @@
       </c>
       <c r="J122" s="8">
         <f t="shared" si="28"/>
-        <v>4570</v>
+        <v>7439</v>
       </c>
       <c r="K122" s="1">
         <f t="shared" si="15"/>
@@ -33643,7 +35060,7 @@
       </c>
       <c r="P122">
         <f t="shared" si="31"/>
-        <v>4570</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -33682,7 +35099,7 @@
       </c>
       <c r="J123" s="8">
         <f>J122+ROUND(($E$1/$D$2)*G122*(J122/$D$3),0)-ROUND(J122/$D$2,0)</f>
-        <v>4539</v>
+        <v>7290</v>
       </c>
       <c r="K123" s="1">
         <f t="shared" si="15"/>
@@ -33702,7 +35119,7 @@
       </c>
       <c r="P123">
         <f t="shared" si="31"/>
-        <v>4539</v>
+        <v>7290</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -33741,7 +35158,7 @@
       </c>
       <c r="J124" s="8">
         <f t="shared" ref="J124:J160" si="40">J123+ROUND(($E$1/$D$2)*G123*(J123/$D$3),0)-ROUND(J123/$D$2,0)</f>
-        <v>4509</v>
+        <v>7144</v>
       </c>
       <c r="K124" s="1">
         <f t="shared" si="15"/>
@@ -33761,7 +35178,7 @@
       </c>
       <c r="P124">
         <f t="shared" si="31"/>
-        <v>4509</v>
+        <v>7144</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -33800,7 +35217,7 @@
       </c>
       <c r="J125" s="8">
         <f t="shared" si="40"/>
-        <v>4479</v>
+        <v>7001</v>
       </c>
       <c r="K125" s="1">
         <f t="shared" si="15"/>
@@ -33820,7 +35237,7 @@
       </c>
       <c r="P125">
         <f t="shared" si="31"/>
-        <v>4479</v>
+        <v>7001</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -33859,7 +35276,7 @@
       </c>
       <c r="J126" s="8">
         <f t="shared" si="40"/>
-        <v>4449</v>
+        <v>6861</v>
       </c>
       <c r="K126" s="3">
         <f t="shared" si="15"/>
@@ -33880,7 +35297,7 @@
       </c>
       <c r="P126" s="4">
         <f t="shared" si="31"/>
-        <v>4449</v>
+        <v>6861</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -33919,7 +35336,7 @@
       </c>
       <c r="J127" s="8">
         <f t="shared" si="40"/>
-        <v>4419</v>
+        <v>6723</v>
       </c>
       <c r="K127" s="3">
         <f t="shared" si="15"/>
@@ -33940,7 +35357,7 @@
       </c>
       <c r="P127" s="4">
         <f t="shared" si="31"/>
-        <v>4419</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -33979,7 +35396,7 @@
       </c>
       <c r="J128" s="8">
         <f t="shared" si="40"/>
-        <v>4390</v>
+        <v>6589</v>
       </c>
       <c r="K128" s="3">
         <f t="shared" si="15"/>
@@ -34000,7 +35417,7 @@
       </c>
       <c r="P128" s="4">
         <f t="shared" si="31"/>
-        <v>4390</v>
+        <v>6589</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -34039,7 +35456,7 @@
       </c>
       <c r="J129" s="8">
         <f t="shared" si="40"/>
-        <v>4361</v>
+        <v>6457</v>
       </c>
       <c r="K129" s="3">
         <f t="shared" si="15"/>
@@ -34060,7 +35477,7 @@
       </c>
       <c r="P129" s="4">
         <f t="shared" si="31"/>
-        <v>4361</v>
+        <v>6457</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -34099,7 +35516,7 @@
       </c>
       <c r="J130" s="8">
         <f t="shared" si="40"/>
-        <v>4332</v>
+        <v>6328</v>
       </c>
       <c r="K130" s="3">
         <f t="shared" si="15"/>
@@ -34120,7 +35537,7 @@
       </c>
       <c r="P130" s="4">
         <f t="shared" si="31"/>
-        <v>4332</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -34159,7 +35576,7 @@
       </c>
       <c r="J131" s="8">
         <f t="shared" si="40"/>
-        <v>4303</v>
+        <v>6202</v>
       </c>
       <c r="K131" s="3">
         <f t="shared" si="15"/>
@@ -34180,7 +35597,7 @@
       </c>
       <c r="P131" s="4">
         <f t="shared" si="31"/>
-        <v>4303</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -34219,7 +35636,7 @@
       </c>
       <c r="J132" s="8">
         <f t="shared" si="40"/>
-        <v>4274</v>
+        <v>6078</v>
       </c>
       <c r="K132" s="3">
         <f t="shared" si="15"/>
@@ -34240,7 +35657,7 @@
       </c>
       <c r="P132" s="4">
         <f t="shared" si="31"/>
-        <v>4274</v>
+        <v>6078</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -34279,7 +35696,7 @@
       </c>
       <c r="J133" s="8">
         <f t="shared" si="40"/>
-        <v>4246</v>
+        <v>5956</v>
       </c>
       <c r="K133" s="9">
         <f t="shared" si="15"/>
@@ -34300,7 +35717,7 @@
       </c>
       <c r="P133" s="10">
         <f t="shared" si="31"/>
-        <v>4246</v>
+        <v>5956</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -34339,7 +35756,7 @@
       </c>
       <c r="J134" s="8">
         <f t="shared" si="40"/>
-        <v>4217</v>
+        <v>5837</v>
       </c>
       <c r="K134" s="9">
         <f t="shared" si="15"/>
@@ -34360,7 +35777,7 @@
       </c>
       <c r="P134" s="10">
         <f t="shared" si="31"/>
-        <v>4217</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -34399,7 +35816,7 @@
       </c>
       <c r="J135" s="8">
         <f t="shared" si="40"/>
-        <v>4189</v>
+        <v>5721</v>
       </c>
       <c r="K135" s="9">
         <f t="shared" ref="K135:K141" si="61">A135</f>
@@ -34420,7 +35837,7 @@
       </c>
       <c r="P135" s="10">
         <f t="shared" ref="P135:P141" si="63">J135</f>
-        <v>4189</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -34459,7 +35876,7 @@
       </c>
       <c r="J136" s="8">
         <f t="shared" si="40"/>
-        <v>4161</v>
+        <v>5606</v>
       </c>
       <c r="K136" s="9">
         <f t="shared" si="61"/>
@@ -34480,7 +35897,7 @@
       </c>
       <c r="P136" s="10">
         <f t="shared" si="63"/>
-        <v>4161</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -34519,7 +35936,7 @@
       </c>
       <c r="J137" s="8">
         <f t="shared" si="40"/>
-        <v>4133</v>
+        <v>5494</v>
       </c>
       <c r="K137" s="9">
         <f t="shared" si="61"/>
@@ -34540,7 +35957,7 @@
       </c>
       <c r="P137" s="10">
         <f t="shared" si="63"/>
-        <v>4133</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
@@ -34579,7 +35996,7 @@
       </c>
       <c r="J138" s="8">
         <f t="shared" si="40"/>
-        <v>4106</v>
+        <v>5384</v>
       </c>
       <c r="K138" s="9">
         <f t="shared" si="61"/>
@@ -34600,7 +36017,7 @@
       </c>
       <c r="P138" s="10">
         <f t="shared" si="63"/>
-        <v>4106</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
@@ -34639,7 +36056,7 @@
       </c>
       <c r="J139" s="8">
         <f t="shared" si="40"/>
-        <v>4079</v>
+        <v>5276</v>
       </c>
       <c r="K139" s="9">
         <f t="shared" si="61"/>
@@ -34660,7 +36077,7 @@
       </c>
       <c r="P139" s="10">
         <f t="shared" si="63"/>
-        <v>4079</v>
+        <v>5276</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
@@ -34699,7 +36116,7 @@
       </c>
       <c r="J140" s="8">
         <f t="shared" si="40"/>
-        <v>4052</v>
+        <v>5170</v>
       </c>
       <c r="K140" s="3">
         <f t="shared" si="61"/>
@@ -34720,7 +36137,7 @@
       </c>
       <c r="P140" s="4">
         <f t="shared" si="63"/>
-        <v>4052</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
@@ -34759,7 +36176,7 @@
       </c>
       <c r="J141" s="8">
         <f t="shared" si="40"/>
-        <v>4025</v>
+        <v>5066</v>
       </c>
       <c r="K141" s="3">
         <f t="shared" si="61"/>
@@ -34780,7 +36197,7 @@
       </c>
       <c r="P141" s="4">
         <f t="shared" si="63"/>
-        <v>4025</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
@@ -34819,7 +36236,7 @@
       </c>
       <c r="J142" s="8">
         <f t="shared" si="40"/>
-        <v>3999</v>
+        <v>4965</v>
       </c>
       <c r="K142" s="3">
         <f t="shared" ref="K142:K146" si="73">A142</f>
@@ -34840,7 +36257,7 @@
       </c>
       <c r="P142" s="4">
         <f t="shared" ref="P142:P146" si="76">J142</f>
-        <v>3999</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -34879,7 +36296,7 @@
       </c>
       <c r="J143" s="8">
         <f t="shared" si="40"/>
-        <v>3973</v>
+        <v>4865</v>
       </c>
       <c r="K143" s="3">
         <f t="shared" si="73"/>
@@ -34900,7 +36317,7 @@
       </c>
       <c r="P143" s="4">
         <f t="shared" si="76"/>
-        <v>3973</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
@@ -34939,7 +36356,7 @@
       </c>
       <c r="J144" s="8">
         <f t="shared" si="40"/>
-        <v>3947</v>
+        <v>4768</v>
       </c>
       <c r="K144" s="3">
         <f t="shared" si="73"/>
@@ -34960,7 +36377,7 @@
       </c>
       <c r="P144" s="4">
         <f t="shared" si="76"/>
-        <v>3947</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
@@ -34999,7 +36416,7 @@
       </c>
       <c r="J145" s="8">
         <f t="shared" si="40"/>
-        <v>3921</v>
+        <v>4673</v>
       </c>
       <c r="K145" s="3">
         <f t="shared" si="73"/>
@@ -35020,7 +36437,7 @@
       </c>
       <c r="P145" s="4">
         <f t="shared" si="76"/>
-        <v>3921</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
@@ -35059,7 +36476,7 @@
       </c>
       <c r="J146" s="8">
         <f t="shared" si="40"/>
-        <v>3895</v>
+        <v>4580</v>
       </c>
       <c r="K146" s="3">
         <f t="shared" si="73"/>
@@ -35080,7 +36497,7 @@
       </c>
       <c r="P146" s="4">
         <f t="shared" si="76"/>
-        <v>3895</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -35119,7 +36536,7 @@
       </c>
       <c r="J147" s="8">
         <f t="shared" si="40"/>
-        <v>3869</v>
+        <v>4488</v>
       </c>
       <c r="K147" s="9">
         <f t="shared" ref="K147:K160" si="85">A147</f>
@@ -35140,7 +36557,7 @@
       </c>
       <c r="P147" s="10">
         <f t="shared" ref="P147:P160" si="88">J147</f>
-        <v>3869</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
@@ -35179,7 +36596,7 @@
       </c>
       <c r="J148" s="8">
         <f t="shared" si="40"/>
-        <v>3844</v>
+        <v>4398</v>
       </c>
       <c r="K148" s="9">
         <f t="shared" si="85"/>
@@ -35193,17 +36610,14 @@
         <f>RealData!B145</f>
         <v>3846</v>
       </c>
-      <c r="N148" s="10">
-        <f t="shared" ref="N148:N160" si="90">E148</f>
-        <v>3843</v>
-      </c>
+      <c r="N148" s="10"/>
       <c r="O148" s="10">
         <f t="shared" si="87"/>
         <v>13635</v>
       </c>
       <c r="P148" s="10">
         <f t="shared" si="88"/>
-        <v>3844</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
@@ -35242,31 +36656,28 @@
       </c>
       <c r="J149" s="8">
         <f t="shared" si="40"/>
-        <v>3819</v>
+        <v>4309</v>
       </c>
       <c r="K149" s="9">
         <f t="shared" si="85"/>
         <v>44162</v>
       </c>
       <c r="L149" s="10">
-        <f t="shared" ref="L149:L152" si="91">E149</f>
+        <f t="shared" ref="L149:L152" si="90">E149</f>
         <v>3818</v>
       </c>
       <c r="M149" s="10">
         <f>RealData!B146</f>
         <v>3782</v>
       </c>
-      <c r="N149" s="10">
-        <f t="shared" si="90"/>
-        <v>3818</v>
-      </c>
+      <c r="N149" s="10"/>
       <c r="O149" s="10">
         <f t="shared" si="87"/>
         <v>14703</v>
       </c>
       <c r="P149" s="10">
         <f t="shared" si="88"/>
-        <v>3819</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
@@ -35305,31 +36716,28 @@
       </c>
       <c r="J150" s="8">
         <f t="shared" si="40"/>
-        <v>3794</v>
+        <v>4223</v>
       </c>
       <c r="K150" s="9">
         <f t="shared" si="85"/>
         <v>44163</v>
       </c>
       <c r="L150" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>3793</v>
       </c>
       <c r="M150" s="10">
         <f>RealData!B147</f>
         <v>3762</v>
       </c>
-      <c r="N150" s="10">
-        <f t="shared" si="90"/>
-        <v>3793</v>
-      </c>
+      <c r="N150" s="10"/>
       <c r="O150" s="10">
         <f t="shared" si="87"/>
         <v>15854</v>
       </c>
       <c r="P150" s="10">
         <f t="shared" si="88"/>
-        <v>3794</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
@@ -35368,31 +36776,28 @@
       </c>
       <c r="J151" s="8">
         <f t="shared" si="40"/>
-        <v>3769</v>
+        <v>4138</v>
       </c>
       <c r="K151" s="9">
         <f t="shared" si="85"/>
         <v>44164</v>
       </c>
       <c r="L151" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>3768</v>
       </c>
       <c r="M151" s="10">
         <f>RealData!B148</f>
         <v>3753</v>
       </c>
-      <c r="N151" s="10">
-        <f t="shared" si="90"/>
-        <v>3768</v>
-      </c>
+      <c r="N151" s="10"/>
       <c r="O151" s="10">
         <f t="shared" si="87"/>
         <v>17095</v>
       </c>
       <c r="P151" s="10">
         <f t="shared" si="88"/>
-        <v>3769</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
@@ -35431,31 +36836,28 @@
       </c>
       <c r="J152" s="8">
         <f t="shared" si="40"/>
-        <v>3744</v>
+        <v>4055</v>
       </c>
       <c r="K152" s="9">
         <f t="shared" si="85"/>
         <v>44165</v>
       </c>
       <c r="L152" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>3743</v>
       </c>
       <c r="M152" s="10">
         <f>RealData!B149</f>
         <v>3744</v>
       </c>
-      <c r="N152" s="10">
-        <f t="shared" si="90"/>
-        <v>3743</v>
-      </c>
+      <c r="N152" s="10"/>
       <c r="O152" s="10">
         <f t="shared" si="87"/>
         <v>18433</v>
       </c>
       <c r="P152" s="10">
         <f t="shared" si="88"/>
-        <v>3744</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
@@ -35494,31 +36896,28 @@
       </c>
       <c r="J153" s="8">
         <f t="shared" si="40"/>
-        <v>3719</v>
+        <v>3974</v>
       </c>
       <c r="K153" s="9">
         <f t="shared" si="85"/>
         <v>44166</v>
       </c>
       <c r="L153" s="10">
-        <f t="shared" ref="L153:L160" si="92">E153</f>
+        <f t="shared" ref="L153:L166" si="91">E153</f>
         <v>3665</v>
       </c>
       <c r="M153" s="10">
         <f>RealData!B150</f>
         <v>3663</v>
       </c>
-      <c r="N153" s="10">
-        <f t="shared" si="90"/>
-        <v>3665</v>
-      </c>
+      <c r="N153" s="10"/>
       <c r="O153" s="10">
         <f t="shared" si="87"/>
         <v>19876</v>
       </c>
       <c r="P153" s="10">
         <f t="shared" si="88"/>
-        <v>3719</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
@@ -35557,31 +36956,28 @@
       </c>
       <c r="J154" s="8">
         <f t="shared" si="40"/>
-        <v>3694</v>
+        <v>3895</v>
       </c>
       <c r="K154" s="3">
         <f t="shared" si="85"/>
         <v>44167</v>
       </c>
       <c r="L154" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>3620</v>
       </c>
       <c r="M154" s="4">
         <f>RealData!B151</f>
         <v>3616</v>
       </c>
-      <c r="N154" s="4">
-        <f t="shared" si="90"/>
-        <v>3620</v>
-      </c>
+      <c r="N154" s="4"/>
       <c r="O154" s="4">
         <f t="shared" si="87"/>
         <v>21433</v>
       </c>
       <c r="P154" s="4">
         <f t="shared" si="88"/>
-        <v>3694</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
@@ -35620,7 +37016,7 @@
       </c>
       <c r="J155" s="8">
         <f t="shared" si="40"/>
-        <v>3669</v>
+        <v>3817</v>
       </c>
       <c r="K155" s="3">
         <f t="shared" si="85"/>
@@ -35634,17 +37030,14 @@
         <f>RealData!B152</f>
         <v>3597</v>
       </c>
-      <c r="N155" s="4">
-        <f t="shared" si="90"/>
-        <v>3583</v>
-      </c>
+      <c r="N155" s="4"/>
       <c r="O155" s="4">
         <f t="shared" si="87"/>
         <v>23111</v>
       </c>
       <c r="P155" s="4">
         <f t="shared" si="88"/>
-        <v>3669</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
@@ -35683,31 +37076,28 @@
       </c>
       <c r="J156" s="8">
         <f t="shared" si="40"/>
-        <v>3644</v>
+        <v>3741</v>
       </c>
       <c r="K156" s="3">
         <f t="shared" si="85"/>
         <v>44169</v>
       </c>
       <c r="L156" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>3547</v>
       </c>
       <c r="M156" s="4">
         <f>RealData!B153</f>
         <v>3567</v>
       </c>
-      <c r="N156" s="4">
-        <f t="shared" si="90"/>
-        <v>3547</v>
-      </c>
+      <c r="N156" s="4"/>
       <c r="O156" s="4">
         <f t="shared" si="87"/>
         <v>24920</v>
       </c>
       <c r="P156" s="4">
         <f t="shared" si="88"/>
-        <v>3644</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
@@ -35746,31 +37136,28 @@
       </c>
       <c r="J157" s="8">
         <f t="shared" si="40"/>
-        <v>3619</v>
+        <v>3666</v>
       </c>
       <c r="K157" s="3">
         <f t="shared" si="85"/>
         <v>44170</v>
       </c>
       <c r="L157" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>3511</v>
       </c>
       <c r="M157" s="4">
         <f>RealData!B154</f>
         <v>3517</v>
       </c>
-      <c r="N157" s="4">
-        <f t="shared" si="90"/>
-        <v>3511</v>
-      </c>
+      <c r="N157" s="4"/>
       <c r="O157" s="4">
         <f t="shared" si="87"/>
         <v>26871</v>
       </c>
       <c r="P157" s="4">
         <f t="shared" si="88"/>
-        <v>3619</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
@@ -35781,15 +37168,15 @@
         <v>132</v>
       </c>
       <c r="C158" s="4">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="D158" s="4">
         <f t="shared" si="79"/>
-        <v>59984167</v>
+        <v>59984164</v>
       </c>
       <c r="E158" s="4">
         <f t="shared" si="80"/>
-        <v>3455</v>
+        <v>3458</v>
       </c>
       <c r="F158" s="4">
         <f t="shared" si="81"/>
@@ -35797,7 +37184,7 @@
       </c>
       <c r="G158" s="2">
         <f t="shared" si="82"/>
-        <v>59984167</v>
+        <v>59984164</v>
       </c>
       <c r="H158" s="2">
         <f t="shared" si="83"/>
@@ -35809,31 +37196,28 @@
       </c>
       <c r="J158" s="8">
         <f t="shared" si="40"/>
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="K158" s="3">
         <f t="shared" si="85"/>
         <v>44171</v>
       </c>
       <c r="L158" s="4">
-        <f t="shared" si="92"/>
-        <v>3455</v>
+        <f t="shared" si="91"/>
+        <v>3458</v>
       </c>
       <c r="M158" s="4">
         <f>RealData!B155</f>
         <v>3454</v>
       </c>
-      <c r="N158" s="4">
-        <f t="shared" si="90"/>
-        <v>3455</v>
-      </c>
+      <c r="N158" s="4"/>
       <c r="O158" s="4">
         <f t="shared" si="87"/>
         <v>28975</v>
       </c>
       <c r="P158" s="4">
         <f t="shared" si="88"/>
-        <v>3594</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
@@ -35844,15 +37228,15 @@
         <v>133</v>
       </c>
       <c r="C159" s="4">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="D159" s="4">
         <f t="shared" si="79"/>
-        <v>59983934</v>
+        <v>59983928</v>
       </c>
       <c r="E159" s="4">
         <f t="shared" si="80"/>
-        <v>3400</v>
+        <v>3406</v>
       </c>
       <c r="F159" s="4">
         <f t="shared" si="81"/>
@@ -35860,7 +37244,7 @@
       </c>
       <c r="G159" s="2">
         <f t="shared" si="82"/>
-        <v>59983934</v>
+        <v>59983928</v>
       </c>
       <c r="H159" s="2">
         <f t="shared" si="83"/>
@@ -35872,31 +37256,28 @@
       </c>
       <c r="J159" s="8">
         <f t="shared" si="40"/>
-        <v>3569</v>
+        <v>3520</v>
       </c>
       <c r="K159" s="3">
         <f t="shared" si="85"/>
         <v>44172</v>
       </c>
       <c r="L159" s="4">
-        <f t="shared" si="92"/>
-        <v>3400</v>
+        <f t="shared" si="91"/>
+        <v>3406</v>
       </c>
       <c r="M159" s="4">
         <f>RealData!B156</f>
         <v>3382</v>
       </c>
-      <c r="N159" s="4">
-        <f t="shared" si="90"/>
-        <v>3400</v>
-      </c>
+      <c r="N159" s="4"/>
       <c r="O159" s="4">
         <f t="shared" si="87"/>
         <v>31243</v>
       </c>
       <c r="P159" s="4">
         <f t="shared" si="88"/>
-        <v>3569</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
@@ -35907,23 +37288,23 @@
         <v>134</v>
       </c>
       <c r="C160" s="4">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="D160" s="4">
         <f t="shared" si="79"/>
-        <v>59983705</v>
+        <v>59983695</v>
       </c>
       <c r="E160" s="4">
         <f t="shared" si="80"/>
-        <v>3346</v>
+        <v>3355</v>
       </c>
       <c r="F160" s="4">
         <f t="shared" si="81"/>
-        <v>12949</v>
+        <v>12950</v>
       </c>
       <c r="G160" s="2">
         <f t="shared" si="82"/>
-        <v>59983705</v>
+        <v>59983695</v>
       </c>
       <c r="H160" s="2">
         <f t="shared" si="83"/>
@@ -35935,31 +37316,1252 @@
       </c>
       <c r="J160" s="8">
         <f t="shared" si="40"/>
-        <v>3546</v>
+        <v>3450</v>
       </c>
       <c r="K160" s="3">
         <f t="shared" si="85"/>
         <v>44173</v>
       </c>
       <c r="L160" s="4">
-        <f t="shared" si="92"/>
-        <v>3346</v>
+        <f t="shared" si="91"/>
+        <v>3355</v>
       </c>
       <c r="M160" s="4">
         <f>RealData!B157</f>
         <v>3345</v>
       </c>
-      <c r="N160" s="4">
-        <f t="shared" si="90"/>
-        <v>3346</v>
-      </c>
+      <c r="N160" s="4"/>
       <c r="O160" s="4">
         <f t="shared" si="87"/>
         <v>33689</v>
       </c>
       <c r="P160" s="4">
         <f t="shared" si="88"/>
-        <v>3546</v>
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A161" s="9">
+        <v>44174</v>
+      </c>
+      <c r="B161" s="10">
+        <v>134</v>
+      </c>
+      <c r="C161" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="D161" s="10">
+        <f t="shared" ref="D161:D174" si="92">D160-ROUND((C161/$D$2)*D160*(E160/$D$3),0)</f>
+        <v>59983457</v>
+      </c>
+      <c r="E161" s="10">
+        <f t="shared" ref="E161:E174" si="93">E160+ROUND((C161/$D$2)*D160*(E160/$D$3),0)-ROUND(E160/$D$2,0)</f>
+        <v>3313</v>
+      </c>
+      <c r="F161" s="10">
+        <f t="shared" ref="F161:F174" si="94">F160+ROUND(E160/$D$2,0)</f>
+        <v>13230</v>
+      </c>
+      <c r="G161" s="2">
+        <f t="shared" ref="G161:G174" si="95">D161</f>
+        <v>59983457</v>
+      </c>
+      <c r="H161" s="2">
+        <f t="shared" ref="H161:H174" si="96">H160+ROUND(($D$1/$D$2)*G160*(H160/$D$3),0)-ROUND(H160/$D$2,0)</f>
+        <v>36327</v>
+      </c>
+      <c r="I161" s="7">
+        <f t="shared" ref="I161:I174" si="97">I160+ROUND(($D$1/$D$2)*G160*(I160/$D$3),0)-ROUND(I160/$D$2,0)</f>
+        <v>36327</v>
+      </c>
+      <c r="J161" s="8">
+        <f t="shared" ref="J161:J174" si="98">J160+ROUND(($E$1/$D$2)*G160*(J160/$D$3),0)-ROUND(J160/$D$2,0)</f>
+        <v>3380</v>
+      </c>
+      <c r="K161" s="9">
+        <f t="shared" ref="K161:K174" si="99">A161</f>
+        <v>44174</v>
+      </c>
+      <c r="L161" s="10">
+        <f t="shared" si="91"/>
+        <v>3313</v>
+      </c>
+      <c r="M161" s="10">
+        <f>RealData!B158</f>
+        <v>3320</v>
+      </c>
+      <c r="N161" s="10"/>
+      <c r="O161" s="10">
+        <f t="shared" ref="O161:O174" si="100">I161</f>
+        <v>36327</v>
+      </c>
+      <c r="P161" s="10">
+        <f t="shared" ref="P161:P174" si="101">J161</f>
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" s="9">
+        <v>44175</v>
+      </c>
+      <c r="B162" s="10">
+        <v>134</v>
+      </c>
+      <c r="C162" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="D162" s="10">
+        <f t="shared" si="92"/>
+        <v>59983222</v>
+      </c>
+      <c r="E162" s="10">
+        <f t="shared" si="93"/>
+        <v>3272</v>
+      </c>
+      <c r="F162" s="10">
+        <f t="shared" si="94"/>
+        <v>13506</v>
+      </c>
+      <c r="G162" s="2">
+        <f t="shared" si="95"/>
+        <v>59983222</v>
+      </c>
+      <c r="H162" s="2">
+        <f t="shared" si="96"/>
+        <v>39171</v>
+      </c>
+      <c r="I162" s="7">
+        <f t="shared" si="97"/>
+        <v>39171</v>
+      </c>
+      <c r="J162" s="8">
+        <f t="shared" si="98"/>
+        <v>3312</v>
+      </c>
+      <c r="K162" s="9">
+        <f t="shared" si="99"/>
+        <v>44175</v>
+      </c>
+      <c r="L162" s="10">
+        <f t="shared" si="91"/>
+        <v>3272</v>
+      </c>
+      <c r="M162" s="10">
+        <f>RealData!B159</f>
+        <v>3291</v>
+      </c>
+      <c r="N162" s="10"/>
+      <c r="O162" s="10">
+        <f t="shared" si="100"/>
+        <v>39171</v>
+      </c>
+      <c r="P162" s="10">
+        <f t="shared" si="101"/>
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" s="9">
+        <v>44176</v>
+      </c>
+      <c r="B163" s="10">
+        <v>134</v>
+      </c>
+      <c r="C163" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="D163" s="10">
+        <f t="shared" si="92"/>
+        <v>59982990</v>
+      </c>
+      <c r="E163" s="10">
+        <f t="shared" si="93"/>
+        <v>3231</v>
+      </c>
+      <c r="F163" s="10">
+        <f t="shared" si="94"/>
+        <v>13779</v>
+      </c>
+      <c r="G163" s="2">
+        <f t="shared" si="95"/>
+        <v>59982990</v>
+      </c>
+      <c r="H163" s="2">
+        <f t="shared" si="96"/>
+        <v>42238</v>
+      </c>
+      <c r="I163" s="7">
+        <f t="shared" si="97"/>
+        <v>42238</v>
+      </c>
+      <c r="J163" s="8">
+        <f t="shared" si="98"/>
+        <v>3246</v>
+      </c>
+      <c r="K163" s="9">
+        <f t="shared" si="99"/>
+        <v>44176</v>
+      </c>
+      <c r="L163" s="10">
+        <f t="shared" si="91"/>
+        <v>3231</v>
+      </c>
+      <c r="M163" s="10">
+        <f>RealData!B160</f>
+        <v>3265</v>
+      </c>
+      <c r="N163" s="10"/>
+      <c r="O163" s="10">
+        <f t="shared" si="100"/>
+        <v>42238</v>
+      </c>
+      <c r="P163" s="10">
+        <f t="shared" si="101"/>
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" s="9">
+        <v>44177</v>
+      </c>
+      <c r="B164" s="10">
+        <v>134</v>
+      </c>
+      <c r="C164" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="D164" s="10">
+        <f t="shared" si="92"/>
+        <v>59982761</v>
+      </c>
+      <c r="E164" s="10">
+        <f t="shared" si="93"/>
+        <v>3191</v>
+      </c>
+      <c r="F164" s="10">
+        <f t="shared" si="94"/>
+        <v>14048</v>
+      </c>
+      <c r="G164" s="2">
+        <f t="shared" si="95"/>
+        <v>59982761</v>
+      </c>
+      <c r="H164" s="2">
+        <f t="shared" si="96"/>
+        <v>45545</v>
+      </c>
+      <c r="I164" s="7">
+        <f t="shared" si="97"/>
+        <v>45545</v>
+      </c>
+      <c r="J164" s="8">
+        <f t="shared" si="98"/>
+        <v>3181</v>
+      </c>
+      <c r="K164" s="9">
+        <f t="shared" si="99"/>
+        <v>44177</v>
+      </c>
+      <c r="L164" s="10">
+        <f t="shared" si="91"/>
+        <v>3191</v>
+      </c>
+      <c r="M164" s="10">
+        <f>RealData!B161</f>
+        <v>3199</v>
+      </c>
+      <c r="N164" s="10"/>
+      <c r="O164" s="10">
+        <f t="shared" si="100"/>
+        <v>45545</v>
+      </c>
+      <c r="P164" s="10">
+        <f t="shared" si="101"/>
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165" s="9">
+        <v>44178</v>
+      </c>
+      <c r="B165" s="10">
+        <v>134</v>
+      </c>
+      <c r="C165" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="D165" s="10">
+        <f t="shared" si="92"/>
+        <v>59982535</v>
+      </c>
+      <c r="E165" s="10">
+        <f t="shared" si="93"/>
+        <v>3151</v>
+      </c>
+      <c r="F165" s="10">
+        <f t="shared" si="94"/>
+        <v>14314</v>
+      </c>
+      <c r="G165" s="2">
+        <f t="shared" si="95"/>
+        <v>59982535</v>
+      </c>
+      <c r="H165" s="2">
+        <f t="shared" si="96"/>
+        <v>49111</v>
+      </c>
+      <c r="I165" s="7">
+        <f t="shared" si="97"/>
+        <v>49111</v>
+      </c>
+      <c r="J165" s="8">
+        <f t="shared" si="98"/>
+        <v>3117</v>
+      </c>
+      <c r="K165" s="9">
+        <f t="shared" si="99"/>
+        <v>44178</v>
+      </c>
+      <c r="L165" s="10">
+        <f t="shared" si="91"/>
+        <v>3151</v>
+      </c>
+      <c r="M165" s="10">
+        <f>RealData!B162</f>
+        <v>3158</v>
+      </c>
+      <c r="N165" s="10"/>
+      <c r="O165" s="10">
+        <f t="shared" si="100"/>
+        <v>49111</v>
+      </c>
+      <c r="P165" s="10">
+        <f t="shared" si="101"/>
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166" s="9">
+        <v>44179</v>
+      </c>
+      <c r="B166" s="10">
+        <v>134</v>
+      </c>
+      <c r="C166" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="D166" s="10">
+        <f t="shared" si="92"/>
+        <v>59982335</v>
+      </c>
+      <c r="E166" s="10">
+        <f t="shared" si="93"/>
+        <v>3088</v>
+      </c>
+      <c r="F166" s="10">
+        <f t="shared" si="94"/>
+        <v>14577</v>
+      </c>
+      <c r="G166" s="2">
+        <f t="shared" si="95"/>
+        <v>59982335</v>
+      </c>
+      <c r="H166" s="2">
+        <f t="shared" si="96"/>
+        <v>52955</v>
+      </c>
+      <c r="I166" s="7">
+        <f t="shared" si="97"/>
+        <v>52955</v>
+      </c>
+      <c r="J166" s="8">
+        <f t="shared" si="98"/>
+        <v>3054</v>
+      </c>
+      <c r="K166" s="9">
+        <f t="shared" si="99"/>
+        <v>44179</v>
+      </c>
+      <c r="L166" s="10">
+        <f t="shared" si="91"/>
+        <v>3088</v>
+      </c>
+      <c r="M166" s="10">
+        <f>RealData!B163</f>
+        <v>3095</v>
+      </c>
+      <c r="N166" s="10"/>
+      <c r="O166" s="10">
+        <f t="shared" si="100"/>
+        <v>52955</v>
+      </c>
+      <c r="P166" s="10">
+        <f t="shared" si="101"/>
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" s="9">
+        <v>44180</v>
+      </c>
+      <c r="B167" s="10">
+        <v>134</v>
+      </c>
+      <c r="C167" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="D167" s="10">
+        <f t="shared" si="92"/>
+        <v>59982139</v>
+      </c>
+      <c r="E167" s="10">
+        <f t="shared" si="93"/>
+        <v>3027</v>
+      </c>
+      <c r="F167" s="10">
+        <f t="shared" si="94"/>
+        <v>14834</v>
+      </c>
+      <c r="G167" s="2">
+        <f t="shared" si="95"/>
+        <v>59982139</v>
+      </c>
+      <c r="H167" s="2">
+        <f t="shared" si="96"/>
+        <v>57101</v>
+      </c>
+      <c r="I167" s="7">
+        <f t="shared" si="97"/>
+        <v>57101</v>
+      </c>
+      <c r="J167" s="8">
+        <f t="shared" si="98"/>
+        <v>2992</v>
+      </c>
+      <c r="K167" s="9">
+        <f t="shared" si="99"/>
+        <v>44180</v>
+      </c>
+      <c r="L167" s="10">
+        <f t="shared" ref="L167:L168" si="102">E167</f>
+        <v>3027</v>
+      </c>
+      <c r="M167" s="10">
+        <f>RealData!B164</f>
+        <v>3003</v>
+      </c>
+      <c r="N167" s="10"/>
+      <c r="O167" s="10">
+        <f t="shared" si="100"/>
+        <v>57101</v>
+      </c>
+      <c r="P167" s="10">
+        <f t="shared" si="101"/>
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B168" s="4">
+        <v>128</v>
+      </c>
+      <c r="C168" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D168" s="4">
+        <f t="shared" si="92"/>
+        <v>59981947</v>
+      </c>
+      <c r="E168" s="4">
+        <f t="shared" si="93"/>
+        <v>2967</v>
+      </c>
+      <c r="F168" s="4">
+        <f t="shared" si="94"/>
+        <v>15086</v>
+      </c>
+      <c r="G168" s="2">
+        <f t="shared" si="95"/>
+        <v>59981947</v>
+      </c>
+      <c r="H168" s="2">
+        <f t="shared" si="96"/>
+        <v>61572</v>
+      </c>
+      <c r="I168" s="7">
+        <f t="shared" si="97"/>
+        <v>61572</v>
+      </c>
+      <c r="J168" s="8">
+        <f t="shared" si="98"/>
+        <v>2932</v>
+      </c>
+      <c r="K168" s="3">
+        <f t="shared" si="99"/>
+        <v>44181</v>
+      </c>
+      <c r="L168" s="4">
+        <f t="shared" si="102"/>
+        <v>2967</v>
+      </c>
+      <c r="M168" s="4">
+        <f>RealData!B165</f>
+        <v>2926</v>
+      </c>
+      <c r="N168" s="4">
+        <f t="shared" ref="N161:N174" si="103">E168</f>
+        <v>2967</v>
+      </c>
+      <c r="O168" s="4">
+        <f t="shared" si="100"/>
+        <v>61572</v>
+      </c>
+      <c r="P168" s="4">
+        <f t="shared" si="101"/>
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B169" s="4">
+        <v>129</v>
+      </c>
+      <c r="C169" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D169" s="4">
+        <f t="shared" si="92"/>
+        <v>59981759</v>
+      </c>
+      <c r="E169" s="4">
+        <f t="shared" si="93"/>
+        <v>2908</v>
+      </c>
+      <c r="F169" s="4">
+        <f t="shared" si="94"/>
+        <v>15333</v>
+      </c>
+      <c r="G169" s="2">
+        <f t="shared" si="95"/>
+        <v>59981759</v>
+      </c>
+      <c r="H169" s="2">
+        <f t="shared" si="96"/>
+        <v>66392</v>
+      </c>
+      <c r="I169" s="7">
+        <f t="shared" si="97"/>
+        <v>66392</v>
+      </c>
+      <c r="J169" s="8">
+        <f t="shared" si="98"/>
+        <v>2874</v>
+      </c>
+      <c r="K169" s="3">
+        <f t="shared" si="99"/>
+        <v>44182</v>
+      </c>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4">
+        <f t="shared" si="103"/>
+        <v>2908</v>
+      </c>
+      <c r="O169" s="4">
+        <f t="shared" si="100"/>
+        <v>66392</v>
+      </c>
+      <c r="P169" s="4">
+        <f t="shared" si="101"/>
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B170" s="4">
+        <v>130</v>
+      </c>
+      <c r="C170" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D170" s="4">
+        <f t="shared" si="92"/>
+        <v>59981575</v>
+      </c>
+      <c r="E170" s="4">
+        <f t="shared" si="93"/>
+        <v>2850</v>
+      </c>
+      <c r="F170" s="4">
+        <f t="shared" si="94"/>
+        <v>15575</v>
+      </c>
+      <c r="G170" s="2">
+        <f t="shared" si="95"/>
+        <v>59981575</v>
+      </c>
+      <c r="H170" s="2">
+        <f t="shared" si="96"/>
+        <v>71589</v>
+      </c>
+      <c r="I170" s="7">
+        <f t="shared" si="97"/>
+        <v>71589</v>
+      </c>
+      <c r="J170" s="8">
+        <f t="shared" si="98"/>
+        <v>2816</v>
+      </c>
+      <c r="K170" s="3">
+        <f t="shared" si="99"/>
+        <v>44183</v>
+      </c>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4">
+        <f t="shared" si="103"/>
+        <v>2850</v>
+      </c>
+      <c r="O170" s="4">
+        <f t="shared" si="100"/>
+        <v>71589</v>
+      </c>
+      <c r="P170" s="4">
+        <f t="shared" si="101"/>
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>44184</v>
+      </c>
+      <c r="B171" s="4">
+        <v>131</v>
+      </c>
+      <c r="C171" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D171" s="4">
+        <f t="shared" si="92"/>
+        <v>59981395</v>
+      </c>
+      <c r="E171" s="4">
+        <f t="shared" si="93"/>
+        <v>2792</v>
+      </c>
+      <c r="F171" s="4">
+        <f t="shared" si="94"/>
+        <v>15813</v>
+      </c>
+      <c r="G171" s="2">
+        <f t="shared" si="95"/>
+        <v>59981395</v>
+      </c>
+      <c r="H171" s="2">
+        <f t="shared" si="96"/>
+        <v>77193</v>
+      </c>
+      <c r="I171" s="7">
+        <f t="shared" si="97"/>
+        <v>77193</v>
+      </c>
+      <c r="J171" s="8">
+        <f t="shared" si="98"/>
+        <v>2759</v>
+      </c>
+      <c r="K171" s="3">
+        <f t="shared" si="99"/>
+        <v>44184</v>
+      </c>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4">
+        <f t="shared" si="103"/>
+        <v>2792</v>
+      </c>
+      <c r="O171" s="4">
+        <f t="shared" si="100"/>
+        <v>77193</v>
+      </c>
+      <c r="P171" s="4">
+        <f t="shared" si="101"/>
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>44185</v>
+      </c>
+      <c r="B172" s="4">
+        <v>132</v>
+      </c>
+      <c r="C172" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D172" s="4">
+        <f t="shared" si="92"/>
+        <v>59981218</v>
+      </c>
+      <c r="E172" s="4">
+        <f t="shared" si="93"/>
+        <v>2736</v>
+      </c>
+      <c r="F172" s="4">
+        <f t="shared" si="94"/>
+        <v>16046</v>
+      </c>
+      <c r="G172" s="2">
+        <f t="shared" si="95"/>
+        <v>59981218</v>
+      </c>
+      <c r="H172" s="2">
+        <f t="shared" si="96"/>
+        <v>83236</v>
+      </c>
+      <c r="I172" s="7">
+        <f t="shared" si="97"/>
+        <v>83236</v>
+      </c>
+      <c r="J172" s="8">
+        <f t="shared" si="98"/>
+        <v>2704</v>
+      </c>
+      <c r="K172" s="3">
+        <f t="shared" si="99"/>
+        <v>44185</v>
+      </c>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4">
+        <f t="shared" si="103"/>
+        <v>2736</v>
+      </c>
+      <c r="O172" s="4">
+        <f t="shared" si="100"/>
+        <v>83236</v>
+      </c>
+      <c r="P172" s="4">
+        <f t="shared" si="101"/>
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B173" s="4">
+        <v>133</v>
+      </c>
+      <c r="C173" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D173" s="4">
+        <f t="shared" si="92"/>
+        <v>59981045</v>
+      </c>
+      <c r="E173" s="4">
+        <f t="shared" si="93"/>
+        <v>2681</v>
+      </c>
+      <c r="F173" s="4">
+        <f t="shared" si="94"/>
+        <v>16274</v>
+      </c>
+      <c r="G173" s="2">
+        <f t="shared" si="95"/>
+        <v>59981045</v>
+      </c>
+      <c r="H173" s="2">
+        <f t="shared" si="96"/>
+        <v>89752</v>
+      </c>
+      <c r="I173" s="7">
+        <f t="shared" si="97"/>
+        <v>89752</v>
+      </c>
+      <c r="J173" s="8">
+        <f t="shared" si="98"/>
+        <v>2650</v>
+      </c>
+      <c r="K173" s="3">
+        <f t="shared" si="99"/>
+        <v>44186</v>
+      </c>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4">
+        <f t="shared" si="103"/>
+        <v>2681</v>
+      </c>
+      <c r="O173" s="4">
+        <f t="shared" si="100"/>
+        <v>89752</v>
+      </c>
+      <c r="P173" s="4">
+        <f t="shared" si="101"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B174" s="4">
+        <v>134</v>
+      </c>
+      <c r="C174" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D174" s="4">
+        <f t="shared" si="92"/>
+        <v>59980875</v>
+      </c>
+      <c r="E174" s="4">
+        <f t="shared" si="93"/>
+        <v>2628</v>
+      </c>
+      <c r="F174" s="4">
+        <f t="shared" si="94"/>
+        <v>16497</v>
+      </c>
+      <c r="G174" s="2">
+        <f t="shared" si="95"/>
+        <v>59980875</v>
+      </c>
+      <c r="H174" s="2">
+        <f t="shared" si="96"/>
+        <v>96778</v>
+      </c>
+      <c r="I174" s="7">
+        <f t="shared" si="97"/>
+        <v>96778</v>
+      </c>
+      <c r="J174" s="8">
+        <f t="shared" si="98"/>
+        <v>2597</v>
+      </c>
+      <c r="K174" s="3">
+        <f t="shared" si="99"/>
+        <v>44187</v>
+      </c>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4">
+        <f t="shared" si="103"/>
+        <v>2628</v>
+      </c>
+      <c r="O174" s="4">
+        <f t="shared" si="100"/>
+        <v>96778</v>
+      </c>
+      <c r="P174" s="4">
+        <f t="shared" si="101"/>
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A175" s="9">
+        <v>44188</v>
+      </c>
+      <c r="B175" s="10">
+        <v>134</v>
+      </c>
+      <c r="C175" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="D175" s="10">
+        <f t="shared" ref="D175:D181" si="104">D174-ROUND((C175/$D$2)*D174*(E174/$D$3),0)</f>
+        <v>59980709</v>
+      </c>
+      <c r="E175" s="10">
+        <f t="shared" ref="E175:E181" si="105">E174+ROUND((C175/$D$2)*D174*(E174/$D$3),0)-ROUND(E174/$D$2,0)</f>
+        <v>2575</v>
+      </c>
+      <c r="F175" s="10">
+        <f t="shared" ref="F175:F181" si="106">F174+ROUND(E174/$D$2,0)</f>
+        <v>16716</v>
+      </c>
+      <c r="G175" s="2">
+        <f t="shared" ref="G175:G181" si="107">D175</f>
+        <v>59980709</v>
+      </c>
+      <c r="H175" s="2">
+        <f t="shared" ref="H175:H181" si="108">H174+ROUND(($D$1/$D$2)*G174*(H174/$D$3),0)-ROUND(H174/$D$2,0)</f>
+        <v>104354</v>
+      </c>
+      <c r="I175" s="7">
+        <f t="shared" ref="I175:I181" si="109">I174+ROUND(($D$1/$D$2)*G174*(I174/$D$3),0)-ROUND(I174/$D$2,0)</f>
+        <v>104354</v>
+      </c>
+      <c r="J175" s="8">
+        <f t="shared" ref="J175:J181" si="110">J174+ROUND(($E$1/$D$2)*G174*(J174/$D$3),0)-ROUND(J174/$D$2,0)</f>
+        <v>2545</v>
+      </c>
+      <c r="K175" s="9">
+        <f t="shared" ref="K175:K181" si="111">A175</f>
+        <v>44188</v>
+      </c>
+      <c r="L175" s="10"/>
+      <c r="M175" s="10"/>
+      <c r="N175" s="10">
+        <f t="shared" ref="N175:N181" si="112">E175</f>
+        <v>2575</v>
+      </c>
+      <c r="O175" s="10">
+        <f t="shared" ref="O175:O181" si="113">I175</f>
+        <v>104354</v>
+      </c>
+      <c r="P175" s="10">
+        <f t="shared" ref="P175:P181" si="114">J175</f>
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A176" s="9">
+        <v>44189</v>
+      </c>
+      <c r="B176" s="10">
+        <v>134</v>
+      </c>
+      <c r="C176" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="D176" s="10">
+        <f t="shared" si="104"/>
+        <v>59980546</v>
+      </c>
+      <c r="E176" s="10">
+        <f t="shared" si="105"/>
+        <v>2523</v>
+      </c>
+      <c r="F176" s="10">
+        <f t="shared" si="106"/>
+        <v>16931</v>
+      </c>
+      <c r="G176" s="2">
+        <f t="shared" si="107"/>
+        <v>59980546</v>
+      </c>
+      <c r="H176" s="2">
+        <f t="shared" si="108"/>
+        <v>112523</v>
+      </c>
+      <c r="I176" s="7">
+        <f t="shared" si="109"/>
+        <v>112523</v>
+      </c>
+      <c r="J176" s="8">
+        <f t="shared" si="110"/>
+        <v>2494</v>
+      </c>
+      <c r="K176" s="9">
+        <f t="shared" si="111"/>
+        <v>44189</v>
+      </c>
+      <c r="L176" s="10"/>
+      <c r="M176" s="10"/>
+      <c r="N176" s="10">
+        <f t="shared" si="112"/>
+        <v>2523</v>
+      </c>
+      <c r="O176" s="10">
+        <f t="shared" si="113"/>
+        <v>112523</v>
+      </c>
+      <c r="P176" s="10">
+        <f t="shared" si="114"/>
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A177" s="9">
+        <v>44190</v>
+      </c>
+      <c r="B177" s="10">
+        <v>134</v>
+      </c>
+      <c r="C177" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="D177" s="10">
+        <f t="shared" si="104"/>
+        <v>59980386</v>
+      </c>
+      <c r="E177" s="10">
+        <f t="shared" si="105"/>
+        <v>2473</v>
+      </c>
+      <c r="F177" s="10">
+        <f t="shared" si="106"/>
+        <v>17141</v>
+      </c>
+      <c r="G177" s="2">
+        <f t="shared" si="107"/>
+        <v>59980386</v>
+      </c>
+      <c r="H177" s="2">
+        <f t="shared" si="108"/>
+        <v>121331</v>
+      </c>
+      <c r="I177" s="7">
+        <f t="shared" si="109"/>
+        <v>121331</v>
+      </c>
+      <c r="J177" s="8">
+        <f t="shared" si="110"/>
+        <v>2444</v>
+      </c>
+      <c r="K177" s="9">
+        <f t="shared" si="111"/>
+        <v>44190</v>
+      </c>
+      <c r="L177" s="10"/>
+      <c r="M177" s="10"/>
+      <c r="N177" s="10">
+        <f t="shared" si="112"/>
+        <v>2473</v>
+      </c>
+      <c r="O177" s="10">
+        <f t="shared" si="113"/>
+        <v>121331</v>
+      </c>
+      <c r="P177" s="10">
+        <f t="shared" si="114"/>
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A178" s="9">
+        <v>44191</v>
+      </c>
+      <c r="B178" s="10">
+        <v>134</v>
+      </c>
+      <c r="C178" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="D178" s="10">
+        <f t="shared" si="104"/>
+        <v>59980229</v>
+      </c>
+      <c r="E178" s="10">
+        <f t="shared" si="105"/>
+        <v>2424</v>
+      </c>
+      <c r="F178" s="10">
+        <f t="shared" si="106"/>
+        <v>17347</v>
+      </c>
+      <c r="G178" s="2">
+        <f t="shared" si="107"/>
+        <v>59980229</v>
+      </c>
+      <c r="H178" s="2">
+        <f t="shared" si="108"/>
+        <v>130829</v>
+      </c>
+      <c r="I178" s="7">
+        <f t="shared" si="109"/>
+        <v>130829</v>
+      </c>
+      <c r="J178" s="8">
+        <f t="shared" si="110"/>
+        <v>2395</v>
+      </c>
+      <c r="K178" s="9">
+        <f t="shared" si="111"/>
+        <v>44191</v>
+      </c>
+      <c r="L178" s="10"/>
+      <c r="M178" s="10"/>
+      <c r="N178" s="10">
+        <f t="shared" si="112"/>
+        <v>2424</v>
+      </c>
+      <c r="O178" s="10">
+        <f t="shared" si="113"/>
+        <v>130829</v>
+      </c>
+      <c r="P178" s="10">
+        <f t="shared" si="114"/>
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A179" s="9">
+        <v>44192</v>
+      </c>
+      <c r="B179" s="10">
+        <v>134</v>
+      </c>
+      <c r="C179" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="D179" s="10">
+        <f t="shared" si="104"/>
+        <v>59980076</v>
+      </c>
+      <c r="E179" s="10">
+        <f t="shared" si="105"/>
+        <v>2375</v>
+      </c>
+      <c r="F179" s="10">
+        <f t="shared" si="106"/>
+        <v>17549</v>
+      </c>
+      <c r="G179" s="2">
+        <f t="shared" si="107"/>
+        <v>59980076</v>
+      </c>
+      <c r="H179" s="2">
+        <f t="shared" si="108"/>
+        <v>141071</v>
+      </c>
+      <c r="I179" s="7">
+        <f t="shared" si="109"/>
+        <v>141071</v>
+      </c>
+      <c r="J179" s="8">
+        <f t="shared" si="110"/>
+        <v>2347</v>
+      </c>
+      <c r="K179" s="9">
+        <f t="shared" si="111"/>
+        <v>44192</v>
+      </c>
+      <c r="L179" s="10"/>
+      <c r="M179" s="10"/>
+      <c r="N179" s="10">
+        <f t="shared" si="112"/>
+        <v>2375</v>
+      </c>
+      <c r="O179" s="10">
+        <f t="shared" si="113"/>
+        <v>141071</v>
+      </c>
+      <c r="P179" s="10">
+        <f t="shared" si="114"/>
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A180" s="9">
+        <v>44193</v>
+      </c>
+      <c r="B180" s="10">
+        <v>134</v>
+      </c>
+      <c r="C180" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="D180" s="10">
+        <f t="shared" si="104"/>
+        <v>59979926</v>
+      </c>
+      <c r="E180" s="10">
+        <f t="shared" si="105"/>
+        <v>2327</v>
+      </c>
+      <c r="F180" s="10">
+        <f t="shared" si="106"/>
+        <v>17747</v>
+      </c>
+      <c r="G180" s="2">
+        <f t="shared" si="107"/>
+        <v>59979926</v>
+      </c>
+      <c r="H180" s="2">
+        <f t="shared" si="108"/>
+        <v>152114</v>
+      </c>
+      <c r="I180" s="7">
+        <f t="shared" si="109"/>
+        <v>152114</v>
+      </c>
+      <c r="J180" s="8">
+        <f t="shared" si="110"/>
+        <v>2300</v>
+      </c>
+      <c r="K180" s="9">
+        <f t="shared" si="111"/>
+        <v>44193</v>
+      </c>
+      <c r="L180" s="10"/>
+      <c r="M180" s="10"/>
+      <c r="N180" s="10">
+        <f t="shared" si="112"/>
+        <v>2327</v>
+      </c>
+      <c r="O180" s="10">
+        <f t="shared" si="113"/>
+        <v>152114</v>
+      </c>
+      <c r="P180" s="10">
+        <f t="shared" si="114"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A181" s="9">
+        <v>44194</v>
+      </c>
+      <c r="B181" s="10">
+        <v>134</v>
+      </c>
+      <c r="C181" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="D181" s="10">
+        <f t="shared" si="104"/>
+        <v>59979779</v>
+      </c>
+      <c r="E181" s="10">
+        <f t="shared" si="105"/>
+        <v>2280</v>
+      </c>
+      <c r="F181" s="10">
+        <f t="shared" si="106"/>
+        <v>17941</v>
+      </c>
+      <c r="G181" s="2">
+        <f t="shared" si="107"/>
+        <v>59979779</v>
+      </c>
+      <c r="H181" s="2">
+        <f t="shared" si="108"/>
+        <v>164022</v>
+      </c>
+      <c r="I181" s="7">
+        <f t="shared" si="109"/>
+        <v>164022</v>
+      </c>
+      <c r="J181" s="8">
+        <f t="shared" si="110"/>
+        <v>2254</v>
+      </c>
+      <c r="K181" s="9">
+        <f t="shared" si="111"/>
+        <v>44194</v>
+      </c>
+      <c r="L181" s="10"/>
+      <c r="M181" s="10"/>
+      <c r="N181" s="10">
+        <f t="shared" si="112"/>
+        <v>2280</v>
+      </c>
+      <c r="O181" s="10">
+        <f t="shared" si="113"/>
+        <v>164022</v>
+      </c>
+      <c r="P181" s="10">
+        <f t="shared" si="114"/>
+        <v>2254</v>
       </c>
     </row>
   </sheetData>

--- a/COVID_EXCEL/COVID III.xlsx
+++ b/COVID_EXCEL/COVID III.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u093799\Documents\GitHub\COVID-19\COVID_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23B3307-84D7-4868-8C21-FC020964C756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687FA199-A417-4E5A-B8CF-36A630D7FC1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{4377578F-4DE2-4D7D-A4C8-86901BC845F0}"/>
   </bookViews>
@@ -1084,6 +1084,15 @@
                 <c:pt idx="120">
                   <c:v>2586</c:v>
                 </c:pt>
+                <c:pt idx="121">
+                  <c:v>2592</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2598</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2613</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1929,6 +1938,15 @@
                 <c:pt idx="120">
                   <c:v>2587</c:v>
                 </c:pt>
+                <c:pt idx="121">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2593</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2615</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2804,22 +2822,22 @@
                   <c:v>860838</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>928211</c:v>
+                  <c:v>928210</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1000857</c:v>
+                  <c:v>1000855</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1079187</c:v>
+                  <c:v>1079185</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1163648</c:v>
+                  <c:v>1163645</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1254717</c:v>
+                  <c:v>1254714</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1352913</c:v>
+                  <c:v>1352909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4197,55 +4215,55 @@
                   <c:v>2598</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2604</c:v>
+                  <c:v>2613</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2610</c:v>
+                  <c:v>2628</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2616</c:v>
+                  <c:v>2643</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2622</c:v>
+                  <c:v>2659</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2628</c:v>
+                  <c:v>2674</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2634</c:v>
+                  <c:v>2689</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2640</c:v>
+                  <c:v>2705</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2647</c:v>
+                  <c:v>2721</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2653</c:v>
+                  <c:v>2737</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2660</c:v>
+                  <c:v>2753</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2666</c:v>
+                  <c:v>2769</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2673</c:v>
+                  <c:v>2785</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2679</c:v>
+                  <c:v>2801</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2686</c:v>
+                  <c:v>2818</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2692</c:v>
+                  <c:v>2834</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2699</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2706</c:v>
+                  <c:v>2867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8040,6 +8058,15 @@
                 <c:pt idx="184">
                   <c:v>2586</c:v>
                 </c:pt>
+                <c:pt idx="185">
+                  <c:v>2592</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2598</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2613</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9267,6 +9294,15 @@
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2593</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10738,6 +10774,15 @@
                 <c:pt idx="184">
                   <c:v>2586</c:v>
                 </c:pt>
+                <c:pt idx="185">
+                  <c:v>2592</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2598</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2613</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11915,6 +11960,15 @@
                 <c:pt idx="184">
                   <c:v>2587</c:v>
                 </c:pt>
+                <c:pt idx="185">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2593</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2615</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12547,13 +12601,13 @@
                   <c:v>2598</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2604</c:v>
+                  <c:v>2613</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2610</c:v>
+                  <c:v>2628</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2616</c:v>
+                  <c:v>2643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14045,6 +14099,15 @@
                 <c:pt idx="184">
                   <c:v>2586</c:v>
                 </c:pt>
+                <c:pt idx="185">
+                  <c:v>2592</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2598</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2613</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15243,6 +15306,15 @@
                 <c:pt idx="184">
                   <c:v>2587</c:v>
                 </c:pt>
+                <c:pt idx="185">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2593</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2615</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -15896,34 +15968,34 @@
                   <c:v>2598</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2604</c:v>
+                  <c:v>2613</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2610</c:v>
+                  <c:v>2628</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2616</c:v>
+                  <c:v>2643</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2622</c:v>
+                  <c:v>2659</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2628</c:v>
+                  <c:v>2674</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2634</c:v>
+                  <c:v>2689</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2640</c:v>
+                  <c:v>2705</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2647</c:v>
+                  <c:v>2721</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2653</c:v>
+                  <c:v>2737</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2660</c:v>
+                  <c:v>2753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16851,6 +16923,15 @@
                 <c:pt idx="88">
                   <c:v>2586</c:v>
                 </c:pt>
+                <c:pt idx="89">
+                  <c:v>2592</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2598</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2613</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17504,6 +17585,15 @@
                 <c:pt idx="88">
                   <c:v>2587</c:v>
                 </c:pt>
+                <c:pt idx="89">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2593</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2615</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -18187,22 +18277,22 @@
                   <c:v>860838</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>928211</c:v>
+                  <c:v>928210</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1000857</c:v>
+                  <c:v>1000855</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1079187</c:v>
+                  <c:v>1079185</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1163648</c:v>
+                  <c:v>1163645</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1254717</c:v>
+                  <c:v>1254714</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1352913</c:v>
+                  <c:v>1352909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19290,55 +19380,55 @@
                   <c:v>2598</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2604</c:v>
+                  <c:v>2613</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2610</c:v>
+                  <c:v>2628</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2616</c:v>
+                  <c:v>2643</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2622</c:v>
+                  <c:v>2659</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2628</c:v>
+                  <c:v>2674</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2634</c:v>
+                  <c:v>2689</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2640</c:v>
+                  <c:v>2705</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2647</c:v>
+                  <c:v>2721</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2653</c:v>
+                  <c:v>2737</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2660</c:v>
+                  <c:v>2753</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2666</c:v>
+                  <c:v>2769</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2673</c:v>
+                  <c:v>2785</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2679</c:v>
+                  <c:v>2801</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2686</c:v>
+                  <c:v>2818</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2692</c:v>
+                  <c:v>2834</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2699</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2706</c:v>
+                  <c:v>2867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20246,55 +20336,55 @@
                   <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.03</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20343,7 +20433,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -32341,10 +32431,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ECC772-9D54-48D6-A63B-745C3F43084A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:K187"/>
+  <dimension ref="A2:K190"/>
   <sheetViews>
     <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165:A187"/>
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33847,6 +33937,30 @@
         <v>2587</v>
       </c>
     </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B188">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B189">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B190">
+        <v>2615</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33858,8 +33972,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AR34" sqref="AR34"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K198" sqref="K198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44412,7 +44526,7 @@
         <v>2587</v>
       </c>
       <c r="N190" s="10">
-        <f t="shared" ref="N189:N209" si="128">E190</f>
+        <f t="shared" ref="N190:N209" si="128">E190</f>
         <v>2586</v>
       </c>
       <c r="O190" s="10">
@@ -44467,8 +44581,14 @@
         <f t="shared" si="125"/>
         <v>44204</v>
       </c>
-      <c r="L191" s="10"/>
-      <c r="M191" s="10"/>
+      <c r="L191" s="10">
+        <f t="shared" ref="L191:L194" si="129">E191</f>
+        <v>2592</v>
+      </c>
+      <c r="M191" s="10">
+        <f>RealData!B188</f>
+        <v>2587</v>
+      </c>
       <c r="N191" s="10">
         <f t="shared" si="128"/>
         <v>2592</v>
@@ -44525,8 +44645,14 @@
         <f t="shared" si="125"/>
         <v>44205</v>
       </c>
-      <c r="L192" s="10"/>
-      <c r="M192" s="10"/>
+      <c r="L192" s="10">
+        <f t="shared" si="129"/>
+        <v>2598</v>
+      </c>
+      <c r="M192" s="10">
+        <f>RealData!B189</f>
+        <v>2593</v>
+      </c>
       <c r="N192" s="10">
         <f t="shared" si="128"/>
         <v>2598</v>
@@ -44549,15 +44675,15 @@
         <v>188</v>
       </c>
       <c r="C193" s="10">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D193" s="10">
         <f t="shared" si="118"/>
-        <v>59976825</v>
+        <v>59976816</v>
       </c>
       <c r="E193" s="10">
         <f t="shared" si="119"/>
-        <v>2604</v>
+        <v>2613</v>
       </c>
       <c r="F193" s="10">
         <f t="shared" si="120"/>
@@ -44565,7 +44691,7 @@
       </c>
       <c r="G193" s="2">
         <f t="shared" si="121"/>
-        <v>59976825</v>
+        <v>59976816</v>
       </c>
       <c r="H193" s="2">
         <f t="shared" si="122"/>
@@ -44583,11 +44709,17 @@
         <f t="shared" si="125"/>
         <v>44206</v>
       </c>
-      <c r="L193" s="10"/>
-      <c r="M193" s="10"/>
+      <c r="L193" s="10">
+        <f t="shared" si="129"/>
+        <v>2613</v>
+      </c>
+      <c r="M193" s="10">
+        <f>RealData!B190</f>
+        <v>2615</v>
+      </c>
       <c r="N193" s="10">
         <f t="shared" si="128"/>
-        <v>2604</v>
+        <v>2613</v>
       </c>
       <c r="O193" s="10">
         <f t="shared" si="126"/>
@@ -44607,23 +44739,23 @@
         <v>189</v>
       </c>
       <c r="C194" s="10">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D194" s="10">
         <f t="shared" si="118"/>
-        <v>59976602</v>
+        <v>59976583</v>
       </c>
       <c r="E194" s="10">
         <f t="shared" si="119"/>
-        <v>2610</v>
+        <v>2628</v>
       </c>
       <c r="F194" s="10">
         <f t="shared" si="120"/>
-        <v>20788</v>
+        <v>20789</v>
       </c>
       <c r="G194" s="2">
         <f t="shared" si="121"/>
-        <v>59976602</v>
+        <v>59976583</v>
       </c>
       <c r="H194" s="2">
         <f t="shared" si="122"/>
@@ -44645,7 +44777,7 @@
       <c r="M194" s="10"/>
       <c r="N194" s="10">
         <f t="shared" si="128"/>
-        <v>2610</v>
+        <v>2628</v>
       </c>
       <c r="O194" s="10">
         <f t="shared" si="126"/>
@@ -44665,23 +44797,23 @@
         <v>190</v>
       </c>
       <c r="C195" s="10">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D195" s="10">
         <f t="shared" si="118"/>
-        <v>59976378</v>
+        <v>59976349</v>
       </c>
       <c r="E195" s="10">
         <f t="shared" si="119"/>
-        <v>2616</v>
+        <v>2643</v>
       </c>
       <c r="F195" s="10">
         <f t="shared" si="120"/>
-        <v>21006</v>
+        <v>21008</v>
       </c>
       <c r="G195" s="2">
         <f t="shared" si="121"/>
-        <v>59976378</v>
+        <v>59976349</v>
       </c>
       <c r="H195" s="2">
         <f t="shared" si="122"/>
@@ -44703,7 +44835,7 @@
       <c r="M195" s="10"/>
       <c r="N195" s="10">
         <f t="shared" si="128"/>
-        <v>2616</v>
+        <v>2643</v>
       </c>
       <c r="O195" s="10">
         <f t="shared" si="126"/>
@@ -44719,27 +44851,27 @@
         <v>44209</v>
       </c>
       <c r="B196" s="4">
-        <f t="shared" ref="B196:B209" si="129">B195+1</f>
+        <f t="shared" ref="B196:B209" si="130">B195+1</f>
         <v>191</v>
       </c>
       <c r="C196" s="4">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D196" s="4">
         <f t="shared" si="118"/>
-        <v>59976154</v>
+        <v>59976113</v>
       </c>
       <c r="E196" s="4">
         <f t="shared" si="119"/>
-        <v>2622</v>
+        <v>2659</v>
       </c>
       <c r="F196" s="4">
         <f t="shared" si="120"/>
-        <v>21224</v>
+        <v>21228</v>
       </c>
       <c r="G196" s="2">
         <f t="shared" si="121"/>
-        <v>59976154</v>
+        <v>59976113</v>
       </c>
       <c r="H196" s="2">
         <f t="shared" si="122"/>
@@ -44761,7 +44893,7 @@
       <c r="M196" s="4"/>
       <c r="N196" s="4">
         <f t="shared" si="128"/>
-        <v>2622</v>
+        <v>2659</v>
       </c>
       <c r="O196" s="4">
         <f t="shared" si="126"/>
@@ -44777,27 +44909,27 @@
         <v>44210</v>
       </c>
       <c r="B197" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>192</v>
       </c>
       <c r="C197" s="4">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D197" s="4">
         <f t="shared" si="118"/>
-        <v>59975929</v>
+        <v>59975876</v>
       </c>
       <c r="E197" s="4">
         <f t="shared" si="119"/>
-        <v>2628</v>
+        <v>2674</v>
       </c>
       <c r="F197" s="4">
         <f t="shared" si="120"/>
-        <v>21443</v>
+        <v>21450</v>
       </c>
       <c r="G197" s="2">
         <f t="shared" si="121"/>
-        <v>59975929</v>
+        <v>59975876</v>
       </c>
       <c r="H197" s="2">
         <f t="shared" si="122"/>
@@ -44819,7 +44951,7 @@
       <c r="M197" s="4"/>
       <c r="N197" s="4">
         <f t="shared" si="128"/>
-        <v>2628</v>
+        <v>2674</v>
       </c>
       <c r="O197" s="4">
         <f t="shared" si="126"/>
@@ -44835,27 +44967,27 @@
         <v>44211</v>
       </c>
       <c r="B198" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>193</v>
       </c>
       <c r="C198" s="4">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D198" s="4">
         <f t="shared" si="118"/>
-        <v>59975704</v>
+        <v>59975638</v>
       </c>
       <c r="E198" s="4">
         <f t="shared" si="119"/>
-        <v>2634</v>
+        <v>2689</v>
       </c>
       <c r="F198" s="4">
         <f t="shared" si="120"/>
-        <v>21662</v>
+        <v>21673</v>
       </c>
       <c r="G198" s="2">
         <f t="shared" si="121"/>
-        <v>59975704</v>
+        <v>59975638</v>
       </c>
       <c r="H198" s="2">
         <f t="shared" si="122"/>
@@ -44877,7 +45009,7 @@
       <c r="M198" s="4"/>
       <c r="N198" s="4">
         <f t="shared" si="128"/>
-        <v>2634</v>
+        <v>2689</v>
       </c>
       <c r="O198" s="4">
         <f t="shared" si="126"/>
@@ -44893,27 +45025,27 @@
         <v>44212</v>
       </c>
       <c r="B199" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>194</v>
       </c>
       <c r="C199" s="4">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D199" s="4">
         <f t="shared" si="118"/>
-        <v>59975478</v>
+        <v>59975398</v>
       </c>
       <c r="E199" s="4">
         <f t="shared" si="119"/>
-        <v>2640</v>
+        <v>2705</v>
       </c>
       <c r="F199" s="4">
         <f t="shared" si="120"/>
-        <v>21882</v>
+        <v>21897</v>
       </c>
       <c r="G199" s="2">
         <f t="shared" si="121"/>
-        <v>59975478</v>
+        <v>59975398</v>
       </c>
       <c r="H199" s="2">
         <f t="shared" si="122"/>
@@ -44935,7 +45067,7 @@
       <c r="M199" s="4"/>
       <c r="N199" s="4">
         <f t="shared" si="128"/>
-        <v>2640</v>
+        <v>2705</v>
       </c>
       <c r="O199" s="4">
         <f t="shared" si="126"/>
@@ -44951,27 +45083,27 @@
         <v>44213</v>
       </c>
       <c r="B200" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>195</v>
       </c>
       <c r="C200" s="4">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D200" s="4">
         <f t="shared" si="118"/>
-        <v>59975251</v>
+        <v>59975157</v>
       </c>
       <c r="E200" s="4">
         <f t="shared" si="119"/>
-        <v>2647</v>
+        <v>2721</v>
       </c>
       <c r="F200" s="4">
         <f t="shared" si="120"/>
-        <v>22102</v>
+        <v>22122</v>
       </c>
       <c r="G200" s="2">
         <f t="shared" si="121"/>
-        <v>59975251</v>
+        <v>59975157</v>
       </c>
       <c r="H200" s="2">
         <f t="shared" si="122"/>
@@ -44993,7 +45125,7 @@
       <c r="M200" s="4"/>
       <c r="N200" s="4">
         <f t="shared" si="128"/>
-        <v>2647</v>
+        <v>2721</v>
       </c>
       <c r="O200" s="4">
         <f t="shared" si="126"/>
@@ -45009,27 +45141,27 @@
         <v>44214</v>
       </c>
       <c r="B201" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>196</v>
       </c>
       <c r="C201" s="4">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D201" s="4">
         <f t="shared" si="118"/>
-        <v>59975024</v>
+        <v>59974914</v>
       </c>
       <c r="E201" s="4">
         <f t="shared" si="119"/>
-        <v>2653</v>
+        <v>2737</v>
       </c>
       <c r="F201" s="4">
         <f t="shared" si="120"/>
-        <v>22323</v>
+        <v>22349</v>
       </c>
       <c r="G201" s="2">
         <f t="shared" si="121"/>
-        <v>59975024</v>
+        <v>59974914</v>
       </c>
       <c r="H201" s="2">
         <f t="shared" si="122"/>
@@ -45051,7 +45183,7 @@
       <c r="M201" s="4"/>
       <c r="N201" s="4">
         <f t="shared" si="128"/>
-        <v>2653</v>
+        <v>2737</v>
       </c>
       <c r="O201" s="4">
         <f t="shared" si="126"/>
@@ -45067,27 +45199,27 @@
         <v>44215</v>
       </c>
       <c r="B202" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>197</v>
       </c>
       <c r="C202" s="4">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D202" s="4">
         <f t="shared" si="118"/>
-        <v>59974796</v>
+        <v>59974670</v>
       </c>
       <c r="E202" s="4">
         <f t="shared" si="119"/>
-        <v>2660</v>
+        <v>2753</v>
       </c>
       <c r="F202" s="4">
         <f t="shared" si="120"/>
-        <v>22544</v>
+        <v>22577</v>
       </c>
       <c r="G202" s="2">
         <f t="shared" si="121"/>
-        <v>59974796</v>
+        <v>59974670</v>
       </c>
       <c r="H202" s="2">
         <f t="shared" si="122"/>
@@ -45109,7 +45241,7 @@
       <c r="M202" s="4"/>
       <c r="N202" s="4">
         <f t="shared" si="128"/>
-        <v>2660</v>
+        <v>2753</v>
       </c>
       <c r="O202" s="4">
         <f t="shared" si="126"/>
@@ -45125,56 +45257,56 @@
         <v>44216</v>
       </c>
       <c r="B203" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>198</v>
       </c>
       <c r="C203" s="10">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D203" s="10">
-        <f t="shared" ref="D203:D209" si="130">D202-ROUND((C203/$D$2)*D202*(E202/$D$3),0)</f>
-        <v>59974568</v>
+        <f t="shared" ref="D203:D209" si="131">D202-ROUND((C203/$D$2)*D202*(E202/$D$3),0)</f>
+        <v>59974425</v>
       </c>
       <c r="E203" s="10">
-        <f t="shared" ref="E203:E209" si="131">E202+ROUND((C203/$D$2)*D202*(E202/$D$3),0)-ROUND(E202/$D$2,0)</f>
-        <v>2666</v>
+        <f t="shared" ref="E203:E209" si="132">E202+ROUND((C203/$D$2)*D202*(E202/$D$3),0)-ROUND(E202/$D$2,0)</f>
+        <v>2769</v>
       </c>
       <c r="F203" s="10">
-        <f t="shared" ref="F203:F209" si="132">F202+ROUND(E202/$D$2,0)</f>
-        <v>22766</v>
+        <f t="shared" ref="F203:F209" si="133">F202+ROUND(E202/$D$2,0)</f>
+        <v>22806</v>
       </c>
       <c r="G203" s="2">
-        <f t="shared" ref="G203:G209" si="133">D203</f>
-        <v>59974568</v>
+        <f t="shared" ref="G203:G209" si="134">D203</f>
+        <v>59974425</v>
       </c>
       <c r="H203" s="2">
-        <f t="shared" ref="H203:H209" si="134">H202+ROUND(($D$1/$D$2)*G202*(H202/$D$3),0)-ROUND(H202/$D$2,0)</f>
+        <f t="shared" ref="H203:H209" si="135">H202+ROUND(($D$1/$D$2)*G202*(H202/$D$3),0)-ROUND(H202/$D$2,0)</f>
         <v>860838</v>
       </c>
       <c r="I203" s="7">
-        <f t="shared" ref="I203:I209" si="135">I202+ROUND(($D$1/$D$2)*G202*(I202/$D$3),0)-ROUND(I202/$D$2,0)</f>
+        <f t="shared" ref="I203:I209" si="136">I202+ROUND(($D$1/$D$2)*G202*(I202/$D$3),0)-ROUND(I202/$D$2,0)</f>
         <v>860838</v>
       </c>
       <c r="J203" s="8">
-        <f t="shared" ref="J203:J209" si="136">J202+ROUND(($E$1/$D$2)*G202*(J202/$D$3),0)-ROUND(J202/$D$2,0)</f>
+        <f t="shared" ref="J203:J209" si="137">J202+ROUND(($E$1/$D$2)*G202*(J202/$D$3),0)-ROUND(J202/$D$2,0)</f>
         <v>1733</v>
       </c>
       <c r="K203" s="9">
-        <f t="shared" ref="K203:K209" si="137">A203</f>
+        <f t="shared" ref="K203:K209" si="138">A203</f>
         <v>44216</v>
       </c>
       <c r="L203" s="10"/>
       <c r="M203" s="10"/>
       <c r="N203" s="10">
         <f t="shared" si="128"/>
-        <v>2666</v>
+        <v>2769</v>
       </c>
       <c r="O203" s="10">
-        <f t="shared" ref="O203:O209" si="138">I203</f>
+        <f t="shared" ref="O203:O209" si="139">I203</f>
         <v>860838</v>
       </c>
       <c r="P203" s="10">
-        <f t="shared" ref="P203:P209" si="139">J203</f>
+        <f t="shared" ref="P203:P209" si="140">J203</f>
         <v>1733</v>
       </c>
     </row>
@@ -45183,56 +45315,56 @@
         <v>44217</v>
       </c>
       <c r="B204" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>199</v>
       </c>
       <c r="C204" s="10">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D204" s="10">
-        <f t="shared" si="130"/>
-        <v>59974339</v>
+        <f t="shared" si="131"/>
+        <v>59974178</v>
       </c>
       <c r="E204" s="10">
-        <f t="shared" si="131"/>
-        <v>2673</v>
+        <f t="shared" si="132"/>
+        <v>2785</v>
       </c>
       <c r="F204" s="10">
-        <f t="shared" si="132"/>
-        <v>22988</v>
+        <f t="shared" si="133"/>
+        <v>23037</v>
       </c>
       <c r="G204" s="2">
-        <f t="shared" si="133"/>
-        <v>59974339</v>
+        <f t="shared" si="134"/>
+        <v>59974178</v>
       </c>
       <c r="H204" s="2">
-        <f t="shared" si="134"/>
-        <v>928211</v>
+        <f t="shared" si="135"/>
+        <v>928210</v>
       </c>
       <c r="I204" s="7">
-        <f t="shared" si="135"/>
-        <v>928211</v>
+        <f t="shared" si="136"/>
+        <v>928210</v>
       </c>
       <c r="J204" s="8">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>1707</v>
       </c>
       <c r="K204" s="9">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>44217</v>
       </c>
       <c r="L204" s="10"/>
       <c r="M204" s="10"/>
       <c r="N204" s="10">
         <f t="shared" si="128"/>
-        <v>2673</v>
+        <v>2785</v>
       </c>
       <c r="O204" s="10">
-        <f t="shared" si="138"/>
-        <v>928211</v>
+        <f t="shared" si="139"/>
+        <v>928210</v>
       </c>
       <c r="P204" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>1707</v>
       </c>
     </row>
@@ -45241,56 +45373,56 @@
         <v>44218</v>
       </c>
       <c r="B205" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>200</v>
       </c>
       <c r="C205" s="10">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D205" s="10">
-        <f t="shared" si="130"/>
-        <v>59974110</v>
+        <f t="shared" si="131"/>
+        <v>59973930</v>
       </c>
       <c r="E205" s="10">
-        <f t="shared" si="131"/>
-        <v>2679</v>
+        <f t="shared" si="132"/>
+        <v>2801</v>
       </c>
       <c r="F205" s="10">
-        <f t="shared" si="132"/>
-        <v>23211</v>
+        <f t="shared" si="133"/>
+        <v>23269</v>
       </c>
       <c r="G205" s="2">
-        <f t="shared" si="133"/>
-        <v>59974110</v>
+        <f t="shared" si="134"/>
+        <v>59973930</v>
       </c>
       <c r="H205" s="2">
-        <f t="shared" si="134"/>
-        <v>1000857</v>
+        <f t="shared" si="135"/>
+        <v>1000855</v>
       </c>
       <c r="I205" s="7">
-        <f t="shared" si="135"/>
-        <v>1000857</v>
+        <f t="shared" si="136"/>
+        <v>1000855</v>
       </c>
       <c r="J205" s="8">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>1682</v>
       </c>
       <c r="K205" s="9">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>44218</v>
       </c>
       <c r="L205" s="10"/>
       <c r="M205" s="10"/>
       <c r="N205" s="10">
         <f t="shared" si="128"/>
-        <v>2679</v>
+        <v>2801</v>
       </c>
       <c r="O205" s="10">
-        <f t="shared" si="138"/>
-        <v>1000857</v>
+        <f t="shared" si="139"/>
+        <v>1000855</v>
       </c>
       <c r="P205" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>1682</v>
       </c>
     </row>
@@ -45299,56 +45431,56 @@
         <v>44219</v>
       </c>
       <c r="B206" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>201</v>
       </c>
       <c r="C206" s="10">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D206" s="10">
-        <f t="shared" si="130"/>
-        <v>59973880</v>
+        <f t="shared" si="131"/>
+        <v>59973680</v>
       </c>
       <c r="E206" s="10">
-        <f t="shared" si="131"/>
-        <v>2686</v>
+        <f t="shared" si="132"/>
+        <v>2818</v>
       </c>
       <c r="F206" s="10">
-        <f t="shared" si="132"/>
-        <v>23434</v>
+        <f t="shared" si="133"/>
+        <v>23502</v>
       </c>
       <c r="G206" s="2">
-        <f t="shared" si="133"/>
-        <v>59973880</v>
+        <f t="shared" si="134"/>
+        <v>59973680</v>
       </c>
       <c r="H206" s="2">
-        <f t="shared" si="134"/>
-        <v>1079187</v>
+        <f t="shared" si="135"/>
+        <v>1079185</v>
       </c>
       <c r="I206" s="7">
-        <f t="shared" si="135"/>
-        <v>1079187</v>
+        <f t="shared" si="136"/>
+        <v>1079185</v>
       </c>
       <c r="J206" s="8">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>1657</v>
       </c>
       <c r="K206" s="9">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>44219</v>
       </c>
       <c r="L206" s="10"/>
       <c r="M206" s="10"/>
       <c r="N206" s="10">
         <f t="shared" si="128"/>
-        <v>2686</v>
+        <v>2818</v>
       </c>
       <c r="O206" s="10">
-        <f t="shared" si="138"/>
-        <v>1079187</v>
+        <f t="shared" si="139"/>
+        <v>1079185</v>
       </c>
       <c r="P206" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>1657</v>
       </c>
     </row>
@@ -45357,56 +45489,56 @@
         <v>44220</v>
       </c>
       <c r="B207" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>202</v>
       </c>
       <c r="C207" s="10">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D207" s="10">
-        <f t="shared" si="130"/>
-        <v>59973650</v>
+        <f t="shared" si="131"/>
+        <v>59973429</v>
       </c>
       <c r="E207" s="10">
-        <f t="shared" si="131"/>
-        <v>2692</v>
+        <f t="shared" si="132"/>
+        <v>2834</v>
       </c>
       <c r="F207" s="10">
-        <f t="shared" si="132"/>
-        <v>23658</v>
+        <f t="shared" si="133"/>
+        <v>23737</v>
       </c>
       <c r="G207" s="2">
-        <f t="shared" si="133"/>
-        <v>59973650</v>
+        <f t="shared" si="134"/>
+        <v>59973429</v>
       </c>
       <c r="H207" s="2">
-        <f t="shared" si="134"/>
-        <v>1163648</v>
+        <f t="shared" si="135"/>
+        <v>1163645</v>
       </c>
       <c r="I207" s="7">
-        <f t="shared" si="135"/>
-        <v>1163648</v>
+        <f t="shared" si="136"/>
+        <v>1163645</v>
       </c>
       <c r="J207" s="8">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>1632</v>
       </c>
       <c r="K207" s="9">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>44220</v>
       </c>
       <c r="L207" s="10"/>
       <c r="M207" s="10"/>
       <c r="N207" s="10">
         <f t="shared" si="128"/>
-        <v>2692</v>
+        <v>2834</v>
       </c>
       <c r="O207" s="10">
-        <f t="shared" si="138"/>
-        <v>1163648</v>
+        <f t="shared" si="139"/>
+        <v>1163645</v>
       </c>
       <c r="P207" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>1632</v>
       </c>
     </row>
@@ -45415,56 +45547,56 @@
         <v>44221</v>
       </c>
       <c r="B208" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>203</v>
       </c>
       <c r="C208" s="10">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D208" s="10">
-        <f t="shared" si="130"/>
-        <v>59973419</v>
+        <f t="shared" si="131"/>
+        <v>59973176</v>
       </c>
       <c r="E208" s="10">
-        <f t="shared" si="131"/>
-        <v>2699</v>
+        <f t="shared" si="132"/>
+        <v>2851</v>
       </c>
       <c r="F208" s="10">
-        <f t="shared" si="132"/>
-        <v>23882</v>
+        <f t="shared" si="133"/>
+        <v>23973</v>
       </c>
       <c r="G208" s="2">
-        <f t="shared" si="133"/>
-        <v>59973419</v>
+        <f t="shared" si="134"/>
+        <v>59973176</v>
       </c>
       <c r="H208" s="2">
-        <f t="shared" si="134"/>
-        <v>1254717</v>
+        <f t="shared" si="135"/>
+        <v>1254714</v>
       </c>
       <c r="I208" s="7">
-        <f t="shared" si="135"/>
-        <v>1254717</v>
+        <f t="shared" si="136"/>
+        <v>1254714</v>
       </c>
       <c r="J208" s="8">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>1607</v>
       </c>
       <c r="K208" s="9">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>44221</v>
       </c>
       <c r="L208" s="10"/>
       <c r="M208" s="10"/>
       <c r="N208" s="10">
         <f t="shared" si="128"/>
-        <v>2699</v>
+        <v>2851</v>
       </c>
       <c r="O208" s="10">
-        <f t="shared" si="138"/>
-        <v>1254717</v>
+        <f t="shared" si="139"/>
+        <v>1254714</v>
       </c>
       <c r="P208" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>1607</v>
       </c>
     </row>
@@ -45473,56 +45605,56 @@
         <v>44222</v>
       </c>
       <c r="B209" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>204</v>
       </c>
       <c r="C209" s="10">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D209" s="10">
-        <f t="shared" si="130"/>
-        <v>59973187</v>
+        <f t="shared" si="131"/>
+        <v>59972922</v>
       </c>
       <c r="E209" s="10">
-        <f t="shared" si="131"/>
-        <v>2706</v>
+        <f t="shared" si="132"/>
+        <v>2867</v>
       </c>
       <c r="F209" s="10">
-        <f t="shared" si="132"/>
-        <v>24107</v>
+        <f t="shared" si="133"/>
+        <v>24211</v>
       </c>
       <c r="G209" s="2">
-        <f t="shared" si="133"/>
-        <v>59973187</v>
+        <f t="shared" si="134"/>
+        <v>59972922</v>
       </c>
       <c r="H209" s="2">
-        <f t="shared" si="134"/>
-        <v>1352913</v>
+        <f t="shared" si="135"/>
+        <v>1352909</v>
       </c>
       <c r="I209" s="7">
-        <f t="shared" si="135"/>
-        <v>1352913</v>
+        <f t="shared" si="136"/>
+        <v>1352909</v>
       </c>
       <c r="J209" s="8">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>1583</v>
       </c>
       <c r="K209" s="9">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>44222</v>
       </c>
       <c r="L209" s="10"/>
       <c r="M209" s="10"/>
       <c r="N209" s="10">
         <f t="shared" si="128"/>
-        <v>2706</v>
+        <v>2867</v>
       </c>
       <c r="O209" s="10">
-        <f t="shared" si="138"/>
-        <v>1352913</v>
+        <f t="shared" si="139"/>
+        <v>1352909</v>
       </c>
       <c r="P209" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>1583</v>
       </c>
     </row>
